--- a/Reference/CAD_Label_to_SDS.xlsx
+++ b/Reference/CAD_Label_to_SDS.xlsx
@@ -658,6 +658,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>antenna_area</t>
     </r>
@@ -1429,6 +1430,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>_area</t>
     </r>
@@ -1909,6 +1911,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>_area</t>
     </r>
@@ -2207,14 +2210,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -2955,9 +2961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L239" sqref="L239"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N241" sqref="N241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2971,7 +2977,7 @@
     <col min="7" max="7" width="5" style="4" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="4" customWidth="1"/>
     <col min="9" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="31.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" style="4" customWidth="1"/>
     <col min="14" max="14" width="134.140625" style="4" customWidth="1"/>
@@ -3063,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="9" t="str">
-        <f>IF(ISBLANK(I2),"No Value",IF(I2=0,"Solid",IF(I2=1,"Dotted",IF(I2=2,"Medium-Dashed",IF(I2=3,"LongDashed",IF(I2=4,"LongDashed Dot Dot",IF(I2=6,"Medium-Dashed Dot Dot",IF(I2=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H2:H65" si="0">IF(ISBLANK(I2),"No Value",IF(I2=0,"Solid",IF(I2=1,"Dotted",IF(I2=2,"Medium-Dashed",IF(I2=3,"LongDashed",IF(I2=4,"LongDashed Dot Dot",IF(I2=6,"Medium-Dashed Dot Dot",IF(I2=7,"Solid Medium-Dashed" ))))))))</f>
         <v>Solid</v>
       </c>
       <c r="I2" s="6">
@@ -3079,12 +3085,12 @@
         <v>473</v>
       </c>
       <c r="M2" s="27" t="str">
-        <f>IF(ISBLANK(A2),L2, CONCATENATE(L2,"_",A2))</f>
+        <f t="shared" ref="M2:M65" si="1">IF(ISBLANK(A2),L2, CONCATENATE(L2,"_",A2))</f>
         <v>control_point_HVP</v>
       </c>
       <c r="N2" s="27" t="str">
-        <f>IF(ISBLANK(A2),(CONCATENATE("Level_Name = '",E2,"' AND Level =",F2," AND Color =",G2," AND Linetype = '",H2,"' AND LineWt=",J2)),(CONCATENATE("Level_Name = '",E2,"' AND Level =",F2," AND Color =",G2," AND Linetype = '",H2,"' AND LineWt=",J2," AND RefName = '",A2,"'")))</f>
-        <v>Level_Name = 'VA_SURV_CTRL' AND Level =48 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'HVP'</v>
+        <f>IF(ISBLANK(A2),(CONCATENATE("''Level_Name'' = '",E2,"' AND ''Level'' = '",F2,"' AND ''Color'' = '",G2,"' AND ''Linetype'' = '",H2,"' AND ''LineWt''= '",J2,"'")),(CONCATENATE("''Level_Name'' = '",E2,"' AND ''Level'' = '",F2,"' AND ''Color'' = '",G2,"' AND ''Linetype'' = '",H2,"' AND ''LineWt''= '",J2,"' AND ''RefName'' = '",A2,"'")))</f>
+        <v>''Level_Name'' = 'VA_SURV_CTRL' AND ''Level'' = '48' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'HVP'</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -3115,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f>IF(ISBLANK(I3),"No Value",IF(I3=0,"Solid",IF(I3=1,"Dotted",IF(I3=2,"Medium-Dashed",IF(I3=3,"LongDashed",IF(I3=4,"LongDashed Dot Dot",IF(I3=6,"Medium-Dashed Dot Dot",IF(I3=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I3" s="9">
@@ -3131,12 +3137,12 @@
         <v>497</v>
       </c>
       <c r="M3" s="27" t="str">
-        <f>IF(ISBLANK(A3),L3, CONCATENATE(L3,"_",A3))</f>
+        <f t="shared" si="1"/>
         <v>median_area_MEDA</v>
       </c>
       <c r="N3" s="27" t="str">
-        <f>IF(ISBLANK(A3),(CONCATENATE("Level_Name = '",E3,"' AND Level =",F3," AND Color =",G3," AND Linetype = '",H3,"' AND LineWt=",J3)),(CONCATENATE("Level_Name = '",E3,"' AND Level =",F3," AND Color =",G3," AND Linetype = '",H3,"' AND LineWt=",J3," AND RefName = '",A3,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_TW' AND Level =1 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'MEDA'</v>
+        <f t="shared" ref="N3:N66" si="2">IF(ISBLANK(A3),(CONCATENATE("''Level_Name'' = '",E3,"' AND ''Level'' = '",F3,"' AND ''Color'' = '",G3,"' AND ''Linetype'' = '",H3,"' AND ''LineWt''= '",J3,"'")),(CONCATENATE("''Level_Name'' = '",E3,"' AND ''Level'' = '",F3,"' AND ''Color'' = '",G3,"' AND ''Linetype'' = '",H3,"' AND ''LineWt''= '",J3,"' AND ''RefName'' = '",A3,"'")))</f>
+        <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'MEDA'</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -3167,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f>IF(ISBLANK(I4),"No Value",IF(I4=0,"Solid",IF(I4=1,"Dotted",IF(I4=2,"Medium-Dashed",IF(I4=3,"LongDashed",IF(I4=4,"LongDashed Dot Dot",IF(I4=6,"Medium-Dashed Dot Dot",IF(I4=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I4" s="9">
@@ -3183,12 +3189,12 @@
         <v>497</v>
       </c>
       <c r="M4" s="27" t="str">
-        <f>IF(ISBLANK(A4),L4, CONCATENATE(L4,"_",A4))</f>
+        <f t="shared" si="1"/>
         <v>median_area_MEDC</v>
       </c>
       <c r="N4" s="27" t="str">
-        <f>IF(ISBLANK(A4),(CONCATENATE("Level_Name = '",E4,"' AND Level =",F4," AND Color =",G4," AND Linetype = '",H4,"' AND LineWt=",J4)),(CONCATENATE("Level_Name = '",E4,"' AND Level =",F4," AND Color =",G4," AND Linetype = '",H4,"' AND LineWt=",J4," AND RefName = '",A4,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_TW' AND Level =1 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'MEDC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'MEDC'</v>
       </c>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -3219,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f>IF(ISBLANK(I5),"No Value",IF(I5=0,"Solid",IF(I5=1,"Dotted",IF(I5=2,"Medium-Dashed",IF(I5=3,"LongDashed",IF(I5=4,"LongDashed Dot Dot",IF(I5=6,"Medium-Dashed Dot Dot",IF(I5=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I5" s="9">
@@ -3235,12 +3241,12 @@
         <v>497</v>
       </c>
       <c r="M5" s="27" t="str">
-        <f>IF(ISBLANK(A5),L5, CONCATENATE(L5,"_",A5))</f>
+        <f t="shared" si="1"/>
         <v>median_area_MEDD</v>
       </c>
       <c r="N5" s="27" t="str">
-        <f>IF(ISBLANK(A5),(CONCATENATE("Level_Name = '",E5,"' AND Level =",F5," AND Color =",G5," AND Linetype = '",H5,"' AND LineWt=",J5)),(CONCATENATE("Level_Name = '",E5,"' AND Level =",F5," AND Color =",G5," AND Linetype = '",H5,"' AND LineWt=",J5," AND RefName = '",A5,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_TW' AND Level =1 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'MEDD'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'MEDD'</v>
       </c>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -3271,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f>IF(ISBLANK(I6),"No Value",IF(I6=0,"Solid",IF(I6=1,"Dotted",IF(I6=2,"Medium-Dashed",IF(I6=3,"LongDashed",IF(I6=4,"LongDashed Dot Dot",IF(I6=6,"Medium-Dashed Dot Dot",IF(I6=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I6" s="6">
@@ -3287,12 +3293,12 @@
         <v>472</v>
       </c>
       <c r="M6" s="27" t="str">
-        <f>IF(ISBLANK(A6),L6, CONCATENATE(L6,"_",A6))</f>
+        <f t="shared" si="1"/>
         <v>aerial_photo_center_point_PC</v>
       </c>
       <c r="N6" s="27" t="str">
-        <f>IF(ISBLANK(A6),(CONCATENATE("Level_Name = '",E6,"' AND Level =",F6," AND Color =",G6," AND Linetype = '",H6,"' AND LineWt=",J6)),(CONCATENATE("Level_Name = '",E6,"' AND Level =",F6," AND Color =",G6," AND Linetype = '",H6,"' AND LineWt=",J6," AND RefName = '",A6,"'")))</f>
-        <v>Level_Name = 'VA_SURV_CTRL' AND Level =48 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SURV_CTRL' AND ''Level'' = '48' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PC'</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -3322,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f>IF(ISBLANK(I7),"No Value",IF(I7=0,"Solid",IF(I7=1,"Dotted",IF(I7=2,"Medium-Dashed",IF(I7=3,"LongDashed",IF(I7=4,"LongDashed Dot Dot",IF(I7=6,"Medium-Dashed Dot Dot",IF(I7=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I7" s="6">
@@ -3338,12 +3344,12 @@
         <v>61</v>
       </c>
       <c r="M7" s="27" t="str">
-        <f>IF(ISBLANK(A7),L7, CONCATENATE(L7,"_",A7))</f>
+        <f t="shared" si="1"/>
         <v>utility_pole_tower_point_TRANX</v>
       </c>
       <c r="N7" s="27" t="str">
-        <f>IF(ISBLANK(A7),(CONCATENATE("Level_Name = '",E7,"' AND Level =",F7," AND Color =",G7," AND Linetype = '",H7,"' AND LineWt=",J7)),(CONCATENATE("Level_Name = '",E7,"' AND Level =",F7," AND Color =",G7," AND Linetype = '",H7,"' AND LineWt=",J7," AND RefName = '",A7,"'")))</f>
-        <v>Level_Name = 'VA_SITE_TRAN' AND Level =17 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TRANX'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_TRAN' AND ''Level'' = '17' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TRANX'</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3369,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f>IF(ISBLANK(I8),"No Value",IF(I8=0,"Solid",IF(I8=1,"Dotted",IF(I8=2,"Medium-Dashed",IF(I8=3,"LongDashed",IF(I8=4,"LongDashed Dot Dot",IF(I8=6,"Medium-Dashed Dot Dot",IF(I8=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I8" s="6">
@@ -3385,12 +3391,12 @@
         <v>363</v>
       </c>
       <c r="M8" s="27" t="str">
-        <f>IF(ISBLANK(A8),L8, CONCATENATE(L8,"_",A8))</f>
+        <f t="shared" si="1"/>
         <v>utility_pole_tower_area_TT</v>
       </c>
       <c r="N8" s="27" t="str">
-        <f>IF(ISBLANK(A8),(CONCATENATE("Level_Name = '",E8,"' AND Level =",F8," AND Color =",G8," AND Linetype = '",H8,"' AND LineWt=",J8)),(CONCATENATE("Level_Name = '",E8,"' AND Level =",F8," AND Color =",G8," AND Linetype = '",H8,"' AND LineWt=",J8," AND RefName = '",A8,"'")))</f>
-        <v>Level_Name = 'VA_SITE_TRAN' AND Level =17 AND Color =0 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TT'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_TRAN' AND ''Level'' = '17' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TT'</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f>IF(ISBLANK(I9),"No Value",IF(I9=0,"Solid",IF(I9=1,"Dotted",IF(I9=2,"Medium-Dashed",IF(I9=3,"LongDashed",IF(I9=4,"LongDashed Dot Dot",IF(I9=6,"Medium-Dashed Dot Dot",IF(I9=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I9" s="12">
@@ -3429,12 +3435,12 @@
         <v>370</v>
       </c>
       <c r="M9" s="27" t="str">
-        <f>IF(ISBLANK(A9),L9, CONCATENATE(L9,"_",A9))</f>
+        <f t="shared" si="1"/>
         <v>gate_line</v>
       </c>
       <c r="N9" s="27" t="str">
-        <f>IF(ISBLANK(A9),(CONCATENATE("Level_Name = '",E9,"' AND Level =",F9," AND Color =",G9," AND Linetype = '",H9,"' AND LineWt=",J9)),(CONCATENATE("Level_Name = '",E9,"' AND Level =",F9," AND Color =",G9," AND Linetype = '",H9,"' AND LineWt=",J9," AND RefName = '",A9,"'")))</f>
-        <v>Level_Name = 'VA_SITE_FENC' AND Level =19 AND Color =0 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_FENC' AND ''Level'' = '19' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>297</v>
@@ -3460,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f>IF(ISBLANK(I10),"No Value",IF(I10=0,"Solid",IF(I10=1,"Dotted",IF(I10=2,"Medium-Dashed",IF(I10=3,"LongDashed",IF(I10=4,"LongDashed Dot Dot",IF(I10=6,"Medium-Dashed Dot Dot",IF(I10=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I10" s="70">
@@ -3476,12 +3482,12 @@
         <v>56</v>
       </c>
       <c r="M10" s="27" t="str">
-        <f>IF(ISBLANK(A10),L10, CONCATENATE(L10,"_",A10))</f>
+        <f t="shared" si="1"/>
         <v>culvert_centerline</v>
       </c>
       <c r="N10" s="27" t="str">
-        <f>IF(ISBLANK(A10),(CONCATENATE("Level_Name = '",E10,"' AND Level =",F10," AND Color =",G10," AND Linetype = '",H10,"' AND LineWt=",J10)),(CONCATENATE("Level_Name = '",E10,"' AND Level =",F10," AND Color =",G10," AND Linetype = '",H10,"' AND LineWt=",J10," AND RefName = '",A10,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CLVT' AND Level =44 AND Color =0 AND Linetype = 'Medium-Dashed' AND LineWt=1</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' = '44' AND ''Color'' = '0' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '1'</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3507,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f>IF(ISBLANK(I11),"No Value",IF(I11=0,"Solid",IF(I11=1,"Dotted",IF(I11=2,"Medium-Dashed",IF(I11=3,"LongDashed",IF(I11=4,"LongDashed Dot Dot",IF(I11=6,"Medium-Dashed Dot Dot",IF(I11=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed Dot Dot</v>
       </c>
       <c r="I11" s="62">
@@ -3523,12 +3529,12 @@
         <v>177</v>
       </c>
       <c r="M11" s="27" t="str">
-        <f>IF(ISBLANK(A11),L11, CONCATENATE(L11,"_",A11))</f>
+        <f t="shared" si="1"/>
         <v>surface_water_body_area_FLOODED</v>
       </c>
       <c r="N11" s="27" t="str">
-        <f>IF(ISBLANK(A11),(CONCATENATE("Level_Name = '",E11,"' AND Level =",F11," AND Color =",G11," AND Linetype = '",H11,"' AND LineWt=",J11)),(CONCATENATE("Level_Name = '",E11,"' AND Level =",F11," AND Color =",G11," AND Linetype = '",H11,"' AND LineWt=",J11," AND RefName = '",A11,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WATR' AND Level =41 AND Color =1 AND Linetype = 'Medium-Dashed Dot Dot' AND LineWt=1 AND RefName = 'FLOODED'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'Medium-Dashed Dot Dot' AND ''LineWt''= '1' AND ''RefName'' = 'FLOODED'</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -3559,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="9" t="b">
-        <f>IF(ISBLANK(I12),"No Value",IF(I12=0,"Solid",IF(I12=1,"Dotted",IF(I12=2,"Medium-Dashed",IF(I12=3,"LongDashed",IF(I12=4,"LongDashed Dot Dot",IF(I12=6,"Medium-Dashed Dot Dot",IF(I12=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="74" t="s">
@@ -3575,12 +3581,12 @@
         <v>670</v>
       </c>
       <c r="M12" s="27" t="str">
-        <f>IF(ISBLANK(A12),L12, CONCATENATE(L12,"_",A12))</f>
+        <f t="shared" si="1"/>
         <v>island_area_IS</v>
       </c>
       <c r="N12" s="27" t="str">
-        <f>IF(ISBLANK(A12),(CONCATENATE("Level_Name = '",E12,"' AND Level =",F12," AND Color =",G12," AND Linetype = '",H12,"' AND LineWt=",J12)),(CONCATENATE("Level_Name = '",E12,"' AND Level =",F12," AND Color =",G12," AND Linetype = '",H12,"' AND LineWt=",J12," AND RefName = '",A12,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WATR' AND Level =41 AND Color =1 AND Linetype = 'FALSE' AND LineWt=1 AND RefName = 'IS'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1' AND ''RefName'' = 'IS'</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -3613,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f>IF(ISBLANK(I13),"No Value",IF(I13=0,"Solid",IF(I13=1,"Dotted",IF(I13=2,"Medium-Dashed",IF(I13=3,"LongDashed",IF(I13=4,"LongDashed Dot Dot",IF(I13=6,"Medium-Dashed Dot Dot",IF(I13=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I13" s="69">
@@ -3629,12 +3635,12 @@
         <v>548</v>
       </c>
       <c r="M13" s="27" t="str">
-        <f>IF(ISBLANK(A13),L13, CONCATENATE(L13,"_",A13))</f>
+        <f t="shared" si="1"/>
         <v>obscured_area_OBSC</v>
       </c>
       <c r="N13" s="27" t="str">
-        <f>IF(ISBLANK(A13),(CONCATENATE("Level_Name = '",E13,"' AND Level =",F13," AND Color =",G13," AND Linetype = '",H13,"' AND LineWt=",J13)),(CONCATENATE("Level_Name = '",E13,"' AND Level =",F13," AND Color =",G13," AND Linetype = '",H13,"' AND LineWt=",J13," AND RefName = '",A13,"'")))</f>
-        <v>Level_Name = 'VA_DTM_OBSC' AND Level =58 AND Color =1 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'OBSC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_DTM_OBSC' AND ''Level'' = '58' AND ''Color'' = '1' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'OBSC'</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>666</v>
@@ -3663,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="9" t="b">
-        <f>IF(ISBLANK(I14),"No Value",IF(I14=0,"Solid",IF(I14=1,"Dotted",IF(I14=2,"Medium-Dashed",IF(I14=3,"LongDashed",IF(I14=4,"LongDashed Dot Dot",IF(I14=6,"Medium-Dashed Dot Dot",IF(I14=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15" t="s">
@@ -3679,12 +3685,12 @@
         <v>177</v>
       </c>
       <c r="M14" s="27" t="str">
-        <f>IF(ISBLANK(A14),L14, CONCATENATE(L14,"_",A14))</f>
+        <f t="shared" si="1"/>
         <v>surface_water_body_area_WB</v>
       </c>
       <c r="N14" s="27" t="str">
-        <f>IF(ISBLANK(A14),(CONCATENATE("Level_Name = '",E14,"' AND Level =",F14," AND Color =",G14," AND Linetype = '",H14,"' AND LineWt=",J14)),(CONCATENATE("Level_Name = '",E14,"' AND Level =",F14," AND Color =",G14," AND Linetype = '",H14,"' AND LineWt=",J14," AND RefName = '",A14,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WATR' AND Level =41 AND Color =1 AND Linetype = 'FALSE' AND LineWt=1 AND RefName = 'WB'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1' AND ''RefName'' = 'WB'</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>533</v>
@@ -3713,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f>IF(ISBLANK(I15),"No Value",IF(I15=0,"Solid",IF(I15=1,"Dotted",IF(I15=2,"Medium-Dashed",IF(I15=3,"LongDashed",IF(I15=4,"LongDashed Dot Dot",IF(I15=6,"Medium-Dashed Dot Dot",IF(I15=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed Dot Dot</v>
       </c>
       <c r="I15" s="9">
@@ -3729,12 +3735,12 @@
         <v>424</v>
       </c>
       <c r="M15" s="27" t="str">
-        <f>IF(ISBLANK(A15),L15, CONCATENATE(L15,"_",A15))</f>
+        <f t="shared" si="1"/>
         <v>surface_water_course_area_WCA</v>
       </c>
       <c r="N15" s="27" t="str">
-        <f>IF(ISBLANK(A15),(CONCATENATE("Level_Name = '",E15,"' AND Level =",F15," AND Color =",G15," AND Linetype = '",H15,"' AND LineWt=",J15)),(CONCATENATE("Level_Name = '",E15,"' AND Level =",F15," AND Color =",G15," AND Linetype = '",H15,"' AND LineWt=",J15," AND RefName = '",A15,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WATR' AND Level =41 AND Color =1 AND Linetype = 'Medium-Dashed Dot Dot' AND LineWt=1 AND RefName = 'WCA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'Medium-Dashed Dot Dot' AND ''LineWt''= '1' AND ''RefName'' = 'WCA'</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3757,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f>IF(ISBLANK(I16),"No Value",IF(I16=0,"Solid",IF(I16=1,"Dotted",IF(I16=2,"Medium-Dashed",IF(I16=3,"LongDashed",IF(I16=4,"LongDashed Dot Dot",IF(I16=6,"Medium-Dashed Dot Dot",IF(I16=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I16" s="12">
@@ -3773,12 +3779,12 @@
         <v>625</v>
       </c>
       <c r="M16" s="27" t="str">
-        <f>IF(ISBLANK(A16),L16, CONCATENATE(L16,"_",A16))</f>
+        <f t="shared" si="1"/>
         <v>recreation_feature_line</v>
       </c>
       <c r="N16" s="27" t="str">
-        <f>IF(ISBLANK(A16),(CONCATENATE("Level_Name = '",E16,"' AND Level =",F16," AND Color =",G16," AND Linetype = '",H16,"' AND LineWt=",J16)),(CONCATENATE("Level_Name = '",E16,"' AND Level =",F16," AND Color =",G16," AND Linetype = '",H16,"' AND LineWt=",J16," AND RefName = '",A16,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_STRI' AND Level =23 AND Color =1 AND Linetype = 'Solid' AND LineWt=1</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '1' AND ''Linetype'' = 'Solid' AND ''LineWt''= '1'</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>658</v>
@@ -3805,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f>IF(ISBLANK(I17),"No Value",IF(I17=0,"Solid",IF(I17=1,"Dotted",IF(I17=2,"Medium-Dashed",IF(I17=3,"LongDashed",IF(I17=4,"LongDashed Dot Dot",IF(I17=6,"Medium-Dashed Dot Dot",IF(I17=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I17" s="9">
@@ -3821,12 +3827,12 @@
         <v>390</v>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IF(ISBLANK(A17),L17, CONCATENATE(L17,"_",A17))</f>
+        <f t="shared" si="1"/>
         <v>shoreline</v>
       </c>
       <c r="N17" s="27" t="str">
-        <f>IF(ISBLANK(A17),(CONCATENATE("Level_Name = '",E17,"' AND Level =",F17," AND Color =",G17," AND Linetype = '",H17,"' AND LineWt=",J17)),(CONCATENATE("Level_Name = '",E17,"' AND Level =",F17," AND Color =",G17," AND Linetype = '",H17,"' AND LineWt=",J17," AND RefName = '",A17,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WATR' AND Level =41 AND Color =1 AND Linetype = 'Medium-Dashed' AND LineWt=1</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>679</v>
@@ -3861,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f>IF(ISBLANK(I18),"No Value",IF(I18=0,"Solid",IF(I18=1,"Dotted",IF(I18=2,"Medium-Dashed",IF(I18=3,"LongDashed",IF(I18=4,"LongDashed Dot Dot",IF(I18=6,"Medium-Dashed Dot Dot",IF(I18=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I18" s="6">
@@ -3877,12 +3883,12 @@
         <v>267</v>
       </c>
       <c r="M18" s="27" t="str">
-        <f>IF(ISBLANK(A18),L18, CONCATENATE(L18,"_",A18))</f>
+        <f t="shared" si="1"/>
         <v>land_cover_area_AG</v>
       </c>
       <c r="N18" s="27" t="str">
-        <f>IF(ISBLANK(A18),(CONCATENATE("Level_Name = '",E18,"' AND Level =",F18," AND Color =",G18," AND Linetype = '",H18,"' AND LineWt=",J18)),(CONCATENATE("Level_Name = '",E18,"' AND Level =",F18," AND Color =",G18," AND Linetype = '",H18,"' AND LineWt=",J18," AND RefName = '",A18,"'")))</f>
-        <v>Level_Name = 'VA_SITE_BRUS' AND Level =40 AND Color =2 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'AG'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' = '40' AND ''Color'' = '2' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AG'</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3908,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f>IF(ISBLANK(I19),"No Value",IF(I19=0,"Solid",IF(I19=1,"Dotted",IF(I19=2,"Medium-Dashed",IF(I19=3,"LongDashed",IF(I19=4,"LongDashed Dot Dot",IF(I19=6,"Medium-Dashed Dot Dot",IF(I19=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I19" s="9">
@@ -3924,12 +3930,12 @@
         <v>184</v>
       </c>
       <c r="M19" s="27" t="str">
-        <f>IF(ISBLANK(A19),L19, CONCATENATE(L19,"_",A19))</f>
+        <f t="shared" si="1"/>
         <v>flora_species_area_BH</v>
       </c>
       <c r="N19" s="27" t="str">
-        <f>IF(ISBLANK(A19),(CONCATENATE("Level_Name = '",E19,"' AND Level =",F19," AND Color =",G19," AND Linetype = '",H19,"' AND LineWt=",J19)),(CONCATENATE("Level_Name = '",E19,"' AND Level =",F19," AND Color =",G19," AND Linetype = '",H19,"' AND LineWt=",J19," AND RefName = '",A19,"'")))</f>
-        <v>Level_Name = 'VA_SITE_BRUS' AND Level =40 AND Color =2 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'BH'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' = '40' AND ''Color'' = '2' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'BH'</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -3959,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f>IF(ISBLANK(I20),"No Value",IF(I20=0,"Solid",IF(I20=1,"Dotted",IF(I20=2,"Medium-Dashed",IF(I20=3,"LongDashed",IF(I20=4,"LongDashed Dot Dot",IF(I20=6,"Medium-Dashed Dot Dot",IF(I20=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I20" s="7">
@@ -3975,12 +3981,12 @@
         <v>150</v>
       </c>
       <c r="M20" s="27" t="str">
-        <f>IF(ISBLANK(A20),L20, CONCATENATE(L20,"_",A20))</f>
+        <f t="shared" si="1"/>
         <v>golf_course_fairway_area_FW</v>
       </c>
       <c r="N20" s="27" t="str">
-        <f>IF(ISBLANK(A20),(CONCATENATE("Level_Name = '",E20,"' AND Level =",F20," AND Color =",G20," AND Linetype = '",H20,"' AND LineWt=",J20)),(CONCATENATE("Level_Name = '",E20,"' AND Level =",F20," AND Color =",G20," AND Linetype = '",H20,"' AND LineWt=",J20," AND RefName = '",A20,"'")))</f>
-        <v>Level_Name = 'VA_SITE_GOLF' AND Level =35 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'FW'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'FW'</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -4010,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f>IF(ISBLANK(I21),"No Value",IF(I21=0,"Solid",IF(I21=1,"Dotted",IF(I21=2,"Medium-Dashed",IF(I21=3,"LongDashed",IF(I21=4,"LongDashed Dot Dot",IF(I21=6,"Medium-Dashed Dot Dot",IF(I21=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I21" s="6">
@@ -4026,12 +4032,12 @@
         <v>421</v>
       </c>
       <c r="M21" s="27" t="str">
-        <f>IF(ISBLANK(A21),L21, CONCATENATE(L21,"_",A21))</f>
+        <f t="shared" si="1"/>
         <v>golf_course_area_GOLF</v>
       </c>
       <c r="N21" s="27" t="str">
-        <f>IF(ISBLANK(A21),(CONCATENATE("Level_Name = '",E21,"' AND Level =",F21," AND Color =",G21," AND Linetype = '",H21,"' AND LineWt=",J21)),(CONCATENATE("Level_Name = '",E21,"' AND Level =",F21," AND Color =",G21," AND Linetype = '",H21,"' AND LineWt=",J21," AND RefName = '",A21,"'")))</f>
-        <v>Level_Name = 'VA_SITE_GOLF' AND Level =35 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'GOLF'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'GOLF'</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4057,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f>IF(ISBLANK(I22),"No Value",IF(I22=0,"Solid",IF(I22=1,"Dotted",IF(I22=2,"Medium-Dashed",IF(I22=3,"LongDashed",IF(I22=4,"LongDashed Dot Dot",IF(I22=6,"Medium-Dashed Dot Dot",IF(I22=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I22" s="73">
@@ -4073,12 +4079,12 @@
         <v>184</v>
       </c>
       <c r="M22" s="27" t="str">
-        <f>IF(ISBLANK(A22),L22, CONCATENATE(L22,"_",A22))</f>
+        <f t="shared" si="1"/>
         <v>flora_species_area_GRC</v>
       </c>
       <c r="N22" s="27" t="str">
-        <f>IF(ISBLANK(A22),(CONCATENATE("Level_Name = '",E22,"' AND Level =",F22," AND Color =",G22," AND Linetype = '",H22,"' AND LineWt=",J22)),(CONCATENATE("Level_Name = '",E22,"' AND Level =",F22," AND Color =",G22," AND Linetype = '",H22,"' AND LineWt=",J22," AND RefName = '",A22,"'")))</f>
-        <v>Level_Name = 'VA_SITE_BRUS' AND Level =40 AND Color =2 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'GRC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' = '40' AND ''Color'' = '2' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'GRC'</v>
       </c>
       <c r="O22" s="67"/>
       <c r="P22" s="67"/>
@@ -4109,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f>IF(ISBLANK(I23),"No Value",IF(I23=0,"Solid",IF(I23=1,"Dotted",IF(I23=2,"Medium-Dashed",IF(I23=3,"LongDashed",IF(I23=4,"LongDashed Dot Dot",IF(I23=6,"Medium-Dashed Dot Dot",IF(I23=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I23" s="6">
@@ -4125,12 +4131,12 @@
         <v>153</v>
       </c>
       <c r="M23" s="27" t="str">
-        <f>IF(ISBLANK(A23),L23, CONCATENATE(L23,"_",A23))</f>
+        <f t="shared" si="1"/>
         <v>golf_course_putting_green_area_GRN</v>
       </c>
       <c r="N23" s="27" t="str">
-        <f>IF(ISBLANK(A23),(CONCATENATE("Level_Name = '",E23,"' AND Level =",F23," AND Color =",G23," AND Linetype = '",H23,"' AND LineWt=",J23)),(CONCATENATE("Level_Name = '",E23,"' AND Level =",F23," AND Color =",G23," AND Linetype = '",H23,"' AND LineWt=",J23," AND RefName = '",A23,"'")))</f>
-        <v>Level_Name = 'VA_SITE_GOLF' AND Level =35 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'GRN'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'GRN'</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -4160,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f>IF(ISBLANK(I24),"No Value",IF(I24=0,"Solid",IF(I24=1,"Dotted",IF(I24=2,"Medium-Dashed",IF(I24=3,"LongDashed",IF(I24=4,"LongDashed Dot Dot",IF(I24=6,"Medium-Dashed Dot Dot",IF(I24=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I24" s="9">
@@ -4176,12 +4182,12 @@
         <v>184</v>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IF(ISBLANK(A24),L24, CONCATENATE(L24,"_",A24))</f>
+        <f t="shared" si="1"/>
         <v>flora_species_area_H</v>
       </c>
       <c r="N24" s="27" t="str">
-        <f>IF(ISBLANK(A24),(CONCATENATE("Level_Name = '",E24,"' AND Level =",F24," AND Color =",G24," AND Linetype = '",H24,"' AND LineWt=",J24)),(CONCATENATE("Level_Name = '",E24,"' AND Level =",F24," AND Color =",G24," AND Linetype = '",H24,"' AND LineWt=",J24," AND RefName = '",A24,"'")))</f>
-        <v>Level_Name = 'VA_SITE_BRUS' AND Level =40 AND Color =2 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'H'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' = '40' AND ''Color'' = '2' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'H'</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -4211,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f>IF(ISBLANK(I25),"No Value",IF(I25=0,"Solid",IF(I25=1,"Dotted",IF(I25=2,"Medium-Dashed",IF(I25=3,"LongDashed",IF(I25=4,"LongDashed Dot Dot",IF(I25=6,"Medium-Dashed Dot Dot",IF(I25=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I25" s="6">
@@ -4227,12 +4233,12 @@
         <v>147</v>
       </c>
       <c r="M25" s="27" t="str">
-        <f>IF(ISBLANK(A25),L25, CONCATENATE(L25,"_",A25))</f>
+        <f t="shared" si="1"/>
         <v>golf_course_bunker_area_ST</v>
       </c>
       <c r="N25" s="27" t="str">
-        <f>IF(ISBLANK(A25),(CONCATENATE("Level_Name = '",E25,"' AND Level =",F25," AND Color =",G25," AND Linetype = '",H25,"' AND LineWt=",J25)),(CONCATENATE("Level_Name = '",E25,"' AND Level =",F25," AND Color =",G25," AND Linetype = '",H25,"' AND LineWt=",J25," AND RefName = '",A25,"'")))</f>
-        <v>Level_Name = 'VA_SITE_GOLF' AND Level =35 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ST'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ST'</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -4263,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f>IF(ISBLANK(I26),"No Value",IF(I26=0,"Solid",IF(I26=1,"Dotted",IF(I26=2,"Medium-Dashed",IF(I26=3,"LongDashed",IF(I26=4,"LongDashed Dot Dot",IF(I26=6,"Medium-Dashed Dot Dot",IF(I26=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I26" s="9">
@@ -4279,12 +4285,12 @@
         <v>184</v>
       </c>
       <c r="M26" s="27" t="str">
-        <f>IF(ISBLANK(A26),L26, CONCATENATE(L26,"_",A26))</f>
+        <f t="shared" si="1"/>
         <v>flora_species_area_T</v>
       </c>
       <c r="N26" s="27" t="str">
-        <f>IF(ISBLANK(A26),(CONCATENATE("Level_Name = '",E26,"' AND Level =",F26," AND Color =",G26," AND Linetype = '",H26,"' AND LineWt=",J26)),(CONCATENATE("Level_Name = '",E26,"' AND Level =",F26," AND Color =",G26," AND Linetype = '",H26,"' AND LineWt=",J26," AND RefName = '",A26,"'")))</f>
-        <v>Level_Name = 'VA_SITE_TREE' AND Level =39 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'T'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_TREE' AND ''Level'' = '39' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'T'</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -4314,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f>IF(ISBLANK(I27),"No Value",IF(I27=0,"Solid",IF(I27=1,"Dotted",IF(I27=2,"Medium-Dashed",IF(I27=3,"LongDashed",IF(I27=4,"LongDashed Dot Dot",IF(I27=6,"Medium-Dashed Dot Dot",IF(I27=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I27" s="6">
@@ -4330,12 +4336,12 @@
         <v>156</v>
       </c>
       <c r="M27" s="27" t="str">
-        <f>IF(ISBLANK(A27),L27, CONCATENATE(L27,"_",A27))</f>
+        <f t="shared" si="1"/>
         <v>golf_course_tee_area_TEE</v>
       </c>
       <c r="N27" s="27" t="str">
-        <f>IF(ISBLANK(A27),(CONCATENATE("Level_Name = '",E27,"' AND Level =",F27," AND Color =",G27," AND Linetype = '",H27,"' AND LineWt=",J27)),(CONCATENATE("Level_Name = '",E27,"' AND Level =",F27," AND Color =",G27," AND Linetype = '",H27,"' AND LineWt=",J27," AND RefName = '",A27,"'")))</f>
-        <v>Level_Name = 'VA_SITE_GOLF' AND Level =35 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TEE'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TEE'</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -4365,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f>IF(ISBLANK(I28),"No Value",IF(I28=0,"Solid",IF(I28=1,"Dotted",IF(I28=2,"Medium-Dashed",IF(I28=3,"LongDashed",IF(I28=4,"LongDashed Dot Dot",IF(I28=6,"Medium-Dashed Dot Dot",IF(I28=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I28" s="6">
@@ -4381,12 +4387,12 @@
         <v>252</v>
       </c>
       <c r="M28" s="27" t="str">
-        <f>IF(ISBLANK(A28),L28, CONCATENATE(L28,"_",A28))</f>
+        <f t="shared" si="1"/>
         <v>golf_course_water_hazard_area_WH</v>
       </c>
       <c r="N28" s="27" t="str">
-        <f>IF(ISBLANK(A28),(CONCATENATE("Level_Name = '",E28,"' AND Level =",F28," AND Color =",G28," AND Linetype = '",H28,"' AND LineWt=",J28)),(CONCATENATE("Level_Name = '",E28,"' AND Level =",F28," AND Color =",G28," AND Linetype = '",H28,"' AND LineWt=",J28," AND RefName = '",A28,"'")))</f>
-        <v>Level_Name = 'VA_SITE_GOLF' AND Level =35 AND Color =2 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'WH'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'WH'</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -4416,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f>IF(ISBLANK(I29),"No Value",IF(I29=0,"Solid",IF(I29=1,"Dotted",IF(I29=2,"Medium-Dashed",IF(I29=3,"LongDashed",IF(I29=4,"LongDashed Dot Dot",IF(I29=6,"Medium-Dashed Dot Dot",IF(I29=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I29" s="3">
@@ -4432,12 +4438,12 @@
         <v>34</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f>IF(ISBLANK(A29),L29, CONCATENATE(L29,"_",A29))</f>
+        <f t="shared" si="1"/>
         <v>slab_area_A</v>
       </c>
       <c r="N29" s="27" t="str">
-        <f>IF(ISBLANK(A29),(CONCATENATE("Level_Name = '",E29,"' AND Level =",F29," AND Color =",G29," AND Linetype = '",H29,"' AND LineWt=",J29)),(CONCATENATE("Level_Name = '",E29,"' AND Level =",F29," AND Color =",G29," AND Linetype = '",H29,"' AND LineWt=",J29," AND RefName = '",A29,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'A'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'A'</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4463,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f>IF(ISBLANK(I30),"No Value",IF(I30=0,"Solid",IF(I30=1,"Dotted",IF(I30=2,"Medium-Dashed",IF(I30=3,"LongDashed",IF(I30=4,"LongDashed Dot Dot",IF(I30=6,"Medium-Dashed Dot Dot",IF(I30=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I30" s="6">
@@ -4479,12 +4485,12 @@
         <v>93</v>
       </c>
       <c r="M30" s="27" t="str">
-        <f>IF(ISBLANK(A30),L30, CONCATENATE(L30,"_",A30))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_AAA</v>
       </c>
       <c r="N30" s="27" t="str">
-        <f>IF(ISBLANK(A30),(CONCATENATE("Level_Name = '",E30,"' AND Level =",F30," AND Color =",G30," AND Linetype = '",H30,"' AND LineWt=",J30)),(CONCATENATE("Level_Name = '",E30,"' AND Level =",F30," AND Color =",G30," AND Linetype = '",H30,"' AND LineWt=",J30," AND RefName = '",A30,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'AAA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AAA'</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -4517,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f>IF(ISBLANK(I31),"No Value",IF(I31=0,"Solid",IF(I31=1,"Dotted",IF(I31=2,"Medium-Dashed",IF(I31=3,"LongDashed",IF(I31=4,"LongDashed Dot Dot",IF(I31=6,"Medium-Dashed Dot Dot",IF(I31=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I31" s="6">
@@ -4533,12 +4539,12 @@
         <v>93</v>
       </c>
       <c r="M31" s="27" t="str">
-        <f>IF(ISBLANK(A31),L31, CONCATENATE(L31,"_",A31))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ACA</v>
       </c>
       <c r="N31" s="27" t="str">
-        <f>IF(ISBLANK(A31),(CONCATENATE("Level_Name = '",E31,"' AND Level =",F31," AND Color =",G31," AND Linetype = '",H31,"' AND LineWt=",J31)),(CONCATENATE("Level_Name = '",E31,"' AND Level =",F31," AND Color =",G31," AND Linetype = '",H31,"' AND LineWt=",J31," AND RefName = '",A31,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'ACA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ACA'</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -4571,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f>IF(ISBLANK(I32),"No Value",IF(I32=0,"Solid",IF(I32=1,"Dotted",IF(I32=2,"Medium-Dashed",IF(I32=3,"LongDashed",IF(I32=4,"LongDashed Dot Dot",IF(I32=6,"Medium-Dashed Dot Dot",IF(I32=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I32" s="6">
@@ -4587,12 +4593,12 @@
         <v>93</v>
       </c>
       <c r="M32" s="27" t="str">
-        <f>IF(ISBLANK(A32),L32, CONCATENATE(L32,"_",A32))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_AEA</v>
       </c>
       <c r="N32" s="27" t="str">
-        <f>IF(ISBLANK(A32),(CONCATENATE("Level_Name = '",E32,"' AND Level =",F32," AND Color =",G32," AND Linetype = '",H32,"' AND LineWt=",J32)),(CONCATENATE("Level_Name = '",E32,"' AND Level =",F32," AND Color =",G32," AND Linetype = '",H32,"' AND LineWt=",J32," AND RefName = '",A32,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'AEA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AEA'</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -4622,7 +4628,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f>IF(ISBLANK(I33),"No Value",IF(I33=0,"Solid",IF(I33=1,"Dotted",IF(I33=2,"Medium-Dashed",IF(I33=3,"LongDashed",IF(I33=4,"LongDashed Dot Dot",IF(I33=6,"Medium-Dashed Dot Dot",IF(I33=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I33" s="6">
@@ -4638,12 +4644,12 @@
         <v>93</v>
       </c>
       <c r="M33" s="27" t="str">
-        <f>IF(ISBLANK(A33),L33, CONCATENATE(L33,"_",A33))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_AHA</v>
       </c>
       <c r="N33" s="27" t="str">
-        <f>IF(ISBLANK(A33),(CONCATENATE("Level_Name = '",E33,"' AND Level =",F33," AND Color =",G33," AND Linetype = '",H33,"' AND LineWt=",J33)),(CONCATENATE("Level_Name = '",E33,"' AND Level =",F33," AND Color =",G33," AND Linetype = '",H33,"' AND LineWt=",J33," AND RefName = '",A33,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'AHA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AHA'</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -4673,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f>IF(ISBLANK(I34),"No Value",IF(I34=0,"Solid",IF(I34=1,"Dotted",IF(I34=2,"Medium-Dashed",IF(I34=3,"LongDashed",IF(I34=4,"LongDashed Dot Dot",IF(I34=6,"Medium-Dashed Dot Dot",IF(I34=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I34" s="6">
@@ -4689,12 +4695,12 @@
         <v>93</v>
       </c>
       <c r="M34" s="27" t="str">
-        <f>IF(ISBLANK(A34),L34, CONCATENATE(L34,"_",A34))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_APA</v>
       </c>
       <c r="N34" s="27" t="str">
-        <f>IF(ISBLANK(A34),(CONCATENATE("Level_Name = '",E34,"' AND Level =",F34," AND Color =",G34," AND Linetype = '",H34,"' AND LineWt=",J34)),(CONCATENATE("Level_Name = '",E34,"' AND Level =",F34," AND Color =",G34," AND Linetype = '",H34,"' AND LineWt=",J34," AND RefName = '",A34,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'APA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'APA'</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -4727,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f>IF(ISBLANK(I35),"No Value",IF(I35=0,"Solid",IF(I35=1,"Dotted",IF(I35=2,"Medium-Dashed",IF(I35=3,"LongDashed",IF(I35=4,"LongDashed Dot Dot",IF(I35=6,"Medium-Dashed Dot Dot",IF(I35=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I35" s="6">
@@ -4743,12 +4749,12 @@
         <v>93</v>
       </c>
       <c r="M35" s="27" t="str">
-        <f>IF(ISBLANK(A35),L35, CONCATENATE(L35,"_",A35))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ARA</v>
       </c>
       <c r="N35" s="27" t="str">
-        <f>IF(ISBLANK(A35),(CONCATENATE("Level_Name = '",E35,"' AND Level =",F35," AND Color =",G35," AND Linetype = '",H35,"' AND LineWt=",J35)),(CONCATENATE("Level_Name = '",E35,"' AND Level =",F35," AND Color =",G35," AND Linetype = '",H35,"' AND LineWt=",J35," AND RefName = '",A35,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'ARA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ARA'</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -4778,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f>IF(ISBLANK(I36),"No Value",IF(I36=0,"Solid",IF(I36=1,"Dotted",IF(I36=2,"Medium-Dashed",IF(I36=3,"LongDashed",IF(I36=4,"LongDashed Dot Dot",IF(I36=6,"Medium-Dashed Dot Dot",IF(I36=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I36" s="3">
@@ -4794,12 +4800,12 @@
         <v>93</v>
       </c>
       <c r="M36" s="27" t="str">
-        <f>IF(ISBLANK(A36),L36, CONCATENATE(L36,"_",A36))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ARD</v>
       </c>
       <c r="N36" s="27" t="str">
-        <f>IF(ISBLANK(A36),(CONCATENATE("Level_Name = '",E36,"' AND Level =",F36," AND Color =",G36," AND Linetype = '",H36,"' AND LineWt=",J36)),(CONCATENATE("Level_Name = '",E36,"' AND Level =",F36," AND Color =",G36," AND Linetype = '",H36,"' AND LineWt=",J36," AND RefName = '",A36,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_UNPA' AND Level =3 AND Color =3 AND Linetype = 'Medium-Dashed' AND LineWt=0 AND RefName = 'ARD'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'ARD'</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4829,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f>IF(ISBLANK(I37),"No Value",IF(I37=0,"Solid",IF(I37=1,"Dotted",IF(I37=2,"Medium-Dashed",IF(I37=3,"LongDashed",IF(I37=4,"LongDashed Dot Dot",IF(I37=6,"Medium-Dashed Dot Dot",IF(I37=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I37" s="6">
@@ -4845,12 +4851,12 @@
         <v>93</v>
       </c>
       <c r="M37" s="27" t="str">
-        <f>IF(ISBLANK(A37),L37, CONCATENATE(L37,"_",A37))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ASA</v>
       </c>
       <c r="N37" s="27" t="str">
-        <f>IF(ISBLANK(A37),(CONCATENATE("Level_Name = '",E37,"' AND Level =",F37," AND Color =",G37," AND Linetype = '",H37,"' AND LineWt=",J37)),(CONCATENATE("Level_Name = '",E37,"' AND Level =",F37," AND Color =",G37," AND Linetype = '",H37,"' AND LineWt=",J37," AND RefName = '",A37,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'ASA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ASA'</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -4880,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f>IF(ISBLANK(I38),"No Value",IF(I38=0,"Solid",IF(I38=1,"Dotted",IF(I38=2,"Medium-Dashed",IF(I38=3,"LongDashed",IF(I38=4,"LongDashed Dot Dot",IF(I38=6,"Medium-Dashed Dot Dot",IF(I38=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I38" s="39">
@@ -4896,12 +4902,12 @@
         <v>527</v>
       </c>
       <c r="M38" s="27" t="str">
-        <f>IF(ISBLANK(A38),L38, CONCATENATE(L38,"_",A38))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_point_AT</v>
       </c>
       <c r="N38" s="27" t="str">
-        <f>IF(ISBLANK(A38),(CONCATENATE("Level_Name = '",E38,"' AND Level =",F38," AND Color =",G38," AND Linetype = '",H38,"' AND LineWt=",J38)),(CONCATENATE("Level_Name = '",E38,"' AND Level =",F38," AND Color =",G38," AND Linetype = '",H38,"' AND LineWt=",J38," AND RefName = '",A38,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =3 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'AT'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AT'</v>
       </c>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
@@ -4934,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f>IF(ISBLANK(I39),"No Value",IF(I39=0,"Solid",IF(I39=1,"Dotted",IF(I39=2,"Medium-Dashed",IF(I39=3,"LongDashed",IF(I39=4,"LongDashed Dot Dot",IF(I39=6,"Medium-Dashed Dot Dot",IF(I39=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I39" s="6">
@@ -4950,12 +4956,12 @@
         <v>93</v>
       </c>
       <c r="M39" s="27" t="str">
-        <f>IF(ISBLANK(A39),L39, CONCATENATE(L39,"_",A39))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ATA</v>
       </c>
       <c r="N39" s="27" t="str">
-        <f>IF(ISBLANK(A39),(CONCATENATE("Level_Name = '",E39,"' AND Level =",F39," AND Color =",G39," AND Linetype = '",H39,"' AND LineWt=",J39)),(CONCATENATE("Level_Name = '",E39,"' AND Level =",F39," AND Color =",G39," AND Linetype = '",H39,"' AND LineWt=",J39," AND RefName = '",A39,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'ATA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ATA'</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -4985,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="9" t="str">
-        <f>IF(ISBLANK(I40),"No Value",IF(I40=0,"Solid",IF(I40=1,"Dotted",IF(I40=2,"Medium-Dashed",IF(I40=3,"LongDashed",IF(I40=4,"LongDashed Dot Dot",IF(I40=6,"Medium-Dashed Dot Dot",IF(I40=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I40" s="3">
@@ -5001,12 +5007,12 @@
         <v>93</v>
       </c>
       <c r="M40" s="27" t="str">
-        <f>IF(ISBLANK(A40),L40, CONCATENATE(L40,"_",A40))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ATD</v>
       </c>
       <c r="N40" s="27" t="str">
-        <f>IF(ISBLANK(A40),(CONCATENATE("Level_Name = '",E40,"' AND Level =",F40," AND Color =",G40," AND Linetype = '",H40,"' AND LineWt=",J40)),(CONCATENATE("Level_Name = '",E40,"' AND Level =",F40," AND Color =",G40," AND Linetype = '",H40,"' AND LineWt=",J40," AND RefName = '",A40,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_UNPA' AND Level =3 AND Color =3 AND Linetype = 'Medium-Dashed' AND LineWt=0 AND RefName = 'ATD'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'ATD'</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5036,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="9" t="str">
-        <f>IF(ISBLANK(I41),"No Value",IF(I41=0,"Solid",IF(I41=1,"Dotted",IF(I41=2,"Medium-Dashed",IF(I41=3,"LongDashed",IF(I41=4,"LongDashed Dot Dot",IF(I41=6,"Medium-Dashed Dot Dot",IF(I41=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I41" s="6">
@@ -5052,12 +5058,12 @@
         <v>29</v>
       </c>
       <c r="M41" s="27" t="str">
-        <f>IF(ISBLANK(A41),L41, CONCATENATE(L41,"_",A41))</f>
+        <f t="shared" si="1"/>
         <v>road_bridge_area_BR</v>
       </c>
       <c r="N41" s="27" t="str">
-        <f>IF(ISBLANK(A41),(CONCATENATE("Level_Name = '",E41,"' AND Level =",F41," AND Color =",G41," AND Linetype = '",H41,"' AND LineWt=",J41)),(CONCATENATE("Level_Name = '",E41,"' AND Level =",F41," AND Color =",G41," AND Linetype = '",H41,"' AND LineWt=",J41," AND RefName = '",A41,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_BRID' AND Level =11 AND Color =3 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'BR'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_BRID' AND ''Level'' = '11' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'BR'</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -5087,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="9" t="str">
-        <f>IF(ISBLANK(I42),"No Value",IF(I42=0,"Solid",IF(I42=1,"Dotted",IF(I42=2,"Medium-Dashed",IF(I42=3,"LongDashed",IF(I42=4,"LongDashed Dot Dot",IF(I42=6,"Medium-Dashed Dot Dot",IF(I42=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I42" s="4">
@@ -5103,12 +5109,12 @@
         <v>263</v>
       </c>
       <c r="M42" s="27" t="str">
-        <f>IF(ISBLANK(A42),L42, CONCATENATE(L42,"_",A42))</f>
+        <f t="shared" si="1"/>
         <v>gravity_drain_area_DI</v>
       </c>
       <c r="N42" s="27" t="str">
-        <f>IF(ISBLANK(A42),(CONCATENATE("Level_Name = '",E42,"' AND Level =",F42," AND Color =",G42," AND Linetype = '",H42,"' AND LineWt=",J42)),(CONCATENATE("Level_Name = '",E42,"' AND Level =",F42," AND Color =",G42," AND Linetype = '",H42,"' AND LineWt=",J42," AND RefName = '",A42,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_STRM' AND Level =31 AND Color =3 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'DI'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_UTIL_STRM' AND ''Level'' = '31' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DI'</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="9" t="str">
-        <f>IF(ISBLANK(I43),"No Value",IF(I43=0,"Solid",IF(I43=1,"Dotted",IF(I43=2,"Medium-Dashed",IF(I43=3,"LongDashed",IF(I43=4,"LongDashed Dot Dot",IF(I43=6,"Medium-Dashed Dot Dot",IF(I43=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I43" s="12">
@@ -5150,12 +5156,12 @@
         <v>75</v>
       </c>
       <c r="M43" s="27" t="str">
-        <f>IF(ISBLANK(A43),L43, CONCATENATE(L43,"_",A43))</f>
+        <f t="shared" si="1"/>
         <v>footbridge_area_PBR</v>
       </c>
       <c r="N43" s="27" t="str">
-        <f>IF(ISBLANK(A43),(CONCATENATE("Level_Name = '",E43,"' AND Level =",F43," AND Color =",G43," AND Linetype = '",H43,"' AND LineWt=",J43)),(CONCATENATE("Level_Name = '",E43,"' AND Level =",F43," AND Color =",G43," AND Linetype = '",H43,"' AND LineWt=",J43," AND RefName = '",A43,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_BRID' AND Level =11 AND Color =3 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'PBR'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_BRID' AND ''Level'' = '11' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'PBR'</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5181,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="H44" s="9" t="str">
-        <f>IF(ISBLANK(I44),"No Value",IF(I44=0,"Solid",IF(I44=1,"Dotted",IF(I44=2,"Medium-Dashed",IF(I44=3,"LongDashed",IF(I44=4,"LongDashed Dot Dot",IF(I44=6,"Medium-Dashed Dot Dot",IF(I44=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I44" s="6">
@@ -5197,12 +5203,12 @@
         <v>94</v>
       </c>
       <c r="M44" s="27" t="str">
-        <f>IF(ISBLANK(A44),L44, CONCATENATE(L44,"_",A44))</f>
+        <f t="shared" si="1"/>
         <v>road_area_RA</v>
       </c>
       <c r="N44" s="27" t="str">
-        <f>IF(ISBLANK(A44),(CONCATENATE("Level_Name = '",E44,"' AND Level =",F44," AND Color =",G44," AND Linetype = '",H44,"' AND LineWt=",J44)),(CONCATENATE("Level_Name = '",E44,"' AND Level =",F44," AND Color =",G44," AND Linetype = '",H44,"' AND LineWt=",J44," AND RefName = '",A44,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_TW' AND Level =1 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=2 AND RefName = 'RA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'RA'</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>682</v>
@@ -5234,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="9" t="str">
-        <f>IF(ISBLANK(I45),"No Value",IF(I45=0,"Solid",IF(I45=1,"Dotted",IF(I45=2,"Medium-Dashed",IF(I45=3,"LongDashed",IF(I45=4,"LongDashed Dot Dot",IF(I45=6,"Medium-Dashed Dot Dot",IF(I45=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I45" s="6">
@@ -5250,12 +5256,12 @@
         <v>94</v>
       </c>
       <c r="M45" s="27" t="str">
-        <f>IF(ISBLANK(A45),L45, CONCATENATE(L45,"_",A45))</f>
+        <f t="shared" si="1"/>
         <v>road_area_RC</v>
       </c>
       <c r="N45" s="27" t="str">
-        <f>IF(ISBLANK(A45),(CONCATENATE("Level_Name = '",E45,"' AND Level =",F45," AND Color =",G45," AND Linetype = '",H45,"' AND LineWt=",J45)),(CONCATENATE("Level_Name = '",E45,"' AND Level =",F45," AND Color =",G45," AND Linetype = '",H45,"' AND LineWt=",J45," AND RefName = '",A45,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_TW' AND Level =1 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=2 AND RefName = 'RC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'RC'</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -5285,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="9" t="str">
-        <f>IF(ISBLANK(I46),"No Value",IF(I46=0,"Solid",IF(I46=1,"Dotted",IF(I46=2,"Medium-Dashed",IF(I46=3,"LongDashed",IF(I46=4,"LongDashed Dot Dot",IF(I46=6,"Medium-Dashed Dot Dot",IF(I46=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I46" s="6">
@@ -5301,12 +5307,12 @@
         <v>94</v>
       </c>
       <c r="M46" s="27" t="str">
-        <f>IF(ISBLANK(A46),L46, CONCATENATE(L46,"_",A46))</f>
+        <f t="shared" si="1"/>
         <v>road_area_RDT</v>
       </c>
       <c r="N46" s="27" t="str">
-        <f>IF(ISBLANK(A46),(CONCATENATE("Level_Name = '",E46,"' AND Level =",F46," AND Color =",G46," AND Linetype = '",H46,"' AND LineWt=",J46)),(CONCATENATE("Level_Name = '",E46,"' AND Level =",F46," AND Color =",G46," AND Linetype = '",H46,"' AND LineWt=",J46," AND RefName = '",A46,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_UNPA' AND Level =3 AND Color =3 AND Linetype = 'Medium-Dashed' AND LineWt=0 AND RefName = 'RDT'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'RDT'</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -5336,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="9" t="str">
-        <f>IF(ISBLANK(I47),"No Value",IF(I47=0,"Solid",IF(I47=1,"Dotted",IF(I47=2,"Medium-Dashed",IF(I47=3,"LongDashed",IF(I47=4,"LongDashed Dot Dot",IF(I47=6,"Medium-Dashed Dot Dot",IF(I47=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I47" s="6">
@@ -5352,12 +5358,12 @@
         <v>197</v>
       </c>
       <c r="M47" s="27" t="str">
-        <f>IF(ISBLANK(A47),L47, CONCATENATE(L47,"_",A47))</f>
+        <f t="shared" si="1"/>
         <v>road_shoulder_area_SHA</v>
       </c>
       <c r="N47" s="27" t="str">
-        <f>IF(ISBLANK(A47),(CONCATENATE("Level_Name = '",E47,"' AND Level =",F47," AND Color =",G47," AND Linetype = '",H47,"' AND LineWt=",J47)),(CONCATENATE("Level_Name = '",E47,"' AND Level =",F47," AND Color =",G47," AND Linetype = '",H47,"' AND LineWt=",J47," AND RefName = '",A47,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'SHA'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'SHA'</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -5387,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="9" t="str">
-        <f>IF(ISBLANK(I48),"No Value",IF(I48=0,"Solid",IF(I48=1,"Dotted",IF(I48=2,"Medium-Dashed",IF(I48=3,"LongDashed",IF(I48=4,"LongDashed Dot Dot",IF(I48=6,"Medium-Dashed Dot Dot",IF(I48=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>LongDashed</v>
       </c>
       <c r="I48" s="6">
@@ -5403,12 +5409,12 @@
         <v>197</v>
       </c>
       <c r="M48" s="27" t="str">
-        <f>IF(ISBLANK(A48),L48, CONCATENATE(L48,"_",A48))</f>
+        <f t="shared" si="1"/>
         <v>road_shoulder_area_SHC</v>
       </c>
       <c r="N48" s="27" t="str">
-        <f>IF(ISBLANK(A48),(CONCATENATE("Level_Name = '",E48,"' AND Level =",F48," AND Color =",G48," AND Linetype = '",H48,"' AND LineWt=",J48)),(CONCATENATE("Level_Name = '",E48,"' AND Level =",F48," AND Color =",G48," AND Linetype = '",H48,"' AND LineWt=",J48," AND RefName = '",A48,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =4 AND Color =3 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'SHC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'SHC'</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -5438,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="9" t="str">
-        <f>IF(ISBLANK(I49),"No Value",IF(I49=0,"Solid",IF(I49=1,"Dotted",IF(I49=2,"Medium-Dashed",IF(I49=3,"LongDashed",IF(I49=4,"LongDashed Dot Dot",IF(I49=6,"Medium-Dashed Dot Dot",IF(I49=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I49" s="6">
@@ -5454,12 +5460,12 @@
         <v>197</v>
       </c>
       <c r="M49" s="27" t="str">
-        <f>IF(ISBLANK(A49),L49, CONCATENATE(L49,"_",A49))</f>
+        <f t="shared" si="1"/>
         <v>road_shoulder_area_SHDT</v>
       </c>
       <c r="N49" s="27" t="str">
-        <f>IF(ISBLANK(A49),(CONCATENATE("Level_Name = '",E49,"' AND Level =",F49," AND Color =",G49," AND Linetype = '",H49,"' AND LineWt=",J49)),(CONCATENATE("Level_Name = '",E49,"' AND Level =",F49," AND Color =",G49," AND Linetype = '",H49,"' AND LineWt=",J49," AND RefName = '",A49,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_UNPA' AND Level =3 AND Color =3 AND Linetype = 'Medium-Dashed' AND LineWt=0 AND RefName = 'SHDT'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'SHDT'</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -5489,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="9" t="str">
-        <f>IF(ISBLANK(I50),"No Value",IF(I50=0,"Solid",IF(I50=1,"Dotted",IF(I50=2,"Medium-Dashed",IF(I50=3,"LongDashed",IF(I50=4,"LongDashed Dot Dot",IF(I50=6,"Medium-Dashed Dot Dot",IF(I50=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I50" s="12">
@@ -5505,12 +5511,12 @@
         <v>319</v>
       </c>
       <c r="M50" s="27" t="str">
-        <f>IF(ISBLANK(A50),L50, CONCATENATE(L50,"_",A50))</f>
+        <f t="shared" si="1"/>
         <v>stmswr_drainage_basin_area_STO BASIN</v>
       </c>
       <c r="N50" s="27" t="str">
-        <f>IF(ISBLANK(A50),(CONCATENATE("Level_Name = '",E50,"' AND Level =",F50," AND Color =",G50," AND Linetype = '",H50,"' AND LineWt=",J50)),(CONCATENATE("Level_Name = '",E50,"' AND Level =",F50," AND Color =",G50," AND Linetype = '",H50,"' AND LineWt=",J50," AND RefName = '",A50,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_STRM' AND Level =31 AND Color =3 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'STO BASIN'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_UTIL_STRM' AND ''Level'' = '31' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'STO BASIN'</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5536,7 +5542,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="9" t="str">
-        <f>IF(ISBLANK(I51),"No Value",IF(I51=0,"Solid",IF(I51=1,"Dotted",IF(I51=2,"Medium-Dashed",IF(I51=3,"LongDashed",IF(I51=4,"LongDashed Dot Dot",IF(I51=6,"Medium-Dashed Dot Dot",IF(I51=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I51" s="3">
@@ -5552,12 +5558,12 @@
         <v>268</v>
       </c>
       <c r="M51" s="27" t="str">
-        <f>IF(ISBLANK(A51),L51, CONCATENATE(L51,"_",A51))</f>
+        <f t="shared" si="1"/>
         <v>unknown_tank_area_TK</v>
       </c>
       <c r="N51" s="27" t="str">
-        <f>IF(ISBLANK(A51),(CONCATENATE("Level_Name = '",E51,"' AND Level =",F51," AND Color =",G51," AND Linetype = '",H51,"' AND LineWt=",J51)),(CONCATENATE("Level_Name = '",E51,"' AND Level =",F51," AND Color =",G51," AND Linetype = '",H51,"' AND LineWt=",J51," AND RefName = '",A51,"'")))</f>
-        <v>Level_Name = 'VA_SITE_TANK' AND Level =15 AND Color =3 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TK'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_TANK' AND ''Level'' = '15' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TK'</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -5584,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="9" t="str">
-        <f>IF(ISBLANK(I52),"No Value",IF(I52=0,"Solid",IF(I52=1,"Dotted",IF(I52=2,"Medium-Dashed",IF(I52=3,"LongDashed",IF(I52=4,"LongDashed Dot Dot",IF(I52=6,"Medium-Dashed Dot Dot",IF(I52=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I52" s="12">
@@ -5600,12 +5606,12 @@
         <v>52</v>
       </c>
       <c r="M52" s="27" t="str">
-        <f>IF(ISBLANK(A52),L52, CONCATENATE(L52,"_",A52))</f>
+        <f t="shared" si="1"/>
         <v>curb_line</v>
       </c>
       <c r="N52" s="27" t="str">
-        <f>IF(ISBLANK(A52),(CONCATENATE("Level_Name = '",E52,"' AND Level =",F52," AND Color =",G52," AND Linetype = '",H52,"' AND LineWt=",J52)),(CONCATENATE("Level_Name = '",E52,"' AND Level =",F52," AND Color =",G52," AND Linetype = '",H52,"' AND LineWt=",J52," AND RefName = '",A52,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_CURB' AND Level =2 AND Color =3 AND Linetype = 'Medium-Dashed' AND LineWt=2</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_CURB' AND ''Level'' = '2' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '2'</v>
       </c>
       <c r="O52" s="48" t="s">
         <v>682</v>
@@ -5639,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="9" t="str">
-        <f>IF(ISBLANK(I53),"No Value",IF(I53=0,"Solid",IF(I53=1,"Dotted",IF(I53=2,"Medium-Dashed",IF(I53=3,"LongDashed",IF(I53=4,"LongDashed Dot Dot",IF(I53=6,"Medium-Dashed Dot Dot",IF(I53=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I53" s="12">
@@ -5655,12 +5661,12 @@
         <v>52</v>
       </c>
       <c r="M53" s="27" t="str">
-        <f>IF(ISBLANK(A53),L53, CONCATENATE(L53,"_",A53))</f>
+        <f t="shared" si="1"/>
         <v>curb_line</v>
       </c>
       <c r="N53" s="27" t="str">
-        <f>IF(ISBLANK(A53),(CONCATENATE("Level_Name = '",E53,"' AND Level =",F53," AND Color =",G53," AND Linetype = '",H53,"' AND LineWt=",J53)),(CONCATENATE("Level_Name = '",E53,"' AND Level =",F53," AND Color =",G53," AND Linetype = '",H53,"' AND LineWt=",J53," AND RefName = '",A53,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_CURB' AND Level =2 AND Color =3 AND Linetype = 'Solid' AND LineWt=2</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_CURB' AND ''Level'' = '2' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2'</v>
       </c>
       <c r="O53" s="48" t="s">
         <v>682</v>
@@ -5691,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="H54" s="9" t="str">
-        <f>IF(ISBLANK(I54),"No Value",IF(I54=0,"Solid",IF(I54=1,"Dotted",IF(I54=2,"Medium-Dashed",IF(I54=3,"LongDashed",IF(I54=4,"LongDashed Dot Dot",IF(I54=6,"Medium-Dashed Dot Dot",IF(I54=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I54" s="12">
@@ -5707,12 +5713,12 @@
         <v>387</v>
       </c>
       <c r="M54" s="27" t="str">
-        <f>IF(ISBLANK(A54),L54, CONCATENATE(L54,"_",A54))</f>
+        <f t="shared" si="1"/>
         <v>recreation_trail_centerline</v>
       </c>
       <c r="N54" s="27" t="str">
-        <f>IF(ISBLANK(A54),(CONCATENATE("Level_Name = '",E54,"' AND Level =",F54," AND Color =",G54," AND Linetype = '",H54,"' AND LineWt=",J54)),(CONCATENATE("Level_Name = '",E54,"' AND Level =",F54," AND Color =",G54," AND Linetype = '",H54,"' AND LineWt=",J54," AND RefName = '",A54,"'")))</f>
-        <v>Level_Name = 'VA_SITE_TRLS' AND Level =5 AND Color =3 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_TRLS' AND ''Level'' = '5' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5735,7 +5741,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="9" t="b">
-        <f>IF(ISBLANK(I55),"No Value",IF(I55=0,"Solid",IF(I55=1,"Dotted",IF(I55=2,"Medium-Dashed",IF(I55=3,"LongDashed",IF(I55=4,"LongDashed Dot Dot",IF(I55=6,"Medium-Dashed Dot Dot",IF(I55=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="12">
@@ -5751,12 +5757,12 @@
         <v>86</v>
       </c>
       <c r="M55" s="27" t="str">
-        <f>IF(ISBLANK(A55),L55, CONCATENATE(L55,"_",A55))</f>
+        <f t="shared" si="1"/>
         <v>pedestrian_trail_centerline</v>
       </c>
       <c r="N55" s="27" t="str">
-        <f>IF(ISBLANK(A55),(CONCATENATE("Level_Name = '",E55,"' AND Level =",F55," AND Color =",G55," AND Linetype = '",H55,"' AND LineWt=",J55)),(CONCATENATE("Level_Name = '",E55,"' AND Level =",F55," AND Color =",G55," AND Linetype = '",H55,"' AND LineWt=",J55," AND RefName = '",A55,"'")))</f>
-        <v>Level_Name = 'VA_SITE_TRLS' AND Level =5 AND Color =3 AND Linetype = 'FALSE' AND LineWt=0</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_TRLS' AND ''Level'' = '5' AND ''Color'' = '3' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5779,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="9" t="str">
-        <f>IF(ISBLANK(I56),"No Value",IF(I56=0,"Solid",IF(I56=1,"Dotted",IF(I56=2,"Medium-Dashed",IF(I56=3,"LongDashed",IF(I56=4,"LongDashed Dot Dot",IF(I56=6,"Medium-Dashed Dot Dot",IF(I56=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Dotted</v>
       </c>
       <c r="I56" s="12">
@@ -5795,12 +5801,12 @@
         <v>388</v>
       </c>
       <c r="M56" s="27" t="str">
-        <f>IF(ISBLANK(A56),L56, CONCATENATE(L56,"_",A56))</f>
+        <f t="shared" si="1"/>
         <v>road_bridge_centerline</v>
       </c>
       <c r="N56" s="27" t="str">
-        <f>IF(ISBLANK(A56),(CONCATENATE("Level_Name = '",E56,"' AND Level =",F56," AND Color =",G56," AND Linetype = '",H56,"' AND LineWt=",J56)),(CONCATENATE("Level_Name = '",E56,"' AND Level =",F56," AND Color =",G56," AND Linetype = '",H56,"' AND LineWt=",J56," AND RefName = '",A56,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_BRID' AND Level =11 AND Color =3 AND Linetype = 'Dotted' AND LineWt=0</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_BRID' AND ''Level'' = '11' AND ''Color'' = '3' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5826,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="9" t="str">
-        <f>IF(ISBLANK(I57),"No Value",IF(I57=0,"Solid",IF(I57=1,"Dotted",IF(I57=2,"Medium-Dashed",IF(I57=3,"LongDashed",IF(I57=4,"LongDashed Dot Dot",IF(I57=6,"Medium-Dashed Dot Dot",IF(I57=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I57" s="6">
@@ -5842,12 +5848,12 @@
         <v>93</v>
       </c>
       <c r="M57" s="27" t="str">
-        <f>IF(ISBLANK(A57),L57, CONCATENATE(L57,"_",A57))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_AAC</v>
       </c>
       <c r="N57" s="27" t="str">
-        <f>IF(ISBLANK(A57),(CONCATENATE("Level_Name = '",E57,"' AND Level =",F57," AND Color =",G57," AND Linetype = '",H57,"' AND LineWt=",J57)),(CONCATENATE("Level_Name = '",E57,"' AND Level =",F57," AND Color =",G57," AND Linetype = '",H57,"' AND LineWt=",J57," AND RefName = '",A57,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'AAC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AAC'</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -5877,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="9" t="str">
-        <f>IF(ISBLANK(I58),"No Value",IF(I58=0,"Solid",IF(I58=1,"Dotted",IF(I58=2,"Medium-Dashed",IF(I58=3,"LongDashed",IF(I58=4,"LongDashed Dot Dot",IF(I58=6,"Medium-Dashed Dot Dot",IF(I58=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I58" s="6">
@@ -5893,12 +5899,12 @@
         <v>93</v>
       </c>
       <c r="M58" s="27" t="str">
-        <f>IF(ISBLANK(A58),L58, CONCATENATE(L58,"_",A58))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ACC</v>
       </c>
       <c r="N58" s="27" t="str">
-        <f>IF(ISBLANK(A58),(CONCATENATE("Level_Name = '",E58,"' AND Level =",F58," AND Color =",G58," AND Linetype = '",H58,"' AND LineWt=",J58)),(CONCATENATE("Level_Name = '",E58,"' AND Level =",F58," AND Color =",G58," AND Linetype = '",H58,"' AND LineWt=",J58," AND RefName = '",A58,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ACC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ACC'</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -5931,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="9" t="str">
-        <f>IF(ISBLANK(I59),"No Value",IF(I59=0,"Solid",IF(I59=1,"Dotted",IF(I59=2,"Medium-Dashed",IF(I59=3,"LongDashed",IF(I59=4,"LongDashed Dot Dot",IF(I59=6,"Medium-Dashed Dot Dot",IF(I59=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I59" s="6">
@@ -5947,12 +5953,12 @@
         <v>93</v>
       </c>
       <c r="M59" s="27" t="str">
-        <f>IF(ISBLANK(A59),L59, CONCATENATE(L59,"_",A59))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_AEC</v>
       </c>
       <c r="N59" s="27" t="str">
-        <f>IF(ISBLANK(A59),(CONCATENATE("Level_Name = '",E59,"' AND Level =",F59," AND Color =",G59," AND Linetype = '",H59,"' AND LineWt=",J59)),(CONCATENATE("Level_Name = '",E59,"' AND Level =",F59," AND Color =",G59," AND Linetype = '",H59,"' AND LineWt=",J59," AND RefName = '",A59,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'AEC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AEC'</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
@@ -5983,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="9" t="str">
-        <f>IF(ISBLANK(I60),"No Value",IF(I60=0,"Solid",IF(I60=1,"Dotted",IF(I60=2,"Medium-Dashed",IF(I60=3,"LongDashed",IF(I60=4,"LongDashed Dot Dot",IF(I60=6,"Medium-Dashed Dot Dot",IF(I60=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I60" s="6">
@@ -5999,12 +6005,12 @@
         <v>93</v>
       </c>
       <c r="M60" s="27" t="str">
-        <f>IF(ISBLANK(A60),L60, CONCATENATE(L60,"_",A60))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_AHC</v>
       </c>
       <c r="N60" s="27" t="str">
-        <f>IF(ISBLANK(A60),(CONCATENATE("Level_Name = '",E60,"' AND Level =",F60," AND Color =",G60," AND Linetype = '",H60,"' AND LineWt=",J60)),(CONCATENATE("Level_Name = '",E60,"' AND Level =",F60," AND Color =",G60," AND Linetype = '",H60,"' AND LineWt=",J60," AND RefName = '",A60,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'AHC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AHC'</v>
       </c>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
@@ -6035,7 +6041,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="9" t="str">
-        <f>IF(ISBLANK(I61),"No Value",IF(I61=0,"Solid",IF(I61=1,"Dotted",IF(I61=2,"Medium-Dashed",IF(I61=3,"LongDashed",IF(I61=4,"LongDashed Dot Dot",IF(I61=6,"Medium-Dashed Dot Dot",IF(I61=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I61" s="6">
@@ -6051,12 +6057,12 @@
         <v>93</v>
       </c>
       <c r="M61" s="27" t="str">
-        <f>IF(ISBLANK(A61),L61, CONCATENATE(L61,"_",A61))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_APC</v>
       </c>
       <c r="N61" s="27" t="str">
-        <f>IF(ISBLANK(A61),(CONCATENATE("Level_Name = '",E61,"' AND Level =",F61," AND Color =",G61," AND Linetype = '",H61,"' AND LineWt=",J61)),(CONCATENATE("Level_Name = '",E61,"' AND Level =",F61," AND Color =",G61," AND Linetype = '",H61,"' AND LineWt=",J61," AND RefName = '",A61,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'APC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'APC'</v>
       </c>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
@@ -6089,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="9" t="str">
-        <f>IF(ISBLANK(I62),"No Value",IF(I62=0,"Solid",IF(I62=1,"Dotted",IF(I62=2,"Medium-Dashed",IF(I62=3,"LongDashed",IF(I62=4,"LongDashed Dot Dot",IF(I62=6,"Medium-Dashed Dot Dot",IF(I62=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I62" s="6">
@@ -6105,12 +6111,12 @@
         <v>93</v>
       </c>
       <c r="M62" s="27" t="str">
-        <f>IF(ISBLANK(A62),L62, CONCATENATE(L62,"_",A62))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ARC</v>
       </c>
       <c r="N62" s="27" t="str">
-        <f>IF(ISBLANK(A62),(CONCATENATE("Level_Name = '",E62,"' AND Level =",F62," AND Color =",G62," AND Linetype = '",H62,"' AND LineWt=",J62)),(CONCATENATE("Level_Name = '",E62,"' AND Level =",F62," AND Color =",G62," AND Linetype = '",H62,"' AND LineWt=",J62," AND RefName = '",A62,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ARC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ARC'</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -6140,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="9" t="str">
-        <f>IF(ISBLANK(I63),"No Value",IF(I63=0,"Solid",IF(I63=1,"Dotted",IF(I63=2,"Medium-Dashed",IF(I63=3,"LongDashed",IF(I63=4,"LongDashed Dot Dot",IF(I63=6,"Medium-Dashed Dot Dot",IF(I63=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I63" s="6">
@@ -6156,12 +6162,12 @@
         <v>93</v>
       </c>
       <c r="M63" s="27" t="str">
-        <f>IF(ISBLANK(A63),L63, CONCATENATE(L63,"_",A63))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ASC</v>
       </c>
       <c r="N63" s="27" t="str">
-        <f>IF(ISBLANK(A63),(CONCATENATE("Level_Name = '",E63,"' AND Level =",F63," AND Color =",G63," AND Linetype = '",H63,"' AND LineWt=",J63)),(CONCATENATE("Level_Name = '",E63,"' AND Level =",F63," AND Color =",G63," AND Linetype = '",H63,"' AND LineWt=",J63," AND RefName = '",A63,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ASC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ASC'</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -6191,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="9" t="str">
-        <f>IF(ISBLANK(I64),"No Value",IF(I64=0,"Solid",IF(I64=1,"Dotted",IF(I64=2,"Medium-Dashed",IF(I64=3,"LongDashed",IF(I64=4,"LongDashed Dot Dot",IF(I64=6,"Medium-Dashed Dot Dot",IF(I64=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I64" s="6">
@@ -6207,12 +6213,12 @@
         <v>93</v>
       </c>
       <c r="M64" s="27" t="str">
-        <f>IF(ISBLANK(A64),L64, CONCATENATE(L64,"_",A64))</f>
+        <f t="shared" si="1"/>
         <v>airfield_surface_area_ATC</v>
       </c>
       <c r="N64" s="27" t="str">
-        <f>IF(ISBLANK(A64),(CONCATENATE("Level_Name = '",E64,"' AND Level =",F64," AND Color =",G64," AND Linetype = '",H64,"' AND LineWt=",J64)),(CONCATENATE("Level_Name = '",E64,"' AND Level =",F64," AND Color =",G64," AND Linetype = '",H64,"' AND LineWt=",J64," AND RefName = '",A64,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ATC'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ATC'</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
@@ -6242,7 +6248,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="9" t="str">
-        <f>IF(ISBLANK(I65),"No Value",IF(I65=0,"Solid",IF(I65=1,"Dotted",IF(I65=2,"Medium-Dashed",IF(I65=3,"LongDashed",IF(I65=4,"LongDashed Dot Dot",IF(I65=6,"Medium-Dashed Dot Dot",IF(I65=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="0"/>
         <v>Solid</v>
       </c>
       <c r="I65" s="6">
@@ -6258,12 +6264,12 @@
         <v>110</v>
       </c>
       <c r="M65" s="27" t="str">
-        <f>IF(ISBLANK(A65),L65, CONCATENATE(L65,"_",A65))</f>
+        <f t="shared" si="1"/>
         <v>structure_existing_area_B</v>
       </c>
       <c r="N65" s="27" t="str">
-        <f>IF(ISBLANK(A65),(CONCATENATE("Level_Name = '",E65,"' AND Level =",F65," AND Color =",G65," AND Linetype = '",H65,"' AND LineWt=",J65)),(CONCATENATE("Level_Name = '",E65,"' AND Level =",F65," AND Color =",G65," AND Linetype = '",H65,"' AND LineWt=",J65," AND RefName = '",A65,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'B'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'B'</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
@@ -6293,7 +6299,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="9" t="str">
-        <f>IF(ISBLANK(I66),"No Value",IF(I66=0,"Solid",IF(I66=1,"Dotted",IF(I66=2,"Medium-Dashed",IF(I66=3,"LongDashed",IF(I66=4,"LongDashed Dot Dot",IF(I66=6,"Medium-Dashed Dot Dot",IF(I66=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H66:H129" si="3">IF(ISBLANK(I66),"No Value",IF(I66=0,"Solid",IF(I66=1,"Dotted",IF(I66=2,"Medium-Dashed",IF(I66=3,"LongDashed",IF(I66=4,"LongDashed Dot Dot",IF(I66=6,"Medium-Dashed Dot Dot",IF(I66=7,"Solid Medium-Dashed" ))))))))</f>
         <v>Solid</v>
       </c>
       <c r="I66" s="6">
@@ -6309,12 +6315,12 @@
         <v>362</v>
       </c>
       <c r="M66" s="27" t="str">
-        <f>IF(ISBLANK(A66),L66, CONCATENATE(L66,"_",A66))</f>
+        <f t="shared" ref="M66:M129" si="4">IF(ISBLANK(A66),L66, CONCATENATE(L66,"_",A66))</f>
         <v>ammunition_storage_area_BKW</v>
       </c>
       <c r="N66" s="27" t="str">
-        <f>IF(ISBLANK(A66),(CONCATENATE("Level_Name = '",E66,"' AND Level =",F66," AND Color =",G66," AND Linetype = '",H66,"' AND LineWt=",J66)),(CONCATENATE("Level_Name = '",E66,"' AND Level =",F66," AND Color =",G66," AND Linetype = '",H66,"' AND LineWt=",J66," AND RefName = '",A66,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'BKW'</v>
+        <f t="shared" si="2"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'BKW'</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6340,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="9" t="str">
-        <f>IF(ISBLANK(I67),"No Value",IF(I67=0,"Solid",IF(I67=1,"Dotted",IF(I67=2,"Medium-Dashed",IF(I67=3,"LongDashed",IF(I67=4,"LongDashed Dot Dot",IF(I67=6,"Medium-Dashed Dot Dot",IF(I67=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I67" s="6">
@@ -6356,12 +6362,12 @@
         <v>362</v>
       </c>
       <c r="M67" s="27" t="str">
-        <f>IF(ISBLANK(A67),L67, CONCATENATE(L67,"_",A67))</f>
+        <f t="shared" si="4"/>
         <v>ammunition_storage_area_BUNKER</v>
       </c>
       <c r="N67" s="27" t="str">
-        <f>IF(ISBLANK(A67),(CONCATENATE("Level_Name = '",E67,"' AND Level =",F67," AND Color =",G67," AND Linetype = '",H67,"' AND LineWt=",J67)),(CONCATENATE("Level_Name = '",E67,"' AND Level =",F67," AND Color =",G67," AND Linetype = '",H67,"' AND LineWt=",J67," AND RefName = '",A67,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'BUNKER'</v>
+        <f t="shared" ref="N67:N130" si="5">IF(ISBLANK(A67),(CONCATENATE("''Level_Name'' = '",E67,"' AND ''Level'' = '",F67,"' AND ''Color'' = '",G67,"' AND ''Linetype'' = '",H67,"' AND ''LineWt''= '",J67,"'")),(CONCATENATE("''Level_Name'' = '",E67,"' AND ''Level'' = '",F67,"' AND ''Color'' = '",G67,"' AND ''Linetype'' = '",H67,"' AND ''LineWt''= '",J67,"' AND ''RefName'' = '",A67,"'")))</f>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'BUNKER'</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6387,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="9" t="str">
-        <f>IF(ISBLANK(I68),"No Value",IF(I68=0,"Solid",IF(I68=1,"Dotted",IF(I68=2,"Medium-Dashed",IF(I68=3,"LongDashed",IF(I68=4,"LongDashed Dot Dot",IF(I68=6,"Medium-Dashed Dot Dot",IF(I68=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I68" s="6">
@@ -6403,12 +6409,12 @@
         <v>34</v>
       </c>
       <c r="M68" s="27" t="str">
-        <f>IF(ISBLANK(A68),L68, CONCATENATE(L68,"_",A68))</f>
+        <f t="shared" si="4"/>
         <v>slab_area_C</v>
       </c>
       <c r="N68" s="27" t="str">
-        <f>IF(ISBLANK(A68),(CONCATENATE("Level_Name = '",E68,"' AND Level =",F68," AND Color =",G68," AND Linetype = '",H68,"' AND LineWt=",J68)),(CONCATENATE("Level_Name = '",E68,"' AND Level =",F68," AND Color =",G68," AND Linetype = '",H68,"' AND LineWt=",J68," AND RefName = '",A68,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'C'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'C'</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
@@ -6438,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="9" t="str">
-        <f>IF(ISBLANK(I69),"No Value",IF(I69=0,"Solid",IF(I69=1,"Dotted",IF(I69=2,"Medium-Dashed",IF(I69=3,"LongDashed",IF(I69=4,"LongDashed Dot Dot",IF(I69=6,"Medium-Dashed Dot Dot",IF(I69=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I69" s="6">
@@ -6454,12 +6460,12 @@
         <v>138</v>
       </c>
       <c r="M69" s="27" t="str">
-        <f>IF(ISBLANK(A69),L69, CONCATENATE(L69,"_",A69))</f>
+        <f t="shared" si="4"/>
         <v>canopy_pavilion_area_CAN</v>
       </c>
       <c r="N69" s="27" t="str">
-        <f>IF(ISBLANK(A69),(CONCATENATE("Level_Name = '",E69,"' AND Level =",F69," AND Color =",G69," AND Linetype = '",H69,"' AND LineWt=",J69)),(CONCATENATE("Level_Name = '",E69,"' AND Level =",F69," AND Color =",G69," AND Linetype = '",H69,"' AND LineWt=",J69," AND RefName = '",A69,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PATI' AND Level =12 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CAN'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CAN'</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -6492,7 +6498,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="9" t="str">
-        <f>IF(ISBLANK(I70),"No Value",IF(I70=0,"Solid",IF(I70=1,"Dotted",IF(I70=2,"Medium-Dashed",IF(I70=3,"LongDashed",IF(I70=4,"LongDashed Dot Dot",IF(I70=6,"Medium-Dashed Dot Dot",IF(I70=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I70" s="6">
@@ -6508,12 +6514,12 @@
         <v>677</v>
       </c>
       <c r="M70" s="27" t="str">
-        <f>IF(ISBLANK(A70),L70, CONCATENATE(L70,"_",A70))</f>
+        <f t="shared" si="4"/>
         <v>carport_area_CARPORT</v>
       </c>
       <c r="N70" s="27" t="str">
-        <f>IF(ISBLANK(A70),(CONCATENATE("Level_Name = '",E70,"' AND Level =",F70," AND Color =",G70," AND Linetype = '",H70,"' AND LineWt=",J70)),(CONCATENATE("Level_Name = '",E70,"' AND Level =",F70," AND Color =",G70," AND Linetype = '",H70,"' AND LineWt=",J70," AND RefName = '",A70,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PATI' AND Level =12 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CARPORT'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CARPORT'</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
@@ -6546,7 +6552,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="9" t="str">
-        <f>IF(ISBLANK(I71),"No Value",IF(I71=0,"Solid",IF(I71=1,"Dotted",IF(I71=2,"Medium-Dashed",IF(I71=3,"LongDashed",IF(I71=4,"LongDashed Dot Dot",IF(I71=6,"Medium-Dashed Dot Dot",IF(I71=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I71" s="12">
@@ -6562,12 +6568,12 @@
         <v>446</v>
       </c>
       <c r="M71" s="27" t="str">
-        <f>IF(ISBLANK(A71),L71, CONCATENATE(L71,"_",A71))</f>
+        <f t="shared" si="4"/>
         <v>storm_culvert_area_CS</v>
       </c>
       <c r="N71" s="27" t="str">
-        <f>IF(ISBLANK(A71),(CONCATENATE("Level_Name = '",E71,"' AND Level =",F71," AND Color =",G71," AND Linetype = '",H71,"' AND LineWt=",J71)),(CONCATENATE("Level_Name = '",E71,"' AND Level =",F71," AND Color =",G71," AND Linetype = '",H71,"' AND LineWt=",J71," AND RefName = '",A71,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CLVT' AND Level =14 AND Color =4 AND Linetype = 'Medium-Dashed' AND LineWt=0 AND RefName = 'CS'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'CS'</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6593,7 +6599,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="9" t="str">
-        <f>IF(ISBLANK(I72),"No Value",IF(I72=0,"Solid",IF(I72=1,"Dotted",IF(I72=2,"Medium-Dashed",IF(I72=3,"LongDashed",IF(I72=4,"LongDashed Dot Dot",IF(I72=6,"Medium-Dashed Dot Dot",IF(I72=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I72" s="6">
@@ -6609,12 +6615,12 @@
         <v>37</v>
       </c>
       <c r="M72" s="27" t="str">
-        <f>IF(ISBLANK(A72),L72, CONCATENATE(L72,"_",A72))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_DECK</v>
       </c>
       <c r="N72" s="27" t="str">
-        <f>IF(ISBLANK(A72),(CONCATENATE("Level_Name = '",E72,"' AND Level =",F72," AND Color =",G72," AND Linetype = '",H72,"' AND LineWt=",J72)),(CONCATENATE("Level_Name = '",E72,"' AND Level =",F72," AND Color =",G72," AND Linetype = '",H72,"' AND LineWt=",J72," AND RefName = '",A72,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PATI' AND Level =12 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'DECK'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DECK'</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -6644,7 +6650,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="9" t="str">
-        <f>IF(ISBLANK(I73),"No Value",IF(I73=0,"Solid",IF(I73=1,"Dotted",IF(I73=2,"Medium-Dashed",IF(I73=3,"LongDashed",IF(I73=4,"LongDashed Dot Dot",IF(I73=6,"Medium-Dashed Dot Dot",IF(I73=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>LongDashed</v>
       </c>
       <c r="I73" s="72">
@@ -6660,12 +6666,12 @@
         <v>34</v>
       </c>
       <c r="M73" s="27" t="str">
-        <f>IF(ISBLANK(A73),L73, CONCATENATE(L73,"_",A73))</f>
+        <f t="shared" si="4"/>
         <v>slab_area_FOUND</v>
       </c>
       <c r="N73" s="27" t="str">
-        <f>IF(ISBLANK(A73),(CONCATENATE("Level_Name = '",E73,"' AND Level =",F73," AND Color =",G73," AND Linetype = '",H73,"' AND LineWt=",J73)),(CONCATENATE("Level_Name = '",E73,"' AND Level =",F73," AND Color =",G73," AND Linetype = '",H73,"' AND LineWt=",J73," AND RefName = '",A73,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'LongDashed' AND LineWt=2 AND RefName = 'FOUND'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'FOUND'</v>
       </c>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
@@ -6696,7 +6702,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="9" t="str">
-        <f>IF(ISBLANK(I74),"No Value",IF(I74=0,"Solid",IF(I74=1,"Dotted",IF(I74=2,"Medium-Dashed",IF(I74=3,"LongDashed",IF(I74=4,"LongDashed Dot Dot",IF(I74=6,"Medium-Dashed Dot Dot",IF(I74=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I74" s="6">
@@ -6712,12 +6718,12 @@
         <v>110</v>
       </c>
       <c r="M74" s="27" t="str">
-        <f>IF(ISBLANK(A74),L74, CONCATENATE(L74,"_",A74))</f>
+        <f t="shared" si="4"/>
         <v>structure_existing_area_GREENHOUSE</v>
       </c>
       <c r="N74" s="27" t="str">
-        <f>IF(ISBLANK(A74),(CONCATENATE("Level_Name = '",E74,"' AND Level =",F74," AND Color =",G74," AND Linetype = '",H74,"' AND LineWt=",J74)),(CONCATENATE("Level_Name = '",E74,"' AND Level =",F74," AND Color =",G74," AND Linetype = '",H74,"' AND LineWt=",J74," AND RefName = '",A74,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'GREENHOUSE'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'GREENHOUSE'</v>
       </c>
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
@@ -6748,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="9" t="str">
-        <f>IF(ISBLANK(I75),"No Value",IF(I75=0,"Solid",IF(I75=1,"Dotted",IF(I75=2,"Medium-Dashed",IF(I75=3,"LongDashed",IF(I75=4,"LongDashed Dot Dot",IF(I75=6,"Medium-Dashed Dot Dot",IF(I75=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I75" s="6">
@@ -6764,12 +6770,12 @@
         <v>138</v>
       </c>
       <c r="M75" s="27" t="str">
-        <f>IF(ISBLANK(A75),L75, CONCATENATE(L75,"_",A75))</f>
+        <f t="shared" si="4"/>
         <v>canopy_pavilion_area_LAT</v>
       </c>
       <c r="N75" s="27" t="str">
-        <f>IF(ISBLANK(A75),(CONCATENATE("Level_Name = '",E75,"' AND Level =",F75," AND Color =",G75," AND Linetype = '",H75,"' AND LineWt=",J75)),(CONCATENATE("Level_Name = '",E75,"' AND Level =",F75," AND Color =",G75," AND Linetype = '",H75,"' AND LineWt=",J75," AND RefName = '",A75,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PATI' AND Level =12 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'LAT'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LAT'</v>
       </c>
       <c r="S75" s="4" t="s">
         <v>360</v>
@@ -6798,7 +6804,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="9" t="str">
-        <f>IF(ISBLANK(I76),"No Value",IF(I76=0,"Solid",IF(I76=1,"Dotted",IF(I76=2,"Medium-Dashed",IF(I76=3,"LongDashed",IF(I76=4,"LongDashed Dot Dot",IF(I76=6,"Medium-Dashed Dot Dot",IF(I76=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I76" s="6">
@@ -6814,12 +6820,12 @@
         <v>110</v>
       </c>
       <c r="M76" s="27" t="str">
-        <f>IF(ISBLANK(A76),L76, CONCATENATE(L76,"_",A76))</f>
+        <f t="shared" si="4"/>
         <v>structure_existing_area_MBH</v>
       </c>
       <c r="N76" s="27" t="str">
-        <f>IF(ISBLANK(A76),(CONCATENATE("Level_Name = '",E76,"' AND Level =",F76," AND Color =",G76," AND Linetype = '",H76,"' AND LineWt=",J76)),(CONCATENATE("Level_Name = '",E76,"' AND Level =",F76," AND Color =",G76," AND Linetype = '",H76,"' AND LineWt=",J76," AND RefName = '",A76,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'MBH'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'MBH'</v>
       </c>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
@@ -6849,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="9" t="str">
-        <f>IF(ISBLANK(I77),"No Value",IF(I77=0,"Solid",IF(I77=1,"Dotted",IF(I77=2,"Medium-Dashed",IF(I77=3,"LongDashed",IF(I77=4,"LongDashed Dot Dot",IF(I77=6,"Medium-Dashed Dot Dot",IF(I77=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I77" s="6">
@@ -6865,12 +6871,12 @@
         <v>31</v>
       </c>
       <c r="M77" s="27" t="str">
-        <f>IF(ISBLANK(A77),L77, CONCATENATE(L77,"_",A77))</f>
+        <f t="shared" si="4"/>
         <v>vehicle_parking_area_PA</v>
       </c>
       <c r="N77" s="27" t="str">
-        <f>IF(ISBLANK(A77),(CONCATENATE("Level_Name = '",E77,"' AND Level =",F77," AND Color =",G77," AND Linetype = '",H77,"' AND LineWt=",J77)),(CONCATENATE("Level_Name = '",E77,"' AND Level =",F77," AND Color =",G77," AND Linetype = '",H77,"' AND LineWt=",J77," AND RefName = '",A77,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PKNG' AND Level =7 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PA'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PKNG' AND ''Level'' = '7' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PA'</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
@@ -6900,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="H78" s="9" t="str">
-        <f>IF(ISBLANK(I78),"No Value",IF(I78=0,"Solid",IF(I78=1,"Dotted",IF(I78=2,"Medium-Dashed",IF(I78=3,"LongDashed",IF(I78=4,"LongDashed Dot Dot",IF(I78=6,"Medium-Dashed Dot Dot",IF(I78=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I78" s="6">
@@ -6916,12 +6922,12 @@
         <v>31</v>
       </c>
       <c r="M78" s="27" t="str">
-        <f>IF(ISBLANK(A78),L78, CONCATENATE(L78,"_",A78))</f>
+        <f t="shared" si="4"/>
         <v>vehicle_parking_area_PC</v>
       </c>
       <c r="N78" s="27" t="str">
-        <f>IF(ISBLANK(A78),(CONCATENATE("Level_Name = '",E78,"' AND Level =",F78," AND Color =",G78," AND Linetype = '",H78,"' AND LineWt=",J78)),(CONCATENATE("Level_Name = '",E78,"' AND Level =",F78," AND Color =",G78," AND Linetype = '",H78,"' AND LineWt=",J78," AND RefName = '",A78,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PKNG' AND Level =7 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PC'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PKNG' AND ''Level'' = '7' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PC'</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
@@ -6951,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="9" t="str">
-        <f>IF(ISBLANK(I79),"No Value",IF(I79=0,"Solid",IF(I79=1,"Dotted",IF(I79=2,"Medium-Dashed",IF(I79=3,"LongDashed",IF(I79=4,"LongDashed Dot Dot",IF(I79=6,"Medium-Dashed Dot Dot",IF(I79=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>LongDashed</v>
       </c>
       <c r="I79" s="6">
@@ -6967,12 +6973,12 @@
         <v>31</v>
       </c>
       <c r="M79" s="27" t="str">
-        <f>IF(ISBLANK(A79),L79, CONCATENATE(L79,"_",A79))</f>
+        <f t="shared" si="4"/>
         <v>vehicle_parking_area_PDT</v>
       </c>
       <c r="N79" s="27" t="str">
-        <f>IF(ISBLANK(A79),(CONCATENATE("Level_Name = '",E79,"' AND Level =",F79," AND Color =",G79," AND Linetype = '",H79,"' AND LineWt=",J79)),(CONCATENATE("Level_Name = '",E79,"' AND Level =",F79," AND Color =",G79," AND Linetype = '",H79,"' AND LineWt=",J79," AND RefName = '",A79,"'")))</f>
-        <v>Level_Name = 'VA_SITE_UNPK' AND Level =8 AND Color =4 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'PDT'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_UNPK' AND ''Level'' = '8' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'PDT'</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -7002,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="9" t="str">
-        <f>IF(ISBLANK(I80),"No Value",IF(I80=0,"Solid",IF(I80=1,"Dotted",IF(I80=2,"Medium-Dashed",IF(I80=3,"LongDashed",IF(I80=4,"LongDashed Dot Dot",IF(I80=6,"Medium-Dashed Dot Dot",IF(I80=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>LongDashed</v>
       </c>
       <c r="I80" s="6">
@@ -7018,12 +7024,12 @@
         <v>31</v>
       </c>
       <c r="M80" s="27" t="str">
-        <f>IF(ISBLANK(A80),L80, CONCATENATE(L80,"_",A80))</f>
+        <f t="shared" si="4"/>
         <v>vehicle_parking_area_PGVL</v>
       </c>
       <c r="N80" s="27" t="str">
-        <f>IF(ISBLANK(A80),(CONCATENATE("Level_Name = '",E80,"' AND Level =",F80," AND Color =",G80," AND Linetype = '",H80,"' AND LineWt=",J80)),(CONCATENATE("Level_Name = '",E80,"' AND Level =",F80," AND Color =",G80," AND Linetype = '",H80,"' AND LineWt=",J80," AND RefName = '",A80,"'")))</f>
-        <v>Level_Name = 'VA_SITE_UNPK' AND Level =8 AND Color =4 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'PGVL'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_UNPK' AND ''Level'' = '8' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'PGVL'</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
@@ -7053,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="9" t="str">
-        <f>IF(ISBLANK(I81),"No Value",IF(I81=0,"Solid",IF(I81=1,"Dotted",IF(I81=2,"Medium-Dashed",IF(I81=3,"LongDashed",IF(I81=4,"LongDashed Dot Dot",IF(I81=6,"Medium-Dashed Dot Dot",IF(I81=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I81" s="6">
@@ -7069,12 +7075,12 @@
         <v>159</v>
       </c>
       <c r="M81" s="27" t="str">
-        <f>IF(ISBLANK(A81),L81, CONCATENATE(L81,"_",A81))</f>
+        <f t="shared" si="4"/>
         <v>swimming_pool_area_POOL</v>
       </c>
       <c r="N81" s="27" t="str">
-        <f>IF(ISBLANK(A81),(CONCATENATE("Level_Name = '",E81,"' AND Level =",F81," AND Color =",G81," AND Linetype = '",H81,"' AND LineWt=",J81)),(CONCATENATE("Level_Name = '",E81,"' AND Level =",F81," AND Color =",G81," AND Linetype = '",H81,"' AND LineWt=",J81," AND RefName = '",A81,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CONC' AND Level =14 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'POOL'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'POOL'</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
@@ -7104,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="9" t="str">
-        <f>IF(ISBLANK(I82),"No Value",IF(I82=0,"Solid",IF(I82=1,"Dotted",IF(I82=2,"Medium-Dashed",IF(I82=3,"LongDashed",IF(I82=4,"LongDashed Dot Dot",IF(I82=6,"Medium-Dashed Dot Dot",IF(I82=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I82" s="6">
@@ -7120,12 +7126,12 @@
         <v>37</v>
       </c>
       <c r="M82" s="27" t="str">
-        <f>IF(ISBLANK(A82),L82, CONCATENATE(L82,"_",A82))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_PTO</v>
       </c>
       <c r="N82" s="27" t="str">
-        <f>IF(ISBLANK(A82),(CONCATENATE("Level_Name = '",E82,"' AND Level =",F82," AND Color =",G82," AND Linetype = '",H82,"' AND LineWt=",J82)),(CONCATENATE("Level_Name = '",E82,"' AND Level =",F82," AND Color =",G82," AND Linetype = '",H82,"' AND LineWt=",J82," AND RefName = '",A82,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PATI' AND Level =12 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PTO'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PTO'</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -7155,7 +7161,7 @@
         <v>4</v>
       </c>
       <c r="H83" s="9" t="str">
-        <f>IF(ISBLANK(I83),"No Value",IF(I83=0,"Solid",IF(I83=1,"Dotted",IF(I83=2,"Medium-Dashed",IF(I83=3,"LongDashed",IF(I83=4,"LongDashed Dot Dot",IF(I83=6,"Medium-Dashed Dot Dot",IF(I83=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>LongDashed</v>
       </c>
       <c r="I83" s="6">
@@ -7171,12 +7177,12 @@
         <v>110</v>
       </c>
       <c r="M83" s="27" t="str">
-        <f>IF(ISBLANK(A83),L83, CONCATENATE(L83,"_",A83))</f>
+        <f t="shared" si="4"/>
         <v>structure_existing_area_RUIN</v>
       </c>
       <c r="N83" s="27" t="str">
-        <f>IF(ISBLANK(A83),(CONCATENATE("Level_Name = '",E83,"' AND Level =",F83," AND Color =",G83," AND Linetype = '",H83,"' AND LineWt=",J83)),(CONCATENATE("Level_Name = '",E83,"' AND Level =",F83," AND Color =",G83," AND Linetype = '",H83,"' AND LineWt=",J83," AND RefName = '",A83,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'LongDashed' AND LineWt=2 AND RefName = 'RUIN'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'RUIN'</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -7206,7 +7212,7 @@
         <v>4</v>
       </c>
       <c r="H84" s="9" t="str">
-        <f>IF(ISBLANK(I84),"No Value",IF(I84=0,"Solid",IF(I84=1,"Dotted",IF(I84=2,"Medium-Dashed",IF(I84=3,"LongDashed",IF(I84=4,"LongDashed Dot Dot",IF(I84=6,"Medium-Dashed Dot Dot",IF(I84=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I84" s="6">
@@ -7222,12 +7228,12 @@
         <v>428</v>
       </c>
       <c r="M84" s="27" t="str">
-        <f>IF(ISBLANK(A84),L84, CONCATENATE(L84,"_",A84))</f>
+        <f t="shared" si="4"/>
         <v>shed_area_SHED</v>
       </c>
       <c r="N84" s="27" t="str">
-        <f>IF(ISBLANK(A84),(CONCATENATE("Level_Name = '",E84,"' AND Level =",F84," AND Color =",G84," AND Linetype = '",H84,"' AND LineWt=",J84)),(CONCATENATE("Level_Name = '",E84,"' AND Level =",F84," AND Color =",G84," AND Linetype = '",H84,"' AND LineWt=",J84," AND RefName = '",A84,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_EASP' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'SHED'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'SHED'</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7253,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="9" t="str">
-        <f>IF(ISBLANK(I85),"No Value",IF(I85=0,"Solid",IF(I85=1,"Dotted",IF(I85=2,"Medium-Dashed",IF(I85=3,"LongDashed",IF(I85=4,"LongDashed Dot Dot",IF(I85=6,"Medium-Dashed Dot Dot",IF(I85=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I85" s="6">
@@ -7269,12 +7275,12 @@
         <v>463</v>
       </c>
       <c r="M85" s="27" t="str">
-        <f>IF(ISBLANK(A85),L85, CONCATENATE(L85,"_",A85))</f>
+        <f t="shared" si="4"/>
         <v>road_feature_area_SIGN</v>
       </c>
       <c r="N85" s="27" t="str">
-        <f>IF(ISBLANK(A85),(CONCATENATE("Level_Name = '",E85,"' AND Level =",F85," AND Color =",G85," AND Linetype = '",H85,"' AND LineWt=",J85)),(CONCATENATE("Level_Name = '",E85,"' AND Level =",F85," AND Color =",G85," AND Linetype = '",H85,"' AND LineWt=",J85," AND RefName = '",A85,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SIGN' AND Level =32 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SIGN'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_SIGN' AND ''Level'' = '32' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SIGN'</v>
       </c>
       <c r="O85" s="44"/>
       <c r="P85" s="44"/>
@@ -7305,7 +7311,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="9" t="str">
-        <f>IF(ISBLANK(I86),"No Value",IF(I86=0,"Solid",IF(I86=1,"Dotted",IF(I86=2,"Medium-Dashed",IF(I86=3,"LongDashed",IF(I86=4,"LongDashed Dot Dot",IF(I86=6,"Medium-Dashed Dot Dot",IF(I86=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I86" s="6">
@@ -7321,12 +7327,12 @@
         <v>650</v>
       </c>
       <c r="M86" s="27" t="str">
-        <f>IF(ISBLANK(A86),L86, CONCATENATE(L86,"_",A86))</f>
+        <f t="shared" si="4"/>
         <v>silo_area_SILO</v>
       </c>
       <c r="N86" s="27" t="str">
-        <f>IF(ISBLANK(A86),(CONCATENATE("Level_Name = '",E86,"' AND Level =",F86," AND Color =",G86," AND Linetype = '",H86,"' AND LineWt=",J86)),(CONCATENATE("Level_Name = '",E86,"' AND Level =",F86," AND Color =",G86," AND Linetype = '",H86,"' AND LineWt=",J86," AND RefName = '",A86,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'SILO'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'SILO'</v>
       </c>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
@@ -7356,7 +7362,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="9" t="str">
-        <f>IF(ISBLANK(I87),"No Value",IF(I87=0,"Solid",IF(I87=1,"Dotted",IF(I87=2,"Medium-Dashed",IF(I87=3,"LongDashed",IF(I87=4,"LongDashed Dot Dot",IF(I87=6,"Medium-Dashed Dot Dot",IF(I87=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I87" s="6">
@@ -7372,12 +7378,12 @@
         <v>32</v>
       </c>
       <c r="M87" s="27" t="str">
-        <f>IF(ISBLANK(A87),L87, CONCATENATE(L87,"_",A87))</f>
+        <f t="shared" si="4"/>
         <v>pedestrian_sidewalk_area_STAIRS</v>
       </c>
       <c r="N87" s="27" t="str">
-        <f>IF(ISBLANK(A87),(CONCATENATE("Level_Name = '",E87,"' AND Level =",F87," AND Color =",G87," AND Linetype = '",H87,"' AND LineWt=",J87)),(CONCATENATE("Level_Name = '",E87,"' AND Level =",F87," AND Color =",G87," AND Linetype = '",H87,"' AND LineWt=",J87," AND RefName = '",A87,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PATI' AND Level =12 AND Color =4 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'STAIRS'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'STAIRS'</v>
       </c>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
@@ -7407,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="9" t="b">
-        <f>IF(ISBLANK(I88),"No Value",IF(I88=0,"Solid",IF(I88=1,"Dotted",IF(I88=2,"Medium-Dashed",IF(I88=3,"LongDashed",IF(I88=4,"LongDashed Dot Dot",IF(I88=6,"Medium-Dashed Dot Dot",IF(I88=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="6">
@@ -7423,12 +7429,12 @@
         <v>110</v>
       </c>
       <c r="M88" s="27" t="str">
-        <f>IF(ISBLANK(A88),L88, CONCATENATE(L88,"_",A88))</f>
+        <f t="shared" si="4"/>
         <v>structure_existing_area_TENT</v>
       </c>
       <c r="N88" s="27" t="str">
-        <f>IF(ISBLANK(A88),(CONCATENATE("Level_Name = '",E88,"' AND Level =",F88," AND Color =",G88," AND Linetype = '",H88,"' AND LineWt=",J88)),(CONCATENATE("Level_Name = '",E88,"' AND Level =",F88," AND Color =",G88," AND Linetype = '",H88,"' AND LineWt=",J88," AND RefName = '",A88,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'FALSE' AND LineWt=2 AND RefName = 'TENT'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '2' AND ''RefName'' = 'TENT'</v>
       </c>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
@@ -7458,7 +7464,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="9" t="str">
-        <f>IF(ISBLANK(I89),"No Value",IF(I89=0,"Solid",IF(I89=1,"Dotted",IF(I89=2,"Medium-Dashed",IF(I89=3,"LongDashed",IF(I89=4,"LongDashed Dot Dot",IF(I89=6,"Medium-Dashed Dot Dot",IF(I89=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I89" s="6">
@@ -7474,12 +7480,12 @@
         <v>111</v>
       </c>
       <c r="M89" s="27" t="str">
-        <f>IF(ISBLANK(A89),L89, CONCATENATE(L89,"_",A89))</f>
+        <f t="shared" si="4"/>
         <v>tower_area_TOWER</v>
       </c>
       <c r="N89" s="27" t="str">
-        <f>IF(ISBLANK(A89),(CONCATENATE("Level_Name = '",E89,"' AND Level =",F89," AND Color =",G89," AND Linetype = '",H89,"' AND LineWt=",J89)),(CONCATENATE("Level_Name = '",E89,"' AND Level =",F89," AND Color =",G89," AND Linetype = '",H89,"' AND LineWt=",J89," AND RefName = '",A89,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'TOWER'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'TOWER'</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7505,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="H90" s="9" t="str">
-        <f>IF(ISBLANK(I90),"No Value",IF(I90=0,"Solid",IF(I90=1,"Dotted",IF(I90=2,"Medium-Dashed",IF(I90=3,"LongDashed",IF(I90=4,"LongDashed Dot Dot",IF(I90=6,"Medium-Dashed Dot Dot",IF(I90=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I90" s="3">
@@ -7521,12 +7527,12 @@
         <v>359</v>
       </c>
       <c r="M90" s="27" t="str">
-        <f>IF(ISBLANK(A90),L90, CONCATENATE(L90,"_",A90))</f>
+        <f t="shared" si="4"/>
         <v>wastewater_treat_plant_area_TRP</v>
       </c>
       <c r="N90" s="27" t="str">
-        <f>IF(ISBLANK(A90),(CONCATENATE("Level_Name = '",E90,"' AND Level =",F90," AND Color =",G90," AND Linetype = '",H90,"' AND LineWt=",J90)),(CONCATENATE("Level_Name = '",E90,"' AND Level =",F90," AND Color =",G90," AND Linetype = '",H90,"' AND LineWt=",J90," AND RefName = '",A90,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13 AND Color =4 AND Linetype = 'Solid' AND LineWt=2 AND RefName = 'TRP'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'TRP'</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7549,7 +7555,7 @@
         <v>4</v>
       </c>
       <c r="H91" s="9" t="str">
-        <f>IF(ISBLANK(I91),"No Value",IF(I91=0,"Solid",IF(I91=1,"Dotted",IF(I91=2,"Medium-Dashed",IF(I91=3,"LongDashed",IF(I91=4,"LongDashed Dot Dot",IF(I91=6,"Medium-Dashed Dot Dot",IF(I91=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I91" s="12">
@@ -7565,12 +7571,12 @@
         <v>380</v>
       </c>
       <c r="M91" s="27" t="str">
-        <f>IF(ISBLANK(A91),L91, CONCATENATE(L91,"_",A91))</f>
+        <f t="shared" si="4"/>
         <v>railroad_bridge_centerline</v>
       </c>
       <c r="N91" s="27" t="str">
-        <f>IF(ISBLANK(A91),(CONCATENATE("Level_Name = '",E91,"' AND Level =",F91," AND Color =",G91," AND Linetype = '",H91,"' AND LineWt=",J91)),(CONCATENATE("Level_Name = '",E91,"' AND Level =",F91," AND Color =",G91," AND Linetype = '",H91,"' AND LineWt=",J91," AND RefName = '",A91,"'")))</f>
-        <v>Level_Name = 'VA_SITE_RAIL' AND Level =10 AND Color =4 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_RAIL' AND ''Level'' = '10' AND ''Color'' = '4' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7593,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="9" t="str">
-        <f>IF(ISBLANK(I92),"No Value",IF(I92=0,"Solid",IF(I92=1,"Dotted",IF(I92=2,"Medium-Dashed",IF(I92=3,"LongDashed",IF(I92=4,"LongDashed Dot Dot",IF(I92=6,"Medium-Dashed Dot Dot",IF(I92=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I92" s="12">
@@ -7609,12 +7615,12 @@
         <v>85</v>
       </c>
       <c r="M92" s="27" t="str">
-        <f>IF(ISBLANK(A92),L92, CONCATENATE(L92,"_",A92))</f>
+        <f t="shared" si="4"/>
         <v>railroad_centerline</v>
       </c>
       <c r="N92" s="27" t="str">
-        <f>IF(ISBLANK(A92),(CONCATENATE("Level_Name = '",E92,"' AND Level =",F92," AND Color =",G92," AND Linetype = '",H92,"' AND LineWt=",J92)),(CONCATENATE("Level_Name = '",E92,"' AND Level =",F92," AND Color =",G92," AND Linetype = '",H92,"' AND LineWt=",J92," AND RefName = '",A92,"'")))</f>
-        <v>Level_Name = 'VA_SITE_RAIL' AND Level =10 AND Color =4 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_RAIL' AND ''Level'' = '10' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7637,7 +7643,7 @@
         <v>4</v>
       </c>
       <c r="H93" s="9" t="str">
-        <f>IF(ISBLANK(I93),"No Value",IF(I93=0,"Solid",IF(I93=1,"Dotted",IF(I93=2,"Medium-Dashed",IF(I93=3,"LongDashed",IF(I93=4,"LongDashed Dot Dot",IF(I93=6,"Medium-Dashed Dot Dot",IF(I93=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I93" s="12">
@@ -7653,12 +7659,12 @@
         <v>57</v>
       </c>
       <c r="M93" s="27" t="str">
-        <f>IF(ISBLANK(A93),L93, CONCATENATE(L93,"_",A93))</f>
+        <f t="shared" si="4"/>
         <v>wall_line</v>
       </c>
       <c r="N93" s="27" t="str">
-        <f>IF(ISBLANK(A93),(CONCATENATE("Level_Name = '",E93,"' AND Level =",F93," AND Color =",G93," AND Linetype = '",H93,"' AND LineWt=",J93)),(CONCATENATE("Level_Name = '",E93,"' AND Level =",F93," AND Color =",G93," AND Linetype = '",H93,"' AND LineWt=",J93," AND RefName = '",A93,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WALL' AND Level =21 AND Color =4 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7681,7 +7687,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="9" t="str">
-        <f>IF(ISBLANK(I94),"No Value",IF(I94=0,"Solid",IF(I94=1,"Dotted",IF(I94=2,"Medium-Dashed",IF(I94=3,"LongDashed",IF(I94=4,"LongDashed Dot Dot",IF(I94=6,"Medium-Dashed Dot Dot",IF(I94=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I94" s="12">
@@ -7697,12 +7703,12 @@
         <v>57</v>
       </c>
       <c r="M94" s="27" t="str">
-        <f>IF(ISBLANK(A94),L94, CONCATENATE(L94,"_",A94))</f>
+        <f t="shared" si="4"/>
         <v>wall_line</v>
       </c>
       <c r="N94" s="27" t="str">
-        <f>IF(ISBLANK(A94),(CONCATENATE("Level_Name = '",E94,"' AND Level =",F94," AND Color =",G94," AND Linetype = '",H94,"' AND LineWt=",J94)),(CONCATENATE("Level_Name = '",E94,"' AND Level =",F94," AND Color =",G94," AND Linetype = '",H94,"' AND LineWt=",J94," AND RefName = '",A94,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WALL' AND Level =21 AND Color =4 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '4' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="S94" s="4" t="s">
         <v>305</v>
@@ -7728,7 +7734,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="9" t="str">
-        <f>IF(ISBLANK(I95),"No Value",IF(I95=0,"Solid",IF(I95=1,"Dotted",IF(I95=2,"Medium-Dashed",IF(I95=3,"LongDashed",IF(I95=4,"LongDashed Dot Dot",IF(I95=6,"Medium-Dashed Dot Dot",IF(I95=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I95" s="12">
@@ -7744,12 +7750,12 @@
         <v>415</v>
       </c>
       <c r="M95" s="27" t="str">
-        <f>IF(ISBLANK(A95),L95, CONCATENATE(L95,"_",A95))</f>
+        <f t="shared" si="4"/>
         <v>vehicle_surface_marking_line</v>
       </c>
       <c r="N95" s="27" t="str">
-        <f>IF(ISBLANK(A95),(CONCATENATE("Level_Name = '",E95,"' AND Level =",F95," AND Color =",G95," AND Linetype = '",H95,"' AND LineWt=",J95)),(CONCATENATE("Level_Name = '",E95,"' AND Level =",F95," AND Color =",G95," AND Linetype = '",H95,"' AND LineWt=",J95," AND RefName = '",A95,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_STRI' AND Level =23 AND Color =4 AND Linetype = 'Solid' AND LineWt=1</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '1'</v>
       </c>
       <c r="S95" s="4" t="s">
         <v>659</v>
@@ -7775,7 +7781,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="9" t="str">
-        <f>IF(ISBLANK(I96),"No Value",IF(I96=0,"Solid",IF(I96=1,"Dotted",IF(I96=2,"Medium-Dashed",IF(I96=3,"LongDashed",IF(I96=4,"LongDashed Dot Dot",IF(I96=6,"Medium-Dashed Dot Dot",IF(I96=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I96" s="12">
@@ -7791,12 +7797,12 @@
         <v>58</v>
       </c>
       <c r="M96" s="27" t="str">
-        <f>IF(ISBLANK(A96),L96, CONCATENATE(L96,"_",A96))</f>
+        <f t="shared" si="4"/>
         <v>storm_sewer_headwall_line</v>
       </c>
       <c r="N96" s="27" t="str">
-        <f>IF(ISBLANK(A96),(CONCATENATE("Level_Name = '",E96,"' AND Level =",F96," AND Color =",G96," AND Linetype = '",H96,"' AND LineWt=",J96)),(CONCATENATE("Level_Name = '",E96,"' AND Level =",F96," AND Color =",G96," AND Linetype = '",H96,"' AND LineWt=",J96," AND RefName = '",A96,"'")))</f>
-        <v>Level_Name = 'VA_SITE_CLVT' AND Level =44 AND Color =4 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' = '44' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="S96" s="4" t="s">
         <v>493</v>
@@ -7823,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="9" t="str">
-        <f>IF(ISBLANK(I97),"No Value",IF(I97=0,"Solid",IF(I97=1,"Dotted",IF(I97=2,"Medium-Dashed",IF(I97=3,"LongDashed",IF(I97=4,"LongDashed Dot Dot",IF(I97=6,"Medium-Dashed Dot Dot",IF(I97=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I97" s="12">
@@ -7839,12 +7845,12 @@
         <v>183</v>
       </c>
       <c r="M97" s="27" t="str">
-        <f>IF(ISBLANK(A97),L97, CONCATENATE(L97,"_",A97))</f>
+        <f t="shared" si="4"/>
         <v>topographic_survey_area</v>
       </c>
       <c r="N97" s="27" t="str">
-        <f>IF(ISBLANK(A97),(CONCATENATE("Level_Name = '",E97,"' AND Level =",F97," AND Color =",G97," AND Linetype = '",H97,"' AND LineWt=",J97)),(CONCATENATE("Level_Name = '",E97,"' AND Level =",F97," AND Color =",G97," AND Linetype = '",H97,"' AND LineWt=",J97," AND RefName = '",A97,"'")))</f>
-        <v>Level_Name = 'VA_DTM_EXTR' AND Level =51 AND Color =4 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_DTM_EXTR' AND ''Level'' = '51' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="O97" s="21"/>
       <c r="P97" s="21"/>
@@ -7875,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="9" t="str">
-        <f>IF(ISBLANK(I98),"No Value",IF(I98=0,"Solid",IF(I98=1,"Dotted",IF(I98=2,"Medium-Dashed",IF(I98=3,"LongDashed",IF(I98=4,"LongDashed Dot Dot",IF(I98=6,"Medium-Dashed Dot Dot",IF(I98=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I98" s="6">
@@ -7891,12 +7897,12 @@
         <v>583</v>
       </c>
       <c r="M98" s="27" t="str">
-        <f>IF(ISBLANK(A98),L98, CONCATENATE(L98,"_",A98))</f>
+        <f t="shared" si="4"/>
         <v>digital_elevation_model_point</v>
       </c>
       <c r="N98" s="27" t="str">
-        <f>IF(ISBLANK(A98),(CONCATENATE("Level_Name = '",E98,"' AND Level =",F98," AND Color =",G98," AND Linetype = '",H98,"' AND LineWt=",J98)),(CONCATENATE("Level_Name = '",E98,"' AND Level =",F98," AND Color =",G98," AND Linetype = '",H98,"' AND LineWt=",J98," AND RefName = '",A98,"'")))</f>
-        <v>Level_Name = 'VA_DTM_RAND' AND Level =53 AND Color =4 AND Linetype = 'Solid' AND LineWt=3</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_DTM_RAND' AND ''Level'' = '53' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '3'</v>
       </c>
       <c r="O98" s="21"/>
       <c r="P98" s="21"/>
@@ -7927,7 +7933,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="9" t="str">
-        <f>IF(ISBLANK(I99),"No Value",IF(I99=0,"Solid",IF(I99=1,"Dotted",IF(I99=2,"Medium-Dashed",IF(I99=3,"LongDashed",IF(I99=4,"LongDashed Dot Dot",IF(I99=6,"Medium-Dashed Dot Dot",IF(I99=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I99" s="6">
@@ -7943,12 +7949,12 @@
         <v>208</v>
       </c>
       <c r="M99" s="27" t="str">
-        <f>IF(ISBLANK(A99),L99, CONCATENATE(L99,"_",A99))</f>
+        <f t="shared" si="4"/>
         <v>comm_antenna_area_ANTENNA</v>
       </c>
       <c r="N99" s="27" t="str">
-        <f>IF(ISBLANK(A99),(CONCATENATE("Level_Name = '",E99,"' AND Level =",F99," AND Color =",G99," AND Linetype = '",H99,"' AND LineWt=",J99)),(CONCATENATE("Level_Name = '",E99,"' AND Level =",F99," AND Color =",G99," AND Linetype = '",H99,"' AND LineWt=",J99," AND RefName = '",A99,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ANTENNA'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ANTENNA'</v>
       </c>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
@@ -7978,7 +7984,7 @@
         <v>5</v>
       </c>
       <c r="H100" s="9" t="str">
-        <f>IF(ISBLANK(I100),"No Value",IF(I100=0,"Solid",IF(I100=1,"Dotted",IF(I100=2,"Medium-Dashed",IF(I100=3,"LongDashed",IF(I100=4,"LongDashed Dot Dot",IF(I100=6,"Medium-Dashed Dot Dot",IF(I100=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I100" s="6">
@@ -7994,12 +8000,12 @@
         <v>383</v>
       </c>
       <c r="M100" s="27" t="str">
-        <f>IF(ISBLANK(A100),L100, CONCATENATE(L100,"_",A100))</f>
+        <f t="shared" si="4"/>
         <v>recreation_park_area_BEACH</v>
       </c>
       <c r="N100" s="27" t="str">
-        <f>IF(ISBLANK(A100),(CONCATENATE("Level_Name = '",E100,"' AND Level =",F100," AND Color =",G100," AND Linetype = '",H100,"' AND LineWt=",J100)),(CONCATENATE("Level_Name = '",E100,"' AND Level =",F100," AND Color =",G100," AND Linetype = '",H100,"' AND LineWt=",J100," AND RefName = '",A100,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BEACH'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BEACH'</v>
       </c>
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
@@ -8032,7 +8038,7 @@
         <v>5</v>
       </c>
       <c r="H101" s="9" t="str">
-        <f>IF(ISBLANK(I101),"No Value",IF(I101=0,"Solid",IF(I101=1,"Dotted",IF(I101=2,"Medium-Dashed",IF(I101=3,"LongDashed",IF(I101=4,"LongDashed Dot Dot",IF(I101=6,"Medium-Dashed Dot Dot",IF(I101=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I101" s="6">
@@ -8048,12 +8054,12 @@
         <v>113</v>
       </c>
       <c r="M101" s="27" t="str">
-        <f>IF(ISBLANK(A101),L101, CONCATENATE(L101,"_",A101))</f>
+        <f t="shared" si="4"/>
         <v>bleachers_area_BL</v>
       </c>
       <c r="N101" s="27" t="str">
-        <f>IF(ISBLANK(A101),(CONCATENATE("Level_Name = '",E101,"' AND Level =",F101," AND Color =",G101," AND Linetype = '",H101,"' AND LineWt=",J101)),(CONCATENATE("Level_Name = '",E101,"' AND Level =",F101," AND Color =",G101," AND Linetype = '",H101,"' AND LineWt=",J101," AND RefName = '",A101,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BL'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BL'</v>
       </c>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
@@ -8083,7 +8089,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="9" t="str">
-        <f>IF(ISBLANK(I102),"No Value",IF(I102=0,"Solid",IF(I102=1,"Dotted",IF(I102=2,"Medium-Dashed",IF(I102=3,"LongDashed",IF(I102=4,"LongDashed Dot Dot",IF(I102=6,"Medium-Dashed Dot Dot",IF(I102=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I102" s="6">
@@ -8099,12 +8105,12 @@
         <v>619</v>
       </c>
       <c r="M102" s="27" t="str">
-        <f>IF(ISBLANK(A102),L102, CONCATENATE(L102,"_",A102))</f>
+        <f t="shared" si="4"/>
         <v>boat_ramp_area_BOAT RAMP</v>
       </c>
       <c r="N102" s="27" t="str">
-        <f>IF(ISBLANK(A102),(CONCATENATE("Level_Name = '",E102,"' AND Level =",F102," AND Color =",G102," AND Linetype = '",H102,"' AND LineWt=",J102)),(CONCATENATE("Level_Name = '",E102,"' AND Level =",F102," AND Color =",G102," AND Linetype = '",H102,"' AND LineWt=",J102," AND RefName = '",A102,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BOAT RAMP'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BOAT RAMP'</v>
       </c>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
@@ -8137,7 +8143,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="9" t="str">
-        <f>IF(ISBLANK(I103),"No Value",IF(I103=0,"Solid",IF(I103=1,"Dotted",IF(I103=2,"Medium-Dashed",IF(I103=3,"LongDashed",IF(I103=4,"LongDashed Dot Dot",IF(I103=6,"Medium-Dashed Dot Dot",IF(I103=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I103" s="6">
@@ -8153,12 +8159,12 @@
         <v>191</v>
       </c>
       <c r="M103" s="27" t="str">
-        <f>IF(ISBLANK(A103),L103, CONCATENATE(L103,"_",A103))</f>
+        <f t="shared" si="4"/>
         <v>borrow_area_BORROW AREA</v>
       </c>
       <c r="N103" s="27" t="str">
-        <f>IF(ISBLANK(A103),(CONCATENATE("Level_Name = '",E103,"' AND Level =",F103," AND Color =",G103," AND Linetype = '",H103,"' AND LineWt=",J103)),(CONCATENATE("Level_Name = '",E103,"' AND Level =",F103," AND Color =",G103," AND Linetype = '",H103,"' AND LineWt=",J103," AND RefName = '",A103,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BORROW AREA'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BORROW AREA'</v>
       </c>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
@@ -8188,7 +8194,7 @@
         <v>5</v>
       </c>
       <c r="H104" s="9" t="str">
-        <f>IF(ISBLANK(I104),"No Value",IF(I104=0,"Solid",IF(I104=1,"Dotted",IF(I104=2,"Medium-Dashed",IF(I104=3,"LongDashed",IF(I104=4,"LongDashed Dot Dot",IF(I104=6,"Medium-Dashed Dot Dot",IF(I104=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I104" s="6">
@@ -8204,12 +8210,12 @@
         <v>193</v>
       </c>
       <c r="M104" s="27" t="str">
-        <f>IF(ISBLANK(A104),L104, CONCATENATE(L104,"_",A104))</f>
+        <f t="shared" si="4"/>
         <v>borrow_pit_area_BORROW PIT</v>
       </c>
       <c r="N104" s="27" t="str">
-        <f>IF(ISBLANK(A104),(CONCATENATE("Level_Name = '",E104,"' AND Level =",F104," AND Color =",G104," AND Linetype = '",H104,"' AND LineWt=",J104)),(CONCATENATE("Level_Name = '",E104,"' AND Level =",F104," AND Color =",G104," AND Linetype = '",H104,"' AND LineWt=",J104," AND RefName = '",A104,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BORROW PIT'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BORROW PIT'</v>
       </c>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
@@ -8239,7 +8245,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="9" t="str">
-        <f>IF(ISBLANK(I105),"No Value",IF(I105=0,"Solid",IF(I105=1,"Dotted",IF(I105=2,"Medium-Dashed",IF(I105=3,"LongDashed",IF(I105=4,"LongDashed Dot Dot",IF(I105=6,"Medium-Dashed Dot Dot",IF(I105=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I105" s="6">
@@ -8255,12 +8261,12 @@
         <v>37</v>
       </c>
       <c r="M105" s="27" t="str">
-        <f>IF(ISBLANK(A105),L105, CONCATENATE(L105,"_",A105))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_BW</v>
       </c>
       <c r="N105" s="27" t="str">
-        <f>IF(ISBLANK(A105),(CONCATENATE("Level_Name = '",E105,"' AND Level =",F105," AND Color =",G105," AND Linetype = '",H105,"' AND LineWt=",J105)),(CONCATENATE("Level_Name = '",E105,"' AND Level =",F105," AND Color =",G105," AND Linetype = '",H105,"' AND LineWt=",J105," AND RefName = '",A105,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BW'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BW'</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8286,7 +8292,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="9" t="str">
-        <f>IF(ISBLANK(I106),"No Value",IF(I106=0,"Solid",IF(I106=1,"Dotted",IF(I106=2,"Medium-Dashed",IF(I106=3,"LongDashed",IF(I106=4,"LongDashed Dot Dot",IF(I106=6,"Medium-Dashed Dot Dot",IF(I106=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I106" s="6">
@@ -8302,12 +8308,12 @@
         <v>477</v>
       </c>
       <c r="M106" s="27" t="str">
-        <f>IF(ISBLANK(A106),L106, CONCATENATE(L106,"_",A106))</f>
+        <f t="shared" si="4"/>
         <v>canal_area_CANAL</v>
       </c>
       <c r="N106" s="27" t="str">
-        <f>IF(ISBLANK(A106),(CONCATENATE("Level_Name = '",E106,"' AND Level =",F106," AND Color =",G106," AND Linetype = '",H106,"' AND LineWt=",J106)),(CONCATENATE("Level_Name = '",E106,"' AND Level =",F106," AND Color =",G106," AND Linetype = '",H106,"' AND LineWt=",J106," AND RefName = '",A106,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CANAL'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CANAL'</v>
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
@@ -8337,7 +8343,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="9" t="str">
-        <f>IF(ISBLANK(I107),"No Value",IF(I107=0,"Solid",IF(I107=1,"Dotted",IF(I107=2,"Medium-Dashed",IF(I107=3,"LongDashed",IF(I107=4,"LongDashed Dot Dot",IF(I107=6,"Medium-Dashed Dot Dot",IF(I107=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I107" s="6">
@@ -8353,12 +8359,12 @@
         <v>480</v>
       </c>
       <c r="M107" s="27" t="str">
-        <f>IF(ISBLANK(A107),L107, CONCATENATE(L107,"_",A107))</f>
+        <f t="shared" si="4"/>
         <v>conveyor_area_CONVEYOR</v>
       </c>
       <c r="N107" s="27" t="str">
-        <f>IF(ISBLANK(A107),(CONCATENATE("Level_Name = '",E107,"' AND Level =",F107," AND Color =",G107," AND Linetype = '",H107,"' AND LineWt=",J107)),(CONCATENATE("Level_Name = '",E107,"' AND Level =",F107," AND Color =",G107," AND Linetype = '",H107,"' AND LineWt=",J107," AND RefName = '",A107,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CONVEYOR'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CONVEYOR'</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8384,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="9" t="str">
-        <f>IF(ISBLANK(I108),"No Value",IF(I108=0,"Solid",IF(I108=1,"Dotted",IF(I108=2,"Medium-Dashed",IF(I108=3,"LongDashed",IF(I108=4,"LongDashed Dot Dot",IF(I108=6,"Medium-Dashed Dot Dot",IF(I108=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I108" s="6">
@@ -8400,12 +8406,12 @@
         <v>598</v>
       </c>
       <c r="M108" s="27" t="str">
-        <f>IF(ISBLANK(A108),L108, CONCATENATE(L108,"_",A108))</f>
+        <f t="shared" si="4"/>
         <v>crane_area_CRANE</v>
       </c>
       <c r="N108" s="27" t="str">
-        <f>IF(ISBLANK(A108),(CONCATENATE("Level_Name = '",E108,"' AND Level =",F108," AND Color =",G108," AND Linetype = '",H108,"' AND LineWt=",J108)),(CONCATENATE("Level_Name = '",E108,"' AND Level =",F108," AND Color =",G108," AND Linetype = '",H108,"' AND LineWt=",J108," AND RefName = '",A108,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CRANE'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CRANE'</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8431,7 +8437,7 @@
         <v>5</v>
       </c>
       <c r="H109" s="9" t="str">
-        <f>IF(ISBLANK(I109),"No Value",IF(I109=0,"Solid",IF(I109=1,"Dotted",IF(I109=2,"Medium-Dashed",IF(I109=3,"LongDashed",IF(I109=4,"LongDashed Dot Dot",IF(I109=6,"Medium-Dashed Dot Dot",IF(I109=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I109" s="6">
@@ -8447,12 +8453,12 @@
         <v>208</v>
       </c>
       <c r="M109" s="27" t="str">
-        <f>IF(ISBLANK(A109),L109, CONCATENATE(L109,"_",A109))</f>
+        <f t="shared" si="4"/>
         <v>comm_antenna_area_DISH</v>
       </c>
       <c r="N109" s="27" t="str">
-        <f>IF(ISBLANK(A109),(CONCATENATE("Level_Name = '",E109,"' AND Level =",F109," AND Color =",G109," AND Linetype = '",H109,"' AND LineWt=",J109)),(CONCATENATE("Level_Name = '",E109,"' AND Level =",F109," AND Color =",G109," AND Linetype = '",H109,"' AND LineWt=",J109," AND RefName = '",A109,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'DISH'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DISH'</v>
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
@@ -8482,7 +8488,7 @@
         <v>5</v>
       </c>
       <c r="H110" s="9" t="str">
-        <f>IF(ISBLANK(I110),"No Value",IF(I110=0,"Solid",IF(I110=1,"Dotted",IF(I110=2,"Medium-Dashed",IF(I110=3,"LongDashed",IF(I110=4,"LongDashed Dot Dot",IF(I110=6,"Medium-Dashed Dot Dot",IF(I110=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I110" s="6">
@@ -8498,12 +8504,12 @@
         <v>462</v>
       </c>
       <c r="M110" s="27" t="str">
-        <f>IF(ISBLANK(A110),L110, CONCATENATE(L110,"_",A110))</f>
+        <f t="shared" si="4"/>
         <v>boating_area_DOCK</v>
       </c>
       <c r="N110" s="27" t="str">
-        <f>IF(ISBLANK(A110),(CONCATENATE("Level_Name = '",E110,"' AND Level =",F110," AND Color =",G110," AND Linetype = '",H110,"' AND LineWt=",J110)),(CONCATENATE("Level_Name = '",E110,"' AND Level =",F110," AND Color =",G110," AND Linetype = '",H110,"' AND LineWt=",J110," AND RefName = '",A110,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'DOCK'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DOCK'</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -8533,7 +8539,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="9" t="str">
-        <f>IF(ISBLANK(I111),"No Value",IF(I111=0,"Solid",IF(I111=1,"Dotted",IF(I111=2,"Medium-Dashed",IF(I111=3,"LongDashed",IF(I111=4,"LongDashed Dot Dot",IF(I111=6,"Medium-Dashed Dot Dot",IF(I111=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I111" s="6">
@@ -8549,12 +8555,12 @@
         <v>549</v>
       </c>
       <c r="M111" s="27" t="str">
-        <f>IF(ISBLANK(A111),L111, CONCATENATE(L111,"_",A111))</f>
+        <f t="shared" si="4"/>
         <v>drydock_area_DRYDOCK</v>
       </c>
       <c r="N111" s="27" t="str">
-        <f>IF(ISBLANK(A111),(CONCATENATE("Level_Name = '",E111,"' AND Level =",F111," AND Color =",G111," AND Linetype = '",H111,"' AND LineWt=",J111)),(CONCATENATE("Level_Name = '",E111,"' AND Level =",F111," AND Color =",G111," AND Linetype = '",H111,"' AND LineWt=",J111," AND RefName = '",A111,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'DRYDOCK'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DRYDOCK'</v>
       </c>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
@@ -8584,7 +8590,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="9" t="str">
-        <f>IF(ISBLANK(I112),"No Value",IF(I112=0,"Solid",IF(I112=1,"Dotted",IF(I112=2,"Medium-Dashed",IF(I112=3,"LongDashed",IF(I112=4,"LongDashed Dot Dot",IF(I112=6,"Medium-Dashed Dot Dot",IF(I112=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I112" s="7">
@@ -8600,12 +8606,12 @@
         <v>37</v>
       </c>
       <c r="M112" s="27" t="str">
-        <f>IF(ISBLANK(A112),L112, CONCATENATE(L112,"_",A112))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_EW</v>
       </c>
       <c r="N112" s="27" t="str">
-        <f>IF(ISBLANK(A112),(CONCATENATE("Level_Name = '",E112,"' AND Level =",F112," AND Color =",G112," AND Linetype = '",H112,"' AND LineWt=",J112)),(CONCATENATE("Level_Name = '",E112,"' AND Level =",F112," AND Color =",G112," AND Linetype = '",H112,"' AND LineWt=",J112," AND RefName = '",A112,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'EW'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'EW'</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8631,7 +8637,7 @@
         <v>5</v>
       </c>
       <c r="H113" s="9" t="str">
-        <f>IF(ISBLANK(I113),"No Value",IF(I113=0,"Solid",IF(I113=1,"Dotted",IF(I113=2,"Medium-Dashed",IF(I113=3,"LongDashed",IF(I113=4,"LongDashed Dot Dot",IF(I113=6,"Medium-Dashed Dot Dot",IF(I113=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I113" s="6">
@@ -8647,12 +8653,12 @@
         <v>267</v>
       </c>
       <c r="M113" s="27" t="str">
-        <f>IF(ISBLANK(A113),L113, CONCATENATE(L113,"_",A113))</f>
+        <f t="shared" si="4"/>
         <v>land_cover_area_GVL</v>
       </c>
       <c r="N113" s="27" t="str">
-        <f>IF(ISBLANK(A113),(CONCATENATE("Level_Name = '",E113,"' AND Level =",F113," AND Color =",G113," AND Linetype = '",H113,"' AND LineWt=",J113)),(CONCATENATE("Level_Name = '",E113,"' AND Level =",F113," AND Color =",G113," AND Linetype = '",H113,"' AND LineWt=",J113," AND RefName = '",A113,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'GVL'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'GVL'</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
@@ -8682,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="9" t="str">
-        <f>IF(ISBLANK(I114),"No Value",IF(I114=0,"Solid",IF(I114=1,"Dotted",IF(I114=2,"Medium-Dashed",IF(I114=3,"LongDashed",IF(I114=4,"LongDashed Dot Dot",IF(I114=6,"Medium-Dashed Dot Dot",IF(I114=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I114" s="6">
@@ -8698,12 +8704,12 @@
         <v>95</v>
       </c>
       <c r="M114" s="27" t="str">
-        <f>IF(ISBLANK(A114),L114, CONCATENATE(L114,"_",A114))</f>
+        <f t="shared" si="4"/>
         <v>road_feature_point_JB</v>
       </c>
       <c r="N114" s="27" t="str">
-        <f>IF(ISBLANK(A114),(CONCATENATE("Level_Name = '",E114,"' AND Level =",F114," AND Color =",G114," AND Linetype = '",H114,"' AND LineWt=",J114)),(CONCATENATE("Level_Name = '",E114,"' AND Level =",F114," AND Color =",G114," AND Linetype = '",H114,"' AND LineWt=",J114," AND RefName = '",A114,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WALL' AND Level =21 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'JB'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'JB'</v>
       </c>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
@@ -8733,7 +8739,7 @@
         <v>5</v>
       </c>
       <c r="H115" s="9" t="str">
-        <f>IF(ISBLANK(I115),"No Value",IF(I115=0,"Solid",IF(I115=1,"Dotted",IF(I115=2,"Medium-Dashed",IF(I115=3,"LongDashed",IF(I115=4,"LongDashed Dot Dot",IF(I115=6,"Medium-Dashed Dot Dot",IF(I115=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I115" s="6">
@@ -8749,12 +8755,12 @@
         <v>641</v>
       </c>
       <c r="M115" s="27" t="str">
-        <f>IF(ISBLANK(A115),L115, CONCATENATE(L115,"_",A115))</f>
+        <f t="shared" si="4"/>
         <v>jetty_area_JETTY</v>
       </c>
       <c r="N115" s="27" t="str">
-        <f>IF(ISBLANK(A115),(CONCATENATE("Level_Name = '",E115,"' AND Level =",F115," AND Color =",G115," AND Linetype = '",H115,"' AND LineWt=",J115)),(CONCATENATE("Level_Name = '",E115,"' AND Level =",F115," AND Color =",G115," AND Linetype = '",H115,"' AND LineWt=",J115," AND RefName = '",A115,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'JETTY'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'JETTY'</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
@@ -8787,7 +8793,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="9" t="str">
-        <f>IF(ISBLANK(I116),"No Value",IF(I116=0,"Solid",IF(I116=1,"Dotted",IF(I116=2,"Medium-Dashed",IF(I116=3,"LongDashed",IF(I116=4,"LongDashed Dot Dot",IF(I116=6,"Medium-Dashed Dot Dot",IF(I116=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I116" s="6">
@@ -8803,12 +8809,12 @@
         <v>37</v>
       </c>
       <c r="M116" s="27" t="str">
-        <f>IF(ISBLANK(A116),L116, CONCATENATE(L116,"_",A116))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_LDK</v>
       </c>
       <c r="N116" s="27" t="str">
-        <f>IF(ISBLANK(A116),(CONCATENATE("Level_Name = '",E116,"' AND Level =",F116," AND Color =",G116," AND Linetype = '",H116,"' AND LineWt=",J116)),(CONCATENATE("Level_Name = '",E116,"' AND Level =",F116," AND Color =",G116," AND Linetype = '",H116,"' AND LineWt=",J116," AND RefName = '",A116,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'LDK'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LDK'</v>
       </c>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
@@ -8838,7 +8844,7 @@
         <v>5</v>
       </c>
       <c r="H117" s="9" t="str">
-        <f>IF(ISBLANK(I117),"No Value",IF(I117=0,"Solid",IF(I117=1,"Dotted",IF(I117=2,"Medium-Dashed",IF(I117=3,"LongDashed",IF(I117=4,"LongDashed Dot Dot",IF(I117=6,"Medium-Dashed Dot Dot",IF(I117=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I117" s="6">
@@ -8854,12 +8860,12 @@
         <v>483</v>
       </c>
       <c r="M117" s="27" t="str">
-        <f>IF(ISBLANK(A117),L117, CONCATENATE(L117,"_",A117))</f>
+        <f t="shared" si="4"/>
         <v>solid_waste_landfill_area_LF</v>
       </c>
       <c r="N117" s="27" t="str">
-        <f>IF(ISBLANK(A117),(CONCATENATE("Level_Name = '",E117,"' AND Level =",F117," AND Color =",G117," AND Linetype = '",H117,"' AND LineWt=",J117)),(CONCATENATE("Level_Name = '",E117,"' AND Level =",F117," AND Color =",G117," AND Linetype = '",H117,"' AND LineWt=",J117," AND RefName = '",A117,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'LF'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LF'</v>
       </c>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
@@ -8889,7 +8895,7 @@
         <v>5</v>
       </c>
       <c r="H118" s="9" t="str">
-        <f>IF(ISBLANK(I118),"No Value",IF(I118=0,"Solid",IF(I118=1,"Dotted",IF(I118=2,"Medium-Dashed",IF(I118=3,"LongDashed",IF(I118=4,"LongDashed Dot Dot",IF(I118=6,"Medium-Dashed Dot Dot",IF(I118=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I118" s="6">
@@ -8905,12 +8911,12 @@
         <v>267</v>
       </c>
       <c r="M118" s="27" t="str">
-        <f>IF(ISBLANK(A118),L118, CONCATENATE(L118,"_",A118))</f>
+        <f t="shared" si="4"/>
         <v>land_cover_area_LS</v>
       </c>
       <c r="N118" s="27" t="str">
-        <f>IF(ISBLANK(A118),(CONCATENATE("Level_Name = '",E118,"' AND Level =",F118," AND Color =",G118," AND Linetype = '",H118,"' AND LineWt=",J118)),(CONCATENATE("Level_Name = '",E118,"' AND Level =",F118," AND Color =",G118," AND Linetype = '",H118,"' AND LineWt=",J118," AND RefName = '",A118,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'LS'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LS'</v>
       </c>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
@@ -8940,7 +8946,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="9" t="str">
-        <f>IF(ISBLANK(I119),"No Value",IF(I119=0,"Solid",IF(I119=1,"Dotted",IF(I119=2,"Medium-Dashed",IF(I119=3,"LongDashed",IF(I119=4,"LongDashed Dot Dot",IF(I119=6,"Medium-Dashed Dot Dot",IF(I119=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I119" s="6">
@@ -8956,12 +8962,12 @@
         <v>313</v>
       </c>
       <c r="M119" s="27" t="str">
-        <f>IF(ISBLANK(A119),L119, CONCATENATE(L119,"_",A119))</f>
+        <f t="shared" si="4"/>
         <v>historic_feature_area_MONUMENT</v>
       </c>
       <c r="N119" s="27" t="str">
-        <f>IF(ISBLANK(A119),(CONCATENATE("Level_Name = '",E119,"' AND Level =",F119," AND Color =",G119," AND Linetype = '",H119,"' AND LineWt=",J119)),(CONCATENATE("Level_Name = '",E119,"' AND Level =",F119," AND Color =",G119," AND Linetype = '",H119,"' AND LineWt=",J119," AND RefName = '",A119,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'MONUMENT'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'MONUMENT'</v>
       </c>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
@@ -8991,7 +8997,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="9" t="str">
-        <f>IF(ISBLANK(I120),"No Value",IF(I120=0,"Solid",IF(I120=1,"Dotted",IF(I120=2,"Medium-Dashed",IF(I120=3,"LongDashed",IF(I120=4,"LongDashed Dot Dot",IF(I120=6,"Medium-Dashed Dot Dot",IF(I120=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I120" s="6">
@@ -9007,12 +9013,12 @@
         <v>267</v>
       </c>
       <c r="M120" s="27" t="str">
-        <f>IF(ISBLANK(A120),L120, CONCATENATE(L120,"_",A120))</f>
+        <f t="shared" si="4"/>
         <v>land_cover_area_NG</v>
       </c>
       <c r="N120" s="27" t="str">
-        <f>IF(ISBLANK(A120),(CONCATENATE("Level_Name = '",E120,"' AND Level =",F120," AND Color =",G120," AND Linetype = '",H120,"' AND LineWt=",J120)),(CONCATENATE("Level_Name = '",E120,"' AND Level =",F120," AND Color =",G120," AND Linetype = '",H120,"' AND LineWt=",J120," AND RefName = '",A120,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'NG'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'NG'</v>
       </c>
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
@@ -9042,7 +9048,7 @@
         <v>5</v>
       </c>
       <c r="H121" s="9" t="str">
-        <f>IF(ISBLANK(I121),"No Value",IF(I121=0,"Solid",IF(I121=1,"Dotted",IF(I121=2,"Medium-Dashed",IF(I121=3,"LongDashed",IF(I121=4,"LongDashed Dot Dot",IF(I121=6,"Medium-Dashed Dot Dot",IF(I121=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I121" s="6">
@@ -9058,12 +9064,12 @@
         <v>92</v>
       </c>
       <c r="M121" s="27" t="str">
-        <f>IF(ISBLANK(A121),L121, CONCATENATE(L121,"_",A121))</f>
+        <f t="shared" si="4"/>
         <v>picnic_area_PICNIC</v>
       </c>
       <c r="N121" s="27" t="str">
-        <f>IF(ISBLANK(A121),(CONCATENATE("Level_Name = '",E121,"' AND Level =",F121," AND Color =",G121," AND Linetype = '",H121,"' AND LineWt=",J121)),(CONCATENATE("Level_Name = '",E121,"' AND Level =",F121," AND Color =",G121," AND Linetype = '",H121,"' AND LineWt=",J121," AND RefName = '",A121,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PICNIC'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PICNIC'</v>
       </c>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
@@ -9093,7 +9099,7 @@
         <v>5</v>
       </c>
       <c r="H122" s="9" t="str">
-        <f>IF(ISBLANK(I122),"No Value",IF(I122=0,"Solid",IF(I122=1,"Dotted",IF(I122=2,"Medium-Dashed",IF(I122=3,"LongDashed",IF(I122=4,"LongDashed Dot Dot",IF(I122=6,"Medium-Dashed Dot Dot",IF(I122=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I122" s="6">
@@ -9109,12 +9115,12 @@
         <v>523</v>
       </c>
       <c r="M122" s="27" t="str">
-        <f>IF(ISBLANK(A122),L122, CONCATENATE(L122,"_",A122))</f>
+        <f t="shared" si="4"/>
         <v>mooring_facility_area_PIER</v>
       </c>
       <c r="N122" s="27" t="str">
-        <f>IF(ISBLANK(A122),(CONCATENATE("Level_Name = '",E122,"' AND Level =",F122," AND Color =",G122," AND Linetype = '",H122,"' AND LineWt=",J122)),(CONCATENATE("Level_Name = '",E122,"' AND Level =",F122," AND Color =",G122," AND Linetype = '",H122,"' AND LineWt=",J122," AND RefName = '",A122,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PIER'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PIER'</v>
       </c>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
@@ -9147,7 +9153,7 @@
         <v>5</v>
       </c>
       <c r="H123" s="9" t="str">
-        <f>IF(ISBLANK(I123),"No Value",IF(I123=0,"Solid",IF(I123=1,"Dotted",IF(I123=2,"Medium-Dashed",IF(I123=3,"LongDashed",IF(I123=4,"LongDashed Dot Dot",IF(I123=6,"Medium-Dashed Dot Dot",IF(I123=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I123" s="6">
@@ -9163,12 +9169,12 @@
         <v>37</v>
       </c>
       <c r="M123" s="27" t="str">
-        <f>IF(ISBLANK(A123),L123, CONCATENATE(L123,"_",A123))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_PILE</v>
       </c>
       <c r="N123" s="27" t="str">
-        <f>IF(ISBLANK(A123),(CONCATENATE("Level_Name = '",E123,"' AND Level =",F123," AND Color =",G123," AND Linetype = '",H123,"' AND LineWt=",J123)),(CONCATENATE("Level_Name = '",E123,"' AND Level =",F123," AND Color =",G123," AND Linetype = '",H123,"' AND LineWt=",J123," AND RefName = '",A123,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PILE'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PILE'</v>
       </c>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
@@ -9198,7 +9204,7 @@
         <v>5</v>
       </c>
       <c r="H124" s="9" t="str">
-        <f>IF(ISBLANK(I124),"No Value",IF(I124=0,"Solid",IF(I124=1,"Dotted",IF(I124=2,"Medium-Dashed",IF(I124=3,"LongDashed",IF(I124=4,"LongDashed Dot Dot",IF(I124=6,"Medium-Dashed Dot Dot",IF(I124=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I124" s="6">
@@ -9214,12 +9220,12 @@
         <v>37</v>
       </c>
       <c r="M124" s="27" t="str">
-        <f>IF(ISBLANK(A124),L124, CONCATENATE(L124,"_",A124))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_PLANTER</v>
       </c>
       <c r="N124" s="27" t="str">
-        <f>IF(ISBLANK(A124),(CONCATENATE("Level_Name = '",E124,"' AND Level =",F124," AND Color =",G124," AND Linetype = '",H124,"' AND LineWt=",J124)),(CONCATENATE("Level_Name = '",E124,"' AND Level =",F124," AND Color =",G124," AND Linetype = '",H124,"' AND LineWt=",J124," AND RefName = '",A124,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PLANTER'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PLANTER'</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
@@ -9249,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="H125" s="9" t="str">
-        <f>IF(ISBLANK(I125),"No Value",IF(I125=0,"Solid",IF(I125=1,"Dotted",IF(I125=2,"Medium-Dashed",IF(I125=3,"LongDashed",IF(I125=4,"LongDashed Dot Dot",IF(I125=6,"Medium-Dashed Dot Dot",IF(I125=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I125" s="6">
@@ -9265,12 +9271,12 @@
         <v>267</v>
       </c>
       <c r="M125" s="27" t="str">
-        <f>IF(ISBLANK(A125),L125, CONCATENATE(L125,"_",A125))</f>
+        <f t="shared" si="4"/>
         <v>land_cover_area_PTGRS</v>
       </c>
       <c r="N125" s="27" t="str">
-        <f>IF(ISBLANK(A125),(CONCATENATE("Level_Name = '",E125,"' AND Level =",F125," AND Color =",G125," AND Linetype = '",H125,"' AND LineWt=",J125)),(CONCATENATE("Level_Name = '",E125,"' AND Level =",F125," AND Color =",G125," AND Linetype = '",H125,"' AND LineWt=",J125," AND RefName = '",A125,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PTGRS'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PTGRS'</v>
       </c>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
@@ -9300,7 +9306,7 @@
         <v>5</v>
       </c>
       <c r="H126" s="9" t="str">
-        <f>IF(ISBLANK(I126),"No Value",IF(I126=0,"Solid",IF(I126=1,"Dotted",IF(I126=2,"Medium-Dashed",IF(I126=3,"LongDashed",IF(I126=4,"LongDashed Dot Dot",IF(I126=6,"Medium-Dashed Dot Dot",IF(I126=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I126" s="6">
@@ -9316,12 +9322,12 @@
         <v>257</v>
       </c>
       <c r="M126" s="27" t="str">
-        <f>IF(ISBLANK(A126),L126, CONCATENATE(L126,"_",A126))</f>
+        <f t="shared" si="4"/>
         <v>radar_area_RADAR</v>
       </c>
       <c r="N126" s="27" t="str">
-        <f>IF(ISBLANK(A126),(CONCATENATE("Level_Name = '",E126,"' AND Level =",F126," AND Color =",G126," AND Linetype = '",H126,"' AND LineWt=",J126)),(CONCATENATE("Level_Name = '",E126,"' AND Level =",F126," AND Color =",G126," AND Linetype = '",H126,"' AND LineWt=",J126," AND RefName = '",A126,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'RADAR'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RADAR'</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9347,7 +9353,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="9" t="str">
-        <f>IF(ISBLANK(I127),"No Value",IF(I127=0,"Solid",IF(I127=1,"Dotted",IF(I127=2,"Medium-Dashed",IF(I127=3,"LongDashed",IF(I127=4,"LongDashed Dot Dot",IF(I127=6,"Medium-Dashed Dot Dot",IF(I127=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I127" s="6">
@@ -9363,12 +9369,12 @@
         <v>208</v>
       </c>
       <c r="M127" s="27" t="str">
-        <f>IF(ISBLANK(A127),L127, CONCATENATE(L127,"_",A127))</f>
+        <f t="shared" si="4"/>
         <v>comm_antenna_area_RADIO TOWER</v>
       </c>
       <c r="N127" s="27" t="str">
-        <f>IF(ISBLANK(A127),(CONCATENATE("Level_Name = '",E127,"' AND Level =",F127," AND Color =",G127," AND Linetype = '",H127,"' AND LineWt=",J127)),(CONCATENATE("Level_Name = '",E127,"' AND Level =",F127," AND Color =",G127," AND Linetype = '",H127,"' AND LineWt=",J127," AND RefName = '",A127,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'RADIO TOWER'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RADIO TOWER'</v>
       </c>
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
@@ -9398,7 +9404,7 @@
         <v>5</v>
       </c>
       <c r="H128" s="9" t="str">
-        <f>IF(ISBLANK(I128),"No Value",IF(I128=0,"Solid",IF(I128=1,"Dotted",IF(I128=2,"Medium-Dashed",IF(I128=3,"LongDashed",IF(I128=4,"LongDashed Dot Dot",IF(I128=6,"Medium-Dashed Dot Dot",IF(I128=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I128" s="6">
@@ -9414,12 +9420,12 @@
         <v>37</v>
       </c>
       <c r="M128" s="27" t="str">
-        <f>IF(ISBLANK(A128),L128, CONCATENATE(L128,"_",A128))</f>
+        <f t="shared" si="4"/>
         <v>miscellaneous_feature_area_RAMP</v>
       </c>
       <c r="N128" s="27" t="str">
-        <f>IF(ISBLANK(A128),(CONCATENATE("Level_Name = '",E128,"' AND Level =",F128," AND Color =",G128," AND Linetype = '",H128,"' AND LineWt=",J128)),(CONCATENATE("Level_Name = '",E128,"' AND Level =",F128," AND Color =",G128," AND Linetype = '",H128,"' AND LineWt=",J128," AND RefName = '",A128,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'RAMP'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RAMP'</v>
       </c>
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
@@ -9449,7 +9455,7 @@
         <v>5</v>
       </c>
       <c r="H129" s="9" t="str">
-        <f>IF(ISBLANK(I129),"No Value",IF(I129=0,"Solid",IF(I129=1,"Dotted",IF(I129=2,"Medium-Dashed",IF(I129=3,"LongDashed",IF(I129=4,"LongDashed Dot Dot",IF(I129=6,"Medium-Dashed Dot Dot",IF(I129=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="3"/>
         <v>Solid</v>
       </c>
       <c r="I129" s="7">
@@ -9465,12 +9471,12 @@
         <v>443</v>
       </c>
       <c r="M129" s="27" t="str">
-        <f>IF(ISBLANK(A129),L129, CONCATENATE(L129,"_",A129))</f>
+        <f t="shared" si="4"/>
         <v>military_range_area_RANGE</v>
       </c>
       <c r="N129" s="27" t="str">
-        <f>IF(ISBLANK(A129),(CONCATENATE("Level_Name = '",E129,"' AND Level =",F129," AND Color =",G129," AND Linetype = '",H129,"' AND LineWt=",J129)),(CONCATENATE("Level_Name = '",E129,"' AND Level =",F129," AND Color =",G129," AND Linetype = '",H129,"' AND LineWt=",J129," AND RefName = '",A129,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'RANGE'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RANGE'</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9496,7 +9502,7 @@
         <v>5</v>
       </c>
       <c r="H130" s="9" t="str">
-        <f>IF(ISBLANK(I130),"No Value",IF(I130=0,"Solid",IF(I130=1,"Dotted",IF(I130=2,"Medium-Dashed",IF(I130=3,"LongDashed",IF(I130=4,"LongDashed Dot Dot",IF(I130=6,"Medium-Dashed Dot Dot",IF(I130=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H130:H193" si="6">IF(ISBLANK(I130),"No Value",IF(I130=0,"Solid",IF(I130=1,"Dotted",IF(I130=2,"Medium-Dashed",IF(I130=3,"LongDashed",IF(I130=4,"LongDashed Dot Dot",IF(I130=6,"Medium-Dashed Dot Dot",IF(I130=7,"Solid Medium-Dashed" ))))))))</f>
         <v>Solid</v>
       </c>
       <c r="I130" s="6">
@@ -9512,12 +9518,12 @@
         <v>622</v>
       </c>
       <c r="M130" s="27" t="str">
-        <f>IF(ISBLANK(A130),L130, CONCATENATE(L130,"_",A130))</f>
+        <f t="shared" ref="M130:M193" si="7">IF(ISBLANK(A130),L130, CONCATENATE(L130,"_",A130))</f>
         <v>weigh_station_area_SCALES</v>
       </c>
       <c r="N130" s="27" t="str">
-        <f>IF(ISBLANK(A130),(CONCATENATE("Level_Name = '",E130,"' AND Level =",F130," AND Color =",G130," AND Linetype = '",H130,"' AND LineWt=",J130)),(CONCATENATE("Level_Name = '",E130,"' AND Level =",F130," AND Color =",G130," AND Linetype = '",H130,"' AND LineWt=",J130," AND RefName = '",A130,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SCALES'</v>
+        <f t="shared" si="5"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SCALES'</v>
       </c>
       <c r="O130" s="27"/>
       <c r="P130" s="27"/>
@@ -9550,7 +9556,7 @@
         <v>5</v>
       </c>
       <c r="H131" s="9" t="str">
-        <f>IF(ISBLANK(I131),"No Value",IF(I131=0,"Solid",IF(I131=1,"Dotted",IF(I131=2,"Medium-Dashed",IF(I131=3,"LongDashed",IF(I131=4,"LongDashed Dot Dot",IF(I131=6,"Medium-Dashed Dot Dot",IF(I131=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I131" s="6">
@@ -9566,12 +9572,12 @@
         <v>523</v>
       </c>
       <c r="M131" s="27" t="str">
-        <f>IF(ISBLANK(A131),L131, CONCATENATE(L131,"_",A131))</f>
+        <f t="shared" si="7"/>
         <v>mooring_facility_area_SEAW</v>
       </c>
       <c r="N131" s="27" t="str">
-        <f>IF(ISBLANK(A131),(CONCATENATE("Level_Name = '",E131,"' AND Level =",F131," AND Color =",G131," AND Linetype = '",H131,"' AND LineWt=",J131)),(CONCATENATE("Level_Name = '",E131,"' AND Level =",F131," AND Color =",G131," AND Linetype = '",H131,"' AND LineWt=",J131," AND RefName = '",A131,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SEAW'</v>
+        <f t="shared" ref="N131:N191" si="8">IF(ISBLANK(A131),(CONCATENATE("''Level_Name'' = '",E131,"' AND ''Level'' = '",F131,"' AND ''Color'' = '",G131,"' AND ''Linetype'' = '",H131,"' AND ''LineWt''= '",J131,"'")),(CONCATENATE("''Level_Name'' = '",E131,"' AND ''Level'' = '",F131,"' AND ''Color'' = '",G131,"' AND ''Linetype'' = '",H131,"' AND ''LineWt''= '",J131,"' AND ''RefName'' = '",A131,"'")))</f>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SEAW'</v>
       </c>
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
@@ -9604,7 +9610,7 @@
         <v>5</v>
       </c>
       <c r="H132" s="9" t="str">
-        <f>IF(ISBLANK(I132),"No Value",IF(I132=0,"Solid",IF(I132=1,"Dotted",IF(I132=2,"Medium-Dashed",IF(I132=3,"LongDashed",IF(I132=4,"LongDashed Dot Dot",IF(I132=6,"Medium-Dashed Dot Dot",IF(I132=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I132" s="6">
@@ -9620,12 +9626,12 @@
         <v>316</v>
       </c>
       <c r="M132" s="27" t="str">
-        <f>IF(ISBLANK(A132),L132, CONCATENATE(L132,"_",A132))</f>
+        <f t="shared" si="7"/>
         <v>spill_containment_feature_area_SPILL CONT</v>
       </c>
       <c r="N132" s="27" t="str">
-        <f>IF(ISBLANK(A132),(CONCATENATE("Level_Name = '",E132,"' AND Level =",F132," AND Color =",G132," AND Linetype = '",H132,"' AND LineWt=",J132)),(CONCATENATE("Level_Name = '",E132,"' AND Level =",F132," AND Color =",G132," AND Linetype = '",H132,"' AND LineWt=",J132," AND RefName = '",A132,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SPILL CONT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SPILL CONT'</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9651,7 +9657,7 @@
         <v>5</v>
       </c>
       <c r="H133" s="9" t="str">
-        <f>IF(ISBLANK(I133),"No Value",IF(I133=0,"Solid",IF(I133=1,"Dotted",IF(I133=2,"Medium-Dashed",IF(I133=3,"LongDashed",IF(I133=4,"LongDashed Dot Dot",IF(I133=6,"Medium-Dashed Dot Dot",IF(I133=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I133" s="3">
@@ -9667,12 +9673,12 @@
         <v>187</v>
       </c>
       <c r="M133" s="27" t="str">
-        <f>IF(ISBLANK(A133),L133, CONCATENATE(L133,"_",A133))</f>
+        <f t="shared" si="7"/>
         <v>smokestack_chimney_point_STACK</v>
       </c>
       <c r="N133" s="27" t="str">
-        <f>IF(ISBLANK(A133),(CONCATENATE("Level_Name = '",E133,"' AND Level =",F133," AND Color =",G133," AND Linetype = '",H133,"' AND LineWt=",J133)),(CONCATENATE("Level_Name = '",E133,"' AND Level =",F133," AND Color =",G133," AND Linetype = '",H133,"' AND LineWt=",J133," AND RefName = '",A133,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'STACK'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'STACK'</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -9700,7 +9706,7 @@
         <v>5</v>
       </c>
       <c r="H134" s="9" t="str">
-        <f>IF(ISBLANK(I134),"No Value",IF(I134=0,"Solid",IF(I134=1,"Dotted",IF(I134=2,"Medium-Dashed",IF(I134=3,"LongDashed",IF(I134=4,"LongDashed Dot Dot",IF(I134=6,"Medium-Dashed Dot Dot",IF(I134=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I134" s="6">
@@ -9716,12 +9722,12 @@
         <v>674</v>
       </c>
       <c r="M134" s="27" t="str">
-        <f>IF(ISBLANK(A134),L134, CONCATENATE(L134,"_",A134))</f>
+        <f t="shared" si="7"/>
         <v>open_storage_area_STORAGE</v>
       </c>
       <c r="N134" s="27" t="str">
-        <f>IF(ISBLANK(A134),(CONCATENATE("Level_Name = '",E134,"' AND Level =",F134," AND Color =",G134," AND Linetype = '",H134,"' AND LineWt=",J134)),(CONCATENATE("Level_Name = '",E134,"' AND Level =",F134," AND Color =",G134," AND Linetype = '",H134,"' AND LineWt=",J134," AND RefName = '",A134,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'STORAGE'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'STORAGE'</v>
       </c>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
@@ -9751,7 +9757,7 @@
         <v>5</v>
       </c>
       <c r="H135" s="9" t="str">
-        <f>IF(ISBLANK(I135),"No Value",IF(I135=0,"Solid",IF(I135=1,"Dotted",IF(I135=2,"Medium-Dashed",IF(I135=3,"LongDashed",IF(I135=4,"LongDashed Dot Dot",IF(I135=6,"Medium-Dashed Dot Dot",IF(I135=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I135" s="6">
@@ -9767,12 +9773,12 @@
         <v>321</v>
       </c>
       <c r="M135" s="27" t="str">
-        <f>IF(ISBLANK(A135),L135, CONCATENATE(L135,"_",A135))</f>
+        <f t="shared" si="7"/>
         <v>electrical_substation_area_SUBS</v>
       </c>
       <c r="N135" s="27" t="str">
-        <f>IF(ISBLANK(A135),(CONCATENATE("Level_Name = '",E135,"' AND Level =",F135," AND Color =",G135," AND Linetype = '",H135,"' AND LineWt=",J135)),(CONCATENATE("Level_Name = '",E135,"' AND Level =",F135," AND Color =",G135," AND Linetype = '",H135,"' AND LineWt=",J135," AND RefName = '",A135,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SUBS'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SUBS'</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9798,7 +9804,7 @@
         <v>5</v>
       </c>
       <c r="H136" s="9" t="str">
-        <f>IF(ISBLANK(I136),"No Value",IF(I136=0,"Solid",IF(I136=1,"Dotted",IF(I136=2,"Medium-Dashed",IF(I136=3,"LongDashed",IF(I136=4,"LongDashed Dot Dot",IF(I136=6,"Medium-Dashed Dot Dot",IF(I136=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I136" s="7">
@@ -9814,12 +9820,12 @@
         <v>98</v>
       </c>
       <c r="M136" s="27" t="str">
-        <f>IF(ISBLANK(A136),L136, CONCATENATE(L136,"_",A136))</f>
+        <f t="shared" si="7"/>
         <v>training_area_TRAINING</v>
       </c>
       <c r="N136" s="27" t="str">
-        <f>IF(ISBLANK(A136),(CONCATENATE("Level_Name = '",E136,"' AND Level =",F136," AND Color =",G136," AND Linetype = '",H136,"' AND LineWt=",J136)),(CONCATENATE("Level_Name = '",E136,"' AND Level =",F136," AND Color =",G136," AND Linetype = '",H136,"' AND LineWt=",J136," AND RefName = '",A136,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TRAINING'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TRAINING'</v>
       </c>
     </row>
     <row r="137" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9845,7 +9851,7 @@
         <v>5</v>
       </c>
       <c r="H137" s="9" t="str">
-        <f>IF(ISBLANK(I137),"No Value",IF(I137=0,"Solid",IF(I137=1,"Dotted",IF(I137=2,"Medium-Dashed",IF(I137=3,"LongDashed",IF(I137=4,"LongDashed Dot Dot",IF(I137=6,"Medium-Dashed Dot Dot",IF(I137=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I137" s="6">
@@ -9861,12 +9867,12 @@
         <v>393</v>
       </c>
       <c r="M137" s="27" t="str">
-        <f>IF(ISBLANK(A137),L137, CONCATENATE(L137,"_",A137))</f>
+        <f t="shared" si="7"/>
         <v>tunnel_area_TUNNEL</v>
       </c>
       <c r="N137" s="27" t="str">
-        <f>IF(ISBLANK(A137),(CONCATENATE("Level_Name = '",E137,"' AND Level =",F137," AND Color =",G137," AND Linetype = '",H137,"' AND LineWt=",J137)),(CONCATENATE("Level_Name = '",E137,"' AND Level =",F137," AND Color =",G137," AND Linetype = '",H137,"' AND LineWt=",J137," AND RefName = '",A137,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TUNNEL'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TUNNEL'</v>
       </c>
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
@@ -9896,7 +9902,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="9" t="str">
-        <f>IF(ISBLANK(I138),"No Value",IF(I138=0,"Solid",IF(I138=1,"Dotted",IF(I138=2,"Medium-Dashed",IF(I138=3,"LongDashed",IF(I138=4,"LongDashed Dot Dot",IF(I138=6,"Medium-Dashed Dot Dot",IF(I138=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I138" s="7">
@@ -9912,12 +9918,12 @@
         <v>112</v>
       </c>
       <c r="M138" s="27" t="str">
-        <f>IF(ISBLANK(A138),L138, CONCATENATE(L138,"_",A138))</f>
+        <f t="shared" si="7"/>
         <v>undefined_mapping_feature_area_U</v>
       </c>
       <c r="N138" s="27" t="str">
-        <f>IF(ISBLANK(A138),(CONCATENATE("Level_Name = '",E138,"' AND Level =",F138," AND Color =",G138," AND Linetype = '",H138,"' AND LineWt=",J138)),(CONCATENATE("Level_Name = '",E138,"' AND Level =",F138," AND Color =",G138," AND Linetype = '",H138,"' AND LineWt=",J138," AND RefName = '",A138,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'U'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'U'</v>
       </c>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
@@ -9950,7 +9956,7 @@
         <v>5</v>
       </c>
       <c r="H139" s="9" t="str">
-        <f>IF(ISBLANK(I139),"No Value",IF(I139=0,"Solid",IF(I139=1,"Dotted",IF(I139=2,"Medium-Dashed",IF(I139=3,"LongDashed",IF(I139=4,"LongDashed Dot Dot",IF(I139=6,"Medium-Dashed Dot Dot",IF(I139=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I139" s="6">
@@ -9966,12 +9972,12 @@
         <v>548</v>
       </c>
       <c r="M139" s="27" t="str">
-        <f>IF(ISBLANK(A139),L139, CONCATENATE(L139,"_",A139))</f>
+        <f t="shared" si="7"/>
         <v>obscured_area_UA</v>
       </c>
       <c r="N139" s="27" t="str">
-        <f>IF(ISBLANK(A139),(CONCATENATE("Level_Name = '",E139,"' AND Level =",F139," AND Color =",G139," AND Linetype = '",H139,"' AND LineWt=",J139)),(CONCATENATE("Level_Name = '",E139,"' AND Level =",F139," AND Color =",G139," AND Linetype = '",H139,"' AND LineWt=",J139," AND RefName = '",A139,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'UA'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'UA'</v>
       </c>
       <c r="S139" s="4" t="s">
         <v>664</v>
@@ -10000,7 +10006,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="9" t="str">
-        <f>IF(ISBLANK(I140),"No Value",IF(I140=0,"Solid",IF(I140=1,"Dotted",IF(I140=2,"Medium-Dashed",IF(I140=3,"LongDashed",IF(I140=4,"LongDashed Dot Dot",IF(I140=6,"Medium-Dashed Dot Dot",IF(I140=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I140" s="7">
@@ -10016,12 +10022,12 @@
         <v>99</v>
       </c>
       <c r="M140" s="27" t="str">
-        <f>IF(ISBLANK(A140),L140, CONCATENATE(L140,"_",A140))</f>
+        <f t="shared" si="7"/>
         <v>construction_area_UC</v>
       </c>
       <c r="N140" s="27" t="str">
-        <f>IF(ISBLANK(A140),(CONCATENATE("Level_Name = '",E140,"' AND Level =",F140," AND Color =",G140," AND Linetype = '",H140,"' AND LineWt=",J140)),(CONCATENATE("Level_Name = '",E140,"' AND Level =",F140," AND Color =",G140," AND Linetype = '",H140,"' AND LineWt=",J140," AND RefName = '",A140,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'UC'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'UC'</v>
       </c>
     </row>
     <row r="141" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10047,7 +10053,7 @@
         <v>5</v>
       </c>
       <c r="H141" s="9" t="str">
-        <f>IF(ISBLANK(I141),"No Value",IF(I141=0,"Solid",IF(I141=1,"Dotted",IF(I141=2,"Medium-Dashed",IF(I141=3,"LongDashed",IF(I141=4,"LongDashed Dot Dot",IF(I141=6,"Medium-Dashed Dot Dot",IF(I141=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I141" s="7">
@@ -10063,12 +10069,12 @@
         <v>517</v>
       </c>
       <c r="M141" s="27" t="str">
-        <f>IF(ISBLANK(A141),L141, CONCATENATE(L141,"_",A141))</f>
+        <f t="shared" si="7"/>
         <v>utility_area_UT</v>
       </c>
       <c r="N141" s="27" t="str">
-        <f>IF(ISBLANK(A141),(CONCATENATE("Level_Name = '",E141,"' AND Level =",F141," AND Color =",G141," AND Linetype = '",H141,"' AND LineWt=",J141)),(CONCATENATE("Level_Name = '",E141,"' AND Level =",F141," AND Color =",G141," AND Linetype = '",H141,"' AND LineWt=",J141," AND RefName = '",A141,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'UT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'UT'</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
@@ -10098,7 +10104,7 @@
         <v>5</v>
       </c>
       <c r="H142" s="9" t="str">
-        <f>IF(ISBLANK(I142),"No Value",IF(I142=0,"Solid",IF(I142=1,"Dotted",IF(I142=2,"Medium-Dashed",IF(I142=3,"LongDashed",IF(I142=4,"LongDashed Dot Dot",IF(I142=6,"Medium-Dashed Dot Dot",IF(I142=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I142" s="6">
@@ -10114,12 +10120,12 @@
         <v>523</v>
       </c>
       <c r="M142" s="27" t="str">
-        <f>IF(ISBLANK(A142),L142, CONCATENATE(L142,"_",A142))</f>
+        <f t="shared" si="7"/>
         <v>mooring_facility_area_WHARF</v>
       </c>
       <c r="N142" s="27" t="str">
-        <f>IF(ISBLANK(A142),(CONCATENATE("Level_Name = '",E142,"' AND Level =",F142," AND Color =",G142," AND Linetype = '",H142,"' AND LineWt=",J142)),(CONCATENATE("Level_Name = '",E142,"' AND Level =",F142," AND Color =",G142," AND Linetype = '",H142,"' AND LineWt=",J142," AND RefName = '",A142,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'WHARF'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'WHARF'</v>
       </c>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -10152,7 +10158,7 @@
         <v>5</v>
       </c>
       <c r="H143" s="9" t="str">
-        <f>IF(ISBLANK(I143),"No Value",IF(I143=0,"Solid",IF(I143=1,"Dotted",IF(I143=2,"Medium-Dashed",IF(I143=3,"LongDashed",IF(I143=4,"LongDashed Dot Dot",IF(I143=6,"Medium-Dashed Dot Dot",IF(I143=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I143" s="6">
@@ -10168,12 +10174,12 @@
         <v>37</v>
       </c>
       <c r="M143" s="27" t="str">
-        <f>IF(ISBLANK(A143),L143, CONCATENATE(L143,"_",A143))</f>
+        <f t="shared" si="7"/>
         <v>miscellaneous_feature_area_YD</v>
       </c>
       <c r="N143" s="27" t="str">
-        <f>IF(ISBLANK(A143),(CONCATENATE("Level_Name = '",E143,"' AND Level =",F143," AND Color =",G143," AND Linetype = '",H143,"' AND LineWt=",J143)),(CONCATENATE("Level_Name = '",E143,"' AND Level =",F143," AND Color =",G143," AND Linetype = '",H143,"' AND LineWt=",J143," AND RefName = '",A143,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'YD'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'YD'</v>
       </c>
     </row>
     <row r="144" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10197,7 +10203,7 @@
         <v>5</v>
       </c>
       <c r="H144" s="9" t="str">
-        <f>IF(ISBLANK(I144),"No Value",IF(I144=0,"Solid",IF(I144=1,"Dotted",IF(I144=2,"Medium-Dashed",IF(I144=3,"LongDashed",IF(I144=4,"LongDashed Dot Dot",IF(I144=6,"Medium-Dashed Dot Dot",IF(I144=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I144" s="6">
@@ -10213,12 +10219,12 @@
         <v>414</v>
       </c>
       <c r="M144" s="27" t="str">
-        <f>IF(ISBLANK(A144),L144, CONCATENATE(L144,"_",A144))</f>
+        <f t="shared" si="7"/>
         <v>undefined_mapping_feature_line</v>
       </c>
       <c r="N144" s="27" t="str">
-        <f>IF(ISBLANK(A144),(CONCATENATE("Level_Name = '",E144,"' AND Level =",F144," AND Color =",G144," AND Linetype = '",H144,"' AND LineWt=",J144)),(CONCATENATE("Level_Name = '",E144,"' AND Level =",F144," AND Color =",G144," AND Linetype = '",H144,"' AND LineWt=",J144," AND RefName = '",A144,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="S144" s="4" t="s">
         <v>298</v>
@@ -10244,7 +10250,7 @@
         <v>5</v>
       </c>
       <c r="H145" s="9" t="str">
-        <f>IF(ISBLANK(I145),"No Value",IF(I145=0,"Solid",IF(I145=1,"Dotted",IF(I145=2,"Medium-Dashed",IF(I145=3,"LongDashed",IF(I145=4,"LongDashed Dot Dot",IF(I145=6,"Medium-Dashed Dot Dot",IF(I145=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I145" s="12">
@@ -10260,12 +10266,12 @@
         <v>646</v>
       </c>
       <c r="M145" s="27" t="str">
-        <f>IF(ISBLANK(A145),L145, CONCATENATE(L145,"_",A145))</f>
+        <f t="shared" si="7"/>
         <v>pipeline_line_area</v>
       </c>
       <c r="N145" s="27" t="str">
-        <f>IF(ISBLANK(A145),(CONCATENATE("Level_Name = '",E145,"' AND Level =",F145," AND Color =",G145," AND Linetype = '",H145,"' AND LineWt=",J145)),(CONCATENATE("Level_Name = '",E145,"' AND Level =",F145," AND Color =",G145," AND Linetype = '",H145,"' AND LineWt=",J145," AND RefName = '",A145,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Color =5 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="146" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10291,7 +10297,7 @@
         <v>6</v>
       </c>
       <c r="H146" s="9" t="str">
-        <f>IF(ISBLANK(I146),"No Value",IF(I146=0,"Solid",IF(I146=1,"Dotted",IF(I146=2,"Medium-Dashed",IF(I146=3,"LongDashed",IF(I146=4,"LongDashed Dot Dot",IF(I146=6,"Medium-Dashed Dot Dot",IF(I146=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I146" s="6">
@@ -10307,12 +10313,12 @@
         <v>32</v>
       </c>
       <c r="M146" s="27" t="str">
-        <f>IF(ISBLANK(A146),L146, CONCATENATE(L146,"_",A146))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_CRT PTH</v>
       </c>
       <c r="N146" s="27" t="str">
-        <f>IF(ISBLANK(A146),(CONCATENATE("Level_Name = '",E146,"' AND Level =",F146," AND Color =",G146," AND Linetype = '",H146,"' AND LineWt=",J146)),(CONCATENATE("Level_Name = '",E146,"' AND Level =",F146," AND Color =",G146," AND Linetype = '",H146,"' AND LineWt=",J146," AND RefName = '",A146,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CRT PTH'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CRT PTH'</v>
       </c>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
@@ -10342,7 +10348,7 @@
         <v>6</v>
       </c>
       <c r="H147" s="9" t="str">
-        <f>IF(ISBLANK(I147),"No Value",IF(I147=0,"Solid",IF(I147=1,"Dotted",IF(I147=2,"Medium-Dashed",IF(I147=3,"LongDashed",IF(I147=4,"LongDashed Dot Dot",IF(I147=6,"Medium-Dashed Dot Dot",IF(I147=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I147" s="6">
@@ -10358,12 +10364,12 @@
         <v>32</v>
       </c>
       <c r="M147" s="27" t="str">
-        <f>IF(ISBLANK(A147),L147, CONCATENATE(L147,"_",A147))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_CRT PTH DT</v>
       </c>
       <c r="N147" s="27" t="str">
-        <f>IF(ISBLANK(A147),(CONCATENATE("Level_Name = '",E147,"' AND Level =",F147," AND Color =",G147," AND Linetype = '",H147,"' AND LineWt=",J147)),(CONCATENATE("Level_Name = '",E147,"' AND Level =",F147," AND Color =",G147," AND Linetype = '",H147,"' AND LineWt=",J147," AND RefName = '",A147,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CRT PTH DT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CRT PTH DT'</v>
       </c>
       <c r="O147" s="23"/>
       <c r="P147" s="23"/>
@@ -10393,7 +10399,7 @@
         <v>6</v>
       </c>
       <c r="H148" s="9" t="str">
-        <f>IF(ISBLANK(I148),"No Value",IF(I148=0,"Solid",IF(I148=1,"Dotted",IF(I148=2,"Medium-Dashed",IF(I148=3,"LongDashed",IF(I148=4,"LongDashed Dot Dot",IF(I148=6,"Medium-Dashed Dot Dot",IF(I148=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>LongDashed</v>
       </c>
       <c r="I148" s="6">
@@ -10409,12 +10415,12 @@
         <v>30</v>
       </c>
       <c r="M148" s="27" t="str">
-        <f>IF(ISBLANK(A148),L148, CONCATENATE(L148,"_",A148))</f>
+        <f t="shared" si="7"/>
         <v>vehicle_driveway_area_DA</v>
       </c>
       <c r="N148" s="27" t="str">
-        <f>IF(ISBLANK(A148),(CONCATENATE("Level_Name = '",E148,"' AND Level =",F148," AND Color =",G148," AND Linetype = '",H148,"' AND LineWt=",J148)),(CONCATENATE("Level_Name = '",E148,"' AND Level =",F148," AND Color =",G148," AND Linetype = '",H148,"' AND LineWt=",J148," AND RefName = '",A148,"'")))</f>
-        <v>Level_Name = 'VA_SITE_DWAY' AND Level =6 AND Color =6 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'DA'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_DWAY' AND ''Level'' = '6' AND ''Color'' = '6' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'DA'</v>
       </c>
       <c r="O148" s="23"/>
       <c r="P148" s="23"/>
@@ -10444,7 +10450,7 @@
         <v>6</v>
       </c>
       <c r="H149" s="9" t="str">
-        <f>IF(ISBLANK(I149),"No Value",IF(I149=0,"Solid",IF(I149=1,"Dotted",IF(I149=2,"Medium-Dashed",IF(I149=3,"LongDashed",IF(I149=4,"LongDashed Dot Dot",IF(I149=6,"Medium-Dashed Dot Dot",IF(I149=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>LongDashed</v>
       </c>
       <c r="I149" s="6">
@@ -10460,12 +10466,12 @@
         <v>30</v>
       </c>
       <c r="M149" s="27" t="str">
-        <f>IF(ISBLANK(A149),L149, CONCATENATE(L149,"_",A149))</f>
+        <f t="shared" si="7"/>
         <v>vehicle_driveway_area_DC</v>
       </c>
       <c r="N149" s="27" t="str">
-        <f>IF(ISBLANK(A149),(CONCATENATE("Level_Name = '",E149,"' AND Level =",F149," AND Color =",G149," AND Linetype = '",H149,"' AND LineWt=",J149)),(CONCATENATE("Level_Name = '",E149,"' AND Level =",F149," AND Color =",G149," AND Linetype = '",H149,"' AND LineWt=",J149," AND RefName = '",A149,"'")))</f>
-        <v>Level_Name = 'VA_SITE_DWAY' AND Level =6 AND Color =6 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'DC'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_DWAY' AND ''Level'' = '6' AND ''Color'' = '6' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'DC'</v>
       </c>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
@@ -10495,7 +10501,7 @@
         <v>6</v>
       </c>
       <c r="H150" s="9" t="str">
-        <f>IF(ISBLANK(I150),"No Value",IF(I150=0,"Solid",IF(I150=1,"Dotted",IF(I150=2,"Medium-Dashed",IF(I150=3,"LongDashed",IF(I150=4,"LongDashed Dot Dot",IF(I150=6,"Medium-Dashed Dot Dot",IF(I150=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>LongDashed</v>
       </c>
       <c r="I150" s="6">
@@ -10511,12 +10517,12 @@
         <v>30</v>
       </c>
       <c r="M150" s="27" t="str">
-        <f>IF(ISBLANK(A150),L150, CONCATENATE(L150,"_",A150))</f>
+        <f t="shared" si="7"/>
         <v>vehicle_driveway_area_DDT</v>
       </c>
       <c r="N150" s="27" t="str">
-        <f>IF(ISBLANK(A150),(CONCATENATE("Level_Name = '",E150,"' AND Level =",F150," AND Color =",G150," AND Linetype = '",H150,"' AND LineWt=",J150)),(CONCATENATE("Level_Name = '",E150,"' AND Level =",F150," AND Color =",G150," AND Linetype = '",H150,"' AND LineWt=",J150," AND RefName = '",A150,"'")))</f>
-        <v>Level_Name = 'VA_SITE_DWAY' AND Level =6 AND Color =6 AND Linetype = 'LongDashed' AND LineWt=0 AND RefName = 'DDT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_DWAY' AND ''Level'' = '6' AND ''Color'' = '6' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'DDT'</v>
       </c>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
@@ -10546,7 +10552,7 @@
         <v>6</v>
       </c>
       <c r="H151" s="9" t="str">
-        <f>IF(ISBLANK(I151),"No Value",IF(I151=0,"Solid",IF(I151=1,"Dotted",IF(I151=2,"Medium-Dashed",IF(I151=3,"LongDashed",IF(I151=4,"LongDashed Dot Dot",IF(I151=6,"Medium-Dashed Dot Dot",IF(I151=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Dotted</v>
       </c>
       <c r="I151" s="6">
@@ -10562,12 +10568,12 @@
         <v>37</v>
       </c>
       <c r="M151" s="27" t="str">
-        <f>IF(ISBLANK(A151),L151, CONCATENATE(L151,"_",A151))</f>
+        <f t="shared" si="7"/>
         <v>miscellaneous_feature_area_RIPRAP</v>
       </c>
       <c r="N151" s="27" t="str">
-        <f>IF(ISBLANK(A151),(CONCATENATE("Level_Name = '",E151,"' AND Level =",F151," AND Color =",G151," AND Linetype = '",H151,"' AND LineWt=",J151)),(CONCATENATE("Level_Name = '",E151,"' AND Level =",F151," AND Color =",G151," AND Linetype = '",H151,"' AND LineWt=",J151," AND RefName = '",A151,"'")))</f>
-        <v>Level_Name = 'VA_SITE_ROCK' AND Level =22 AND Color =6 AND Linetype = 'Dotted' AND LineWt=0 AND RefName = 'RIPRAP'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_ROCK' AND ''Level'' = '22' AND ''Color'' = '6' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0' AND ''RefName'' = 'RIPRAP'</v>
       </c>
     </row>
     <row r="152" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10593,7 +10599,7 @@
         <v>6</v>
       </c>
       <c r="H152" s="9" t="str">
-        <f>IF(ISBLANK(I152),"No Value",IF(I152=0,"Solid",IF(I152=1,"Dotted",IF(I152=2,"Medium-Dashed",IF(I152=3,"LongDashed",IF(I152=4,"LongDashed Dot Dot",IF(I152=6,"Medium-Dashed Dot Dot",IF(I152=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Dotted</v>
       </c>
       <c r="I152" s="6">
@@ -10609,12 +10615,12 @@
         <v>37</v>
       </c>
       <c r="M152" s="27" t="str">
-        <f>IF(ISBLANK(A152),L152, CONCATENATE(L152,"_",A152))</f>
+        <f t="shared" si="7"/>
         <v>miscellaneous_feature_area_ROCK</v>
       </c>
       <c r="N152" s="27" t="str">
-        <f>IF(ISBLANK(A152),(CONCATENATE("Level_Name = '",E152,"' AND Level =",F152," AND Color =",G152," AND Linetype = '",H152,"' AND LineWt=",J152)),(CONCATENATE("Level_Name = '",E152,"' AND Level =",F152," AND Color =",G152," AND Linetype = '",H152,"' AND LineWt=",J152," AND RefName = '",A152,"'")))</f>
-        <v>Level_Name = 'VA_SITE_ROCK' AND Level =22 AND Color =6 AND Linetype = 'Dotted' AND LineWt=0 AND RefName = 'ROCK'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_ROCK' AND ''Level'' = '22' AND ''Color'' = '6' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0' AND ''RefName'' = 'ROCK'</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10640,7 +10646,7 @@
         <v>6</v>
       </c>
       <c r="H153" s="9" t="str">
-        <f>IF(ISBLANK(I153),"No Value",IF(I153=0,"Solid",IF(I153=1,"Dotted",IF(I153=2,"Medium-Dashed",IF(I153=3,"LongDashed",IF(I153=4,"LongDashed Dot Dot",IF(I153=6,"Medium-Dashed Dot Dot",IF(I153=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Dotted</v>
       </c>
       <c r="I153" s="6">
@@ -10656,12 +10662,12 @@
         <v>37</v>
       </c>
       <c r="M153" s="27" t="str">
-        <f>IF(ISBLANK(A153),L153, CONCATENATE(L153,"_",A153))</f>
+        <f t="shared" si="7"/>
         <v>miscellaneous_feature_area_ROCKS</v>
       </c>
       <c r="N153" s="27" t="str">
-        <f>IF(ISBLANK(A153),(CONCATENATE("Level_Name = '",E153,"' AND Level =",F153," AND Color =",G153," AND Linetype = '",H153,"' AND LineWt=",J153)),(CONCATENATE("Level_Name = '",E153,"' AND Level =",F153," AND Color =",G153," AND Linetype = '",H153,"' AND LineWt=",J153," AND RefName = '",A153,"'")))</f>
-        <v>Level_Name = 'VA_SITE_ROCK' AND Level =22 AND Color =6 AND Linetype = 'Dotted' AND LineWt=0 AND RefName = 'ROCKS'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_ROCK' AND ''Level'' = '22' AND ''Color'' = '6' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0' AND ''RefName'' = 'ROCKS'</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10687,7 +10693,7 @@
         <v>6</v>
       </c>
       <c r="H154" s="9" t="str">
-        <f>IF(ISBLANK(I154),"No Value",IF(I154=0,"Solid",IF(I154=1,"Dotted",IF(I154=2,"Medium-Dashed",IF(I154=3,"LongDashed",IF(I154=4,"LongDashed Dot Dot",IF(I154=6,"Medium-Dashed Dot Dot",IF(I154=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I154" s="6">
@@ -10703,12 +10709,12 @@
         <v>32</v>
       </c>
       <c r="M154" s="27" t="str">
-        <f>IF(ISBLANK(A154),L154, CONCATENATE(L154,"_",A154))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SA</v>
       </c>
       <c r="N154" s="27" t="str">
-        <f>IF(ISBLANK(A154),(CONCATENATE("Level_Name = '",E154,"' AND Level =",F154," AND Color =",G154," AND Linetype = '",H154,"' AND LineWt=",J154)),(CONCATENATE("Level_Name = '",E154,"' AND Level =",F154," AND Color =",G154," AND Linetype = '",H154,"' AND LineWt=",J154," AND RefName = '",A154,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SA'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SA'</v>
       </c>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
@@ -10738,7 +10744,7 @@
         <v>6</v>
       </c>
       <c r="H155" s="9" t="str">
-        <f>IF(ISBLANK(I155),"No Value",IF(I155=0,"Solid",IF(I155=1,"Dotted",IF(I155=2,"Medium-Dashed",IF(I155=3,"LongDashed",IF(I155=4,"LongDashed Dot Dot",IF(I155=6,"Medium-Dashed Dot Dot",IF(I155=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I155" s="6">
@@ -10754,12 +10760,12 @@
         <v>32</v>
       </c>
       <c r="M155" s="27" t="str">
-        <f>IF(ISBLANK(A155),L155, CONCATENATE(L155,"_",A155))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SAB</v>
       </c>
       <c r="N155" s="27" t="str">
-        <f>IF(ISBLANK(A155),(CONCATENATE("Level_Name = '",E155,"' AND Level =",F155," AND Color =",G155," AND Linetype = '",H155,"' AND LineWt=",J155)),(CONCATENATE("Level_Name = '",E155,"' AND Level =",F155," AND Color =",G155," AND Linetype = '",H155,"' AND LineWt=",J155," AND RefName = '",A155,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SAB'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SAB'</v>
       </c>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
@@ -10792,7 +10798,7 @@
         <v>6</v>
       </c>
       <c r="H156" s="9" t="str">
-        <f>IF(ISBLANK(I156),"No Value",IF(I156=0,"Solid",IF(I156=1,"Dotted",IF(I156=2,"Medium-Dashed",IF(I156=3,"LongDashed",IF(I156=4,"LongDashed Dot Dot",IF(I156=6,"Medium-Dashed Dot Dot",IF(I156=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I156" s="6">
@@ -10808,12 +10814,12 @@
         <v>32</v>
       </c>
       <c r="M156" s="27" t="str">
-        <f>IF(ISBLANK(A156),L156, CONCATENATE(L156,"_",A156))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SC</v>
       </c>
       <c r="N156" s="27" t="str">
-        <f>IF(ISBLANK(A156),(CONCATENATE("Level_Name = '",E156,"' AND Level =",F156," AND Color =",G156," AND Linetype = '",H156,"' AND LineWt=",J156)),(CONCATENATE("Level_Name = '",E156,"' AND Level =",F156," AND Color =",G156," AND Linetype = '",H156,"' AND LineWt=",J156," AND RefName = '",A156,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SC'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SC'</v>
       </c>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
@@ -10843,7 +10849,7 @@
         <v>6</v>
       </c>
       <c r="H157" s="9" t="str">
-        <f>IF(ISBLANK(I157),"No Value",IF(I157=0,"Solid",IF(I157=1,"Dotted",IF(I157=2,"Medium-Dashed",IF(I157=3,"LongDashed",IF(I157=4,"LongDashed Dot Dot",IF(I157=6,"Medium-Dashed Dot Dot",IF(I157=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I157" s="6">
@@ -10859,12 +10865,12 @@
         <v>32</v>
       </c>
       <c r="M157" s="27" t="str">
-        <f>IF(ISBLANK(A157),L157, CONCATENATE(L157,"_",A157))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SCB</v>
       </c>
       <c r="N157" s="27" t="str">
-        <f>IF(ISBLANK(A157),(CONCATENATE("Level_Name = '",E157,"' AND Level =",F157," AND Color =",G157," AND Linetype = '",H157,"' AND LineWt=",J157)),(CONCATENATE("Level_Name = '",E157,"' AND Level =",F157," AND Color =",G157," AND Linetype = '",H157,"' AND LineWt=",J157," AND RefName = '",A157,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SCB'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SCB'</v>
       </c>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
@@ -10897,7 +10903,7 @@
         <v>6</v>
       </c>
       <c r="H158" s="9" t="str">
-        <f>IF(ISBLANK(I158),"No Value",IF(I158=0,"Solid",IF(I158=1,"Dotted",IF(I158=2,"Medium-Dashed",IF(I158=3,"LongDashed",IF(I158=4,"LongDashed Dot Dot",IF(I158=6,"Medium-Dashed Dot Dot",IF(I158=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I158" s="6">
@@ -10913,12 +10919,12 @@
         <v>32</v>
       </c>
       <c r="M158" s="27" t="str">
-        <f>IF(ISBLANK(A158),L158, CONCATENATE(L158,"_",A158))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SDT</v>
       </c>
       <c r="N158" s="27" t="str">
-        <f>IF(ISBLANK(A158),(CONCATENATE("Level_Name = '",E158,"' AND Level =",F158," AND Color =",G158," AND Linetype = '",H158,"' AND LineWt=",J158)),(CONCATENATE("Level_Name = '",E158,"' AND Level =",F158," AND Color =",G158," AND Linetype = '",H158,"' AND LineWt=",J158," AND RefName = '",A158,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SDT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SDT'</v>
       </c>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
@@ -10949,7 +10955,7 @@
         <v>6</v>
       </c>
       <c r="H159" s="9" t="str">
-        <f>IF(ISBLANK(I159),"No Value",IF(I159=0,"Solid",IF(I159=1,"Dotted",IF(I159=2,"Medium-Dashed",IF(I159=3,"LongDashed",IF(I159=4,"LongDashed Dot Dot",IF(I159=6,"Medium-Dashed Dot Dot",IF(I159=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I159" s="6">
@@ -10965,12 +10971,12 @@
         <v>32</v>
       </c>
       <c r="M159" s="27" t="str">
-        <f>IF(ISBLANK(A159),L159, CONCATENATE(L159,"_",A159))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SDTB</v>
       </c>
       <c r="N159" s="27" t="str">
-        <f>IF(ISBLANK(A159),(CONCATENATE("Level_Name = '",E159,"' AND Level =",F159," AND Color =",G159," AND Linetype = '",H159,"' AND LineWt=",J159)),(CONCATENATE("Level_Name = '",E159,"' AND Level =",F159," AND Color =",G159," AND Linetype = '",H159,"' AND LineWt=",J159," AND RefName = '",A159,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SDTB'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SDTB'</v>
       </c>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -11003,7 +11009,7 @@
         <v>6</v>
       </c>
       <c r="H160" s="9" t="str">
-        <f>IF(ISBLANK(I160),"No Value",IF(I160=0,"Solid",IF(I160=1,"Dotted",IF(I160=2,"Medium-Dashed",IF(I160=3,"LongDashed",IF(I160=4,"LongDashed Dot Dot",IF(I160=6,"Medium-Dashed Dot Dot",IF(I160=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I160" s="6">
@@ -11019,12 +11025,12 @@
         <v>32</v>
       </c>
       <c r="M160" s="27" t="str">
-        <f>IF(ISBLANK(A160),L160, CONCATENATE(L160,"_",A160))</f>
+        <f t="shared" si="7"/>
         <v>pedestrian_sidewalk_area_SW</v>
       </c>
       <c r="N160" s="27" t="str">
-        <f>IF(ISBLANK(A160),(CONCATENATE("Level_Name = '",E160,"' AND Level =",F160," AND Color =",G160," AND Linetype = '",H160,"' AND LineWt=",J160)),(CONCATENATE("Level_Name = '",E160,"' AND Level =",F160," AND Color =",G160," AND Linetype = '",H160,"' AND LineWt=",J160," AND RefName = '",A160,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SWLK' AND Level =9 AND Color =6 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SW'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SW'</v>
       </c>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -11051,7 +11057,7 @@
         <v>6</v>
       </c>
       <c r="H161" s="9" t="str">
-        <f>IF(ISBLANK(I161),"No Value",IF(I161=0,"Solid",IF(I161=1,"Dotted",IF(I161=2,"Medium-Dashed",IF(I161=3,"LongDashed",IF(I161=4,"LongDashed Dot Dot",IF(I161=6,"Medium-Dashed Dot Dot",IF(I161=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I161" s="12">
@@ -11067,12 +11073,12 @@
         <v>84</v>
       </c>
       <c r="M161" s="27" t="str">
-        <f>IF(ISBLANK(A161),L161, CONCATENATE(L161,"_",A161))</f>
+        <f t="shared" si="7"/>
         <v>road_guardrail_line</v>
       </c>
       <c r="N161" s="27" t="str">
-        <f>IF(ISBLANK(A161),(CONCATENATE("Level_Name = '",E161,"' AND Level =",F161," AND Color =",G161," AND Linetype = '",H161,"' AND LineWt=",J161)),(CONCATENATE("Level_Name = '",E161,"' AND Level =",F161," AND Color =",G161," AND Linetype = '",H161,"' AND LineWt=",J161," AND RefName = '",A161,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_GRDR' AND Level =18 AND Color =6 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_ROAD_GRDR' AND ''Level'' = '18' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="162" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11095,7 +11101,7 @@
         <v>6</v>
       </c>
       <c r="H162" s="9" t="str">
-        <f>IF(ISBLANK(I162),"No Value",IF(I162=0,"Solid",IF(I162=1,"Dotted",IF(I162=2,"Medium-Dashed",IF(I162=3,"LongDashed",IF(I162=4,"LongDashed Dot Dot",IF(I162=6,"Medium-Dashed Dot Dot",IF(I162=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I162" s="12">
@@ -11111,12 +11117,12 @@
         <v>84</v>
       </c>
       <c r="M162" s="27" t="str">
-        <f>IF(ISBLANK(A162),L162, CONCATENATE(L162,"_",A162))</f>
+        <f t="shared" si="7"/>
         <v>road_guardrail_line</v>
       </c>
       <c r="N162" s="27" t="str">
-        <f>IF(ISBLANK(A162),(CONCATENATE("Level_Name = '",E162,"' AND Level =",F162," AND Color =",G162," AND Linetype = '",H162,"' AND LineWt=",J162)),(CONCATENATE("Level_Name = '",E162,"' AND Level =",F162," AND Color =",G162," AND Linetype = '",H162,"' AND LineWt=",J162," AND RefName = '",A162,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_GRDR' AND Level =18 AND Color =6 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_ROAD_GRDR' AND ''Level'' = '18' AND ''Color'' = '6' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="S162" s="4" t="s">
         <v>303</v>
@@ -11142,7 +11148,7 @@
         <v>6</v>
       </c>
       <c r="H163" s="9" t="str">
-        <f>IF(ISBLANK(I163),"No Value",IF(I163=0,"Solid",IF(I163=1,"Dotted",IF(I163=2,"Medium-Dashed",IF(I163=3,"LongDashed",IF(I163=4,"LongDashed Dot Dot",IF(I163=6,"Medium-Dashed Dot Dot",IF(I163=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I163" s="12">
@@ -11158,12 +11164,12 @@
         <v>53</v>
       </c>
       <c r="M163" s="27" t="str">
-        <f>IF(ISBLANK(A163),L163, CONCATENATE(L163,"_",A163))</f>
+        <f t="shared" si="7"/>
         <v>fence_line</v>
       </c>
       <c r="N163" s="27" t="str">
-        <f>IF(ISBLANK(A163),(CONCATENATE("Level_Name = '",E163,"' AND Level =",F163," AND Color =",G163," AND Linetype = '",H163,"' AND LineWt=",J163)),(CONCATENATE("Level_Name = '",E163,"' AND Level =",F163," AND Color =",G163," AND Linetype = '",H163,"' AND LineWt=",J163," AND RefName = '",A163,"'")))</f>
-        <v>Level_Name = 'VA_SITE_FENC' AND Level =19 AND Color =6 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_FENC' AND ''Level'' = '19' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="O163" s="4" t="s">
         <v>679</v>
@@ -11192,7 +11198,7 @@
         <v>6</v>
       </c>
       <c r="H164" s="9" t="str">
-        <f>IF(ISBLANK(I164),"No Value",IF(I164=0,"Solid",IF(I164=1,"Dotted",IF(I164=2,"Medium-Dashed",IF(I164=3,"LongDashed",IF(I164=4,"LongDashed Dot Dot",IF(I164=6,"Medium-Dashed Dot Dot",IF(I164=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I164" s="12">
@@ -11208,12 +11214,12 @@
         <v>53</v>
       </c>
       <c r="M164" s="27" t="str">
-        <f>IF(ISBLANK(A164),L164, CONCATENATE(L164,"_",A164))</f>
+        <f t="shared" si="7"/>
         <v>fence_line</v>
       </c>
       <c r="N164" s="27" t="str">
-        <f>IF(ISBLANK(A164),(CONCATENATE("Level_Name = '",E164,"' AND Level =",F164," AND Color =",G164," AND Linetype = '",H164,"' AND LineWt=",J164)),(CONCATENATE("Level_Name = '",E164,"' AND Level =",F164," AND Color =",G164," AND Linetype = '",H164,"' AND LineWt=",J164," AND RefName = '",A164,"'")))</f>
-        <v>Level_Name = 'VA_SITE_FENC' AND Level =19 AND Color =6 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_FENC' AND ''Level'' = '19' AND ''Color'' = '6' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="O164" s="4" t="s">
         <v>679</v>
@@ -11245,7 +11251,7 @@
         <v>6</v>
       </c>
       <c r="H165" s="9" t="str">
-        <f>IF(ISBLANK(I165),"No Value",IF(I165=0,"Solid",IF(I165=1,"Dotted",IF(I165=2,"Medium-Dashed",IF(I165=3,"LongDashed",IF(I165=4,"LongDashed Dot Dot",IF(I165=6,"Medium-Dashed Dot Dot",IF(I165=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I165" s="12">
@@ -11261,12 +11267,12 @@
         <v>57</v>
       </c>
       <c r="M165" s="27" t="str">
-        <f>IF(ISBLANK(A165),L165, CONCATENATE(L165,"_",A165))</f>
+        <f t="shared" si="7"/>
         <v>wall_line</v>
       </c>
       <c r="N165" s="27" t="str">
-        <f>IF(ISBLANK(A165),(CONCATENATE("Level_Name = '",E165,"' AND Level =",F165," AND Color =",G165," AND Linetype = '",H165,"' AND LineWt=",J165)),(CONCATENATE("Level_Name = '",E165,"' AND Level =",F165," AND Color =",G165," AND Linetype = '",H165,"' AND LineWt=",J165," AND RefName = '",A165,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WALL' AND Level =21 AND Color =6 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="O165" s="4" t="s">
         <v>679</v>
@@ -11295,7 +11301,7 @@
         <v>6</v>
       </c>
       <c r="H166" s="9" t="str">
-        <f>IF(ISBLANK(I166),"No Value",IF(I166=0,"Solid",IF(I166=1,"Dotted",IF(I166=2,"Medium-Dashed",IF(I166=3,"LongDashed",IF(I166=4,"LongDashed Dot Dot",IF(I166=6,"Medium-Dashed Dot Dot",IF(I166=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I166" s="12">
@@ -11311,12 +11317,12 @@
         <v>57</v>
       </c>
       <c r="M166" s="27" t="str">
-        <f>IF(ISBLANK(A166),L166, CONCATENATE(L166,"_",A166))</f>
+        <f t="shared" si="7"/>
         <v>wall_line</v>
       </c>
       <c r="N166" s="27" t="str">
-        <f>IF(ISBLANK(A166),(CONCATENATE("Level_Name = '",E166,"' AND Level =",F166," AND Color =",G166," AND Linetype = '",H166,"' AND LineWt=",J166)),(CONCATENATE("Level_Name = '",E166,"' AND Level =",F166," AND Color =",G166," AND Linetype = '",H166,"' AND LineWt=",J166," AND RefName = '",A166,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WALL' AND Level =21 AND Color =6 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '6' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="O166" s="4" t="s">
         <v>679</v>
@@ -11349,7 +11355,7 @@
         <v>6</v>
       </c>
       <c r="H167" s="9" t="str">
-        <f>IF(ISBLANK(I167),"No Value",IF(I167=0,"Solid",IF(I167=1,"Dotted",IF(I167=2,"Medium-Dashed",IF(I167=3,"LongDashed",IF(I167=4,"LongDashed Dot Dot",IF(I167=6,"Medium-Dashed Dot Dot",IF(I167=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I167" s="6">
@@ -11365,12 +11371,12 @@
         <v>582</v>
       </c>
       <c r="M167" s="27" t="str">
-        <f>IF(ISBLANK(A167),L167, CONCATENATE(L167,"_",A167))</f>
+        <f t="shared" si="7"/>
         <v>breakline</v>
       </c>
       <c r="N167" s="27" t="str">
-        <f>IF(ISBLANK(A167),(CONCATENATE("Level_Name = '",E167,"' AND Level =",F167," AND Color =",G167," AND Linetype = '",H167,"' AND LineWt=",J167)),(CONCATENATE("Level_Name = '",E167,"' AND Level =",F167," AND Color =",G167," AND Linetype = '",H167,"' AND LineWt=",J167," AND RefName = '",A167,"'")))</f>
-        <v>Level_Name = 'VA_DTM_BRKL' AND Level =52 AND Color =6 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_DTM_BRKL' AND ''Level'' = '52' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11396,7 +11402,7 @@
         <v>7</v>
       </c>
       <c r="H168" s="9" t="str">
-        <f>IF(ISBLANK(I168),"No Value",IF(I168=0,"Solid",IF(I168=1,"Dotted",IF(I168=2,"Medium-Dashed",IF(I168=3,"LongDashed",IF(I168=4,"LongDashed Dot Dot",IF(I168=6,"Medium-Dashed Dot Dot",IF(I168=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I168" s="6">
@@ -11412,12 +11418,12 @@
         <v>35</v>
       </c>
       <c r="M168" s="27" t="str">
-        <f>IF(ISBLANK(A168),L168, CONCATENATE(L168,"_",A168))</f>
+        <f t="shared" si="7"/>
         <v>athletic_court_area_ATH COURT</v>
       </c>
       <c r="N168" s="27" t="str">
-        <f>IF(ISBLANK(A168),(CONCATENATE("Level_Name = '",E168,"' AND Level =",F168," AND Color =",G168," AND Linetype = '",H168,"' AND LineWt=",J168)),(CONCATENATE("Level_Name = '",E168,"' AND Level =",F168," AND Color =",G168," AND Linetype = '",H168,"' AND LineWt=",J168," AND RefName = '",A168,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'ATH COURT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ATH COURT'</v>
       </c>
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
@@ -11447,7 +11453,7 @@
         <v>7</v>
       </c>
       <c r="H169" s="9" t="str">
-        <f>IF(ISBLANK(I169),"No Value",IF(I169=0,"Solid",IF(I169=1,"Dotted",IF(I169=2,"Medium-Dashed",IF(I169=3,"LongDashed",IF(I169=4,"LongDashed Dot Dot",IF(I169=6,"Medium-Dashed Dot Dot",IF(I169=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I169" s="6">
@@ -11463,12 +11469,12 @@
         <v>35</v>
       </c>
       <c r="M169" s="27" t="str">
-        <f>IF(ISBLANK(A169),L169, CONCATENATE(L169,"_",A169))</f>
+        <f t="shared" si="7"/>
         <v>athletic_court_area_BBCT</v>
       </c>
       <c r="N169" s="27" t="str">
-        <f>IF(ISBLANK(A169),(CONCATENATE("Level_Name = '",E169,"' AND Level =",F169," AND Color =",G169," AND Linetype = '",H169,"' AND LineWt=",J169)),(CONCATENATE("Level_Name = '",E169,"' AND Level =",F169," AND Color =",G169," AND Linetype = '",H169,"' AND LineWt=",J169," AND RefName = '",A169,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BBCT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BBCT'</v>
       </c>
       <c r="O169" s="5"/>
       <c r="P169" s="5"/>
@@ -11498,7 +11504,7 @@
         <v>7</v>
       </c>
       <c r="H170" s="9" t="str">
-        <f>IF(ISBLANK(I170),"No Value",IF(I170=0,"Solid",IF(I170=1,"Dotted",IF(I170=2,"Medium-Dashed",IF(I170=3,"LongDashed",IF(I170=4,"LongDashed Dot Dot",IF(I170=6,"Medium-Dashed Dot Dot",IF(I170=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I170" s="6">
@@ -11514,12 +11520,12 @@
         <v>36</v>
       </c>
       <c r="M170" s="27" t="str">
-        <f>IF(ISBLANK(A170),L170, CONCATENATE(L170,"_",A170))</f>
+        <f t="shared" si="7"/>
         <v>athletic_field_area_BBFLD</v>
       </c>
       <c r="N170" s="27" t="str">
-        <f>IF(ISBLANK(A170),(CONCATENATE("Level_Name = '",E170,"' AND Level =",F170," AND Color =",G170," AND Linetype = '",H170,"' AND LineWt=",J170)),(CONCATENATE("Level_Name = '",E170,"' AND Level =",F170," AND Color =",G170," AND Linetype = '",H170,"' AND LineWt=",J170," AND RefName = '",A170,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'BBFLD'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BBFLD'</v>
       </c>
       <c r="O170" s="5"/>
       <c r="P170" s="5"/>
@@ -11549,7 +11555,7 @@
         <v>7</v>
       </c>
       <c r="H171" s="9" t="str">
-        <f>IF(ISBLANK(I171),"No Value",IF(I171=0,"Solid",IF(I171=1,"Dotted",IF(I171=2,"Medium-Dashed",IF(I171=3,"LongDashed",IF(I171=4,"LongDashed Dot Dot",IF(I171=6,"Medium-Dashed Dot Dot",IF(I171=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I171" s="6">
@@ -11565,12 +11571,12 @@
         <v>375</v>
       </c>
       <c r="M171" s="27" t="str">
-        <f>IF(ISBLANK(A171),L171, CONCATENATE(L171,"_",A171))</f>
+        <f t="shared" si="7"/>
         <v>campground_area_CG</v>
       </c>
       <c r="N171" s="27" t="str">
-        <f>IF(ISBLANK(A171),(CONCATENATE("Level_Name = '",E171,"' AND Level =",F171," AND Color =",G171," AND Linetype = '",H171,"' AND LineWt=",J171)),(CONCATENATE("Level_Name = '",E171,"' AND Level =",F171," AND Color =",G171," AND Linetype = '",H171,"' AND LineWt=",J171," AND RefName = '",A171,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'CG'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CG'</v>
       </c>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
@@ -11600,7 +11606,7 @@
         <v>7</v>
       </c>
       <c r="H172" s="9" t="str">
-        <f>IF(ISBLANK(I172),"No Value",IF(I172=0,"Solid",IF(I172=1,"Dotted",IF(I172=2,"Medium-Dashed",IF(I172=3,"LongDashed",IF(I172=4,"LongDashed Dot Dot",IF(I172=6,"Medium-Dashed Dot Dot",IF(I172=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I172" s="6">
@@ -11616,12 +11622,12 @@
         <v>36</v>
       </c>
       <c r="M172" s="27" t="str">
-        <f>IF(ISBLANK(A172),L172, CONCATENATE(L172,"_",A172))</f>
+        <f t="shared" si="7"/>
         <v>athletic_field_area_FBFLD</v>
       </c>
       <c r="N172" s="27" t="str">
-        <f>IF(ISBLANK(A172),(CONCATENATE("Level_Name = '",E172,"' AND Level =",F172," AND Color =",G172," AND Linetype = '",H172,"' AND LineWt=",J172)),(CONCATENATE("Level_Name = '",E172,"' AND Level =",F172," AND Color =",G172," AND Linetype = '",H172,"' AND LineWt=",J172," AND RefName = '",A172,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'FBFLD'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'FBFLD'</v>
       </c>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
@@ -11652,7 +11658,7 @@
         <v>7</v>
       </c>
       <c r="H173" s="9" t="str">
-        <f>IF(ISBLANK(I173),"No Value",IF(I173=0,"Solid",IF(I173=1,"Dotted",IF(I173=2,"Medium-Dashed",IF(I173=3,"LongDashed",IF(I173=4,"LongDashed Dot Dot",IF(I173=6,"Medium-Dashed Dot Dot",IF(I173=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I173" s="6">
@@ -11668,12 +11674,12 @@
         <v>36</v>
       </c>
       <c r="M173" s="27" t="str">
-        <f>IF(ISBLANK(A173),L173, CONCATENATE(L173,"_",A173))</f>
+        <f t="shared" si="7"/>
         <v>athletic_field_area_HORSESHOES</v>
       </c>
       <c r="N173" s="27" t="str">
-        <f>IF(ISBLANK(A173),(CONCATENATE("Level_Name = '",E173,"' AND Level =",F173," AND Color =",G173," AND Linetype = '",H173,"' AND LineWt=",J173)),(CONCATENATE("Level_Name = '",E173,"' AND Level =",F173," AND Color =",G173," AND Linetype = '",H173,"' AND LineWt=",J173," AND RefName = '",A173,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'HORSESHOES'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'HORSESHOES'</v>
       </c>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
@@ -11703,7 +11709,7 @@
         <v>7</v>
       </c>
       <c r="H174" s="9" t="str">
-        <f>IF(ISBLANK(I174),"No Value",IF(I174=0,"Solid",IF(I174=1,"Dotted",IF(I174=2,"Medium-Dashed",IF(I174=3,"LongDashed",IF(I174=4,"LongDashed Dot Dot",IF(I174=6,"Medium-Dashed Dot Dot",IF(I174=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>No Value</v>
       </c>
       <c r="I174" s="7"/>
@@ -11715,12 +11721,12 @@
         <v>373</v>
       </c>
       <c r="M174" s="27" t="str">
-        <f>IF(ISBLANK(A174),L174, CONCATENATE(L174,"_",A174))</f>
+        <f t="shared" si="7"/>
         <v>levee_berm_area_LEVEE</v>
       </c>
       <c r="N174" s="27" t="str">
-        <f>IF(ISBLANK(A174),(CONCATENATE("Level_Name = '",E174,"' AND Level =",F174," AND Color =",G174," AND Linetype = '",H174,"' AND LineWt=",J174)),(CONCATENATE("Level_Name = '",E174,"' AND Level =",F174," AND Color =",G174," AND RefName = '",A174,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_IRRI' AND Level =26 AND Color =7 AND RefName = 'LEVEE'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_UTIL_IRRI' AND ''Level'' = '26' AND ''Color'' = '7' AND ''Linetype'' = 'No Value' AND ''LineWt''= '' AND ''RefName'' = 'LEVEE'</v>
       </c>
     </row>
     <row r="175" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11746,7 +11752,7 @@
         <v>7</v>
       </c>
       <c r="H175" s="9" t="str">
-        <f>IF(ISBLANK(I175),"No Value",IF(I175=0,"Solid",IF(I175=1,"Dotted",IF(I175=2,"Medium-Dashed",IF(I175=3,"LongDashed",IF(I175=4,"LongDashed Dot Dot",IF(I175=6,"Medium-Dashed Dot Dot",IF(I175=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I175" s="6">
@@ -11762,12 +11768,12 @@
         <v>383</v>
       </c>
       <c r="M175" s="27" t="str">
-        <f>IF(ISBLANK(A175),L175, CONCATENATE(L175,"_",A175))</f>
+        <f t="shared" si="7"/>
         <v>recreation_park_area_PARK</v>
       </c>
       <c r="N175" s="27" t="str">
-        <f>IF(ISBLANK(A175),(CONCATENATE("Level_Name = '",E175,"' AND Level =",F175," AND Color =",G175," AND Linetype = '",H175,"' AND LineWt=",J175)),(CONCATENATE("Level_Name = '",E175,"' AND Level =",F175," AND Color =",G175," AND Linetype = '",H175,"' AND LineWt=",J175," AND RefName = '",A175,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PARK'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PARK'</v>
       </c>
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
@@ -11797,7 +11803,7 @@
         <v>7</v>
       </c>
       <c r="H176" s="9" t="str">
-        <f>IF(ISBLANK(I176),"No Value",IF(I176=0,"Solid",IF(I176=1,"Dotted",IF(I176=2,"Medium-Dashed",IF(I176=3,"LongDashed",IF(I176=4,"LongDashed Dot Dot",IF(I176=6,"Medium-Dashed Dot Dot",IF(I176=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I176" s="6">
@@ -11813,12 +11819,12 @@
         <v>162</v>
       </c>
       <c r="M176" s="27" t="str">
-        <f>IF(ISBLANK(A176),L176, CONCATENATE(L176,"_",A176))</f>
+        <f t="shared" si="7"/>
         <v>playground_area_PG</v>
       </c>
       <c r="N176" s="27" t="str">
-        <f>IF(ISBLANK(A176),(CONCATENATE("Level_Name = '",E176,"' AND Level =",F176," AND Color =",G176," AND Linetype = '",H176,"' AND LineWt=",J176)),(CONCATENATE("Level_Name = '",E176,"' AND Level =",F176," AND Color =",G176," AND Linetype = '",H176,"' AND LineWt=",J176," AND RefName = '",A176,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'PG'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PG'</v>
       </c>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
@@ -11848,7 +11854,7 @@
         <v>7</v>
       </c>
       <c r="H177" s="9" t="b">
-        <f>IF(ISBLANK(I177),"No Value",IF(I177=0,"Solid",IF(I177=1,"Dotted",IF(I177=2,"Medium-Dashed",IF(I177=3,"LongDashed",IF(I177=4,"LongDashed Dot Dot",IF(I177=6,"Medium-Dashed Dot Dot",IF(I177=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I177" s="7">
@@ -11864,12 +11870,12 @@
         <v>517</v>
       </c>
       <c r="M177" s="27" t="str">
-        <f>IF(ISBLANK(A177),L177, CONCATENATE(L177,"_",A177))</f>
+        <f t="shared" si="7"/>
         <v>utility_area_PIPES</v>
       </c>
       <c r="N177" s="27" t="str">
-        <f>IF(ISBLANK(A177),(CONCATENATE("Level_Name = '",E177,"' AND Level =",F177," AND Color =",G177," AND Linetype = '",H177,"' AND LineWt=",J177)),(CONCATENATE("Level_Name = '",E177,"' AND Level =",F177," AND Color =",G177," AND Linetype = '",H177,"' AND LineWt=",J177," AND RefName = '",A177,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PIPE' AND Level =28 AND Color =7 AND Linetype = 'FALSE' AND LineWt=1 AND RefName = 'PIPES'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_PIPE' AND ''Level'' = '28' AND ''Color'' = '7' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1' AND ''RefName'' = 'PIPES'</v>
       </c>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
@@ -11902,7 +11908,7 @@
         <v>7</v>
       </c>
       <c r="H178" s="9" t="str">
-        <f>IF(ISBLANK(I178),"No Value",IF(I178=0,"Solid",IF(I178=1,"Dotted",IF(I178=2,"Medium-Dashed",IF(I178=3,"LongDashed",IF(I178=4,"LongDashed Dot Dot",IF(I178=6,"Medium-Dashed Dot Dot",IF(I178=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I178" s="6">
@@ -11918,12 +11924,12 @@
         <v>36</v>
       </c>
       <c r="M178" s="27" t="str">
-        <f>IF(ISBLANK(A178),L178, CONCATENATE(L178,"_",A178))</f>
+        <f t="shared" si="7"/>
         <v>athletic_field_area_SF</v>
       </c>
       <c r="N178" s="27" t="str">
-        <f>IF(ISBLANK(A178),(CONCATENATE("Level_Name = '",E178,"' AND Level =",F178," AND Color =",G178," AND Linetype = '",H178,"' AND LineWt=",J178)),(CONCATENATE("Level_Name = '",E178,"' AND Level =",F178," AND Color =",G178," AND Linetype = '",H178,"' AND LineWt=",J178," AND RefName = '",A178,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SF'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SF'</v>
       </c>
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
@@ -11953,7 +11959,7 @@
         <v>7</v>
       </c>
       <c r="H179" s="9" t="str">
-        <f>IF(ISBLANK(I179),"No Value",IF(I179=0,"Solid",IF(I179=1,"Dotted",IF(I179=2,"Medium-Dashed",IF(I179=3,"LongDashed",IF(I179=4,"LongDashed Dot Dot",IF(I179=6,"Medium-Dashed Dot Dot",IF(I179=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I179" s="6">
@@ -11969,12 +11975,12 @@
         <v>36</v>
       </c>
       <c r="M179" s="27" t="str">
-        <f>IF(ISBLANK(A179),L179, CONCATENATE(L179,"_",A179))</f>
+        <f t="shared" si="7"/>
         <v>athletic_field_area_SOCCER</v>
       </c>
       <c r="N179" s="27" t="str">
-        <f>IF(ISBLANK(A179),(CONCATENATE("Level_Name = '",E179,"' AND Level =",F179," AND Color =",G179," AND Linetype = '",H179,"' AND LineWt=",J179)),(CONCATENATE("Level_Name = '",E179,"' AND Level =",F179," AND Color =",G179," AND Linetype = '",H179,"' AND LineWt=",J179," AND RefName = '",A179,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'SOCCER'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SOCCER'</v>
       </c>
       <c r="O179" s="23"/>
       <c r="P179" s="5"/>
@@ -12004,7 +12010,7 @@
         <v>7</v>
       </c>
       <c r="H180" s="9" t="str">
-        <f>IF(ISBLANK(I180),"No Value",IF(I180=0,"Solid",IF(I180=1,"Dotted",IF(I180=2,"Medium-Dashed",IF(I180=3,"LongDashed",IF(I180=4,"LongDashed Dot Dot",IF(I180=6,"Medium-Dashed Dot Dot",IF(I180=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I180" s="6">
@@ -12020,12 +12026,12 @@
         <v>35</v>
       </c>
       <c r="M180" s="27" t="str">
-        <f>IF(ISBLANK(A180),L180, CONCATENATE(L180,"_",A180))</f>
+        <f t="shared" si="7"/>
         <v>athletic_court_area_TCT</v>
       </c>
       <c r="N180" s="27" t="str">
-        <f>IF(ISBLANK(A180),(CONCATENATE("Level_Name = '",E180,"' AND Level =",F180," AND Color =",G180," AND Linetype = '",H180,"' AND LineWt=",J180)),(CONCATENATE("Level_Name = '",E180,"' AND Level =",F180," AND Color =",G180," AND Linetype = '",H180,"' AND LineWt=",J180," AND RefName = '",A180,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TCT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TCT'</v>
       </c>
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
@@ -12055,7 +12061,7 @@
         <v>7</v>
       </c>
       <c r="H181" s="9" t="str">
-        <f>IF(ISBLANK(I181),"No Value",IF(I181=0,"Solid",IF(I181=1,"Dotted",IF(I181=2,"Medium-Dashed",IF(I181=3,"LongDashed",IF(I181=4,"LongDashed Dot Dot",IF(I181=6,"Medium-Dashed Dot Dot",IF(I181=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I181" s="6">
@@ -12071,12 +12077,12 @@
         <v>35</v>
       </c>
       <c r="M181" s="27" t="str">
-        <f>IF(ISBLANK(A181),L181, CONCATENATE(L181,"_",A181))</f>
+        <f t="shared" si="7"/>
         <v>athletic_court_area_TRACK</v>
       </c>
       <c r="N181" s="27" t="str">
-        <f>IF(ISBLANK(A181),(CONCATENATE("Level_Name = '",E181,"' AND Level =",F181," AND Color =",G181," AND Linetype = '",H181,"' AND LineWt=",J181)),(CONCATENATE("Level_Name = '",E181,"' AND Level =",F181," AND Color =",G181," AND Linetype = '",H181,"' AND LineWt=",J181," AND RefName = '",A181,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'TRACK'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TRACK'</v>
       </c>
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
@@ -12106,7 +12112,7 @@
         <v>7</v>
       </c>
       <c r="H182" s="9" t="str">
-        <f>IF(ISBLANK(I182),"No Value",IF(I182=0,"Solid",IF(I182=1,"Dotted",IF(I182=2,"Medium-Dashed",IF(I182=3,"LongDashed",IF(I182=4,"LongDashed Dot Dot",IF(I182=6,"Medium-Dashed Dot Dot",IF(I182=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I182" s="7">
@@ -12122,12 +12128,12 @@
         <v>35</v>
       </c>
       <c r="M182" s="27" t="str">
-        <f>IF(ISBLANK(A182),L182, CONCATENATE(L182,"_",A182))</f>
+        <f t="shared" si="7"/>
         <v>athletic_court_area_VBCT</v>
       </c>
       <c r="N182" s="27" t="str">
-        <f>IF(ISBLANK(A182),(CONCATENATE("Level_Name = '",E182,"' AND Level =",F182," AND Color =",G182," AND Linetype = '",H182,"' AND LineWt=",J182)),(CONCATENATE("Level_Name = '",E182,"' AND Level =",F182," AND Color =",G182," AND Linetype = '",H182,"' AND LineWt=",J182," AND RefName = '",A182,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SPRT' AND Level =30 AND Color =7 AND Linetype = 'Solid' AND LineWt=0 AND RefName = 'VBCT'</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'VBCT'</v>
       </c>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
@@ -12154,7 +12160,7 @@
         <v>7</v>
       </c>
       <c r="H183" s="9" t="str">
-        <f>IF(ISBLANK(I183),"No Value",IF(I183=0,"Solid",IF(I183=1,"Dotted",IF(I183=2,"Medium-Dashed",IF(I183=3,"LongDashed",IF(I183=4,"LongDashed Dot Dot",IF(I183=6,"Medium-Dashed Dot Dot",IF(I183=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I183" s="12">
@@ -12170,12 +12176,12 @@
         <v>54</v>
       </c>
       <c r="M183" s="27" t="str">
-        <f>IF(ISBLANK(A183),L183, CONCATENATE(L183,"_",A183))</f>
+        <f t="shared" si="7"/>
         <v>road_centerline</v>
       </c>
       <c r="N183" s="27" t="str">
-        <f>IF(ISBLANK(A183),(CONCATENATE("Level_Name = '",E183,"' AND Level =",F183," AND Color =",G183," AND Linetype = '",H183,"' AND LineWt=",J183)),(CONCATENATE("Level_Name = '",E183,"' AND Level =",F183," AND Color =",G183," AND Linetype = '",H183,"' AND LineWt=",J183," AND RefName = '",A183,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_STRI' AND Level =23 AND Color =7 AND Linetype = 'Medium-Dashed' AND LineWt=1</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '7' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="O183" s="4" t="s">
         <v>682</v>
@@ -12207,7 +12213,7 @@
         <v>7</v>
       </c>
       <c r="H184" s="9" t="str">
-        <f>IF(ISBLANK(I184),"No Value",IF(I184=0,"Solid",IF(I184=1,"Dotted",IF(I184=2,"Medium-Dashed",IF(I184=3,"LongDashed",IF(I184=4,"LongDashed Dot Dot",IF(I184=6,"Medium-Dashed Dot Dot",IF(I184=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Dotted</v>
       </c>
       <c r="I184" s="12">
@@ -12223,12 +12229,12 @@
         <v>54</v>
       </c>
       <c r="M184" s="27" t="str">
-        <f>IF(ISBLANK(A184),L184, CONCATENATE(L184,"_",A184))</f>
+        <f t="shared" si="7"/>
         <v>road_centerline</v>
       </c>
       <c r="N184" s="27" t="str">
-        <f>IF(ISBLANK(A184),(CONCATENATE("Level_Name = '",E184,"' AND Level =",F184," AND Color =",G184," AND Linetype = '",H184,"' AND LineWt=",J184)),(CONCATENATE("Level_Name = '",E184,"' AND Level =",F184," AND Color =",G184," AND Linetype = '",H184,"' AND LineWt=",J184," AND RefName = '",A184,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_STRI' AND Level =23 AND Color =7 AND Linetype = 'Dotted' AND LineWt=1</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '7' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '1'</v>
       </c>
       <c r="O184" s="8" t="s">
         <v>682</v>
@@ -12262,7 +12268,7 @@
         <v>7</v>
       </c>
       <c r="H185" s="9" t="str">
-        <f>IF(ISBLANK(I185),"No Value",IF(I185=0,"Solid",IF(I185=1,"Dotted",IF(I185=2,"Medium-Dashed",IF(I185=3,"LongDashed",IF(I185=4,"LongDashed Dot Dot",IF(I185=6,"Medium-Dashed Dot Dot",IF(I185=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>LongDashed</v>
       </c>
       <c r="I185" s="12">
@@ -12278,12 +12284,12 @@
         <v>54</v>
       </c>
       <c r="M185" s="27" t="str">
-        <f>IF(ISBLANK(A185),L185, CONCATENATE(L185,"_",A185))</f>
+        <f t="shared" si="7"/>
         <v>road_centerline</v>
       </c>
       <c r="N185" s="27" t="str">
-        <f>IF(ISBLANK(A185),(CONCATENATE("Level_Name = '",E185,"' AND Level =",F185," AND Color =",G185," AND Linetype = '",H185,"' AND LineWt=",J185)),(CONCATENATE("Level_Name = '",E185,"' AND Level =",F185," AND Color =",G185," AND Linetype = '",H185,"' AND LineWt=",J185," AND RefName = '",A185,"'")))</f>
-        <v>Level_Name = 'VA_ROAD_STRI' AND Level =23 AND Color =7 AND Linetype = 'LongDashed' AND LineWt=1</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '7' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="O185" s="53" t="s">
         <v>682</v>
@@ -12317,7 +12323,7 @@
         <v>7</v>
       </c>
       <c r="H186" s="9" t="b">
-        <f>IF(ISBLANK(I186),"No Value",IF(I186=0,"Solid",IF(I186=1,"Dotted",IF(I186=2,"Medium-Dashed",IF(I186=3,"LongDashed",IF(I186=4,"LongDashed Dot Dot",IF(I186=6,"Medium-Dashed Dot Dot",IF(I186=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I186" s="12">
@@ -12333,12 +12339,12 @@
         <v>201</v>
       </c>
       <c r="M186" s="27" t="str">
-        <f>IF(ISBLANK(A186),L186, CONCATENATE(L186,"_",A186))</f>
+        <f t="shared" si="7"/>
         <v>pipeline_line</v>
       </c>
       <c r="N186" s="27" t="str">
-        <f>IF(ISBLANK(A186),(CONCATENATE("Level_Name = '",E186,"' AND Level =",F186," AND Color =",G186," AND Linetype = '",H186,"' AND LineWt=",J186)),(CONCATENATE("Level_Name = '",E186,"' AND Level =",F186," AND Color =",G186," AND Linetype = '",H186,"' AND LineWt=",J186," AND RefName = '",A186,"'")))</f>
-        <v>Level_Name = 'VA_SITE_PIPE' AND Level =28 AND Color =7 AND Linetype = 'FALSE' AND LineWt=1</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_PIPE' AND ''Level'' = '28' AND ''Color'' = '7' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1'</v>
       </c>
     </row>
     <row r="187" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12362,7 +12368,7 @@
         <v>7</v>
       </c>
       <c r="H187" s="9" t="str">
-        <f>IF(ISBLANK(I187),"No Value",IF(I187=0,"Solid",IF(I187=1,"Dotted",IF(I187=2,"Medium-Dashed",IF(I187=3,"LongDashed",IF(I187=4,"LongDashed Dot Dot",IF(I187=6,"Medium-Dashed Dot Dot",IF(I187=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Dotted</v>
       </c>
       <c r="I187" s="9">
@@ -12378,12 +12384,12 @@
         <v>174</v>
       </c>
       <c r="M187" s="27" t="str">
-        <f>IF(ISBLANK(A187),L187, CONCATENATE(L187,"_",A187))</f>
+        <f t="shared" si="7"/>
         <v>surface_water_course_centerline</v>
       </c>
       <c r="N187" s="27" t="str">
-        <f>IF(ISBLANK(A187),(CONCATENATE("Level_Name = '",E187,"' AND Level =",F187," AND Color =",G187," AND Linetype = '",H187,"' AND LineWt=",J187)),(CONCATENATE("Level_Name = '",E187,"' AND Level =",F187," AND Color =",G187," AND Linetype = '",H187,"' AND LineWt=",J187," AND RefName = '",A187,"'")))</f>
-        <v>Level_Name = 'VA_SITE_WATR' AND Level =41 AND Color =7 AND Linetype = 'Dotted' AND LineWt=1</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '7' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '1'</v>
       </c>
       <c r="O187" s="21"/>
       <c r="P187" s="21"/>
@@ -12411,7 +12417,7 @@
         <v>7</v>
       </c>
       <c r="H188" s="9" t="str">
-        <f>IF(ISBLANK(I188),"No Value",IF(I188=0,"Solid",IF(I188=1,"Dotted",IF(I188=2,"Medium-Dashed",IF(I188=3,"LongDashed",IF(I188=4,"LongDashed Dot Dot",IF(I188=6,"Medium-Dashed Dot Dot",IF(I188=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed Dot Dot</v>
       </c>
       <c r="I188" s="6">
@@ -12427,12 +12433,12 @@
         <v>582</v>
       </c>
       <c r="M188" s="27" t="str">
-        <f>IF(ISBLANK(A188),L188, CONCATENATE(L188,"_",A188))</f>
+        <f t="shared" si="7"/>
         <v>breakline</v>
       </c>
       <c r="N188" s="27" t="str">
-        <f>IF(ISBLANK(A188),(CONCATENATE("Level_Name = '",E188,"' AND Level =",F188," AND Color =",G188," AND Linetype = '",H188,"' AND LineWt=",J188)),(CONCATENATE("Level_Name = '",E188,"' AND Level =",F188," AND Color =",G188," AND Linetype = '",H188,"' AND LineWt=",J188," AND RefName = '",A188,"'")))</f>
-        <v>Level_Name = 'VA_DTM_WATR' AND Level =55 AND Color =7 AND Linetype = 'Medium-Dashed Dot Dot' AND LineWt=2</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_DTM_WATR' AND ''Level'' = '55' AND ''Color'' = '7' AND ''Linetype'' = 'Medium-Dashed Dot Dot' AND ''LineWt''= '2'</v>
       </c>
       <c r="O188" s="21"/>
       <c r="P188" s="21"/>
@@ -12459,7 +12465,7 @@
         <v>7</v>
       </c>
       <c r="H189" s="9" t="str">
-        <f>IF(ISBLANK(I189),"No Value",IF(I189=0,"Solid",IF(I189=1,"Dotted",IF(I189=2,"Medium-Dashed",IF(I189=3,"LongDashed",IF(I189=4,"LongDashed Dot Dot",IF(I189=6,"Medium-Dashed Dot Dot",IF(I189=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Dotted</v>
       </c>
       <c r="I189" s="12">
@@ -12475,12 +12481,12 @@
         <v>374</v>
       </c>
       <c r="M189" s="27" t="str">
-        <f>IF(ISBLANK(A189),L189, CONCATENATE(L189,"_",A189))</f>
+        <f t="shared" si="7"/>
         <v>airfield_surface_centerline</v>
       </c>
       <c r="N189" s="27" t="str">
-        <f>IF(ISBLANK(A189),(CONCATENATE("Level_Name = '",E189,"' AND Level =",F189," AND Color =",G189," AND Linetype = '",H189,"' AND LineWt=",J189)),(CONCATENATE("Level_Name = '",E189,"' AND Level =",F189," AND Color =",G189," AND Linetype = '",H189,"' AND LineWt=",J189," AND RefName = '",A189,"'")))</f>
-        <v>Level_Name = 'VA_SITE_LV56' AND Level =56 AND Color =7 AND Linetype = 'Dotted' AND LineWt=0-2</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_LV56' AND ''Level'' = '56' AND ''Color'' = '7' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0-2'</v>
       </c>
       <c r="O189" s="21"/>
       <c r="P189" s="21"/>
@@ -12510,7 +12516,7 @@
         <v>7</v>
       </c>
       <c r="H190" s="9" t="str">
-        <f>IF(ISBLANK(I190),"No Value",IF(I190=0,"Solid",IF(I190=1,"Dotted",IF(I190=2,"Medium-Dashed",IF(I190=3,"LongDashed",IF(I190=4,"LongDashed Dot Dot",IF(I190=6,"Medium-Dashed Dot Dot",IF(I190=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I190" s="12">
@@ -12526,12 +12532,12 @@
         <v>374</v>
       </c>
       <c r="M190" s="27" t="str">
-        <f>IF(ISBLANK(A190),L190, CONCATENATE(L190,"_",A190))</f>
+        <f t="shared" si="7"/>
         <v>airfield_surface_centerline</v>
       </c>
       <c r="N190" s="27" t="str">
-        <f>IF(ISBLANK(A190),(CONCATENATE("Level_Name = '",E190,"' AND Level =",F190," AND Color =",G190," AND Linetype = '",H190,"' AND LineWt=",J190)),(CONCATENATE("Level_Name = '",E190,"' AND Level =",F190," AND Color =",G190," AND Linetype = '",H190,"' AND LineWt=",J190," AND RefName = '",A190,"'")))</f>
-        <v>Level_Name = 'VA_SITE_LV56' AND Level =56 AND Color =7 AND Linetype = 'Medium-Dashed' AND LineWt=0-2</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_LV56' AND ''Level'' = '56' AND ''Color'' = '7' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0-2'</v>
       </c>
       <c r="S190" s="4" t="s">
         <v>662</v>
@@ -12557,7 +12563,7 @@
         <v>7</v>
       </c>
       <c r="H191" s="9" t="str">
-        <f>IF(ISBLANK(I191),"No Value",IF(I191=0,"Solid",IF(I191=1,"Dotted",IF(I191=2,"Medium-Dashed",IF(I191=3,"LongDashed",IF(I191=4,"LongDashed Dot Dot",IF(I191=6,"Medium-Dashed Dot Dot",IF(I191=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I191" s="12">
@@ -12573,12 +12579,12 @@
         <v>55</v>
       </c>
       <c r="M191" s="27" t="str">
-        <f>IF(ISBLANK(A191),L191, CONCATENATE(L191,"_",A191))</f>
+        <f t="shared" si="7"/>
         <v>airfield_surface_marking_line</v>
       </c>
       <c r="N191" s="27" t="str">
-        <f>IF(ISBLANK(A191),(CONCATENATE("Level_Name = '",E191,"' AND Level =",F191," AND Color =",G191," AND Linetype = '",H191,"' AND LineWt=",J191)),(CONCATENATE("Level_Name = '",E191,"' AND Level =",F191," AND Color =",G191," AND Linetype = '",H191,"' AND LineWt=",J191," AND RefName = '",A191,"'")))</f>
-        <v>Level_Name = 'VA_SITE_LV56' AND Level =56 AND Color =7 AND Linetype = 'Solid' AND LineWt=1</v>
+        <f t="shared" si="8"/>
+        <v>''Level_Name'' = 'VA_SITE_LV56' AND ''Level'' = '56' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '1'</v>
       </c>
       <c r="O191" s="8" t="s">
         <v>682</v>
@@ -12611,7 +12617,7 @@
         <v>451</v>
       </c>
       <c r="H192" s="9" t="str">
-        <f>IF(ISBLANK(I192),"No Value",IF(I192=0,"Solid",IF(I192=1,"Dotted",IF(I192=2,"Medium-Dashed",IF(I192=3,"LongDashed",IF(I192=4,"LongDashed Dot Dot",IF(I192=6,"Medium-Dashed Dot Dot",IF(I192=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>Solid</v>
       </c>
       <c r="I192" s="6">
@@ -12623,12 +12629,12 @@
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
       <c r="M192" s="27">
-        <f>IF(ISBLANK(A192),L192, CONCATENATE(L192,"_",A192))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N192" s="27" t="str">
-        <f>IF(ISBLANK(A192),(CONCATENATE("Level_Name = '",E192,"' AND Level =",F192," AND Linetype = '",H192)),(CONCATENATE("Level_Name = '",E192,"' AND Level =",F192," AND Color =",G192," AND Linetype = '",H192,"' AND LineWt=",J192," AND RefName = '",A192,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND Linetype = 'Solid</v>
+        <f>CONCATENATE("''Level_Name'' = '",E192,"' AND ''Level'' = '",F192,"' AND ''Linetype'' = '",H192,"'")</f>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Linetype'' = 'Solid'</v>
       </c>
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
@@ -12659,7 +12665,7 @@
         <v>560</v>
       </c>
       <c r="H193" s="9" t="b">
-        <f>IF(ISBLANK(I193),"No Value",IF(I193=0,"Solid",IF(I193=1,"Dotted",IF(I193=2,"Medium-Dashed",IF(I193=3,"LongDashed",IF(I193=4,"LongDashed Dot Dot",IF(I193=6,"Medium-Dashed Dot Dot",IF(I193=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I193" s="3" t="s">
@@ -12675,12 +12681,12 @@
         <v>178</v>
       </c>
       <c r="M193" s="27" t="str">
-        <f>IF(ISBLANK(A193),L193, CONCATENATE(L193,"_",A193))</f>
+        <f t="shared" si="7"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N193" s="27" t="str">
-        <f>IF(ISBLANK(A193),(CONCATENATE("Level_Name = '",E193,"' AND Level =",F193," AND Color =",G193," AND Linetype = '",H193,"' AND LineWt=",J193)),(CONCATENATE("Level_Name = '",E193,"' AND Level =",F193," AND Color =",G193," AND Linetype = '",H193,"' AND LineWt=",J193," AND RefName = '",A193,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MAJR-DEPR ' AND Level =65 AND Color =0/BL AND Linetype = 'FALSE' AND LineWt=2/BL</v>
+        <f>CONCATENATE("''Level_Name'' = '",E193,"' AND'' Level'' ='",F193,"' AND ''Color'' ='",G193,"' AND ''Linetype'' = '",H193,"' AND ''LineWt''='",J193,"'")</f>
+        <v>''Level_Name'' = 'VA-TOPO-MAJR-DEPR ' AND'' Level'' ='65' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="O193" s="5"/>
       <c r="P193" s="5"/>
@@ -12711,7 +12717,7 @@
         <v>560</v>
       </c>
       <c r="H194" s="9" t="b">
-        <f>IF(ISBLANK(I194),"No Value",IF(I194=0,"Solid",IF(I194=1,"Dotted",IF(I194=2,"Medium-Dashed",IF(I194=3,"LongDashed",IF(I194=4,"LongDashed Dot Dot",IF(I194=6,"Medium-Dashed Dot Dot",IF(I194=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H194:H257" si="9">IF(ISBLANK(I194),"No Value",IF(I194=0,"Solid",IF(I194=1,"Dotted",IF(I194=2,"Medium-Dashed",IF(I194=3,"LongDashed",IF(I194=4,"LongDashed Dot Dot",IF(I194=6,"Medium-Dashed Dot Dot",IF(I194=7,"Solid Medium-Dashed" ))))))))</f>
         <v>0</v>
       </c>
       <c r="I194" s="3" t="s">
@@ -12727,12 +12733,12 @@
         <v>178</v>
       </c>
       <c r="M194" s="27" t="str">
-        <f>IF(ISBLANK(A194),L194, CONCATENATE(L194,"_",A194))</f>
+        <f t="shared" ref="M194:M257" si="10">IF(ISBLANK(A194),L194, CONCATENATE(L194,"_",A194))</f>
         <v>elevation_contour_line</v>
       </c>
       <c r="N194" s="27" t="str">
-        <f>IF(ISBLANK(A194),(CONCATENATE("Level_Name = '",E194,"' AND Level =",F194," AND Color =",G194," AND Linetype = '",H194,"' AND LineWt=",J194)),(CONCATENATE("Level_Name = '",E194,"' AND Level =",F194," AND Color =",G194," AND Linetype = '",H194,"' AND LineWt=",J194," AND RefName = '",A194,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MINR-DEPR ' AND Level =66 AND Color =0/BL AND Linetype = 'FALSE' AND LineWt=0/BL</v>
+        <f t="shared" ref="N194:N204" si="11">CONCATENATE("''Level_Name'' = '",E194,"' AND'' Level'' ='",F194,"' AND ''Color'' ='",G194,"' AND ''Linetype'' = '",H194,"' AND ''LineWt''='",J194,"'")</f>
+        <v>''Level_Name'' = 'VA-TOPO-MINR-DEPR ' AND'' Level'' ='66' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="O194" s="5"/>
       <c r="P194" s="5"/>
@@ -12763,7 +12769,7 @@
         <v>560</v>
       </c>
       <c r="H195" s="9" t="b">
-        <f>IF(ISBLANK(I195),"No Value",IF(I195=0,"Solid",IF(I195=1,"Dotted",IF(I195=2,"Medium-Dashed",IF(I195=3,"LongDashed",IF(I195=4,"LongDashed Dot Dot",IF(I195=6,"Medium-Dashed Dot Dot",IF(I195=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I195" s="3" t="s">
@@ -12779,12 +12785,12 @@
         <v>178</v>
       </c>
       <c r="M195" s="27" t="str">
-        <f>IF(ISBLANK(A195),L195, CONCATENATE(L195,"_",A195))</f>
+        <f t="shared" si="10"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N195" s="27" t="str">
-        <f>IF(ISBLANK(A195),(CONCATENATE("Level_Name = '",E195,"' AND Level =",F195," AND Color =",G195," AND Linetype = '",H195,"' AND LineWt=",J195)),(CONCATENATE("Level_Name = '",E195,"' AND Level =",F195," AND Color =",G195," AND Linetype = '",H195,"' AND LineWt=",J195," AND RefName = '",A195,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MAJR-DEPO ' AND Level =69 AND Color =0/BL AND Linetype = 'FALSE' AND LineWt=2/BL</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA-TOPO-MAJR-DEPO ' AND'' Level'' ='69' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="O195" s="5"/>
       <c r="P195" s="5"/>
@@ -12815,7 +12821,7 @@
         <v>560</v>
       </c>
       <c r="H196" s="9" t="b">
-        <f>IF(ISBLANK(I196),"No Value",IF(I196=0,"Solid",IF(I196=1,"Dotted",IF(I196=2,"Medium-Dashed",IF(I196=3,"LongDashed",IF(I196=4,"LongDashed Dot Dot",IF(I196=6,"Medium-Dashed Dot Dot",IF(I196=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I196" s="3" t="s">
@@ -12831,12 +12837,12 @@
         <v>178</v>
       </c>
       <c r="M196" s="27" t="str">
-        <f>IF(ISBLANK(A196),L196, CONCATENATE(L196,"_",A196))</f>
+        <f t="shared" si="10"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N196" s="27" t="str">
-        <f>IF(ISBLANK(A196),(CONCATENATE("Level_Name = '",E196,"' AND Level =",F196," AND Color =",G196," AND Linetype = '",H196,"' AND LineWt=",J196)),(CONCATENATE("Level_Name = '",E196,"' AND Level =",F196," AND Color =",G196," AND Linetype = '",H196,"' AND LineWt=",J196," AND RefName = '",A196,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MINR-DEPO ' AND Level =70 AND Color =0/BL AND Linetype = 'FALSE' AND LineWt=0/BL</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA-TOPO-MINR-DEPO ' AND'' Level'' ='70' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="O196" s="5"/>
       <c r="P196" s="5"/>
@@ -12867,7 +12873,7 @@
         <v>559</v>
       </c>
       <c r="H197" s="9" t="b">
-        <f>IF(ISBLANK(I197),"No Value",IF(I197=0,"Solid",IF(I197=1,"Dotted",IF(I197=2,"Medium-Dashed",IF(I197=3,"LongDashed",IF(I197=4,"LongDashed Dot Dot",IF(I197=6,"Medium-Dashed Dot Dot",IF(I197=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I197" s="3" t="s">
@@ -12883,12 +12889,12 @@
         <v>178</v>
       </c>
       <c r="M197" s="27" t="str">
-        <f>IF(ISBLANK(A197),L197, CONCATENATE(L197,"_",A197))</f>
+        <f t="shared" si="10"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N197" s="27" t="str">
-        <f>IF(ISBLANK(A197),(CONCATENATE("Level_Name = '",E197,"' AND Level =",F197," AND Color =",G197," AND Linetype = '",H197,"' AND LineWt=",J197)),(CONCATENATE("Level_Name = '",E197,"' AND Level =",F197," AND Color =",G197," AND Linetype = '",H197,"' AND LineWt=",J197," AND RefName = '",A197,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MINR ' AND Level =46 AND Color =2/BL AND Linetype = 'FALSE' AND LineWt=0/BL</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA-TOPO-MINR ' AND'' Level'' ='46' AND ''Color'' ='2/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="O197" s="5"/>
       <c r="P197" s="5"/>
@@ -12919,7 +12925,7 @@
         <v>559</v>
       </c>
       <c r="H198" s="9" t="b">
-        <f>IF(ISBLANK(I198),"No Value",IF(I198=0,"Solid",IF(I198=1,"Dotted",IF(I198=2,"Medium-Dashed",IF(I198=3,"LongDashed",IF(I198=4,"LongDashed Dot Dot",IF(I198=6,"Medium-Dashed Dot Dot",IF(I198=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I198" s="3" t="s">
@@ -12935,12 +12941,12 @@
         <v>178</v>
       </c>
       <c r="M198" s="27" t="str">
-        <f>IF(ISBLANK(A198),L198, CONCATENATE(L198,"_",A198))</f>
+        <f t="shared" si="10"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N198" s="27" t="str">
-        <f>IF(ISBLANK(A198),(CONCATENATE("Level_Name = '",E198,"' AND Level =",F198," AND Color =",G198," AND Linetype = '",H198,"' AND LineWt=",J198)),(CONCATENATE("Level_Name = '",E198,"' AND Level =",F198," AND Color =",G198," AND Linetype = '",H198,"' AND LineWt=",J198," AND RefName = '",A198,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MINR-OBSC ' AND Level =68 AND Color =2/BL AND Linetype = 'FALSE' AND LineWt=0/BL</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA-TOPO-MINR-OBSC ' AND'' Level'' ='68' AND ''Color'' ='2/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="O198" s="5"/>
       <c r="P198" s="5"/>
@@ -12971,7 +12977,7 @@
         <v>558</v>
       </c>
       <c r="H199" s="9" t="b">
-        <f>IF(ISBLANK(I199),"No Value",IF(I199=0,"Solid",IF(I199=1,"Dotted",IF(I199=2,"Medium-Dashed",IF(I199=3,"LongDashed",IF(I199=4,"LongDashed Dot Dot",IF(I199=6,"Medium-Dashed Dot Dot",IF(I199=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I199" s="3" t="s">
@@ -12987,12 +12993,12 @@
         <v>178</v>
       </c>
       <c r="M199" s="27" t="str">
-        <f>IF(ISBLANK(A199),L199, CONCATENATE(L199,"_",A199))</f>
+        <f t="shared" si="10"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N199" s="27" t="str">
-        <f>IF(ISBLANK(A199),(CONCATENATE("Level_Name = '",E199,"' AND Level =",F199," AND Color =",G199," AND Linetype = '",H199,"' AND LineWt=",J199)),(CONCATENATE("Level_Name = '",E199,"' AND Level =",F199," AND Color =",G199," AND Linetype = '",H199,"' AND LineWt=",J199," AND RefName = '",A199,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MAJR ' AND Level =45 AND Color =3/BL AND Linetype = 'FALSE' AND LineWt=2/BL</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA-TOPO-MAJR ' AND'' Level'' ='45' AND ''Color'' ='3/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="O199" s="5"/>
       <c r="P199" s="5"/>
@@ -13023,7 +13029,7 @@
         <v>558</v>
       </c>
       <c r="H200" s="9" t="b">
-        <f>IF(ISBLANK(I200),"No Value",IF(I200=0,"Solid",IF(I200=1,"Dotted",IF(I200=2,"Medium-Dashed",IF(I200=3,"LongDashed",IF(I200=4,"LongDashed Dot Dot",IF(I200=6,"Medium-Dashed Dot Dot",IF(I200=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I200" s="3" t="s">
@@ -13039,12 +13045,12 @@
         <v>178</v>
       </c>
       <c r="M200" s="27" t="str">
-        <f>IF(ISBLANK(A200),L200, CONCATENATE(L200,"_",A200))</f>
+        <f t="shared" si="10"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N200" s="27" t="str">
-        <f>IF(ISBLANK(A200),(CONCATENATE("Level_Name = '",E200,"' AND Level =",F200," AND Color =",G200," AND Linetype = '",H200,"' AND LineWt=",J200)),(CONCATENATE("Level_Name = '",E200,"' AND Level =",F200," AND Color =",G200," AND Linetype = '",H200,"' AND LineWt=",J200," AND RefName = '",A200,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-MAJR-OBSC ' AND Level =67 AND Color =3/BL AND Linetype = 'FALSE' AND LineWt=2/BL</v>
+        <f>CONCATENATE("''Level_Name'' = '",E200,"' AND'' Level'' ='",F200,"' AND ''Color'' ='",G200,"' AND ''Linetype'' = '",H200,"' AND ''LineWt''='",J200,"'")</f>
+        <v>''Level_Name'' = 'VA-TOPO-MAJR-OBSC ' AND'' Level'' ='67' AND ''Color'' ='3/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="O200" s="5"/>
       <c r="P200" s="5"/>
@@ -13074,7 +13080,7 @@
         <v>687</v>
       </c>
       <c r="H201" s="9" t="str">
-        <f>IF(ISBLANK(I201),"No Value",IF(I201=0,"Solid",IF(I201=1,"Dotted",IF(I201=2,"Medium-Dashed",IF(I201=3,"LongDashed",IF(I201=4,"LongDashed Dot Dot",IF(I201=6,"Medium-Dashed Dot Dot",IF(I201=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>Solid</v>
       </c>
       <c r="I201" s="12">
@@ -13090,12 +13096,12 @@
         <v>57</v>
       </c>
       <c r="M201" s="27" t="str">
-        <f>IF(ISBLANK(A201),L201, CONCATENATE(L201,"_",A201))</f>
+        <f t="shared" si="10"/>
         <v>wall_line</v>
       </c>
       <c r="N201" s="27" t="str">
-        <f>IF(ISBLANK(A201),(CONCATENATE("Level_Name = '",E201,"' AND Level =",F201," AND Color = 4 OR Color = 2 AND Linetype = '",H201,"' AND LineWt=",J201)),(CONCATENATE("Level_Name = '",E201,"' AND Level =",F201," AND Color =",G201," AND Linetype = '",H201,"' AND LineWt=",J201," AND RefName = '",A201,"'")))</f>
-        <v>Level_Name = 'VA_SITE_RETA' AND Level =20 AND Color = 4 OR Color = 2 AND Linetype = 'Solid' AND LineWt=0</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA_SITE_RETA' AND'' Level'' ='20' AND ''Color'' ='4/2' AND ''Linetype'' = 'Solid' AND ''LineWt''='0'</v>
       </c>
       <c r="O201" s="4" t="s">
         <v>679</v>
@@ -13127,7 +13133,7 @@
         <v>687</v>
       </c>
       <c r="H202" s="9" t="str">
-        <f>IF(ISBLANK(I202),"No Value",IF(I202=0,"Solid",IF(I202=1,"Dotted",IF(I202=2,"Medium-Dashed",IF(I202=3,"LongDashed",IF(I202=4,"LongDashed Dot Dot",IF(I202=6,"Medium-Dashed Dot Dot",IF(I202=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I202" s="12">
@@ -13143,12 +13149,12 @@
         <v>57</v>
       </c>
       <c r="M202" s="27" t="str">
-        <f>IF(ISBLANK(A202),L202, CONCATENATE(L202,"_",A202))</f>
+        <f t="shared" si="10"/>
         <v>wall_line</v>
       </c>
       <c r="N202" s="27" t="str">
-        <f>IF(ISBLANK(A202),(CONCATENATE("Level_Name = '",E202,"' AND Level =",F202," AND Color =4 OR Color = 2 AND Linetype = '",H202,"' AND LineWt=",J202)),(CONCATENATE("Level_Name = '",E202,"' AND Level =",F202," AND Color =",G202," AND Linetype = '",H202,"' AND LineWt=",J202," AND RefName = '",A202,"'")))</f>
-        <v>Level_Name = 'VA_SITE_RETA' AND Level =20 AND Color =4 OR Color = 2 AND Linetype = 'Medium-Dashed' AND LineWt=0</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA_SITE_RETA' AND'' Level'' ='20' AND ''Color'' ='4/2' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''='0'</v>
       </c>
       <c r="O202" s="4" t="s">
         <v>679</v>
@@ -13178,7 +13184,7 @@
         <v>564</v>
       </c>
       <c r="H203" s="9" t="b">
-        <f>IF(ISBLANK(I203),"No Value",IF(I203=0,"Solid",IF(I203=1,"Dotted",IF(I203=2,"Medium-Dashed",IF(I203=3,"LongDashed",IF(I203=4,"LongDashed Dot Dot",IF(I203=6,"Medium-Dashed Dot Dot",IF(I203=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I203" s="3" t="s">
@@ -13190,12 +13196,12 @@
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="27">
-        <f>IF(ISBLANK(A203),L203, CONCATENATE(L203,"_",A203))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N203" s="27" t="str">
-        <f>IF(ISBLANK(A203),(CONCATENATE("Level_Name = '",E203,"' AND Level =",F203," AND Color =",G203," AND Linetype = '",H203,"' AND LineWt=",J203)),(CONCATENATE("Level_Name = '",E203,"' AND Level =",F203," AND Color =",G203," AND Linetype = '",H203,"' AND LineWt=",J203," AND RefName = '",A203,"'")))</f>
-        <v>Level_Name = 'VA-TOPO-LABL ' AND Level =49 AND Color =4/BL AND Linetype = 'FALSE' AND LineWt=0/BL</v>
+        <f t="shared" si="11"/>
+        <v>''Level_Name'' = 'VA-TOPO-LABL ' AND'' Level'' ='49' AND ''Color'' ='4/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="O203" s="5"/>
       <c r="P203" s="5"/>
@@ -13220,7 +13226,7 @@
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="9" t="str">
-        <f>IF(ISBLANK(I204),"No Value",IF(I204=0,"Solid",IF(I204=1,"Dotted",IF(I204=2,"Medium-Dashed",IF(I204=3,"LongDashed",IF(I204=4,"LongDashed Dot Dot",IF(I204=6,"Medium-Dashed Dot Dot",IF(I204=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I204" s="12"/>
@@ -13232,12 +13238,12 @@
         <v>468</v>
       </c>
       <c r="M204" s="27" t="str">
-        <f>IF(ISBLANK(A204),L204, CONCATENATE(L204,"_",A204))</f>
+        <f t="shared" si="10"/>
         <v>heat_cool_pump_point_AC</v>
       </c>
       <c r="N204" s="27" t="str">
-        <f>IF(ISBLANK(A204),(CONCATENATE("Level_Name = '",E204,"' AND Level =",F204," AND Color =",G204," AND Linetype = '",H204,"' AND LineWt=",J204)),(CONCATENATE("Level =",F204," AND RefName = '",A204,"'")))</f>
-        <v>Level =54 AND RefName = 'AC'</v>
+        <f>CONCATENATE("''Level'' ='",F204,"'")</f>
+        <v>''Level'' ='54'</v>
       </c>
     </row>
     <row r="205" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13261,7 +13267,7 @@
       </c>
       <c r="G205" s="39"/>
       <c r="H205" s="9" t="str">
-        <f>IF(ISBLANK(I205),"No Value",IF(I205=0,"Solid",IF(I205=1,"Dotted",IF(I205=2,"Medium-Dashed",IF(I205=3,"LongDashed",IF(I205=4,"LongDashed Dot Dot",IF(I205=6,"Medium-Dashed Dot Dot",IF(I205=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I205" s="39"/>
@@ -13273,12 +13279,12 @@
         <v>97</v>
       </c>
       <c r="M205" s="27" t="str">
-        <f>IF(ISBLANK(A205),L205, CONCATENATE(L205,"_",A205))</f>
+        <f t="shared" si="10"/>
         <v>airfield_light_point_ALT</v>
       </c>
       <c r="N205" s="27" t="str">
-        <f>IF(ISBLANK(A205),(CONCATENATE("Level_Name = '",E205,"' AND Level =",F205," AND Color =",G205," AND Linetype = '",H205,"' AND LineWt=",J205)),(CONCATENATE("Level_Name = '",E205,"' AND Level =",F205," AND RefName = '",A205,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_LITP' AND Level =29 AND RefName = 'ALT'</v>
+        <f>CONCATENATE("''Level_Name'' = '",E205,"' AND ''Level'' ='",F205,"' AND ''RefName'' = '",A205,"'")</f>
+        <v>''Level_Name'' = 'VA_UTIL_LITP' AND ''Level'' ='29' AND ''RefName'' = 'ALT'</v>
       </c>
       <c r="O205" s="36"/>
       <c r="P205" s="36"/>
@@ -13307,7 +13313,7 @@
       </c>
       <c r="G206" s="7"/>
       <c r="H206" s="9" t="str">
-        <f>IF(ISBLANK(I206),"No Value",IF(I206=0,"Solid",IF(I206=1,"Dotted",IF(I206=2,"Medium-Dashed",IF(I206=3,"LongDashed",IF(I206=4,"LongDashed Dot Dot",IF(I206=6,"Medium-Dashed Dot Dot",IF(I206=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I206" s="7"/>
@@ -13319,12 +13325,12 @@
         <v>59</v>
       </c>
       <c r="M206" s="27" t="str">
-        <f>IF(ISBLANK(A206),L206, CONCATENATE(L206,"_",A206))</f>
+        <f t="shared" si="10"/>
         <v>storm_sewer_inlet_point_CBX</v>
       </c>
       <c r="N206" s="27" t="str">
-        <f t="shared" ref="N206:N207" si="0">IF(ISBLANK(A206),(CONCATENATE("Level_Name = '",E206,"' AND Level =",F206," AND Color =",G206," AND Linetype = '",H206,"' AND LineWt=",J206)),(CONCATENATE("Level_Name = '",E206,"' AND Level =",F206," AND RefName = '",A206,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_STRM' AND Level =31 AND RefName = 'CBX'</v>
+        <f t="shared" ref="N206:N231" si="12">CONCATENATE("''Level_Name'' = '",E206,"' AND ''Level'' ='",F206,"' AND ''RefName'' = '",A206,"'")</f>
+        <v>''Level_Name'' = 'VA_UTIL_STRM' AND ''Level'' ='31' AND ''RefName'' = 'CBX'</v>
       </c>
       <c r="O206" s="5"/>
       <c r="P206" s="5"/>
@@ -13352,7 +13358,7 @@
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="9" t="str">
-        <f>IF(ISBLANK(I207),"No Value",IF(I207=0,"Solid",IF(I207=1,"Dotted",IF(I207=2,"Medium-Dashed",IF(I207=3,"LongDashed",IF(I207=4,"LongDashed Dot Dot",IF(I207=6,"Medium-Dashed Dot Dot",IF(I207=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I207" s="12"/>
@@ -13364,12 +13370,12 @@
         <v>607</v>
       </c>
       <c r="M207" s="27" t="str">
-        <f>IF(ISBLANK(A207),L207, CONCATENATE(L207,"_",A207))</f>
+        <f t="shared" si="10"/>
         <v>storm_culvert_point_CULVT</v>
       </c>
       <c r="N207" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Level_Name = 'VA_SITE_CLVT' AND Level =44 AND RefName = 'CULVT'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' ='44' AND ''RefName'' = 'CULVT'</v>
       </c>
     </row>
     <row r="208" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13393,7 +13399,7 @@
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="9" t="str">
-        <f>IF(ISBLANK(I208),"No Value",IF(I208=0,"Solid",IF(I208=1,"Dotted",IF(I208=2,"Medium-Dashed",IF(I208=3,"LongDashed",IF(I208=4,"LongDashed Dot Dot",IF(I208=6,"Medium-Dashed Dot Dot",IF(I208=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I208" s="6"/>
@@ -13405,12 +13411,12 @@
         <v>379</v>
       </c>
       <c r="M208" s="27" t="str">
-        <f>IF(ISBLANK(A208),L208, CONCATENATE(L208,"_",A208))</f>
+        <f t="shared" si="10"/>
         <v>dam_area_DAM</v>
       </c>
       <c r="N208" s="27" t="str">
-        <f>IF(ISBLANK(A208),(CONCATENATE("Level_Name = '",E208,"' AND Level =",F208," AND Color =",G208," AND Linetype = '",H208,"' AND LineWt=",J208)),(CONCATENATE("Level_Name = '",E208,"' AND Level =",F208," AND RefName = '",A208,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_IRRI' AND Level =26 AND RefName = 'DAM'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_IRRI' AND ''Level'' ='26' AND ''RefName'' = 'DAM'</v>
       </c>
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
@@ -13438,7 +13444,7 @@
       </c>
       <c r="G209" s="7"/>
       <c r="H209" s="9" t="str">
-        <f>IF(ISBLANK(I209),"No Value",IF(I209=0,"Solid",IF(I209=1,"Dotted",IF(I209=2,"Medium-Dashed",IF(I209=3,"LongDashed",IF(I209=4,"LongDashed Dot Dot",IF(I209=6,"Medium-Dashed Dot Dot",IF(I209=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I209" s="7"/>
@@ -13450,12 +13456,12 @@
         <v>89</v>
       </c>
       <c r="M209" s="27" t="str">
-        <f>IF(ISBLANK(A209),L209, CONCATENATE(L209,"_",A209))</f>
+        <f t="shared" si="10"/>
         <v>water_hydrant_point_FHX</v>
       </c>
       <c r="N209" s="27" t="str">
-        <f>IF(ISBLANK(A209),(CONCATENATE("Level_Name = '",E209,"' AND Level =",F209," AND Color =",G209," AND Linetype = '",H209,"' AND LineWt=",J209)),(CONCATENATE("Level_Name = '",E209,"' AND Level =",F209," AND RefName = '",A209,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_WATR' AND Level =25 AND RefName = 'FHX'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_WATR' AND ''Level'' ='25' AND ''RefName'' = 'FHX'</v>
       </c>
       <c r="O209" s="5"/>
       <c r="P209" s="5"/>
@@ -13483,7 +13489,7 @@
       </c>
       <c r="G210" s="7"/>
       <c r="H210" s="9" t="str">
-        <f>IF(ISBLANK(I210),"No Value",IF(I210=0,"Solid",IF(I210=1,"Dotted",IF(I210=2,"Medium-Dashed",IF(I210=3,"LongDashed",IF(I210=4,"LongDashed Dot Dot",IF(I210=6,"Medium-Dashed Dot Dot",IF(I210=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I210" s="7"/>
@@ -13495,12 +13501,12 @@
         <v>508</v>
       </c>
       <c r="M210" s="27" t="str">
-        <f>IF(ISBLANK(A210),L210, CONCATENATE(L210,"_",A210))</f>
+        <f t="shared" si="10"/>
         <v>general_improvement_feat_point_FP</v>
       </c>
       <c r="N210" s="27" t="str">
-        <f>IF(ISBLANK(A210),(CONCATENATE("Level_Name = '",E210,"' AND Level =",F210," AND Color =",G210," AND Linetype = '",H210,"' AND LineWt=",J210)),(CONCATENATE("Level_Name = '",E210,"' AND Level =",F210," AND RefName = '",A210,"'")))</f>
-        <v>Level_Name = 'VA_SITE_FLAG' AND Level =38 AND RefName = 'FP'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_FLAG' AND ''Level'' ='38' AND ''RefName'' = 'FP'</v>
       </c>
       <c r="O210" s="5"/>
       <c r="P210" s="5"/>
@@ -13528,7 +13534,7 @@
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="9" t="str">
-        <f>IF(ISBLANK(I211),"No Value",IF(I211=0,"Solid",IF(I211=1,"Dotted",IF(I211=2,"Medium-Dashed",IF(I211=3,"LongDashed",IF(I211=4,"LongDashed Dot Dot",IF(I211=6,"Medium-Dashed Dot Dot",IF(I211=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I211" s="3"/>
@@ -13540,12 +13546,12 @@
         <v>507</v>
       </c>
       <c r="M211" s="27" t="str">
-        <f>IF(ISBLANK(A211),L211, CONCATENATE(L211,"_",A211))</f>
+        <f t="shared" si="10"/>
         <v>ut_undefined_feature_point_GATEV</v>
       </c>
       <c r="N211" s="27" t="str">
-        <f>IF(ISBLANK(A211),(CONCATENATE("Level_Name = '",E211,"' AND Level =",F211," AND Color =",G211," AND Linetype = '",H211,"' AND LineWt=",J211)),(CONCATENATE("Level_Name = '",E211,"' AND Level =",F211," AND RefName = '",A211,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_MANH' AND Level =24 AND RefName = 'GATEV'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_MANH' AND ''Level'' ='24' AND ''RefName'' = 'GATEV'</v>
       </c>
       <c r="O211" s="5"/>
       <c r="P211" s="5"/>
@@ -13573,7 +13579,7 @@
       </c>
       <c r="G212" s="7"/>
       <c r="H212" s="9" t="str">
-        <f>IF(ISBLANK(I212),"No Value",IF(I212=0,"Solid",IF(I212=1,"Dotted",IF(I212=2,"Medium-Dashed",IF(I212=3,"LongDashed",IF(I212=4,"LongDashed Dot Dot",IF(I212=6,"Medium-Dashed Dot Dot",IF(I212=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I212" s="7"/>
@@ -13585,12 +13591,12 @@
         <v>508</v>
       </c>
       <c r="M212" s="27" t="str">
-        <f>IF(ISBLANK(A212),L212, CONCATENATE(L212,"_",A212))</f>
+        <f t="shared" si="10"/>
         <v>general_improvement_feat_point_GP</v>
       </c>
       <c r="N212" s="27" t="str">
-        <f t="shared" ref="N212:N215" si="1">IF(ISBLANK(A212),(CONCATENATE("Level_Name = '",E212,"' AND Level =",F212," AND Color =",G212," AND Linetype = '",H212,"' AND LineWt=",J212)),(CONCATENATE("Level_Name = '",E212,"' AND Level =",F212," AND RefName = '",A212,"'")))</f>
-        <v>Level_Name = 'VA_SITE_FLAG' AND Level =38 AND RefName = 'GP'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_FLAG' AND ''Level'' ='38' AND ''RefName'' = 'GP'</v>
       </c>
       <c r="O212" s="5"/>
       <c r="P212" s="5"/>
@@ -13618,7 +13624,7 @@
       </c>
       <c r="G213" s="7"/>
       <c r="H213" s="9" t="str">
-        <f>IF(ISBLANK(I213),"No Value",IF(I213=0,"Solid",IF(I213=1,"Dotted",IF(I213=2,"Medium-Dashed",IF(I213=3,"LongDashed",IF(I213=4,"LongDashed Dot Dot",IF(I213=6,"Medium-Dashed Dot Dot",IF(I213=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I213" s="7"/>
@@ -13630,12 +13636,12 @@
         <v>90</v>
       </c>
       <c r="M213" s="27" t="str">
-        <f>IF(ISBLANK(A213),L213, CONCATENATE(L213,"_",A213))</f>
+        <f t="shared" si="10"/>
         <v>utility_pole_guy_point_GUY</v>
       </c>
       <c r="N213" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Level_Name = 'VA_SITE_GUYW' AND Level =33 AND RefName = 'GUY'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_GUYW' AND ''Level'' ='33' AND ''RefName'' = 'GUY'</v>
       </c>
     </row>
     <row r="214" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13659,7 +13665,7 @@
       </c>
       <c r="G214" s="7"/>
       <c r="H214" s="9" t="str">
-        <f>IF(ISBLANK(I214),"No Value",IF(I214=0,"Solid",IF(I214=1,"Dotted",IF(I214=2,"Medium-Dashed",IF(I214=3,"LongDashed",IF(I214=4,"LongDashed Dot Dot",IF(I214=6,"Medium-Dashed Dot Dot",IF(I214=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I214" s="7"/>
@@ -13671,12 +13677,12 @@
         <v>59</v>
       </c>
       <c r="M214" s="27" t="str">
-        <f>IF(ISBLANK(A214),L214, CONCATENATE(L214,"_",A214))</f>
+        <f t="shared" si="10"/>
         <v>storm_sewer_inlet_point_INLETX</v>
       </c>
       <c r="N214" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Level_Name = 'VA_UTIL_STRM' AND Level =31 AND RefName = 'INLETX'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_STRM' AND ''Level'' ='31' AND ''RefName'' = 'INLETX'</v>
       </c>
       <c r="O214" s="5"/>
       <c r="P214" s="5"/>
@@ -13704,7 +13710,7 @@
       </c>
       <c r="G215" s="7"/>
       <c r="H215" s="9" t="str">
-        <f>IF(ISBLANK(I215),"No Value",IF(I215=0,"Solid",IF(I215=1,"Dotted",IF(I215=2,"Medium-Dashed",IF(I215=3,"LongDashed",IF(I215=4,"LongDashed Dot Dot",IF(I215=6,"Medium-Dashed Dot Dot",IF(I215=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I215" s="7"/>
@@ -13716,12 +13722,12 @@
         <v>60</v>
       </c>
       <c r="M215" s="27" t="str">
-        <f>IF(ISBLANK(A215),L215, CONCATENATE(L215,"_",A215))</f>
+        <f t="shared" si="10"/>
         <v>exterior_lighting_point_LIGHT</v>
       </c>
       <c r="N215" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Level_Name = 'VA_UTIL_LITP' AND Level =29 AND RefName = 'LIGHT'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_LITP' AND ''Level'' ='29' AND ''RefName'' = 'LIGHT'</v>
       </c>
       <c r="O215" s="5"/>
       <c r="P215" s="5"/>
@@ -13749,7 +13755,7 @@
       </c>
       <c r="G216" s="7"/>
       <c r="H216" s="9" t="str">
-        <f>IF(ISBLANK(I216),"No Value",IF(I216=0,"Solid",IF(I216=1,"Dotted",IF(I216=2,"Medium-Dashed",IF(I216=3,"LongDashed",IF(I216=4,"LongDashed Dot Dot",IF(I216=6,"Medium-Dashed Dot Dot",IF(I216=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I216" s="7"/>
@@ -13761,12 +13767,12 @@
         <v>125</v>
       </c>
       <c r="M216" s="27" t="str">
-        <f>IF(ISBLANK(A216),L216, CONCATENATE(L216,"_",A216))</f>
+        <f t="shared" si="10"/>
         <v>undefined_mapping_feature_point_LO</v>
       </c>
       <c r="N216" s="27" t="str">
-        <f>IF(ISBLANK(A216),(CONCATENATE("Level_Name = '",E216,"' AND Level =",F216," AND Color =",G216," AND Linetype = '",H216,"' AND LineWt=",J216)),(CONCATENATE("Level_Name = '",E216,"' AND Level =",F216," AND RefName = '",A216,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND RefName = 'LO'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' ='16' AND ''RefName'' = 'LO'</v>
       </c>
       <c r="O216" s="5"/>
       <c r="P216" s="5"/>
@@ -13794,7 +13800,7 @@
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="9" t="str">
-        <f>IF(ISBLANK(I217),"No Value",IF(I217=0,"Solid",IF(I217=1,"Dotted",IF(I217=2,"Medium-Dashed",IF(I217=3,"LongDashed",IF(I217=4,"LongDashed Dot Dot",IF(I217=6,"Medium-Dashed Dot Dot",IF(I217=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I217" s="3"/>
@@ -13806,12 +13812,12 @@
         <v>507</v>
       </c>
       <c r="M217" s="27" t="str">
-        <f>IF(ISBLANK(A217),L217, CONCATENATE(L217,"_",A217))</f>
+        <f t="shared" si="10"/>
         <v>ut_undefined_feature_point_MHX</v>
       </c>
       <c r="N217" s="27" t="str">
-        <f>IF(ISBLANK(A217),(CONCATENATE("Level_Name = '",E217,"' AND Level =",F217," AND Color =",G217," AND Linetype = '",H217,"' AND LineWt=",J217)),(CONCATENATE("Level_Name = '",E217,"' AND Level =",F217," AND RefName = '",A217,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_MANH' AND Level =24 AND RefName = 'MHX'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_MANH' AND ''Level'' ='24' AND ''RefName'' = 'MHX'</v>
       </c>
       <c r="O217" s="5"/>
       <c r="P217" s="5"/>
@@ -13839,7 +13845,7 @@
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="9" t="str">
-        <f>IF(ISBLANK(I218),"No Value",IF(I218=0,"Solid",IF(I218=1,"Dotted",IF(I218=2,"Medium-Dashed",IF(I218=3,"LongDashed",IF(I218=4,"LongDashed Dot Dot",IF(I218=6,"Medium-Dashed Dot Dot",IF(I218=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I218" s="6"/>
@@ -13851,12 +13857,12 @@
         <v>61</v>
       </c>
       <c r="M218" s="27" t="str">
-        <f>IF(ISBLANK(A218),L218, CONCATENATE(L218,"_",A218))</f>
+        <f t="shared" si="10"/>
         <v>utility_pole_tower_point_POLE</v>
       </c>
       <c r="N218" s="27" t="str">
-        <f>IF(ISBLANK(A218),(CONCATENATE("Level_Name = '",E218,"' AND Level =",F218," AND Color =",G218," AND Linetype = '",H218,"' AND LineWt=",J218)),(CONCATENATE("Level_Name = '",E218,"' AND Level =",F218," AND RefName = '",A218,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_ELEP' AND Level =27 AND RefName = 'POLE'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_ELEP' AND ''Level'' ='27' AND ''RefName'' = 'POLE'</v>
       </c>
       <c r="O218" s="5"/>
       <c r="P218" s="5"/>
@@ -13884,7 +13890,7 @@
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="9" t="str">
-        <f>IF(ISBLANK(I219),"No Value",IF(I219=0,"Solid",IF(I219=1,"Dotted",IF(I219=2,"Medium-Dashed",IF(I219=3,"LongDashed",IF(I219=4,"LongDashed Dot Dot",IF(I219=6,"Medium-Dashed Dot Dot",IF(I219=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I219" s="6"/>
@@ -13896,12 +13902,12 @@
         <v>61</v>
       </c>
       <c r="M219" s="27" t="str">
-        <f>IF(ISBLANK(A219),L219, CONCATENATE(L219,"_",A219))</f>
+        <f t="shared" si="10"/>
         <v>utility_pole_tower_point_PPOLEX</v>
       </c>
       <c r="N219" s="27" t="str">
-        <f>IF(ISBLANK(A219),(CONCATENATE("Level_Name = '",E219,"' AND Level =",F219," AND Color =",G219," AND Linetype = '",H219,"' AND LineWt=",J219)),(CONCATENATE("Level_Name = '",E219,"' AND Level =",F219," AND RefName = '",A219,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_ELEP' AND Level =27 AND RefName = 'PPOLEX'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_ELEP' AND ''Level'' ='27' AND ''RefName'' = 'PPOLEX'</v>
       </c>
       <c r="O219" s="5"/>
       <c r="P219" s="5"/>
@@ -13929,7 +13935,7 @@
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="9" t="str">
-        <f>IF(ISBLANK(I220),"No Value",IF(I220=0,"Solid",IF(I220=1,"Dotted",IF(I220=2,"Medium-Dashed",IF(I220=3,"LongDashed",IF(I220=4,"LongDashed Dot Dot",IF(I220=6,"Medium-Dashed Dot Dot",IF(I220=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I220" s="6"/>
@@ -13941,12 +13947,12 @@
         <v>61</v>
       </c>
       <c r="M220" s="27" t="str">
-        <f>IF(ISBLANK(A220),L220, CONCATENATE(L220,"_",A220))</f>
+        <f t="shared" si="10"/>
         <v>utility_pole_tower_point_PWRLT</v>
       </c>
       <c r="N220" s="27" t="str">
-        <f>IF(ISBLANK(A220),(CONCATENATE("Level_Name = '",E220,"' AND Level =",F220," AND Color =",G220," AND Linetype = '",H220,"' AND LineWt=",J220)),(CONCATENATE("Level_Name = '",E220,"' AND Level =",F220," AND RefName = '",A220,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_ELEP' AND Level =27 AND RefName = 'PWRLT'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_ELEP' AND ''Level'' ='27' AND ''RefName'' = 'PWRLT'</v>
       </c>
       <c r="O220" s="5"/>
       <c r="P220" s="5"/>
@@ -13974,7 +13980,7 @@
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="9" t="str">
-        <f>IF(ISBLANK(I221),"No Value",IF(I221=0,"Solid",IF(I221=1,"Dotted",IF(I221=2,"Medium-Dashed",IF(I221=3,"LongDashed",IF(I221=4,"LongDashed Dot Dot",IF(I221=6,"Medium-Dashed Dot Dot",IF(I221=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I221" s="6"/>
@@ -13986,12 +13992,12 @@
         <v>95</v>
       </c>
       <c r="M221" s="27" t="str">
-        <f>IF(ISBLANK(A221),L221, CONCATENATE(L221,"_",A221))</f>
+        <f t="shared" si="10"/>
         <v>road_feature_point_SGN1P</v>
       </c>
       <c r="N221" s="27" t="str">
-        <f t="shared" ref="N221:N222" si="2">IF(ISBLANK(A221),(CONCATENATE("Level_Name = '",E221,"' AND Level =",F221," AND Color =",G221," AND Linetype = '",H221,"' AND LineWt=",J221)),(CONCATENATE("Level_Name = '",E221,"' AND Level =",F221," AND RefName = '",A221,"'")))</f>
-        <v>Level_Name = 'VA_SITE_SIGN' AND Level =32 AND RefName = 'SGN1P'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_SIGN' AND ''Level'' ='32' AND ''RefName'' = 'SGN1P'</v>
       </c>
       <c r="O221" s="44"/>
       <c r="P221" s="44"/>
@@ -14019,7 +14025,7 @@
       </c>
       <c r="G222" s="6"/>
       <c r="H222" s="9" t="str">
-        <f>IF(ISBLANK(I222),"No Value",IF(I222=0,"Solid",IF(I222=1,"Dotted",IF(I222=2,"Medium-Dashed",IF(I222=3,"LongDashed",IF(I222=4,"LongDashed Dot Dot",IF(I222=6,"Medium-Dashed Dot Dot",IF(I222=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I222" s="6"/>
@@ -14031,12 +14037,12 @@
         <v>95</v>
       </c>
       <c r="M222" s="27" t="str">
-        <f>IF(ISBLANK(A222),L222, CONCATENATE(L222,"_",A222))</f>
+        <f t="shared" si="10"/>
         <v>road_feature_point_SGN2P</v>
       </c>
       <c r="N222" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>Level_Name = 'VA_SITE_SIGN' AND Level =32 AND RefName = 'SGN2P'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_SIGN' AND ''Level'' ='32' AND ''RefName'' = 'SGN2P'</v>
       </c>
       <c r="O222" s="44"/>
       <c r="P222" s="44"/>
@@ -14065,7 +14071,7 @@
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="9" t="str">
-        <f>IF(ISBLANK(I223),"No Value",IF(I223=0,"Solid",IF(I223=1,"Dotted",IF(I223=2,"Medium-Dashed",IF(I223=3,"LongDashed",IF(I223=4,"LongDashed Dot Dot",IF(I223=6,"Medium-Dashed Dot Dot",IF(I223=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I223" s="3"/>
@@ -14077,12 +14083,12 @@
         <v>507</v>
       </c>
       <c r="M223" s="27" t="str">
-        <f>IF(ISBLANK(A223),L223, CONCATENATE(L223,"_",A223))</f>
+        <f t="shared" si="10"/>
         <v>ut_undefined_feature_point_SP</v>
       </c>
       <c r="N223" s="27" t="str">
-        <f>IF(ISBLANK(A223),(CONCATENATE("Level_Name = '",E223,"' AND Level =",F223," AND Color =",G223," AND Linetype = '",H223,"' AND LineWt=",J223)),(CONCATENATE("Level_Name = '",E223,"' AND Level =",F223," AND RefName = '",A223,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_MANH' AND Level =24 AND RefName = 'SP'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_MANH' AND ''Level'' ='24' AND ''RefName'' = 'SP'</v>
       </c>
       <c r="O223" s="5"/>
       <c r="P223" s="5"/>
@@ -14110,7 +14116,7 @@
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="9" t="str">
-        <f>IF(ISBLANK(I224),"No Value",IF(I224=0,"Solid",IF(I224=1,"Dotted",IF(I224=2,"Medium-Dashed",IF(I224=3,"LongDashed",IF(I224=4,"LongDashed Dot Dot",IF(I224=6,"Medium-Dashed Dot Dot",IF(I224=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I224" s="6"/>
@@ -14122,12 +14128,12 @@
         <v>124</v>
       </c>
       <c r="M224" s="27" t="str">
-        <f>IF(ISBLANK(A224),L224, CONCATENATE(L224,"_",A224))</f>
+        <f t="shared" si="10"/>
         <v>flora_species_point_SSHRUB</v>
       </c>
       <c r="N224" s="27" t="str">
-        <f t="shared" ref="N224:N225" si="3">IF(ISBLANK(A224),(CONCATENATE("Level_Name = '",E224,"' AND Level =",F224," AND Color =",G224," AND Linetype = '",H224,"' AND LineWt=",J224)),(CONCATENATE("Level_Name = '",E224,"' AND Level =",F224," AND RefName = '",A224,"'")))</f>
-        <v>Level_Name = 'VA_SITE_BRUS' AND Level =40 AND RefName = 'SSHRUB'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' ='40' AND ''RefName'' = 'SSHRUB'</v>
       </c>
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
@@ -14155,7 +14161,7 @@
       </c>
       <c r="G225" s="6"/>
       <c r="H225" s="9" t="str">
-        <f>IF(ISBLANK(I225),"No Value",IF(I225=0,"Solid",IF(I225=1,"Dotted",IF(I225=2,"Medium-Dashed",IF(I225=3,"LongDashed",IF(I225=4,"LongDashed Dot Dot",IF(I225=6,"Medium-Dashed Dot Dot",IF(I225=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I225" s="6"/>
@@ -14167,12 +14173,12 @@
         <v>124</v>
       </c>
       <c r="M225" s="27" t="str">
-        <f>IF(ISBLANK(A225),L225, CONCATENATE(L225,"_",A225))</f>
+        <f t="shared" si="10"/>
         <v>flora_species_point_STREE</v>
       </c>
       <c r="N225" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>Level_Name = 'VA_SITE_TREE' AND Level =39 AND RefName = 'STREE'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_TREE' AND ''Level'' ='39' AND ''RefName'' = 'STREE'</v>
       </c>
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
@@ -14200,7 +14206,7 @@
       </c>
       <c r="G226" s="6"/>
       <c r="H226" s="9" t="str">
-        <f>IF(ISBLANK(I226),"No Value",IF(I226=0,"Solid",IF(I226=1,"Dotted",IF(I226=2,"Medium-Dashed",IF(I226=3,"LongDashed",IF(I226=4,"LongDashed Dot Dot",IF(I226=6,"Medium-Dashed Dot Dot",IF(I226=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I226" s="6"/>
@@ -14212,12 +14218,12 @@
         <v>183</v>
       </c>
       <c r="M226" s="27" t="str">
-        <f>IF(ISBLANK(A226),L226, CONCATENATE(L226,"_",A226))</f>
+        <f t="shared" si="10"/>
         <v>topographic_survey_area_TOPO','HIGH','LOW','INST','NON-CANTONMENT','CANTONMENT'</v>
       </c>
       <c r="N226" s="27" t="str">
-        <f>IF(ISBLANK(A226),(CONCATENATE("Level_Name = '",E226,"' AND Level =",F226," AND Color =",G226," AND Linetype = '",H226,"' AND LineWt=",J226)),(CONCATENATE("Level_Name = '",E226,"' AND Level =",F226," AND RefName = '",A226,"'")))</f>
-        <v>Level_Name = 'VA_DTM_INTR' AND Level =50 AND RefName = 'TOPO','HIGH','LOW','INST','NON-CANTONMENT','CANTONMENT''</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_DTM_INTR' AND ''Level'' ='50' AND ''RefName'' = 'TOPO','HIGH','LOW','INST','NON-CANTONMENT','CANTONMENT''</v>
       </c>
       <c r="S226" s="4" t="s">
         <v>458</v>
@@ -14244,7 +14250,7 @@
       </c>
       <c r="G227" s="6"/>
       <c r="H227" s="9" t="str">
-        <f>IF(ISBLANK(I227),"No Value",IF(I227=0,"Solid",IF(I227=1,"Dotted",IF(I227=2,"Medium-Dashed",IF(I227=3,"LongDashed",IF(I227=4,"LongDashed Dot Dot",IF(I227=6,"Medium-Dashed Dot Dot",IF(I227=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I227" s="6"/>
@@ -14256,12 +14262,12 @@
         <v>95</v>
       </c>
       <c r="M227" s="27" t="str">
-        <f>IF(ISBLANK(A227),L227, CONCATENATE(L227,"_",A227))</f>
+        <f t="shared" si="10"/>
         <v>road_feature_point_TRAF</v>
       </c>
       <c r="N227" s="27" t="str">
-        <f>IF(ISBLANK(A227),(CONCATENATE("Level_Name = '",E227,"' AND Level =",F227," AND Color =",G227," AND Linetype = '",H227,"' AND LineWt=",J227)),(CONCATENATE("Level_Name = '",E227,"' AND Level =",F227," AND RefName = '",A227,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_TRAF' AND Level =34 AND RefName = 'TRAF'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_TRAF' AND ''Level'' ='34' AND ''RefName'' = 'TRAF'</v>
       </c>
       <c r="O227" s="44"/>
       <c r="P227" s="44"/>
@@ -14289,7 +14295,7 @@
       </c>
       <c r="G228" s="6"/>
       <c r="H228" s="9" t="str">
-        <f>IF(ISBLANK(I228),"No Value",IF(I228=0,"Solid",IF(I228=1,"Dotted",IF(I228=2,"Medium-Dashed",IF(I228=3,"LongDashed",IF(I228=4,"LongDashed Dot Dot",IF(I228=6,"Medium-Dashed Dot Dot",IF(I228=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I228" s="6"/>
@@ -14301,12 +14307,12 @@
         <v>95</v>
       </c>
       <c r="M228" s="27" t="str">
-        <f>IF(ISBLANK(A228),L228, CONCATENATE(L228,"_",A228))</f>
+        <f t="shared" si="10"/>
         <v>road_feature_point_TRAF W</v>
       </c>
       <c r="N228" s="27" t="str">
-        <f>IF(ISBLANK(A228),(CONCATENATE("Level_Name = '",E228,"' AND Level =",F228," AND Color =",G228," AND Linetype = '",H228,"' AND LineWt=",J228)),(CONCATENATE("Level_Name = '",E228,"' AND Level =",F228," AND RefName = '",A228,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_TRAF' AND Level =34 AND RefName = 'TRAF W'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_TRAF' AND ''Level'' ='34' AND ''RefName'' = 'TRAF W'</v>
       </c>
       <c r="O228" s="44"/>
       <c r="P228" s="44"/>
@@ -14334,7 +14340,7 @@
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="9" t="str">
-        <f>IF(ISBLANK(I229),"No Value",IF(I229=0,"Solid",IF(I229=1,"Dotted",IF(I229=2,"Medium-Dashed",IF(I229=3,"LongDashed",IF(I229=4,"LongDashed Dot Dot",IF(I229=6,"Medium-Dashed Dot Dot",IF(I229=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I229" s="3"/>
@@ -14346,12 +14352,12 @@
         <v>125</v>
       </c>
       <c r="M229" s="27" t="str">
-        <f>IF(ISBLANK(A229),L229, CONCATENATE(L229,"_",A229))</f>
+        <f t="shared" si="10"/>
         <v>undefined_mapping_feature_point_UNI</v>
       </c>
       <c r="N229" s="27" t="str">
-        <f>IF(ISBLANK(A229),(CONCATENATE("Level_Name = '",E229,"' AND Level =",F229," AND Color =",G229," AND Linetype = '",H229,"' AND LineWt=",J229)),(CONCATENATE("Level_Name = '",E229,"' AND Level =",F229," AND RefName = '",A229,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_MANH' AND Level =24 AND RefName = 'UNI'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_UTIL_MANH' AND ''Level'' ='24' AND ''RefName'' = 'UNI'</v>
       </c>
       <c r="O229" s="5"/>
       <c r="P229" s="5"/>
@@ -14379,7 +14385,7 @@
       </c>
       <c r="G230" s="6"/>
       <c r="H230" s="9" t="str">
-        <f>IF(ISBLANK(I230),"No Value",IF(I230=0,"Solid",IF(I230=1,"Dotted",IF(I230=2,"Medium-Dashed",IF(I230=3,"LongDashed",IF(I230=4,"LongDashed Dot Dot",IF(I230=6,"Medium-Dashed Dot Dot",IF(I230=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I230" s="6"/>
@@ -14391,12 +14397,12 @@
         <v>91</v>
       </c>
       <c r="M230" s="27" t="str">
-        <f>IF(ISBLANK(A230),L230, CONCATENATE(L230,"_",A230))</f>
+        <f t="shared" si="10"/>
         <v>navigational_aid_point_WS</v>
       </c>
       <c r="N230" s="27" t="str">
-        <f>IF(ISBLANK(A230),(CONCATENATE("Level_Name = '",E230,"' AND Level =",F230," AND Color =",G230," AND Linetype = '",H230,"' AND LineWt=",J230)),(CONCATENATE("Level_Name = '",E230,"' AND Level =",F230," AND RefName = '",A230,"'")))</f>
-        <v>Level_Name = 'VA_SITE_MISC' AND Level =16 AND RefName = 'WS'</v>
+        <f t="shared" si="12"/>
+        <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' ='16' AND ''RefName'' = 'WS'</v>
       </c>
     </row>
     <row r="231" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14420,7 +14426,7 @@
       </c>
       <c r="G231" s="6"/>
       <c r="H231" s="9" t="str">
-        <f>IF(ISBLANK(I231),"No Value",IF(I231=0,"Solid",IF(I231=1,"Dotted",IF(I231=2,"Medium-Dashed",IF(I231=3,"LongDashed",IF(I231=4,"LongDashed Dot Dot",IF(I231=6,"Medium-Dashed Dot Dot",IF(I231=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I231" s="6"/>
@@ -14434,12 +14440,12 @@
         <v>179</v>
       </c>
       <c r="M231" s="27" t="str">
-        <f>IF(ISBLANK(A231),L231, CONCATENATE(L231,"_",A231))</f>
+        <f t="shared" si="10"/>
         <v>spot_elevation_point_X</v>
       </c>
       <c r="N231" s="27" t="str">
-        <f>IF(ISBLANK(A231),(CONCATENATE("Level_Name = '",E231,"' AND Level =",F231," AND Color =",G231," AND Linetype = '",H231,"' AND LineWt=",J231)),(CONCATENATE("Level_Name = '",E231,"' AND Level =",F231,"' AND LineWt=",J231," AND RefName = '",A231,"'")))</f>
-        <v>Level_Name = 'VA_TOPO_SPOT' AND Level =47' AND LineWt=0 AND RefName = 'X'</v>
+        <f>CONCATENATE("''Level_Name'' = '",E231,"' AND ''Level'' ='",F231,"' AND ''LineWt''='",J231,"' AND ''RefName'' = '",A231,"'")</f>
+        <v>''Level_Name'' = 'VA_TOPO_SPOT' AND ''Level'' ='47' AND ''LineWt''='0' AND ''RefName'' = 'X'</v>
       </c>
       <c r="O231" s="5"/>
       <c r="P231" s="5"/>
@@ -14465,7 +14471,7 @@
       </c>
       <c r="G232" s="7"/>
       <c r="H232" s="9" t="str">
-        <f>IF(ISBLANK(I232),"No Value",IF(I232=0,"Solid",IF(I232=1,"Dotted",IF(I232=2,"Medium-Dashed",IF(I232=3,"LongDashed",IF(I232=4,"LongDashed Dot Dot",IF(I232=6,"Medium-Dashed Dot Dot",IF(I232=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I232" s="7"/>
@@ -14477,12 +14483,12 @@
         <v>368</v>
       </c>
       <c r="M232" s="27" t="str">
-        <f>IF(ISBLANK(A232),L232, CONCATENATE(L232,"_",A232))</f>
+        <f t="shared" si="10"/>
         <v>tower_point</v>
       </c>
       <c r="N232" s="27" t="str">
-        <f>IF(ISBLANK(A232),(CONCATENATE("Level_Name = '",E232,"' AND Level =",F232)),(CONCATENATE("Level_Name = '",E232,"' AND Level =",F232," AND Color =",G232," AND Linetype = '",H232,"' AND LineWt=",J232," AND RefName = '",A232,"'")))</f>
-        <v>Level_Name = 'VA_BLDG_BLDG' AND Level =13</v>
+        <f>CONCATENATE("''Level_Name'' = '",E232,"' AND ''Level'' ='",F232,"'")</f>
+        <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' ='13'</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14503,7 +14509,7 @@
       </c>
       <c r="G233" s="10"/>
       <c r="H233" s="9" t="str">
-        <f>IF(ISBLANK(I233),"No Value",IF(I233=0,"Solid",IF(I233=1,"Dotted",IF(I233=2,"Medium-Dashed",IF(I233=3,"LongDashed",IF(I233=4,"LongDashed Dot Dot",IF(I233=6,"Medium-Dashed Dot Dot",IF(I233=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I233" s="10"/>
@@ -14515,12 +14521,12 @@
         <v>97</v>
       </c>
       <c r="M233" s="27" t="str">
-        <f>IF(ISBLANK(A233),L233, CONCATENATE(L233,"_",A233))</f>
+        <f t="shared" si="10"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N233" s="27" t="str">
-        <f>IF(ISBLANK(A233),(CONCATENATE("Level_Name = '",E233,"' AND Level =",F233)),(CONCATENATE("Level_Name = '",E233,"' AND Level =",F233," AND RefName = '",A233,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_LITP' AND Level =29</v>
+        <f t="shared" ref="N233:N239" si="13">CONCATENATE("''Level_Name'' = '",E233,"' AND ''Level'' ='",F233,"'")</f>
+        <v>''Level_Name'' = 'VA_UTIL_LITP' AND ''Level'' ='29'</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14541,7 +14547,7 @@
       </c>
       <c r="G234" s="10"/>
       <c r="H234" s="9" t="str">
-        <f>IF(ISBLANK(I234),"No Value",IF(I234=0,"Solid",IF(I234=1,"Dotted",IF(I234=2,"Medium-Dashed",IF(I234=3,"LongDashed",IF(I234=4,"LongDashed Dot Dot",IF(I234=6,"Medium-Dashed Dot Dot",IF(I234=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I234" s="10"/>
@@ -14553,12 +14559,12 @@
         <v>97</v>
       </c>
       <c r="M234" s="27" t="str">
-        <f>IF(ISBLANK(A234),L234, CONCATENATE(L234,"_",A234))</f>
+        <f t="shared" si="10"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N234" s="27" t="str">
-        <f>IF(ISBLANK(A234),(CONCATENATE("Level_Name = '",E234,"' AND Level =",F234)),(CONCATENATE("Level_Name = '",E234,"' AND Level =",F234," AND RefName = '",A234,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_LITP' AND Level =29</v>
+        <f t="shared" si="13"/>
+        <v>''Level_Name'' = 'VA_UTIL_LITP' AND ''Level'' ='29'</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14579,7 +14585,7 @@
       </c>
       <c r="G235" s="10"/>
       <c r="H235" s="9" t="str">
-        <f>IF(ISBLANK(I235),"No Value",IF(I235=0,"Solid",IF(I235=1,"Dotted",IF(I235=2,"Medium-Dashed",IF(I235=3,"LongDashed",IF(I235=4,"LongDashed Dot Dot",IF(I235=6,"Medium-Dashed Dot Dot",IF(I235=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I235" s="10"/>
@@ -14591,12 +14597,12 @@
         <v>97</v>
       </c>
       <c r="M235" s="27" t="str">
-        <f>IF(ISBLANK(A235),L235, CONCATENATE(L235,"_",A235))</f>
+        <f t="shared" si="10"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N235" s="27" t="str">
-        <f>IF(ISBLANK(A235),(CONCATENATE("Level_Name = '",E235,"' AND Level =",F235)),(CONCATENATE("Level_Name = '",E235,"' AND Level =",F235," AND RefName = '",A235,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_LITP' AND Level =29</v>
+        <f t="shared" si="13"/>
+        <v>''Level_Name'' = 'VA_UTIL_LITP' AND ''Level'' ='29'</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14617,7 +14623,7 @@
       </c>
       <c r="G236" s="10"/>
       <c r="H236" s="9" t="str">
-        <f>IF(ISBLANK(I236),"No Value",IF(I236=0,"Solid",IF(I236=1,"Dotted",IF(I236=2,"Medium-Dashed",IF(I236=3,"LongDashed",IF(I236=4,"LongDashed Dot Dot",IF(I236=6,"Medium-Dashed Dot Dot",IF(I236=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I236" s="10"/>
@@ -14629,12 +14635,12 @@
         <v>97</v>
       </c>
       <c r="M236" s="27" t="str">
-        <f>IF(ISBLANK(A236),L236, CONCATENATE(L236,"_",A236))</f>
+        <f t="shared" si="10"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N236" s="27" t="str">
-        <f>IF(ISBLANK(A236),(CONCATENATE("Level_Name = '",E236,"' AND Level =",F236)),(CONCATENATE("Level_Name = '",E236,"' AND Level =",F236," AND RefName = '",A236,"'")))</f>
-        <v>Level_Name = 'VA_UTIL_LITP' AND Level =29</v>
+        <f t="shared" si="13"/>
+        <v>''Level_Name'' = 'VA_UTIL_LITP' AND ''Level'' ='29'</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14652,18 +14658,18 @@
       </c>
       <c r="G237" s="12"/>
       <c r="H237" s="9" t="str">
-        <f>IF(ISBLANK(I237),"No Value",IF(I237=0,"Solid",IF(I237=1,"Dotted",IF(I237=2,"Medium-Dashed",IF(I237=3,"LongDashed",IF(I237=4,"LongDashed Dot Dot",IF(I237=6,"Medium-Dashed Dot Dot",IF(I237=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
       <c r="M237" s="27">
-        <f>IF(ISBLANK(A237),L237, CONCATENATE(L237,"_",A237))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N237" s="27" t="str">
-        <f>CONCATENATE("Level =",F237)</f>
-        <v>Level =60</v>
+        <f>CONCATENATE("''Level'' ='",F237,"'")</f>
+        <v>''Level'' ='60'</v>
       </c>
       <c r="S237" s="4" t="s">
         <v>432</v>
@@ -14686,7 +14692,7 @@
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="9" t="str">
-        <f>IF(ISBLANK(I238),"No Value",IF(I238=0,"Solid",IF(I238=1,"Dotted",IF(I238=2,"Medium-Dashed",IF(I238=3,"LongDashed",IF(I238=4,"LongDashed Dot Dot",IF(I238=6,"Medium-Dashed Dot Dot",IF(I238=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I238" s="3"/>
@@ -14694,12 +14700,12 @@
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
       <c r="M238" s="27">
-        <f>IF(ISBLANK(A238),L238, CONCATENATE(L238,"_",A238))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N238" s="27" t="str">
-        <f t="shared" ref="N238:N239" si="4">CONCATENATE("Level =",F238)</f>
-        <v>Level =61</v>
+        <f t="shared" ref="N238:N239" si="14">CONCATENATE("''Level'' ='",F238,"'")</f>
+        <v>''Level'' ='61'</v>
       </c>
       <c r="O238" s="8"/>
       <c r="P238" s="8"/>
@@ -14720,18 +14726,18 @@
       </c>
       <c r="G239" s="6"/>
       <c r="H239" s="9" t="str">
-        <f>IF(ISBLANK(I239),"No Value",IF(I239=0,"Solid",IF(I239=1,"Dotted",IF(I239=2,"Medium-Dashed",IF(I239=3,"LongDashed",IF(I239=4,"LongDashed Dot Dot",IF(I239=6,"Medium-Dashed Dot Dot",IF(I239=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="9"/>
         <v>No Value</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="M239" s="27">
-        <f>IF(ISBLANK(A239),L239, CONCATENATE(L239,"_",A239))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N239" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>Level =63</v>
+        <f t="shared" si="14"/>
+        <v>''Level'' ='63'</v>
       </c>
       <c r="S239" s="4" t="s">
         <v>444</v>

--- a/Reference/CAD_Label_to_SDS.xlsx
+++ b/Reference/CAD_Label_to_SDS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="713">
   <si>
     <t>B</t>
   </si>
@@ -2172,6 +2172,9 @@
     <t>CRT PTH</t>
   </si>
   <si>
+    <t>"""</t>
+  </si>
+  <si>
     <t>"</t>
   </si>
   <si>
@@ -2191,9 +2194,6 @@
   </si>
   <si>
     <t>REFNAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \"</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2505,7 +2505,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2948,11 +2947,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V252"/>
+  <dimension ref="A1:AB252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2969,18 +2968,20 @@
     <col min="11" max="11" width="30.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="31.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" style="4" customWidth="1"/>
-    <col min="14" max="14" width="135.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="77.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="127.140625" style="4" customWidth="1"/>
     <col min="16" max="19" width="19.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="87.140625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="4"/>
+    <col min="21" max="21" width="4.42578125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>534</v>
@@ -2992,22 +2993,22 @@
         <v>100</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>206</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>529</v>
@@ -3036,11 +3037,11 @@
       <c r="T1" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="68" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="67" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>474</v>
       </c>
@@ -3083,12 +3084,12 @@
         <v>control_point_HVP</v>
       </c>
       <c r="N2" s="27" t="str">
-        <f>U1&amp;" "&amp;O2&amp;" "&amp;U1</f>
-        <v>"  \"LEVEL_NAME \" = 'VA_SURV_CTRL' AND  \"LEVEL \" = '48' AND ' \"COLOR \" = '0' AND ' \"LINETYPE \" = 'Solid' AND ' \"LINEWT \" = '0' AND  \"REFNAME \" = 'HVP' "</v>
+        <f>U2&amp;" "&amp;O2&amp;" "&amp;U2</f>
+        <v>""" "LEVEL_NAME" = 'VA_SURV_CTRL' AND "LEVEL" = '48' AND '"COLOR" = '0' AND '"LINETYPE" = 'Solid' AND '"LINEWT" = '0' AND "REFNAME" = 'HVP' """</v>
       </c>
       <c r="O2" s="27" t="str">
-        <f>CONCATENATE(V2,E1,V2," = '",E2,"' AND ",V2,F1,V2," = '",F2,"' AND '",V2,G1,V2," = '",G2,"' AND '",V2,H1,V2," = '",H2,"' AND '",V2,J1,V2," = '",J2,"' AND ",V2,A1,V2," = '",A2,"'")</f>
-        <v xml:space="preserve"> \"LEVEL_NAME \" = 'VA_SURV_CTRL' AND  \"LEVEL \" = '48' AND ' \"COLOR \" = '0' AND ' \"LINETYPE \" = 'Solid' AND ' \"LINEWT \" = '0' AND  \"REFNAME \" = 'HVP'</v>
+        <f>CONCATENATE(V2,X2,V2," = '",E2,"' AND ",V2,Y2,V2," = '",F2,"' AND '",V2,Z2,V2," = '",G2,"' AND '",V2,AA2,V2," = '",H2,"' AND '",V2,AB2,V2," = '",J2,"' AND ",V2,W2,V2," = '",A2,"'")</f>
+        <v>"LEVEL_NAME" = 'VA_SURV_CTRL' AND "LEVEL" = '48' AND '"COLOR" = '0' AND '"LINETYPE" = 'Solid' AND '"LINEWT" = '0' AND "REFNAME" = 'HVP'</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -3099,10 +3100,28 @@
         <v>705</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>210</v>
       </c>
@@ -3145,21 +3164,39 @@
         <v>slab_area_A</v>
       </c>
       <c r="N3" s="27" t="str">
-        <f>U1&amp;" "&amp;O3&amp;" "&amp;U1</f>
-        <v>"  \"LEVEL_NAME \" = 'VA_ROAD_EASP' AND  \"LEVEL \" = '4' AND  \"COLOR \" = '3' AND  \"LINETYPE \" = 'LongDashed' AND  \"LINEWT \" = '0' AND  \"REFNAME \" = 'A' "</v>
+        <f t="shared" ref="N3:N7" si="2">U3&amp;" "&amp;O3&amp;" "&amp;U3</f>
+        <v>""" "LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'A' """</v>
       </c>
       <c r="O3" s="27" t="str">
-        <f>CONCATENATE(V2,E1,V2," = '",E3,"' AND ",V2,F1,V2," = '",F3,"' AND ",V2,G1,V2," = '",G3,"' AND ",V2,H1,V2," = '",H3,"' AND ",V2,J1,V2," = '",J3,"' AND ",V2,A1,V2," = '",A3,"'")</f>
-        <v xml:space="preserve"> \"LEVEL_NAME \" = 'VA_ROAD_EASP' AND  \"LEVEL \" = '4' AND  \"COLOR \" = '3' AND  \"LINETYPE \" = 'LongDashed' AND  \"LINEWT \" = '0' AND  \"REFNAME \" = 'A'</v>
+        <f t="shared" ref="O3:O4" si="3">CONCATENATE(V3,X3,V3," = '",E3,"' AND ",V3,Y3,V3," = '",F3,"' AND '",V3,Z3,V3," = '",G3,"' AND '",V3,AA3,V3," = '",H3,"' AND '",V3,AB3,V3," = '",J3,"' AND ",V3,W3,V3," = '",A3,"'")</f>
+        <v>"LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'A'</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>705</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>453</v>
       </c>
@@ -3202,12 +3239,12 @@
         <v>airfield_surface_area_AAA</v>
       </c>
       <c r="N4" s="27" t="str">
-        <f>U1&amp;" "&amp;O4&amp;" "&amp;U1</f>
-        <v>"  \"LEVEL_NAME \" = 'VA_ROAD_EASP' AND  \"LEVEL \" = '4' AND  \"COLOR \" = '3' AND  \"LINETYPE \" = 'LongDashed' AND  \"LINEWT \" = '0' AND  \"REFNAME \" = 'AAA' "</v>
+        <f t="shared" si="2"/>
+        <v>""" "LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'AAA' """</v>
       </c>
       <c r="O4" s="27" t="str">
-        <f>CONCATENATE(V2,E1,V2," = '",E4,"' AND ",V2,F1,V2," = '",F4,"' AND ",V2,G1,V2," = '",G4,"' AND ",V2,H1,V2," = '",H4,"' AND ",V2,J1,V2," = '",J4,"' AND ",V2,A1,V2," = '",A4,"'")</f>
-        <v xml:space="preserve"> \"LEVEL_NAME \" = 'VA_ROAD_EASP' AND  \"LEVEL \" = '4' AND  \"COLOR \" = '3' AND  \"LINETYPE \" = 'LongDashed' AND  \"LINEWT \" = '0' AND  \"REFNAME \" = 'AAA'</v>
+        <f t="shared" si="3"/>
+        <v>"LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'AAA'</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -3220,10 +3257,28 @@
         <v>705</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB4" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>456</v>
       </c>
@@ -3265,10 +3320,13 @@
         <f>IF(ISBLANK(A5),L5, CONCATENATE(L5,"_",A5))</f>
         <v>airfield_surface_area_AAC</v>
       </c>
-      <c r="N5" s="27"/>
+      <c r="N5" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>""" "LEVEL_NAME" = 'VA_SITE_CONC' AND "LEVEL" = '14' AND '"COLOR" = '4' AND '"LINETYPE" = 'Solid' AND '"LINEWT" = '0' AND "REFNAME" = 'AAC' """</v>
+      </c>
       <c r="O5" s="27" t="str">
-        <f>CONCATENATE(U5,V5,U5,"= '",E5,"' AND ",U5,V6,U5,"= '",F5,"' AND ",U5,V7,U5," = '",G5,"' AND ",U5,V8,U5," = '",H5,"' AND ",U5,V9,U5,"= '",J5,"' AND",U5,V10,U5," = '",A5,"'")</f>
-        <v>" \""= 'VA_SITE_CONC' AND ""= '14' AND "" = '4' AND "" = 'Solid' AND ""= '0' AND"" = 'AAC'</v>
+        <f>CONCATENATE(V5,X5,V5," = '",E5,"' AND ",V5,Y5,V5," = '",F5,"' AND '",V5,Z5,V5," = '",G5,"' AND '",V5,AA5,V5," = '",H5,"' AND '",V5,AB5,V5," = '",J5,"' AND ",V5,W5,V5," = '",A5,"'")</f>
+        <v>"LEVEL_NAME" = 'VA_SITE_CONC' AND "LEVEL" = '14' AND '"COLOR" = '4' AND '"LINETYPE" = 'Solid' AND '"LINEWT" = '0' AND "REFNAME" = 'AAC'</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -3278,10 +3336,28 @@
         <v>705</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB5" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>466</v>
       </c>
@@ -3314,16 +3390,40 @@
         <f>IF(ISBLANK(A6),L6, CONCATENATE(L6,"_",A6))</f>
         <v>heat_cool_pump_point_AC</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>""" ''Level'' = '54' """</v>
+      </c>
       <c r="O6" s="27" t="str">
-        <f>CONCATENATE("''Level'' ='",F6,"'")</f>
-        <v>''Level'' ='54'</v>
+        <f>CONCATENATE("''Level'' = '",F6,"'")</f>
+        <v>''Level'' = '54'</v>
       </c>
       <c r="U6" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB6" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>607</v>
       </c>
@@ -3365,7 +3465,10 @@
         <f>IF(ISBLANK(A7),L7, CONCATENATE(L7,"_",A7))</f>
         <v>airfield_surface_area_ACA</v>
       </c>
-      <c r="N7" s="27"/>
+      <c r="N7" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>""" ''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ACA' """</v>
+      </c>
       <c r="O7" s="27" t="str">
         <f>IF(ISBLANK(A7),(CONCATENATE("''Level_Name'' = '",E7,"' AND ''Level'' = '",F7,"' AND ''Color'' = '",G7,"' AND ''Linetype'' = '",H7,"' AND ''LineWt''= '",J7,"'")),(CONCATENATE("''Level_Name'' = '",E7,"' AND ''Level'' = '",F7,"' AND ''Color'' = '",G7,"' AND ''Linetype'' = '",H7,"' AND ''LineWt''= '",J7,"' AND ''RefName'' = '",A7,"'")))</f>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ACA'</v>
@@ -3380,8 +3483,29 @@
       <c r="U7" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X7" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>608</v>
       </c>
@@ -3438,8 +3562,29 @@
       <c r="U8" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>349</v>
       </c>
@@ -3493,8 +3638,29 @@
       <c r="U9" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X9" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y9" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z9" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA9" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB9" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>334</v>
       </c>
@@ -3548,9 +3714,29 @@
       <c r="U10" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V10" s="67"/>
-    </row>
-    <row r="11" spans="1:22" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W10" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X10" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y10" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z10" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB10" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60" t="s">
         <v>228</v>
       </c>
@@ -3605,9 +3791,29 @@
       <c r="U11" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V11" s="24"/>
-    </row>
-    <row r="12" spans="1:22" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X11" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA11" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB11" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>344</v>
       </c>
@@ -3662,8 +3868,29 @@
       <c r="U12" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y12" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z12" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA12" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB12" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>324</v>
       </c>
@@ -3717,9 +3944,29 @@
       <c r="U13" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X13" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y13" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA13" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB13" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>513</v>
       </c>
@@ -3768,8 +4015,29 @@
       <c r="U14" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W14" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y14" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z14" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB14" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>251</v>
       </c>
@@ -3823,8 +4091,29 @@
       <c r="U15" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W15" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X15" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y15" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA15" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB15" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>345</v>
       </c>
@@ -3881,8 +4170,29 @@
       <c r="U16" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W16" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X16" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y16" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA16" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB16" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>325</v>
       </c>
@@ -3939,8 +4249,29 @@
       <c r="U17" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X17" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y17" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z17" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA17" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB17" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>347</v>
       </c>
@@ -3994,8 +4325,29 @@
       <c r="U18" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W18" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X18" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y18" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z18" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA18" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB18" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>331</v>
       </c>
@@ -4049,8 +4401,29 @@
       <c r="U19" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W19" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X19" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y19" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z19" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA19" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB19" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>342</v>
       </c>
@@ -4104,8 +4477,29 @@
       <c r="U20" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W20" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X20" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z20" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA20" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB20" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>348</v>
       </c>
@@ -4159,8 +4553,29 @@
       <c r="U21" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W21" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X21" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y21" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z21" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA21" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB21" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
         <v>333</v>
       </c>
@@ -4215,9 +4630,29 @@
       <c r="U22" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V22" s="55"/>
-    </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W22" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X22" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y22" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z22" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA22" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB22" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>525</v>
       </c>
@@ -4274,8 +4709,29 @@
       <c r="U23" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W23" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X23" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y23" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z23" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA23" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB23" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>346</v>
       </c>
@@ -4329,8 +4785,29 @@
       <c r="U24" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W24" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X24" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y24" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z24" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA24" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB24" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>326</v>
       </c>
@@ -4384,8 +4861,29 @@
       <c r="U25" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W25" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X25" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y25" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z25" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA25" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB25" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>495</v>
       </c>
@@ -4439,8 +4937,29 @@
       <c r="U26" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W26" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X26" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y26" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z26" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA26" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB26" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>701</v>
       </c>
@@ -4494,8 +5013,29 @@
       <c r="U27" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W27" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X27" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y27" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z27" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA27" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB27" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -4549,8 +5089,29 @@
       <c r="U28" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W28" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X28" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y28" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z28" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA28" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB28" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -4604,8 +5165,29 @@
       <c r="U29" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W29" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X29" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y29" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z29" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA29" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB29" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>242</v>
       </c>
@@ -4659,8 +5241,29 @@
       <c r="U30" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W30" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X30" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y30" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z30" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA30" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB30" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>635</v>
       </c>
@@ -4717,8 +5320,29 @@
       <c r="U31" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V31" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W31" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X31" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y31" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z31" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA31" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB31" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
         <v>270</v>
       </c>
@@ -4772,8 +5396,29 @@
       <c r="U32" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V32" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W32" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y32" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z32" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA32" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB32" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>212</v>
       </c>
@@ -4823,8 +5468,29 @@
       <c r="U33" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V33" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W33" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X33" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y33" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z33" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA33" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB33" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>145</v>
       </c>
@@ -4878,8 +5544,29 @@
       <c r="U34" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V34" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W34" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X34" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y34" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z34" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA34" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB34" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>696</v>
       </c>
@@ -4936,8 +5623,29 @@
       <c r="U35" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V35" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W35" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X35" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y35" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z35" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA35" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB35" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>697</v>
       </c>
@@ -4991,8 +5699,29 @@
       <c r="U36" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W36" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X36" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y36" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z36" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA36" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB36" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>698</v>
       </c>
@@ -5046,8 +5775,29 @@
       <c r="U37" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V37" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W37" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X37" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y37" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z37" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA37" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB37" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>2</v>
       </c>
@@ -5101,8 +5851,29 @@
       <c r="U38" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W38" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X38" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y38" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z38" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA38" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB38" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -5152,8 +5923,29 @@
       <c r="U39" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V39" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W39" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X39" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y39" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z39" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA39" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB39" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -5203,8 +5995,29 @@
       <c r="U40" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W40" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X40" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y40" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z40" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA40" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB40" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -5258,8 +6071,29 @@
       <c r="U41" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V41" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W41" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X41" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y41" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z41" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA41" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB41" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>245</v>
       </c>
@@ -5316,8 +6150,29 @@
       <c r="U42" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V42" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W42" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X42" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y42" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z42" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA42" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB42" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>475</v>
       </c>
@@ -5371,8 +6226,29 @@
       <c r="U43" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W43" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X43" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y43" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z43" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA43" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB43" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>673</v>
       </c>
@@ -5429,8 +6305,29 @@
       <c r="U44" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V44" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W44" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X44" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y44" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z44" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA44" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB44" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>167</v>
       </c>
@@ -5478,8 +6375,29 @@
       <c r="U45" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V45" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W45" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X45" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y45" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z45" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA45" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB45" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>376</v>
       </c>
@@ -5533,8 +6451,29 @@
       <c r="U46" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V46" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W46" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X46" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y46" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z46" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA46" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB46" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>478</v>
       </c>
@@ -5584,8 +6523,29 @@
       <c r="U47" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V47" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W47" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X47" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y47" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z47" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA47" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB47" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>595</v>
       </c>
@@ -5635,8 +6595,29 @@
       <c r="U48" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V48" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W48" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X48" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y48" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z48" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA48" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB48" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>704</v>
       </c>
@@ -5690,8 +6671,29 @@
       <c r="U49" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W49" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X49" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y49" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z49" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA49" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB49" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>695</v>
       </c>
@@ -5745,8 +6747,29 @@
       <c r="U50" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V50" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W50" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X50" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y50" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z50" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA50" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB50" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>447</v>
       </c>
@@ -5796,8 +6819,29 @@
       <c r="U51" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V51" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W51" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X51" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y51" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z51" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA51" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB51" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>604</v>
       </c>
@@ -5841,8 +6885,29 @@
       <c r="U52" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V52" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W52" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X52" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y52" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z52" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA52" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB52" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
@@ -5896,8 +6961,29 @@
       <c r="U53" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V53" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W53" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X53" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y53" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z53" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA53" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB53" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>377</v>
       </c>
@@ -5945,8 +7031,29 @@
       <c r="U54" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V54" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W54" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X54" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y54" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z54" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA54" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB54" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -6000,8 +7107,29 @@
       <c r="U55" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V55" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W55" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X55" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y55" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z55" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA55" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB55" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -6055,8 +7183,29 @@
       <c r="U56" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V56" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W56" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X56" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y56" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z56" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA56" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB56" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>11</v>
       </c>
@@ -6110,8 +7259,29 @@
       <c r="U57" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V57" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W57" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X57" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y57" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z57" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA57" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB57" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>646</v>
       </c>
@@ -6161,8 +7331,29 @@
       <c r="U58" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V58" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W58" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X58" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y58" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z58" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA58" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB58" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
@@ -6213,9 +7404,29 @@
       <c r="U59" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V59" s="4"/>
-    </row>
-    <row r="60" spans="1:22" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W59" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X59" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y59" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z59" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA59" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB59" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>460</v>
       </c>
@@ -6266,9 +7477,29 @@
       <c r="U60" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V60" s="4"/>
-    </row>
-    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V60" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W60" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X60" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y60" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z60" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA60" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB60" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>520</v>
       </c>
@@ -6322,8 +7553,29 @@
       <c r="U61" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V61" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W61" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X61" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y61" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z61" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA61" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB61" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>67</v>
       </c>
@@ -6373,8 +7625,29 @@
       <c r="U62" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V62" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W62" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X62" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y62" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z62" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA62" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB62" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>510</v>
       </c>
@@ -6428,9 +7701,29 @@
       <c r="U63" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V63" s="48"/>
-    </row>
-    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V63" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W63" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X63" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y63" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z63" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA63" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB63" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -6478,8 +7771,29 @@
       <c r="U64" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V64" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W64" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X64" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y64" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z64" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA64" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB64" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>532</v>
       </c>
@@ -6529,9 +7843,29 @@
       <c r="U65" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V65" s="38"/>
-    </row>
-    <row r="66" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V65" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W65" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X65" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y65" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z65" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA65" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB65" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>246</v>
       </c>
@@ -6581,8 +7915,29 @@
       <c r="U66" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V66" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W66" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X66" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y66" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z66" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA66" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB66" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>81</v>
       </c>
@@ -6630,8 +7985,29 @@
       <c r="U67" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V67" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W67" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X67" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y67" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z67" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA67" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB67" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>148</v>
       </c>
@@ -6685,8 +8061,29 @@
       <c r="U68" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V68" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W68" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X68" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y68" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z68" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA68" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB68" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>602</v>
       </c>
@@ -6734,8 +8131,29 @@
       <c r="U69" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V69" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W69" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X69" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y69" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z69" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA69" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB69" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>422</v>
       </c>
@@ -6785,8 +8203,29 @@
       <c r="U70" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V70" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W70" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X70" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y70" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z70" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA70" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB70" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>43</v>
       </c>
@@ -6834,8 +8273,29 @@
       <c r="U71" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V71" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W71" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X71" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y71" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z71" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA71" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB71" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>170</v>
       </c>
@@ -6889,9 +8349,29 @@
       <c r="U72" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V72" s="38"/>
-    </row>
-    <row r="73" spans="1:22" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V72" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W72" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X72" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y72" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z72" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA72" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB72" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>650</v>
       </c>
@@ -6946,9 +8426,29 @@
       <c r="U73" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V73" s="21"/>
-    </row>
-    <row r="74" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V73" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W73" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X73" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y73" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z73" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA73" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB73" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>151</v>
       </c>
@@ -7003,8 +8503,29 @@
       <c r="U74" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V74" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W74" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X74" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y74" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z74" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA74" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB74" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>82</v>
       </c>
@@ -7048,8 +8569,29 @@
       <c r="U75" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V75" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W75" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X75" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y75" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z75" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA75" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB75" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>232</v>
       </c>
@@ -7103,8 +8645,29 @@
       <c r="U76" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V76" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W76" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X76" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y76" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z76" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA76" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB76" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>185</v>
       </c>
@@ -7158,8 +8721,29 @@
       <c r="U77" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V77" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W77" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X77" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y77" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z77" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA77" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB77" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>68</v>
       </c>
@@ -7213,8 +8797,29 @@
       <c r="U78" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V78" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W78" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X78" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y78" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z78" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA78" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB78" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>44</v>
       </c>
@@ -7262,8 +8867,29 @@
       <c r="U79" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V79" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W79" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X79" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y79" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z79" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA79" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB79" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>669</v>
       </c>
@@ -7316,8 +8942,29 @@
       <c r="U80" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W80" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X80" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y80" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z80" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA80" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB80" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>215</v>
       </c>
@@ -7371,8 +9018,29 @@
       <c r="U81" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V81" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W81" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X81" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y81" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z81" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA81" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB81" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>638</v>
       </c>
@@ -7429,8 +9097,29 @@
       <c r="U82" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V82" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W82" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X82" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y82" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z82" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA82" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB82" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>217</v>
       </c>
@@ -7483,8 +9172,29 @@
       <c r="U83" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V83" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W83" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X83" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y83" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z83" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA83" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB83" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>219</v>
       </c>
@@ -7538,8 +9248,29 @@
       <c r="U84" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V84" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W84" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X84" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y84" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z84" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA84" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB84" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>372</v>
       </c>
@@ -7585,8 +9316,29 @@
       <c r="U85" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V85" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W85" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X85" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y85" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z85" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA85" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB85" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>484</v>
       </c>
@@ -7640,8 +9392,29 @@
       <c r="U86" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V86" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W86" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X86" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y86" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z86" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA86" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB86" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>45</v>
       </c>
@@ -7689,8 +9462,29 @@
       <c r="U87" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V87" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W87" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X87" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y87" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z87" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA87" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB87" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>46</v>
       </c>
@@ -7738,8 +9532,29 @@
       <c r="U88" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V88" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W88" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X88" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y88" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z88" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA88" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB88" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>464</v>
       </c>
@@ -7793,8 +9608,29 @@
       <c r="U89" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V89" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W89" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X89" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y89" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z89" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA89" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB89" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>221</v>
       </c>
@@ -7848,8 +9684,29 @@
       <c r="U90" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V90" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W90" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X90" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y90" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z90" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA90" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB90" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>487</v>
       </c>
@@ -7904,8 +9761,29 @@
       <c r="U91" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V91" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W91" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X91" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y91" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z91" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA91" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB91" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27" t="s">
         <v>488</v>
       </c>
@@ -7960,8 +9838,29 @@
       <c r="U92" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V92" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W92" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X92" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y92" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z92" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA92" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB92" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
         <v>489</v>
       </c>
@@ -8016,8 +9915,29 @@
       <c r="U93" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V93" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W93" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X93" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y93" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z93" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA93" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB93" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>166</v>
       </c>
@@ -8065,8 +9985,29 @@
       <c r="U94" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V94" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W94" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X94" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y94" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z94" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA94" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB94" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>310</v>
       </c>
@@ -8120,8 +10061,29 @@
       <c r="U95" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V95" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W95" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X95" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y95" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z95" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA95" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB95" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>234</v>
       </c>
@@ -8175,8 +10137,29 @@
       <c r="U96" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V96" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W96" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X96" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y96" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z96" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA96" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB96" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>649</v>
       </c>
@@ -8233,9 +10216,29 @@
       <c r="U97" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V97" s="4"/>
-    </row>
-    <row r="98" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V97" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W97" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X97" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y97" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z97" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA97" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB97" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>12</v>
       </c>
@@ -8290,8 +10293,29 @@
       <c r="U98" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V98" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W98" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X98" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y98" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z98" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA98" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB98" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>384</v>
       </c>
@@ -8345,8 +10369,29 @@
       <c r="U99" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V99" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W99" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X99" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y99" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z99" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA99" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB99" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>69</v>
       </c>
@@ -8396,8 +10441,29 @@
       <c r="U100" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V100" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W100" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X100" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y100" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z100" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA100" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB100" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>14</v>
       </c>
@@ -8451,8 +10517,29 @@
       <c r="U101" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V101" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W101" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X101" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y101" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z101" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA101" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB101" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>14</v>
       </c>
@@ -8506,8 +10593,29 @@
       <c r="U102" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V102" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W102" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X102" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y102" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z102" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA102" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB102" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>16</v>
       </c>
@@ -8561,8 +10669,29 @@
       <c r="U103" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V103" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W103" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X103" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y103" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z103" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA103" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB103" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>160</v>
       </c>
@@ -8616,8 +10745,29 @@
       <c r="U104" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V104" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W104" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X104" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y104" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z104" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA104" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB104" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>434</v>
       </c>
@@ -8671,8 +10821,29 @@
       <c r="U105" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V105" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W105" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X105" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y105" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z105" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA105" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB105" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>429</v>
       </c>
@@ -8726,8 +10897,29 @@
       <c r="U106" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V106" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W106" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X106" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y106" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z106" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA106" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB106" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>522</v>
       </c>
@@ -8784,8 +10976,29 @@
       <c r="U107" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V107" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W107" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X107" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y107" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z107" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA107" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB107" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>261</v>
       </c>
@@ -8839,8 +11052,29 @@
       <c r="U108" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V108" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W108" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X108" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y108" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z108" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA108" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB108" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>626</v>
       </c>
@@ -8897,9 +11131,29 @@
       <c r="U109" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V109" s="48"/>
-    </row>
-    <row r="110" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V109" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W109" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X109" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y109" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z109" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA109" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB109" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>260</v>
       </c>
@@ -8953,8 +11207,29 @@
       <c r="U110" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V110" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W110" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X110" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y110" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z110" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA110" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB110" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
@@ -9002,8 +11277,29 @@
       <c r="U111" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V111" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W111" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X111" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y111" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z111" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA111" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB111" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>618</v>
       </c>
@@ -9057,8 +11353,29 @@
       <c r="U112" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V112" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W112" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X112" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y112" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z112" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA112" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB112" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>48</v>
       </c>
@@ -9106,8 +11423,29 @@
       <c r="U113" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V113" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W113" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X113" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y113" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z113" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA113" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB113" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>230</v>
       </c>
@@ -9161,8 +11499,29 @@
       <c r="U114" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V114" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W114" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X114" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y114" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z114" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA114" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB114" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>223</v>
       </c>
@@ -9216,8 +11575,29 @@
       <c r="U115" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V115" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W115" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X115" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y115" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z115" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA115" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB115" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>498</v>
       </c>
@@ -9265,8 +11645,29 @@
       <c r="U116" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V116" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W116" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X116" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y116" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z116" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA116" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB116" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>18</v>
       </c>
@@ -9322,8 +11723,29 @@
       <c r="U117" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V117" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W117" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X117" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y117" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z117" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA117" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB117" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>256</v>
       </c>
@@ -9373,8 +11795,29 @@
       <c r="U118" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V118" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W118" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X118" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y118" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z118" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA118" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB118" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>699</v>
       </c>
@@ -9428,8 +11871,29 @@
       <c r="U119" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V119" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W119" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X119" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y119" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z119" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA119" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB119" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>645</v>
       </c>
@@ -9483,8 +11947,29 @@
       <c r="U120" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V120" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W120" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X120" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y120" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z120" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA120" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB120" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>441</v>
       </c>
@@ -9534,8 +12019,29 @@
       <c r="U121" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V121" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W121" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X121" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y121" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z121" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA121" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB121" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>70</v>
       </c>
@@ -9589,8 +12095,29 @@
       <c r="U122" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V122" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W122" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X122" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y122" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z122" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA122" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB122" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>20</v>
       </c>
@@ -9644,8 +12171,29 @@
       <c r="U123" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V123" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W123" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X123" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y123" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z123" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA123" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB123" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>486</v>
       </c>
@@ -9695,8 +12243,29 @@
       <c r="U124" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V124" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W124" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X124" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y124" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z124" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA124" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB124" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>235</v>
       </c>
@@ -9746,8 +12315,29 @@
       <c r="U125" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V125" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W125" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X125" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y125" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z125" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA125" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB125" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>247</v>
       </c>
@@ -9797,8 +12387,29 @@
       <c r="U126" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V126" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W126" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X126" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y126" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z126" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA126" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB126" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>226</v>
       </c>
@@ -9852,8 +12463,29 @@
       <c r="U127" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V127" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W127" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X127" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y127" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z127" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA127" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB127" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>163</v>
       </c>
@@ -9907,8 +12539,29 @@
       <c r="U128" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V128" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W128" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X128" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y128" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z128" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA128" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB128" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>628</v>
       </c>
@@ -9965,8 +12618,29 @@
       <c r="U129" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V129" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W129" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X129" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y129" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z129" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA129" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB129" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>22</v>
       </c>
@@ -10020,8 +12694,29 @@
       <c r="U130" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V130" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W130" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X130" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y130" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z130" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA130" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB130" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>619</v>
       </c>
@@ -10078,8 +12773,29 @@
       <c r="U131" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V131" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W131" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X131" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y131" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z131" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA131" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB131" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>630</v>
       </c>
@@ -10136,8 +12852,29 @@
       <c r="U132" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V132" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W132" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X132" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y132" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z132" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA132" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB132" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>71</v>
       </c>
@@ -10191,9 +12928,29 @@
       <c r="U133" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V133" s="8"/>
-    </row>
-    <row r="134" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V133" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W133" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X133" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y133" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z133" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA133" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB133" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>631</v>
       </c>
@@ -10250,9 +13007,29 @@
       <c r="U134" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V134" s="8"/>
-    </row>
-    <row r="135" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V134" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W134" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X134" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y134" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z134" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA134" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB134" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>632</v>
       </c>
@@ -10309,8 +13086,29 @@
       <c r="U135" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V135" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W135" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X135" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y135" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z135" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA135" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB135" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>143</v>
       </c>
@@ -10364,8 +13162,29 @@
       <c r="U136" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V136" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W136" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X136" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y136" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z136" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA136" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB136" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>49</v>
       </c>
@@ -10413,8 +13232,29 @@
       <c r="U137" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V137" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W137" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X137" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y137" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z137" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA137" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB137" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>50</v>
       </c>
@@ -10463,8 +13303,29 @@
       <c r="U138" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V138" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W138" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X138" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y138" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z138" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA138" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB138" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>194</v>
       </c>
@@ -10518,8 +13379,29 @@
       <c r="U139" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V139" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W139" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X139" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y139" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z139" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA139" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB139" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>195</v>
       </c>
@@ -10573,8 +13455,29 @@
       <c r="U140" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V140" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W140" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X140" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y140" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z140" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA140" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB140" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>196</v>
       </c>
@@ -10628,8 +13531,29 @@
       <c r="U141" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V141" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W141" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X141" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y141" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z141" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA141" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB141" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27" t="s">
         <v>426</v>
       </c>
@@ -10679,8 +13603,29 @@
       <c r="U142" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V142" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W142" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X142" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y142" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z142" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA142" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB142" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>308</v>
       </c>
@@ -10735,8 +13680,29 @@
       <c r="U143" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V143" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W143" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X143" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y143" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z143" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA143" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB143" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>647</v>
       </c>
@@ -10790,8 +13756,29 @@
       <c r="U144" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V144" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W144" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X144" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y144" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z144" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA144" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB144" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>509</v>
       </c>
@@ -10845,8 +13832,29 @@
       <c r="U145" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V145" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W145" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X145" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y145" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z145" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA145" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB145" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>505</v>
       </c>
@@ -10894,8 +13902,29 @@
       <c r="U146" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V146" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W146" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X146" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y146" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z146" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA146" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB146" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>700</v>
       </c>
@@ -10949,8 +13978,29 @@
       <c r="U147" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V147" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W147" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X147" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y147" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z147" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA147" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB147" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>600</v>
       </c>
@@ -10998,8 +14048,29 @@
       <c r="U148" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V148" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W148" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X148" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y148" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z148" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA148" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB148" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>253</v>
       </c>
@@ -11054,8 +14125,29 @@
       <c r="U149" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V149" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W149" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X149" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y149" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z149" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA149" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB149" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
@@ -11109,8 +14201,29 @@
       <c r="U150" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V150" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W150" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X150" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y150" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z150" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA150" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB150" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>24</v>
       </c>
@@ -11164,8 +14277,29 @@
       <c r="U151" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V151" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W151" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X151" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y151" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z151" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA151" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB151" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>702</v>
       </c>
@@ -11215,8 +14349,29 @@
       <c r="U152" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V152" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W152" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X152" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y152" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z152" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA152" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB152" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>670</v>
       </c>
@@ -11268,8 +14423,29 @@
       <c r="U153" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V153" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W153" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X153" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y153" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z153" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA153" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB153" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>51</v>
       </c>
@@ -11317,8 +14493,29 @@
       <c r="U154" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V154" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W154" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X154" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y154" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z154" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA154" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB154" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>249</v>
       </c>
@@ -11368,8 +14565,29 @@
       <c r="U155" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V155" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W155" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X155" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y155" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z155" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA155" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB155" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>271</v>
       </c>
@@ -11423,8 +14641,29 @@
       <c r="U156" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V156" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W156" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X156" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y156" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z156" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA156" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB156" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>72</v>
       </c>
@@ -11478,8 +14717,29 @@
       <c r="U157" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V157" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W157" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X157" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y157" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z157" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA157" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB157" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>140</v>
       </c>
@@ -11534,9 +14794,29 @@
       <c r="U158" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V158" s="4"/>
-    </row>
-    <row r="159" spans="1:22" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V158" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W158" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X158" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y158" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z158" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA158" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB158" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>154</v>
       </c>
@@ -11591,9 +14871,29 @@
       <c r="U159" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V159" s="4"/>
-    </row>
-    <row r="160" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V159" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W159" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X159" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y159" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z159" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA159" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB159" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>73</v>
       </c>
@@ -11647,8 +14947,29 @@
       <c r="U160" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V160" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W160" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X160" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y160" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z160" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA160" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB160" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>165</v>
       </c>
@@ -11702,8 +15023,29 @@
       <c r="U161" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V161" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W161" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X161" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y161" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z161" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA161" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB161" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="45" t="s">
         <v>694</v>
       </c>
@@ -11750,8 +15092,29 @@
       <c r="U162" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V162" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W162" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X162" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y162" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z162" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA162" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB162" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>74</v>
       </c>
@@ -11801,8 +15164,29 @@
       <c r="U163" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V163" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W163" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X163" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y163" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z163" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA163" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB163" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>494</v>
       </c>
@@ -11856,8 +15240,29 @@
       <c r="U164" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V164" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W164" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X164" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y164" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z164" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA164" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB164" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>500</v>
       </c>
@@ -11905,8 +15310,29 @@
       <c r="U165" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V165" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W165" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X165" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y165" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z165" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA165" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB165" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>703</v>
       </c>
@@ -11954,8 +15380,29 @@
       <c r="U166" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V166" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W166" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X166" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y166" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z166" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA166" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB166" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>440</v>
       </c>
@@ -12005,8 +15452,29 @@
       <c r="U167" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V167" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W167" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X167" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y167" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z167" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA167" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB167" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>651</v>
       </c>
@@ -12056,8 +15524,29 @@
       <c r="U168" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V168" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W168" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X168" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y168" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z168" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA168" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB168" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>236</v>
       </c>
@@ -12107,8 +15596,29 @@
       <c r="U169" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V169" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W169" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X169" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y169" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z169" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA169" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB169" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>300</v>
       </c>
@@ -12158,8 +15668,29 @@
       <c r="U170" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V170" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W170" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X170" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y170" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z170" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA170" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB170" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>391</v>
       </c>
@@ -12213,8 +15744,29 @@
       <c r="U171" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V171" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W171" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X171" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y171" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z171" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA171" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB171" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>26</v>
       </c>
@@ -12271,9 +15823,29 @@
       <c r="U172" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V172" s="4"/>
-    </row>
-    <row r="173" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V172" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W172" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X172" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y172" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z172" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA172" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB172" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>661</v>
       </c>
@@ -12326,8 +15898,29 @@
       <c r="U173" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V173" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W173" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X173" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y173" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z173" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA173" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB173" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>266</v>
       </c>
@@ -12377,8 +15970,29 @@
       <c r="U174" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V174" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W174" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X174" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y174" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z174" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA174" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB174" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>503</v>
       </c>
@@ -12426,8 +16040,29 @@
       <c r="U175" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V175" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W175" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X175" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y175" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z175" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA175" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB175" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>515</v>
       </c>
@@ -12481,8 +16116,29 @@
       <c r="U176" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V176" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W176" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X176" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y176" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z176" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA176" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB176" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>142</v>
       </c>
@@ -12537,9 +16193,29 @@
       <c r="U177" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V177" s="4"/>
-    </row>
-    <row r="178" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V177" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W177" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X177" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y177" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z177" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA177" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB177" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>175</v>
       </c>
@@ -12592,8 +16268,29 @@
       <c r="U178" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V178" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W178" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X178" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y178" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z178" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA178" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB178" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>419</v>
       </c>
@@ -12644,8 +16341,29 @@
       <c r="U179" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V179" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W179" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X179" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y179" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z179" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA179" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB179" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>255</v>
       </c>
@@ -12699,8 +16417,29 @@
       <c r="U180" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V180" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W180" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X180" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y180" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z180" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA180" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB180" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>611</v>
       </c>
@@ -12757,8 +16496,29 @@
       <c r="U181" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V181" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W181" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X181" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y181" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z181" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA181" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB181" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>309</v>
       </c>
@@ -12802,8 +16562,29 @@
       <c r="U182" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V182" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W182" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X182" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y182" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z182" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA182" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB182" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>250</v>
       </c>
@@ -12853,8 +16634,29 @@
       <c r="U183" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V183" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W183" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X183" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y183" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z183" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA183" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB183" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>518</v>
       </c>
@@ -12904,8 +16706,29 @@
       <c r="U184" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V184" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W184" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X184" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y184" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z184" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA184" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB184" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
@@ -12959,8 +16782,29 @@
       <c r="U185" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V185" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W185" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X185" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y185" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z185" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA185" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB185" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="14" t="s">
         <v>240</v>
       </c>
@@ -13007,8 +16851,29 @@
       <c r="U186" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V186" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W186" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X186" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y186" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z186" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA186" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB186" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="14" t="s">
         <v>240</v>
       </c>
@@ -13062,8 +16927,29 @@
       <c r="U187" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V187" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W187" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X187" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y187" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z187" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA187" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB187" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="14" t="s">
         <v>240</v>
@@ -13122,8 +17008,29 @@
       <c r="U188" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V188" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W188" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X188" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y188" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z188" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA188" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB188" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="14" t="s">
         <v>240</v>
       </c>
@@ -13181,8 +17088,29 @@
       <c r="U189" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V189" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W189" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X189" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y189" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z189" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA189" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB189" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="14" t="s">
         <v>240</v>
       </c>
@@ -13237,8 +17165,29 @@
       <c r="U190" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V190" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W190" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X190" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y190" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z190" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA190" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB190" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="14" t="s">
         <v>240</v>
       </c>
@@ -13285,8 +17234,29 @@
       <c r="U191" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V191" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W191" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X191" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y191" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z191" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA191" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB191" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="14" t="s">
         <v>240</v>
@@ -13339,9 +17309,29 @@
       <c r="U192" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V192" s="4"/>
-    </row>
-    <row r="193" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V192" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W192" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X192" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y192" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z192" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA192" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB192" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="14" t="s">
         <v>240</v>
@@ -13394,9 +17384,29 @@
       <c r="U193" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V193" s="4"/>
-    </row>
-    <row r="194" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V193" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W193" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X193" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y193" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z193" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA193" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB193" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="14" t="s">
         <v>240</v>
       </c>
@@ -13443,8 +17453,29 @@
       <c r="U194" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V194" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W194" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X194" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y194" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z194" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA194" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB194" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="14" t="s">
         <v>240</v>
       </c>
@@ -13491,8 +17522,29 @@
       <c r="U195" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V195" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W195" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X195" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y195" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z195" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA195" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB195" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="14" t="s">
         <v>240</v>
       </c>
@@ -13539,8 +17591,29 @@
       <c r="U196" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V196" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W196" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X196" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y196" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z196" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA196" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB196" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="14" t="s">
         <v>240</v>
       </c>
@@ -13590,8 +17663,29 @@
       <c r="U197" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V197" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W197" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X197" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y197" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z197" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA197" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB197" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="14" t="s">
         <v>240</v>
       </c>
@@ -13641,8 +17735,29 @@
       <c r="U198" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V198" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W198" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X198" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y198" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z198" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA198" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB198" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="14" t="s">
         <v>240</v>
       </c>
@@ -13692,8 +17807,29 @@
       <c r="U199" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V199" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W199" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X199" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y199" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z199" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA199" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB199" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="14" t="s">
         <v>592</v>
       </c>
@@ -13743,9 +17879,29 @@
       <c r="U200" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V200" s="48"/>
-    </row>
-    <row r="201" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V200" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W200" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X200" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y200" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z200" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA200" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB200" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="13" t="s">
         <v>591</v>
@@ -13793,8 +17949,29 @@
       <c r="U201" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V201" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W201" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X201" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y201" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z201" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA201" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB201" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="14" t="s">
         <v>240</v>
@@ -13845,8 +18022,29 @@
       <c r="U202" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V202" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W202" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X202" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y202" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z202" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA202" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB202" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="14" t="s">
         <v>240</v>
       </c>
@@ -13893,8 +18091,29 @@
       <c r="U203" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V203" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W203" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X203" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y203" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z203" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA203" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB203" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="14" t="s">
         <v>240</v>
       </c>
@@ -13941,8 +18160,29 @@
       <c r="U204" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V204" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W204" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X204" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y204" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z204" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA204" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB204" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="14" t="s">
         <v>240</v>
       </c>
@@ -13992,8 +18232,29 @@
       <c r="U205" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V205" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W205" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X205" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y205" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z205" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA205" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB205" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="14" t="s">
         <v>240</v>
       </c>
@@ -14046,8 +18307,29 @@
       <c r="U206" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V206" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W206" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X206" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y206" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z206" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA206" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB206" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="14" t="s">
         <v>240</v>
       </c>
@@ -14103,8 +18385,29 @@
       <c r="U207" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V207" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W207" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X207" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y207" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z207" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA207" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB207" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="14" t="s">
         <v>240</v>
       </c>
@@ -14157,8 +18460,29 @@
       <c r="U208" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V208" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W208" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X208" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y208" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z208" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA208" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB208" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="14" t="s">
         <v>240</v>
       </c>
@@ -14214,8 +18538,29 @@
       <c r="U209" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V209" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W209" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X209" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y209" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z209" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA209" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB209" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="13" t="s">
         <v>591</v>
@@ -14263,8 +18608,29 @@
       <c r="U210" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V210" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W210" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X210" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y210" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z210" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA210" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB210" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="21"/>
       <c r="B211" s="14" t="s">
         <v>240</v>
@@ -14321,8 +18687,29 @@
       <c r="U211" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V211" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W211" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X211" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y211" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z211" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA211" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB211" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="14" t="s">
         <v>240</v>
       </c>
@@ -14380,8 +18767,29 @@
       <c r="U212" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V212" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W212" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X212" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y212" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z212" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA212" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB212" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="14" t="s">
         <v>240</v>
       </c>
@@ -14439,8 +18847,29 @@
       <c r="U213" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V213" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W213" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X213" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y213" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z213" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA213" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB213" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="14" t="s">
         <v>240</v>
       </c>
@@ -14487,8 +18916,29 @@
       <c r="U214" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V214" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W214" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X214" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y214" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z214" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA214" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB214" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="59"/>
       <c r="B215" s="14" t="s">
         <v>240</v>
@@ -14536,8 +18986,29 @@
       <c r="U215" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V215" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W215" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X215" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y215" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z215" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA215" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB215" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="13" t="s">
         <v>591</v>
@@ -14585,8 +19056,29 @@
       <c r="U216" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V216" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W216" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X216" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y216" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z216" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA216" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB216" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="14" t="s">
         <v>240</v>
       </c>
@@ -14636,8 +19128,29 @@
       <c r="U217" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V217" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W217" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X217" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y217" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z217" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA217" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB217" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="14" t="s">
         <v>240</v>
       </c>
@@ -14687,8 +19200,29 @@
       <c r="U218" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V218" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W218" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X218" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y218" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z218" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA218" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB218" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="14" t="s">
         <v>240</v>
       </c>
@@ -14744,8 +19278,29 @@
       <c r="U219" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V219" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W219" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X219" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y219" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z219" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA219" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB219" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="13" t="s">
         <v>320</v>
@@ -14796,9 +19351,29 @@
       <c r="U220" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V220" s="11"/>
-    </row>
-    <row r="221" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V220" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W220" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X220" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y220" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z220" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA220" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB220" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="14" t="s">
         <v>240</v>
@@ -14853,9 +19428,29 @@
       <c r="U221" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="V221" s="11"/>
-    </row>
-    <row r="222" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V221" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W221" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X221" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y221" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z221" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA221" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB221" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="14" t="s">
         <v>240</v>
@@ -14910,8 +19505,29 @@
       <c r="U222" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V222" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W222" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X222" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y222" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z222" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA222" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB222" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="14" t="s">
         <v>240</v>
@@ -14966,8 +19582,29 @@
       <c r="U223" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V223" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W223" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X223" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y223" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z223" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA223" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB223" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="14" t="s">
         <v>240</v>
@@ -15022,8 +19659,29 @@
       <c r="U224" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V224" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W224" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X224" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y224" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z224" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA224" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB224" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="23"/>
       <c r="B225" s="14" t="s">
         <v>240</v>
@@ -15078,8 +19736,29 @@
       <c r="U225" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V225" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W225" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X225" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y225" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z225" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA225" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB225" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="14" t="s">
         <v>240</v>
@@ -15134,8 +19813,29 @@
       <c r="U226" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V226" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W226" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X226" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y226" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z226" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA226" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB226" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="14" t="s">
         <v>240</v>
@@ -15190,8 +19890,29 @@
       <c r="U227" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V227" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W227" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X227" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y227" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z227" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA227" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB227" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="58"/>
       <c r="B228" s="14" t="s">
         <v>240</v>
@@ -15246,8 +19967,29 @@
       <c r="U228" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V228" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W228" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X228" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y228" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z228" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA228" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB228" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="62"/>
       <c r="B229" s="14" t="s">
         <v>240</v>
@@ -15304,8 +20046,29 @@
       <c r="U229" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V229" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W229" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X229" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y229" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z229" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA229" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB229" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="62"/>
       <c r="B230" s="14" t="s">
         <v>240</v>
@@ -15362,8 +20125,29 @@
       <c r="U230" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V230" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W230" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X230" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y230" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z230" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA230" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB230" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="58"/>
       <c r="C231" s="13" t="s">
         <v>366</v>
@@ -15408,8 +20192,29 @@
       <c r="U231" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V231" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W231" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X231" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y231" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z231" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA231" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB231" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="14" t="s">
         <v>410</v>
@@ -15451,8 +20256,29 @@
       <c r="U232" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V232" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W232" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X232" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y232" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z232" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA232" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB232" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="14" t="s">
         <v>239</v>
       </c>
@@ -15493,8 +20319,29 @@
       <c r="U233" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V233" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W233" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X233" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y233" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z233" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA233" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB233" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="14" t="s">
         <v>239</v>
       </c>
@@ -15535,8 +20382,29 @@
       <c r="U234" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V234" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W234" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X234" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y234" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z234" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA234" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB234" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="14" t="s">
         <v>239</v>
       </c>
@@ -15577,8 +20445,29 @@
       <c r="U235" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V235" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W235" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X235" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y235" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z235" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA235" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB235" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="14" t="s">
         <v>239</v>
       </c>
@@ -15619,8 +20508,29 @@
       <c r="U236" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V236" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W236" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X236" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y236" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z236" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA236" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB236" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="14" t="s">
         <v>433</v>
       </c>
@@ -15655,8 +20565,29 @@
       <c r="U237" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V237" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W237" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X237" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y237" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z237" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA237" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB237" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>433</v>
@@ -15699,8 +20630,29 @@
       <c r="U238" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V238" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W238" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X238" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y238" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z238" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA238" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB238" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -15731,8 +20683,29 @@
       <c r="U239" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V239" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="W239" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X239" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y239" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z239" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA239" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB239" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -15743,8 +20716,26 @@
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="W240" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X240" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y240" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z240" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA240" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB240" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -15755,8 +20746,26 @@
       <c r="H241" s="47"/>
       <c r="I241" s="47"/>
       <c r="J241" s="47"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="W241" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="X241" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y241" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z241" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA241" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB241" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -15768,12 +20777,12 @@
       <c r="I242" s="47"/>
       <c r="J242" s="47"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -15785,12 +20794,12 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -15802,7 +20811,7 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -15814,7 +20823,7 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -15826,12 +20835,12 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -15843,7 +20852,7 @@
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -15855,7 +20864,7 @@
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>

--- a/Reference/CAD_Label_to_SDS.xlsx
+++ b/Reference/CAD_Label_to_SDS.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Projects\5637-GIS JV - Aerial Mapping for NSA Naples\Development\Working\LMM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="165" yWindow="465" windowWidth="23805" windowHeight="11175" activeTab="1"/>
   </bookViews>
@@ -2199,8 +2194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2567,7 +2562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2599,10 +2594,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2634,7 +2628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2810,25 +2803,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -2836,7 +2829,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
         <v>204</v>
       </c>
@@ -2844,7 +2837,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
         <v>205</v>
       </c>
@@ -2852,7 +2845,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="19" t="s">
         <v>206</v>
       </c>
@@ -2860,7 +2853,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="19" t="s">
         <v>207</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
         <v>145</v>
       </c>
@@ -2876,12 +2869,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="B9" s="18" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>350</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>354</v>
       </c>
@@ -2897,7 +2890,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
         <v>157</v>
       </c>
@@ -2905,7 +2898,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>364</v>
       </c>
@@ -2913,7 +2906,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2921,7 +2914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>352</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>366</v>
       </c>
@@ -2946,19 +2939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -2979,7 +2972,7 @@
     <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>712</v>
       </c>
@@ -3041,7 +3034,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>474</v>
       </c>
@@ -3080,7 +3073,7 @@
         <v>473</v>
       </c>
       <c r="M2" s="27" t="str">
-        <f t="shared" ref="M2:M65" si="1">IF(ISBLANK(A2),L2, CONCATENATE(L2,"_",A2))</f>
+        <f t="shared" ref="M2" si="1">IF(ISBLANK(A2),L2, CONCATENATE(L2,"_",A2))</f>
         <v>control_point_HVP</v>
       </c>
       <c r="N2" s="27" t="str">
@@ -3121,7 +3114,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>210</v>
       </c>
@@ -3144,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f>IF(ISBLANK(I3),"No Value",IF(I3=0,"Solid",IF(I3=1,"Dotted",IF(I3=2,"Medium-Dashed",IF(I3=3,"LongDashed",IF(I3=4,"LongDashed Dot Dot",IF(I3=6,"Medium-Dashed Dot Dot",IF(I3=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H3:H66" si="2">IF(ISBLANK(I3),"No Value",IF(I3=0,"Solid",IF(I3=1,"Dotted",IF(I3=2,"Medium-Dashed",IF(I3=3,"LongDashed",IF(I3=4,"LongDashed Dot Dot",IF(I3=6,"Medium-Dashed Dot Dot",IF(I3=7,"Solid Medium-Dashed" ))))))))</f>
         <v>LongDashed</v>
       </c>
       <c r="I3" s="3">
@@ -3160,15 +3153,15 @@
         <v>34</v>
       </c>
       <c r="M3" s="27" t="str">
-        <f>IF(ISBLANK(A3),L3, CONCATENATE(L3,"_",A3))</f>
+        <f t="shared" ref="M3:M66" si="3">IF(ISBLANK(A3),L3, CONCATENATE(L3,"_",A3))</f>
         <v>slab_area_A</v>
       </c>
       <c r="N3" s="27" t="str">
-        <f t="shared" ref="N3:N7" si="2">U3&amp;" "&amp;O3&amp;" "&amp;U3</f>
+        <f t="shared" ref="N3:N7" si="4">U3&amp;" "&amp;O3&amp;" "&amp;U3</f>
         <v>""" "LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'A' """</v>
       </c>
       <c r="O3" s="27" t="str">
-        <f t="shared" ref="O3:O4" si="3">CONCATENATE(V3,X3,V3," = '",E3,"' AND ",V3,Y3,V3," = '",F3,"' AND '",V3,Z3,V3," = '",G3,"' AND '",V3,AA3,V3," = '",H3,"' AND '",V3,AB3,V3," = '",J3,"' AND ",V3,W3,V3," = '",A3,"'")</f>
+        <f t="shared" ref="O3:O4" si="5">CONCATENATE(V3,X3,V3," = '",E3,"' AND ",V3,Y3,V3," = '",F3,"' AND '",V3,Z3,V3," = '",G3,"' AND '",V3,AA3,V3," = '",H3,"' AND '",V3,AB3,V3," = '",J3,"' AND ",V3,W3,V3," = '",A3,"'")</f>
         <v>"LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'A'</v>
       </c>
       <c r="U3" s="8" t="s">
@@ -3196,7 +3189,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>453</v>
       </c>
@@ -3219,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f>IF(ISBLANK(I4),"No Value",IF(I4=0,"Solid",IF(I4=1,"Dotted",IF(I4=2,"Medium-Dashed",IF(I4=3,"LongDashed",IF(I4=4,"LongDashed Dot Dot",IF(I4=6,"Medium-Dashed Dot Dot",IF(I4=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I4" s="6">
@@ -3235,15 +3228,15 @@
         <v>93</v>
       </c>
       <c r="M4" s="27" t="str">
-        <f>IF(ISBLANK(A4),L4, CONCATENATE(L4,"_",A4))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_AAA</v>
       </c>
       <c r="N4" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>""" "LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'AAA' """</v>
       </c>
       <c r="O4" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"LEVEL_NAME" = 'VA_ROAD_EASP' AND "LEVEL" = '4' AND '"COLOR" = '3' AND '"LINETYPE" = 'LongDashed' AND '"LINEWT" = '0' AND "REFNAME" = 'AAA'</v>
       </c>
       <c r="P4" s="5"/>
@@ -3278,7 +3271,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>456</v>
       </c>
@@ -3301,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f>IF(ISBLANK(I5),"No Value",IF(I5=0,"Solid",IF(I5=1,"Dotted",IF(I5=2,"Medium-Dashed",IF(I5=3,"LongDashed",IF(I5=4,"LongDashed Dot Dot",IF(I5=6,"Medium-Dashed Dot Dot",IF(I5=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I5" s="6">
@@ -3317,11 +3310,11 @@
         <v>93</v>
       </c>
       <c r="M5" s="27" t="str">
-        <f>IF(ISBLANK(A5),L5, CONCATENATE(L5,"_",A5))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_AAC</v>
       </c>
       <c r="N5" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>""" "LEVEL_NAME" = 'VA_SITE_CONC' AND "LEVEL" = '14' AND '"COLOR" = '4' AND '"LINETYPE" = 'Solid' AND '"LINEWT" = '0' AND "REFNAME" = 'AAC' """</v>
       </c>
       <c r="O5" s="27" t="str">
@@ -3357,7 +3350,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>466</v>
       </c>
@@ -3375,7 +3368,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="9" t="str">
-        <f>IF(ISBLANK(I6),"No Value",IF(I6=0,"Solid",IF(I6=1,"Dotted",IF(I6=2,"Medium-Dashed",IF(I6=3,"LongDashed",IF(I6=4,"LongDashed Dot Dot",IF(I6=6,"Medium-Dashed Dot Dot",IF(I6=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>No Value</v>
       </c>
       <c r="I6" s="12"/>
@@ -3387,11 +3380,11 @@
         <v>468</v>
       </c>
       <c r="M6" s="27" t="str">
-        <f>IF(ISBLANK(A6),L6, CONCATENATE(L6,"_",A6))</f>
+        <f t="shared" si="3"/>
         <v>heat_cool_pump_point_AC</v>
       </c>
       <c r="N6" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>""" ''Level'' = '54' """</v>
       </c>
       <c r="O6" s="27" t="str">
@@ -3423,7 +3416,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>607</v>
       </c>
@@ -3446,7 +3439,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f>IF(ISBLANK(I7),"No Value",IF(I7=0,"Solid",IF(I7=1,"Dotted",IF(I7=2,"Medium-Dashed",IF(I7=3,"LongDashed",IF(I7=4,"LongDashed Dot Dot",IF(I7=6,"Medium-Dashed Dot Dot",IF(I7=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I7" s="6">
@@ -3462,15 +3455,15 @@
         <v>93</v>
       </c>
       <c r="M7" s="27" t="str">
-        <f>IF(ISBLANK(A7),L7, CONCATENATE(L7,"_",A7))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ACA</v>
       </c>
       <c r="N7" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>""" ''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ACA' """</v>
       </c>
       <c r="O7" s="27" t="str">
-        <f>IF(ISBLANK(A7),(CONCATENATE("''Level_Name'' = '",E7,"' AND ''Level'' = '",F7,"' AND ''Color'' = '",G7,"' AND ''Linetype'' = '",H7,"' AND ''LineWt''= '",J7,"'")),(CONCATENATE("''Level_Name'' = '",E7,"' AND ''Level'' = '",F7,"' AND ''Color'' = '",G7,"' AND ''Linetype'' = '",H7,"' AND ''LineWt''= '",J7,"' AND ''RefName'' = '",A7,"'")))</f>
+        <f t="shared" ref="O7:O13" si="6">IF(ISBLANK(A7),(CONCATENATE("''Level_Name'' = '",E7,"' AND ''Level'' = '",F7,"' AND ''Color'' = '",G7,"' AND ''Linetype'' = '",H7,"' AND ''LineWt''= '",J7,"'")),(CONCATENATE("''Level_Name'' = '",E7,"' AND ''Level'' = '",F7,"' AND ''Color'' = '",G7,"' AND ''Linetype'' = '",H7,"' AND ''LineWt''= '",J7,"' AND ''RefName'' = '",A7,"'")))</f>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ACA'</v>
       </c>
       <c r="P7" s="5"/>
@@ -3505,7 +3498,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>608</v>
       </c>
@@ -3528,7 +3521,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f>IF(ISBLANK(I8),"No Value",IF(I8=0,"Solid",IF(I8=1,"Dotted",IF(I8=2,"Medium-Dashed",IF(I8=3,"LongDashed",IF(I8=4,"LongDashed Dot Dot",IF(I8=6,"Medium-Dashed Dot Dot",IF(I8=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I8" s="6">
@@ -3544,12 +3537,12 @@
         <v>93</v>
       </c>
       <c r="M8" s="27" t="str">
-        <f>IF(ISBLANK(A8),L8, CONCATENATE(L8,"_",A8))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ACC</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="str">
-        <f>IF(ISBLANK(A8),(CONCATENATE("''Level_Name'' = '",E8,"' AND ''Level'' = '",F8,"' AND ''Color'' = '",G8,"' AND ''Linetype'' = '",H8,"' AND ''LineWt''= '",J8,"'")),(CONCATENATE("''Level_Name'' = '",E8,"' AND ''Level'' = '",F8,"' AND ''Color'' = '",G8,"' AND ''Linetype'' = '",H8,"' AND ''LineWt''= '",J8,"' AND ''RefName'' = '",A8,"'")))</f>
+        <f t="shared" si="6"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ACC'</v>
       </c>
       <c r="P8" s="5"/>
@@ -3584,7 +3577,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="12.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>349</v>
       </c>
@@ -3607,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f>IF(ISBLANK(I9),"No Value",IF(I9=0,"Solid",IF(I9=1,"Dotted",IF(I9=2,"Medium-Dashed",IF(I9=3,"LongDashed",IF(I9=4,"LongDashed Dot Dot",IF(I9=6,"Medium-Dashed Dot Dot",IF(I9=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I9" s="6">
@@ -3623,12 +3616,12 @@
         <v>93</v>
       </c>
       <c r="M9" s="27" t="str">
-        <f>IF(ISBLANK(A9),L9, CONCATENATE(L9,"_",A9))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_AEA</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="str">
-        <f>IF(ISBLANK(A9),(CONCATENATE("''Level_Name'' = '",E9,"' AND ''Level'' = '",F9,"' AND ''Color'' = '",G9,"' AND ''Linetype'' = '",H9,"' AND ''LineWt''= '",J9,"'")),(CONCATENATE("''Level_Name'' = '",E9,"' AND ''Level'' = '",F9,"' AND ''Color'' = '",G9,"' AND ''Linetype'' = '",H9,"' AND ''LineWt''= '",J9,"' AND ''RefName'' = '",A9,"'")))</f>
+        <f t="shared" si="6"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AEA'</v>
       </c>
       <c r="P9" s="5"/>
@@ -3660,7 +3653,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="63" t="s">
         <v>334</v>
       </c>
@@ -3683,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f>IF(ISBLANK(I10),"No Value",IF(I10=0,"Solid",IF(I10=1,"Dotted",IF(I10=2,"Medium-Dashed",IF(I10=3,"LongDashed",IF(I10=4,"LongDashed Dot Dot",IF(I10=6,"Medium-Dashed Dot Dot",IF(I10=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I10" s="29">
@@ -3699,12 +3692,12 @@
         <v>93</v>
       </c>
       <c r="M10" s="27" t="str">
-        <f>IF(ISBLANK(A10),L10, CONCATENATE(L10,"_",A10))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_AEC</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="str">
-        <f>IF(ISBLANK(A10),(CONCATENATE("''Level_Name'' = '",E10,"' AND ''Level'' = '",F10,"' AND ''Color'' = '",G10,"' AND ''Linetype'' = '",H10,"' AND ''LineWt''= '",J10,"'")),(CONCATENATE("''Level_Name'' = '",E10,"' AND ''Level'' = '",F10,"' AND ''Color'' = '",G10,"' AND ''Linetype'' = '",H10,"' AND ''LineWt''= '",J10,"' AND ''RefName'' = '",A10,"'")))</f>
+        <f t="shared" si="6"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AEC'</v>
       </c>
       <c r="P10" s="63"/>
@@ -3736,7 +3729,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="60" t="s">
         <v>228</v>
       </c>
@@ -3759,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f>IF(ISBLANK(I11),"No Value",IF(I11=0,"Solid",IF(I11=1,"Dotted",IF(I11=2,"Medium-Dashed",IF(I11=3,"LongDashed",IF(I11=4,"LongDashed Dot Dot",IF(I11=6,"Medium-Dashed Dot Dot",IF(I11=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I11" s="31">
@@ -3775,12 +3768,12 @@
         <v>267</v>
       </c>
       <c r="M11" s="27" t="str">
-        <f>IF(ISBLANK(A11),L11, CONCATENATE(L11,"_",A11))</f>
+        <f t="shared" si="3"/>
         <v>land_cover_area_AG</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="str">
-        <f>IF(ISBLANK(A11),(CONCATENATE("''Level_Name'' = '",E11,"' AND ''Level'' = '",F11,"' AND ''Color'' = '",G11,"' AND ''Linetype'' = '",H11,"' AND ''LineWt''= '",J11,"'")),(CONCATENATE("''Level_Name'' = '",E11,"' AND ''Level'' = '",F11,"' AND ''Color'' = '",G11,"' AND ''Linetype'' = '",H11,"' AND ''LineWt''= '",J11,"' AND ''RefName'' = '",A11,"'")))</f>
+        <f t="shared" si="6"/>
         <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' = '40' AND ''Color'' = '2' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AG'</v>
       </c>
       <c r="P11" s="24"/>
@@ -3813,7 +3806,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="34" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="52" t="s">
         <v>344</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f>IF(ISBLANK(I12),"No Value",IF(I12=0,"Solid",IF(I12=1,"Dotted",IF(I12=2,"Medium-Dashed",IF(I12=3,"LongDashed",IF(I12=4,"LongDashed Dot Dot",IF(I12=6,"Medium-Dashed Dot Dot",IF(I12=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I12" s="35">
@@ -3852,12 +3845,12 @@
         <v>93</v>
       </c>
       <c r="M12" s="27" t="str">
-        <f>IF(ISBLANK(A12),L12, CONCATENATE(L12,"_",A12))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_AHA</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="27" t="str">
-        <f>IF(ISBLANK(A12),(CONCATENATE("''Level_Name'' = '",E12,"' AND ''Level'' = '",F12,"' AND ''Color'' = '",G12,"' AND ''Linetype'' = '",H12,"' AND ''LineWt''= '",J12,"'")),(CONCATENATE("''Level_Name'' = '",E12,"' AND ''Level'' = '",F12,"' AND ''Color'' = '",G12,"' AND ''Linetype'' = '",H12,"' AND ''LineWt''= '",J12,"' AND ''RefName'' = '",A12,"'")))</f>
+        <f t="shared" si="6"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'AHA'</v>
       </c>
       <c r="P12" s="23"/>
@@ -3890,7 +3883,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="12.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>324</v>
       </c>
@@ -3913,7 +3906,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f>IF(ISBLANK(I13),"No Value",IF(I13=0,"Solid",IF(I13=1,"Dotted",IF(I13=2,"Medium-Dashed",IF(I13=3,"LongDashed",IF(I13=4,"LongDashed Dot Dot",IF(I13=6,"Medium-Dashed Dot Dot",IF(I13=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I13" s="35">
@@ -3929,12 +3922,12 @@
         <v>93</v>
       </c>
       <c r="M13" s="27" t="str">
-        <f>IF(ISBLANK(A13),L13, CONCATENATE(L13,"_",A13))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_AHC</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27" t="str">
-        <f>IF(ISBLANK(A13),(CONCATENATE("''Level_Name'' = '",E13,"' AND ''Level'' = '",F13,"' AND ''Color'' = '",G13,"' AND ''Linetype'' = '",H13,"' AND ''LineWt''= '",J13,"'")),(CONCATENATE("''Level_Name'' = '",E13,"' AND ''Level'' = '",F13,"' AND ''Color'' = '",G13,"' AND ''Linetype'' = '",H13,"' AND ''LineWt''= '",J13,"' AND ''RefName'' = '",A13,"'")))</f>
+        <f t="shared" si="6"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AHC'</v>
       </c>
       <c r="P13" s="5"/>
@@ -3966,7 +3959,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="12.75" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>513</v>
       </c>
@@ -3987,7 +3980,7 @@
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="9" t="str">
-        <f>IF(ISBLANK(I14),"No Value",IF(I14=0,"Solid",IF(I14=1,"Dotted",IF(I14=2,"Medium-Dashed",IF(I14=3,"LongDashed",IF(I14=4,"LongDashed Dot Dot",IF(I14=6,"Medium-Dashed Dot Dot",IF(I14=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>No Value</v>
       </c>
       <c r="I14" s="39"/>
@@ -3999,7 +3992,7 @@
         <v>97</v>
       </c>
       <c r="M14" s="27" t="str">
-        <f>IF(ISBLANK(A14),L14, CONCATENATE(L14,"_",A14))</f>
+        <f t="shared" si="3"/>
         <v>airfield_light_point_ALT</v>
       </c>
       <c r="N14" s="27"/>
@@ -4037,7 +4030,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="12.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>251</v>
       </c>
@@ -4060,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f>IF(ISBLANK(I15),"No Value",IF(I15=0,"Solid",IF(I15=1,"Dotted",IF(I15=2,"Medium-Dashed",IF(I15=3,"LongDashed",IF(I15=4,"LongDashed Dot Dot",IF(I15=6,"Medium-Dashed Dot Dot",IF(I15=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I15" s="6">
@@ -4076,12 +4069,12 @@
         <v>208</v>
       </c>
       <c r="M15" s="27" t="str">
-        <f>IF(ISBLANK(A15),L15, CONCATENATE(L15,"_",A15))</f>
+        <f t="shared" si="3"/>
         <v>comm_antenna_area_ANTENNA</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27" t="str">
-        <f>IF(ISBLANK(A15),(CONCATENATE("''Level_Name'' = '",E15,"' AND ''Level'' = '",F15,"' AND ''Color'' = '",G15,"' AND ''Linetype'' = '",H15,"' AND ''LineWt''= '",J15,"'")),(CONCATENATE("''Level_Name'' = '",E15,"' AND ''Level'' = '",F15,"' AND ''Color'' = '",G15,"' AND ''Linetype'' = '",H15,"' AND ''LineWt''= '",J15,"' AND ''RefName'' = '",A15,"'")))</f>
+        <f t="shared" ref="O15:O44" si="7">IF(ISBLANK(A15),(CONCATENATE("''Level_Name'' = '",E15,"' AND ''Level'' = '",F15,"' AND ''Color'' = '",G15,"' AND ''Linetype'' = '",H15,"' AND ''LineWt''= '",J15,"'")),(CONCATENATE("''Level_Name'' = '",E15,"' AND ''Level'' = '",F15,"' AND ''Color'' = '",G15,"' AND ''Linetype'' = '",H15,"' AND ''LineWt''= '",J15,"' AND ''RefName'' = '",A15,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ANTENNA'</v>
       </c>
       <c r="P15" s="8"/>
@@ -4113,7 +4106,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="12.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>345</v>
       </c>
@@ -4136,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f>IF(ISBLANK(I16),"No Value",IF(I16=0,"Solid",IF(I16=1,"Dotted",IF(I16=2,"Medium-Dashed",IF(I16=3,"LongDashed",IF(I16=4,"LongDashed Dot Dot",IF(I16=6,"Medium-Dashed Dot Dot",IF(I16=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I16" s="6">
@@ -4152,12 +4145,12 @@
         <v>93</v>
       </c>
       <c r="M16" s="27" t="str">
-        <f>IF(ISBLANK(A16),L16, CONCATENATE(L16,"_",A16))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_APA</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27" t="str">
-        <f>IF(ISBLANK(A16),(CONCATENATE("''Level_Name'' = '",E16,"' AND ''Level'' = '",F16,"' AND ''Color'' = '",G16,"' AND ''Linetype'' = '",H16,"' AND ''LineWt''= '",J16,"'")),(CONCATENATE("''Level_Name'' = '",E16,"' AND ''Level'' = '",F16,"' AND ''Color'' = '",G16,"' AND ''Linetype'' = '",H16,"' AND ''LineWt''= '",J16,"' AND ''RefName'' = '",A16,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'APA'</v>
       </c>
       <c r="P16" s="5"/>
@@ -4192,7 +4185,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="12.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>325</v>
       </c>
@@ -4215,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f>IF(ISBLANK(I17),"No Value",IF(I17=0,"Solid",IF(I17=1,"Dotted",IF(I17=2,"Medium-Dashed",IF(I17=3,"LongDashed",IF(I17=4,"LongDashed Dot Dot",IF(I17=6,"Medium-Dashed Dot Dot",IF(I17=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I17" s="6">
@@ -4231,12 +4224,12 @@
         <v>93</v>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IF(ISBLANK(A17),L17, CONCATENATE(L17,"_",A17))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_APC</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="27" t="str">
-        <f>IF(ISBLANK(A17),(CONCATENATE("''Level_Name'' = '",E17,"' AND ''Level'' = '",F17,"' AND ''Color'' = '",G17,"' AND ''Linetype'' = '",H17,"' AND ''LineWt''= '",J17,"'")),(CONCATENATE("''Level_Name'' = '",E17,"' AND ''Level'' = '",F17,"' AND ''Color'' = '",G17,"' AND ''Linetype'' = '",H17,"' AND ''LineWt''= '",J17,"' AND ''RefName'' = '",A17,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'APC'</v>
       </c>
       <c r="P17" s="5"/>
@@ -4271,7 +4264,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="12.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>347</v>
       </c>
@@ -4294,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f>IF(ISBLANK(I18),"No Value",IF(I18=0,"Solid",IF(I18=1,"Dotted",IF(I18=2,"Medium-Dashed",IF(I18=3,"LongDashed",IF(I18=4,"LongDashed Dot Dot",IF(I18=6,"Medium-Dashed Dot Dot",IF(I18=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I18" s="6">
@@ -4310,12 +4303,12 @@
         <v>93</v>
       </c>
       <c r="M18" s="27" t="str">
-        <f>IF(ISBLANK(A18),L18, CONCATENATE(L18,"_",A18))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ARA</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="str">
-        <f>IF(ISBLANK(A18),(CONCATENATE("''Level_Name'' = '",E18,"' AND ''Level'' = '",F18,"' AND ''Color'' = '",G18,"' AND ''Linetype'' = '",H18,"' AND ''LineWt''= '",J18,"'")),(CONCATENATE("''Level_Name'' = '",E18,"' AND ''Level'' = '",F18,"' AND ''Color'' = '",G18,"' AND ''Linetype'' = '",H18,"' AND ''LineWt''= '",J18,"' AND ''RefName'' = '",A18,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ARA'</v>
       </c>
       <c r="P18" s="5"/>
@@ -4347,7 +4340,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="12.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>331</v>
       </c>
@@ -4370,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f>IF(ISBLANK(I19),"No Value",IF(I19=0,"Solid",IF(I19=1,"Dotted",IF(I19=2,"Medium-Dashed",IF(I19=3,"LongDashed",IF(I19=4,"LongDashed Dot Dot",IF(I19=6,"Medium-Dashed Dot Dot",IF(I19=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I19" s="6">
@@ -4386,12 +4379,12 @@
         <v>93</v>
       </c>
       <c r="M19" s="27" t="str">
-        <f>IF(ISBLANK(A19),L19, CONCATENATE(L19,"_",A19))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ARC</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="str">
-        <f>IF(ISBLANK(A19),(CONCATENATE("''Level_Name'' = '",E19,"' AND ''Level'' = '",F19,"' AND ''Color'' = '",G19,"' AND ''Linetype'' = '",H19,"' AND ''LineWt''= '",J19,"'")),(CONCATENATE("''Level_Name'' = '",E19,"' AND ''Level'' = '",F19,"' AND ''Color'' = '",G19,"' AND ''Linetype'' = '",H19,"' AND ''LineWt''= '",J19,"' AND ''RefName'' = '",A19,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ARC'</v>
       </c>
       <c r="P19" s="5"/>
@@ -4423,7 +4416,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>342</v>
       </c>
@@ -4446,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f>IF(ISBLANK(I20),"No Value",IF(I20=0,"Solid",IF(I20=1,"Dotted",IF(I20=2,"Medium-Dashed",IF(I20=3,"LongDashed",IF(I20=4,"LongDashed Dot Dot",IF(I20=6,"Medium-Dashed Dot Dot",IF(I20=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I20" s="3">
@@ -4462,12 +4455,12 @@
         <v>93</v>
       </c>
       <c r="M20" s="27" t="str">
-        <f>IF(ISBLANK(A20),L20, CONCATENATE(L20,"_",A20))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ARD</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="str">
-        <f>IF(ISBLANK(A20),(CONCATENATE("''Level_Name'' = '",E20,"' AND ''Level'' = '",F20,"' AND ''Color'' = '",G20,"' AND ''Linetype'' = '",H20,"' AND ''LineWt''= '",J20,"'")),(CONCATENATE("''Level_Name'' = '",E20,"' AND ''Level'' = '",F20,"' AND ''Color'' = '",G20,"' AND ''Linetype'' = '",H20,"' AND ''LineWt''= '",J20,"' AND ''RefName'' = '",A20,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'ARD'</v>
       </c>
       <c r="P20" s="2"/>
@@ -4499,7 +4492,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="12.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>348</v>
       </c>
@@ -4522,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f>IF(ISBLANK(I21),"No Value",IF(I21=0,"Solid",IF(I21=1,"Dotted",IF(I21=2,"Medium-Dashed",IF(I21=3,"LongDashed",IF(I21=4,"LongDashed Dot Dot",IF(I21=6,"Medium-Dashed Dot Dot",IF(I21=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I21" s="6">
@@ -4538,12 +4531,12 @@
         <v>93</v>
       </c>
       <c r="M21" s="27" t="str">
-        <f>IF(ISBLANK(A21),L21, CONCATENATE(L21,"_",A21))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ASA</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="str">
-        <f>IF(ISBLANK(A21),(CONCATENATE("''Level_Name'' = '",E21,"' AND ''Level'' = '",F21,"' AND ''Color'' = '",G21,"' AND ''Linetype'' = '",H21,"' AND ''LineWt''= '",J21,"'")),(CONCATENATE("''Level_Name'' = '",E21,"' AND ''Level'' = '",F21,"' AND ''Color'' = '",G21,"' AND ''Linetype'' = '",H21,"' AND ''LineWt''= '",J21,"' AND ''RefName'' = '",A21,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ASA'</v>
       </c>
       <c r="P21" s="5"/>
@@ -4575,7 +4568,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="41" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="61" t="s">
         <v>333</v>
       </c>
@@ -4598,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f>IF(ISBLANK(I22),"No Value",IF(I22=0,"Solid",IF(I22=1,"Dotted",IF(I22=2,"Medium-Dashed",IF(I22=3,"LongDashed",IF(I22=4,"LongDashed Dot Dot",IF(I22=6,"Medium-Dashed Dot Dot",IF(I22=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I22" s="56">
@@ -4614,12 +4607,12 @@
         <v>93</v>
       </c>
       <c r="M22" s="27" t="str">
-        <f>IF(ISBLANK(A22),L22, CONCATENATE(L22,"_",A22))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ASC</v>
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27" t="str">
-        <f>IF(ISBLANK(A22),(CONCATENATE("''Level_Name'' = '",E22,"' AND ''Level'' = '",F22,"' AND ''Color'' = '",G22,"' AND ''Linetype'' = '",H22,"' AND ''LineWt''= '",J22,"'")),(CONCATENATE("''Level_Name'' = '",E22,"' AND ''Level'' = '",F22,"' AND ''Color'' = '",G22,"' AND ''Linetype'' = '",H22,"' AND ''LineWt''= '",J22,"' AND ''RefName'' = '",A22,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ASC'</v>
       </c>
       <c r="P22" s="61"/>
@@ -4652,7 +4645,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="12.75" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>525</v>
       </c>
@@ -4675,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f>IF(ISBLANK(I23),"No Value",IF(I23=0,"Solid",IF(I23=1,"Dotted",IF(I23=2,"Medium-Dashed",IF(I23=3,"LongDashed",IF(I23=4,"LongDashed Dot Dot",IF(I23=6,"Medium-Dashed Dot Dot",IF(I23=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I23" s="39">
@@ -4691,12 +4684,12 @@
         <v>527</v>
       </c>
       <c r="M23" s="27" t="str">
-        <f>IF(ISBLANK(A23),L23, CONCATENATE(L23,"_",A23))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_point_AT</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="27" t="str">
-        <f>IF(ISBLANK(A23),(CONCATENATE("''Level_Name'' = '",E23,"' AND ''Level'' = '",F23,"' AND ''Color'' = '",G23,"' AND ''Linetype'' = '",H23,"' AND ''LineWt''= '",J23,"'")),(CONCATENATE("''Level_Name'' = '",E23,"' AND ''Level'' = '",F23,"' AND ''Color'' = '",G23,"' AND ''Linetype'' = '",H23,"' AND ''LineWt''= '",J23,"' AND ''RefName'' = '",A23,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'AT'</v>
       </c>
       <c r="P23" s="36"/>
@@ -4731,7 +4724,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="12.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>346</v>
       </c>
@@ -4754,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f>IF(ISBLANK(I24),"No Value",IF(I24=0,"Solid",IF(I24=1,"Dotted",IF(I24=2,"Medium-Dashed",IF(I24=3,"LongDashed",IF(I24=4,"LongDashed Dot Dot",IF(I24=6,"Medium-Dashed Dot Dot",IF(I24=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I24" s="6">
@@ -4770,12 +4763,12 @@
         <v>93</v>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IF(ISBLANK(A24),L24, CONCATENATE(L24,"_",A24))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ATA</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="27" t="str">
-        <f>IF(ISBLANK(A24),(CONCATENATE("''Level_Name'' = '",E24,"' AND ''Level'' = '",F24,"' AND ''Color'' = '",G24,"' AND ''Linetype'' = '",H24,"' AND ''LineWt''= '",J24,"'")),(CONCATENATE("''Level_Name'' = '",E24,"' AND ''Level'' = '",F24,"' AND ''Color'' = '",G24,"' AND ''Linetype'' = '",H24,"' AND ''LineWt''= '",J24,"' AND ''RefName'' = '",A24,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'ATA'</v>
       </c>
       <c r="P24" s="5"/>
@@ -4807,7 +4800,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="12.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>326</v>
       </c>
@@ -4830,7 +4823,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f>IF(ISBLANK(I25),"No Value",IF(I25=0,"Solid",IF(I25=1,"Dotted",IF(I25=2,"Medium-Dashed",IF(I25=3,"LongDashed",IF(I25=4,"LongDashed Dot Dot",IF(I25=6,"Medium-Dashed Dot Dot",IF(I25=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I25" s="6">
@@ -4846,12 +4839,12 @@
         <v>93</v>
       </c>
       <c r="M25" s="27" t="str">
-        <f>IF(ISBLANK(A25),L25, CONCATENATE(L25,"_",A25))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ATC</v>
       </c>
       <c r="N25" s="27"/>
       <c r="O25" s="27" t="str">
-        <f>IF(ISBLANK(A25),(CONCATENATE("''Level_Name'' = '",E25,"' AND ''Level'' = '",F25,"' AND ''Color'' = '",G25,"' AND ''Linetype'' = '",H25,"' AND ''LineWt''= '",J25,"'")),(CONCATENATE("''Level_Name'' = '",E25,"' AND ''Level'' = '",F25,"' AND ''Color'' = '",G25,"' AND ''Linetype'' = '",H25,"' AND ''LineWt''= '",J25,"' AND ''RefName'' = '",A25,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ATC'</v>
       </c>
       <c r="P25" s="5"/>
@@ -4883,7 +4876,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="12.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>495</v>
       </c>
@@ -4906,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f>IF(ISBLANK(I26),"No Value",IF(I26=0,"Solid",IF(I26=1,"Dotted",IF(I26=2,"Medium-Dashed",IF(I26=3,"LongDashed",IF(I26=4,"LongDashed Dot Dot",IF(I26=6,"Medium-Dashed Dot Dot",IF(I26=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I26" s="3">
@@ -4922,12 +4915,12 @@
         <v>93</v>
       </c>
       <c r="M26" s="27" t="str">
-        <f>IF(ISBLANK(A26),L26, CONCATENATE(L26,"_",A26))</f>
+        <f t="shared" si="3"/>
         <v>airfield_surface_area_ATD</v>
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="27" t="str">
-        <f>IF(ISBLANK(A26),(CONCATENATE("''Level_Name'' = '",E26,"' AND ''Level'' = '",F26,"' AND ''Color'' = '",G26,"' AND ''Linetype'' = '",H26,"' AND ''LineWt''= '",J26,"'")),(CONCATENATE("''Level_Name'' = '",E26,"' AND ''Level'' = '",F26,"' AND ''Color'' = '",G26,"' AND ''Linetype'' = '",H26,"' AND ''LineWt''= '",J26,"' AND ''RefName'' = '",A26,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'ATD'</v>
       </c>
       <c r="P26" s="2"/>
@@ -4959,7 +4952,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="12.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>701</v>
       </c>
@@ -4982,7 +4975,7 @@
         <v>7</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f>IF(ISBLANK(I27),"No Value",IF(I27=0,"Solid",IF(I27=1,"Dotted",IF(I27=2,"Medium-Dashed",IF(I27=3,"LongDashed",IF(I27=4,"LongDashed Dot Dot",IF(I27=6,"Medium-Dashed Dot Dot",IF(I27=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I27" s="6">
@@ -4998,12 +4991,12 @@
         <v>35</v>
       </c>
       <c r="M27" s="27" t="str">
-        <f>IF(ISBLANK(A27),L27, CONCATENATE(L27,"_",A27))</f>
+        <f t="shared" si="3"/>
         <v>athletic_court_area_ATH COURT</v>
       </c>
       <c r="N27" s="27"/>
       <c r="O27" s="27" t="str">
-        <f>IF(ISBLANK(A27),(CONCATENATE("''Level_Name'' = '",E27,"' AND ''Level'' = '",F27,"' AND ''Color'' = '",G27,"' AND ''Linetype'' = '",H27,"' AND ''LineWt''= '",J27,"'")),(CONCATENATE("''Level_Name'' = '",E27,"' AND ''Level'' = '",F27,"' AND ''Color'' = '",G27,"' AND ''Linetype'' = '",H27,"' AND ''LineWt''= '",J27,"' AND ''RefName'' = '",A27,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'ATH COURT'</v>
       </c>
       <c r="P27" s="5"/>
@@ -5035,7 +5028,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="12.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -5058,7 +5051,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f>IF(ISBLANK(I28),"No Value",IF(I28=0,"Solid",IF(I28=1,"Dotted",IF(I28=2,"Medium-Dashed",IF(I28=3,"LongDashed",IF(I28=4,"LongDashed Dot Dot",IF(I28=6,"Medium-Dashed Dot Dot",IF(I28=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I28" s="6">
@@ -5074,12 +5067,12 @@
         <v>110</v>
       </c>
       <c r="M28" s="27" t="str">
-        <f>IF(ISBLANK(A28),L28, CONCATENATE(L28,"_",A28))</f>
+        <f t="shared" si="3"/>
         <v>structure_existing_area_B</v>
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="27" t="str">
-        <f>IF(ISBLANK(A28),(CONCATENATE("''Level_Name'' = '",E28,"' AND ''Level'' = '",F28,"' AND ''Color'' = '",G28,"' AND ''Linetype'' = '",H28,"' AND ''LineWt''= '",J28,"'")),(CONCATENATE("''Level_Name'' = '",E28,"' AND ''Level'' = '",F28,"' AND ''Color'' = '",G28,"' AND ''Linetype'' = '",H28,"' AND ''LineWt''= '",J28,"' AND ''RefName'' = '",A28,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'B'</v>
       </c>
       <c r="P28" s="5"/>
@@ -5111,7 +5104,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="12.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -5134,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f>IF(ISBLANK(I29),"No Value",IF(I29=0,"Solid",IF(I29=1,"Dotted",IF(I29=2,"Medium-Dashed",IF(I29=3,"LongDashed",IF(I29=4,"LongDashed Dot Dot",IF(I29=6,"Medium-Dashed Dot Dot",IF(I29=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I29" s="6">
@@ -5150,12 +5143,12 @@
         <v>35</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f>IF(ISBLANK(A29),L29, CONCATENATE(L29,"_",A29))</f>
+        <f t="shared" si="3"/>
         <v>athletic_court_area_BBCT</v>
       </c>
       <c r="N29" s="27"/>
       <c r="O29" s="27" t="str">
-        <f>IF(ISBLANK(A29),(CONCATENATE("''Level_Name'' = '",E29,"' AND ''Level'' = '",F29,"' AND ''Color'' = '",G29,"' AND ''Linetype'' = '",H29,"' AND ''LineWt''= '",J29,"'")),(CONCATENATE("''Level_Name'' = '",E29,"' AND ''Level'' = '",F29,"' AND ''Color'' = '",G29,"' AND ''Linetype'' = '",H29,"' AND ''LineWt''= '",J29,"' AND ''RefName'' = '",A29,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BBCT'</v>
       </c>
       <c r="P29" s="5"/>
@@ -5187,7 +5180,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="12.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>242</v>
       </c>
@@ -5210,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f>IF(ISBLANK(I30),"No Value",IF(I30=0,"Solid",IF(I30=1,"Dotted",IF(I30=2,"Medium-Dashed",IF(I30=3,"LongDashed",IF(I30=4,"LongDashed Dot Dot",IF(I30=6,"Medium-Dashed Dot Dot",IF(I30=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I30" s="6">
@@ -5226,12 +5219,12 @@
         <v>36</v>
       </c>
       <c r="M30" s="27" t="str">
-        <f>IF(ISBLANK(A30),L30, CONCATENATE(L30,"_",A30))</f>
+        <f t="shared" si="3"/>
         <v>athletic_field_area_BBFLD</v>
       </c>
       <c r="N30" s="27"/>
       <c r="O30" s="27" t="str">
-        <f>IF(ISBLANK(A30),(CONCATENATE("''Level_Name'' = '",E30,"' AND ''Level'' = '",F30,"' AND ''Color'' = '",G30,"' AND ''Linetype'' = '",H30,"' AND ''LineWt''= '",J30,"'")),(CONCATENATE("''Level_Name'' = '",E30,"' AND ''Level'' = '",F30,"' AND ''Color'' = '",G30,"' AND ''Linetype'' = '",H30,"' AND ''LineWt''= '",J30,"' AND ''RefName'' = '",A30,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BBFLD'</v>
       </c>
       <c r="P30" s="5"/>
@@ -5263,7 +5256,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>635</v>
       </c>
@@ -5286,7 +5279,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f>IF(ISBLANK(I31),"No Value",IF(I31=0,"Solid",IF(I31=1,"Dotted",IF(I31=2,"Medium-Dashed",IF(I31=3,"LongDashed",IF(I31=4,"LongDashed Dot Dot",IF(I31=6,"Medium-Dashed Dot Dot",IF(I31=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I31" s="6">
@@ -5302,12 +5295,12 @@
         <v>383</v>
       </c>
       <c r="M31" s="27" t="str">
-        <f>IF(ISBLANK(A31),L31, CONCATENATE(L31,"_",A31))</f>
+        <f t="shared" si="3"/>
         <v>recreation_park_area_BEACH</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27" t="str">
-        <f>IF(ISBLANK(A31),(CONCATENATE("''Level_Name'' = '",E31,"' AND ''Level'' = '",F31,"' AND ''Color'' = '",G31,"' AND ''Linetype'' = '",H31,"' AND ''LineWt''= '",J31,"'")),(CONCATENATE("''Level_Name'' = '",E31,"' AND ''Level'' = '",F31,"' AND ''Color'' = '",G31,"' AND ''Linetype'' = '",H31,"' AND ''LineWt''= '",J31,"' AND ''RefName'' = '",A31,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BEACH'</v>
       </c>
       <c r="P31" s="5"/>
@@ -5342,7 +5335,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="12.75" customHeight="1">
       <c r="A32" s="59" t="s">
         <v>270</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f>IF(ISBLANK(I32),"No Value",IF(I32=0,"Solid",IF(I32=1,"Dotted",IF(I32=2,"Medium-Dashed",IF(I32=3,"LongDashed",IF(I32=4,"LongDashed Dot Dot",IF(I32=6,"Medium-Dashed Dot Dot",IF(I32=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I32" s="9">
@@ -5381,12 +5374,12 @@
         <v>184</v>
       </c>
       <c r="M32" s="27" t="str">
-        <f>IF(ISBLANK(A32),L32, CONCATENATE(L32,"_",A32))</f>
+        <f t="shared" si="3"/>
         <v>flora_species_area_BH</v>
       </c>
       <c r="N32" s="27"/>
       <c r="O32" s="27" t="str">
-        <f>IF(ISBLANK(A32),(CONCATENATE("''Level_Name'' = '",E32,"' AND ''Level'' = '",F32,"' AND ''Color'' = '",G32,"' AND ''Linetype'' = '",H32,"' AND ''LineWt''= '",J32,"'")),(CONCATENATE("''Level_Name'' = '",E32,"' AND ''Level'' = '",F32,"' AND ''Color'' = '",G32,"' AND ''Linetype'' = '",H32,"' AND ''LineWt''= '",J32,"' AND ''RefName'' = '",A32,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_BRUS' AND ''Level'' = '40' AND ''Color'' = '2' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'BH'</v>
       </c>
       <c r="P32" s="8"/>
@@ -5418,7 +5411,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="12.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>212</v>
       </c>
@@ -5441,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f>IF(ISBLANK(I33),"No Value",IF(I33=0,"Solid",IF(I33=1,"Dotted",IF(I33=2,"Medium-Dashed",IF(I33=3,"LongDashed",IF(I33=4,"LongDashed Dot Dot",IF(I33=6,"Medium-Dashed Dot Dot",IF(I33=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I33" s="6">
@@ -5457,12 +5450,12 @@
         <v>362</v>
       </c>
       <c r="M33" s="27" t="str">
-        <f>IF(ISBLANK(A33),L33, CONCATENATE(L33,"_",A33))</f>
+        <f t="shared" si="3"/>
         <v>ammunition_storage_area_BKW</v>
       </c>
       <c r="N33" s="27"/>
       <c r="O33" s="27" t="str">
-        <f>IF(ISBLANK(A33),(CONCATENATE("''Level_Name'' = '",E33,"' AND ''Level'' = '",F33,"' AND ''Color'' = '",G33,"' AND ''Linetype'' = '",H33,"' AND ''LineWt''= '",J33,"'")),(CONCATENATE("''Level_Name'' = '",E33,"' AND ''Level'' = '",F33,"' AND ''Color'' = '",G33,"' AND ''Linetype'' = '",H33,"' AND ''LineWt''= '",J33,"' AND ''RefName'' = '",A33,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'BKW'</v>
       </c>
       <c r="U33" s="8" t="s">
@@ -5490,7 +5483,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="12.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>145</v>
       </c>
@@ -5513,7 +5506,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f>IF(ISBLANK(I34),"No Value",IF(I34=0,"Solid",IF(I34=1,"Dotted",IF(I34=2,"Medium-Dashed",IF(I34=3,"LongDashed",IF(I34=4,"LongDashed Dot Dot",IF(I34=6,"Medium-Dashed Dot Dot",IF(I34=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I34" s="6">
@@ -5529,12 +5522,12 @@
         <v>113</v>
       </c>
       <c r="M34" s="27" t="str">
-        <f>IF(ISBLANK(A34),L34, CONCATENATE(L34,"_",A34))</f>
+        <f t="shared" si="3"/>
         <v>bleachers_area_BL</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27" t="str">
-        <f>IF(ISBLANK(A34),(CONCATENATE("''Level_Name'' = '",E34,"' AND ''Level'' = '",F34,"' AND ''Color'' = '",G34,"' AND ''Linetype'' = '",H34,"' AND ''LineWt''= '",J34,"'")),(CONCATENATE("''Level_Name'' = '",E34,"' AND ''Level'' = '",F34,"' AND ''Color'' = '",G34,"' AND ''Linetype'' = '",H34,"' AND ''LineWt''= '",J34,"' AND ''RefName'' = '",A34,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BL'</v>
       </c>
       <c r="P34" s="5"/>
@@ -5566,7 +5559,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="12.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>696</v>
       </c>
@@ -5589,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f>IF(ISBLANK(I35),"No Value",IF(I35=0,"Solid",IF(I35=1,"Dotted",IF(I35=2,"Medium-Dashed",IF(I35=3,"LongDashed",IF(I35=4,"LongDashed Dot Dot",IF(I35=6,"Medium-Dashed Dot Dot",IF(I35=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I35" s="6">
@@ -5605,12 +5598,12 @@
         <v>617</v>
       </c>
       <c r="M35" s="27" t="str">
-        <f>IF(ISBLANK(A35),L35, CONCATENATE(L35,"_",A35))</f>
+        <f t="shared" si="3"/>
         <v>boat_ramp_area_BOAT RAMP</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27" t="str">
-        <f>IF(ISBLANK(A35),(CONCATENATE("''Level_Name'' = '",E35,"' AND ''Level'' = '",F35,"' AND ''Color'' = '",G35,"' AND ''Linetype'' = '",H35,"' AND ''LineWt''= '",J35,"'")),(CONCATENATE("''Level_Name'' = '",E35,"' AND ''Level'' = '",F35,"' AND ''Color'' = '",G35,"' AND ''Linetype'' = '",H35,"' AND ''LineWt''= '",J35,"' AND ''RefName'' = '",A35,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BOAT RAMP'</v>
       </c>
       <c r="P35" s="8"/>
@@ -5645,7 +5638,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="12.75" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>697</v>
       </c>
@@ -5668,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f>IF(ISBLANK(I36),"No Value",IF(I36=0,"Solid",IF(I36=1,"Dotted",IF(I36=2,"Medium-Dashed",IF(I36=3,"LongDashed",IF(I36=4,"LongDashed Dot Dot",IF(I36=6,"Medium-Dashed Dot Dot",IF(I36=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I36" s="6">
@@ -5684,12 +5677,12 @@
         <v>191</v>
       </c>
       <c r="M36" s="27" t="str">
-        <f>IF(ISBLANK(A36),L36, CONCATENATE(L36,"_",A36))</f>
+        <f t="shared" si="3"/>
         <v>borrow_area_BORROW AREA</v>
       </c>
       <c r="N36" s="27"/>
       <c r="O36" s="27" t="str">
-        <f>IF(ISBLANK(A36),(CONCATENATE("''Level_Name'' = '",E36,"' AND ''Level'' = '",F36,"' AND ''Color'' = '",G36,"' AND ''Linetype'' = '",H36,"' AND ''LineWt''= '",J36,"'")),(CONCATENATE("''Level_Name'' = '",E36,"' AND ''Level'' = '",F36,"' AND ''Color'' = '",G36,"' AND ''Linetype'' = '",H36,"' AND ''LineWt''= '",J36,"' AND ''RefName'' = '",A36,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BORROW AREA'</v>
       </c>
       <c r="P36" s="5"/>
@@ -5721,7 +5714,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="12.75" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>698</v>
       </c>
@@ -5744,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f>IF(ISBLANK(I37),"No Value",IF(I37=0,"Solid",IF(I37=1,"Dotted",IF(I37=2,"Medium-Dashed",IF(I37=3,"LongDashed",IF(I37=4,"LongDashed Dot Dot",IF(I37=6,"Medium-Dashed Dot Dot",IF(I37=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I37" s="6">
@@ -5760,12 +5753,12 @@
         <v>193</v>
       </c>
       <c r="M37" s="27" t="str">
-        <f>IF(ISBLANK(A37),L37, CONCATENATE(L37,"_",A37))</f>
+        <f t="shared" si="3"/>
         <v>borrow_pit_area_BORROW PIT</v>
       </c>
       <c r="N37" s="27"/>
       <c r="O37" s="27" t="str">
-        <f>IF(ISBLANK(A37),(CONCATENATE("''Level_Name'' = '",E37,"' AND ''Level'' = '",F37,"' AND ''Color'' = '",G37,"' AND ''Linetype'' = '",H37,"' AND ''LineWt''= '",J37,"'")),(CONCATENATE("''Level_Name'' = '",E37,"' AND ''Level'' = '",F37,"' AND ''Color'' = '",G37,"' AND ''Linetype'' = '",H37,"' AND ''LineWt''= '",J37,"' AND ''RefName'' = '",A37,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BORROW PIT'</v>
       </c>
       <c r="P37" s="5"/>
@@ -5797,7 +5790,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="12.75" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>2</v>
       </c>
@@ -5820,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f>IF(ISBLANK(I38),"No Value",IF(I38=0,"Solid",IF(I38=1,"Dotted",IF(I38=2,"Medium-Dashed",IF(I38=3,"LongDashed",IF(I38=4,"LongDashed Dot Dot",IF(I38=6,"Medium-Dashed Dot Dot",IF(I38=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I38" s="6">
@@ -5836,12 +5829,12 @@
         <v>29</v>
       </c>
       <c r="M38" s="27" t="str">
-        <f>IF(ISBLANK(A38),L38, CONCATENATE(L38,"_",A38))</f>
+        <f t="shared" si="3"/>
         <v>road_bridge_area_BR</v>
       </c>
       <c r="N38" s="27"/>
       <c r="O38" s="27" t="str">
-        <f>IF(ISBLANK(A38),(CONCATENATE("''Level_Name'' = '",E38,"' AND ''Level'' = '",F38,"' AND ''Color'' = '",G38,"' AND ''Linetype'' = '",H38,"' AND ''LineWt''= '",J38,"'")),(CONCATENATE("''Level_Name'' = '",E38,"' AND ''Level'' = '",F38,"' AND ''Color'' = '",G38,"' AND ''Linetype'' = '",H38,"' AND ''LineWt''= '",J38,"' AND ''RefName'' = '",A38,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_ROAD_BRID' AND ''Level'' = '11' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'BR'</v>
       </c>
       <c r="P38" s="5"/>
@@ -5873,7 +5866,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="12.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -5896,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f>IF(ISBLANK(I39),"No Value",IF(I39=0,"Solid",IF(I39=1,"Dotted",IF(I39=2,"Medium-Dashed",IF(I39=3,"LongDashed",IF(I39=4,"LongDashed Dot Dot",IF(I39=6,"Medium-Dashed Dot Dot",IF(I39=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I39" s="6">
@@ -5912,12 +5905,12 @@
         <v>362</v>
       </c>
       <c r="M39" s="27" t="str">
-        <f>IF(ISBLANK(A39),L39, CONCATENATE(L39,"_",A39))</f>
+        <f t="shared" si="3"/>
         <v>ammunition_storage_area_BUNKER</v>
       </c>
       <c r="N39" s="27"/>
       <c r="O39" s="27" t="str">
-        <f>IF(ISBLANK(A39),(CONCATENATE("''Level_Name'' = '",E39,"' AND ''Level'' = '",F39,"' AND ''Color'' = '",G39,"' AND ''Linetype'' = '",H39,"' AND ''LineWt''= '",J39,"'")),(CONCATENATE("''Level_Name'' = '",E39,"' AND ''Level'' = '",F39,"' AND ''Color'' = '",G39,"' AND ''Linetype'' = '",H39,"' AND ''LineWt''= '",J39,"' AND ''RefName'' = '",A39,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'BUNKER'</v>
       </c>
       <c r="U39" s="8" t="s">
@@ -5945,7 +5938,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="12.75" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -5968,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="9" t="str">
-        <f>IF(ISBLANK(I40),"No Value",IF(I40=0,"Solid",IF(I40=1,"Dotted",IF(I40=2,"Medium-Dashed",IF(I40=3,"LongDashed",IF(I40=4,"LongDashed Dot Dot",IF(I40=6,"Medium-Dashed Dot Dot",IF(I40=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I40" s="6">
@@ -5984,12 +5977,12 @@
         <v>37</v>
       </c>
       <c r="M40" s="27" t="str">
-        <f>IF(ISBLANK(A40),L40, CONCATENATE(L40,"_",A40))</f>
+        <f t="shared" si="3"/>
         <v>miscellaneous_feature_area_BW</v>
       </c>
       <c r="N40" s="27"/>
       <c r="O40" s="27" t="str">
-        <f>IF(ISBLANK(A40),(CONCATENATE("''Level_Name'' = '",E40,"' AND ''Level'' = '",F40,"' AND ''Color'' = '",G40,"' AND ''Linetype'' = '",H40,"' AND ''LineWt''= '",J40,"'")),(CONCATENATE("''Level_Name'' = '",E40,"' AND ''Level'' = '",F40,"' AND ''Color'' = '",G40,"' AND ''Linetype'' = '",H40,"' AND ''LineWt''= '",J40,"' AND ''RefName'' = '",A40,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'BW'</v>
       </c>
       <c r="U40" s="8" t="s">
@@ -6017,7 +6010,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="12.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -6040,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="9" t="str">
-        <f>IF(ISBLANK(I41),"No Value",IF(I41=0,"Solid",IF(I41=1,"Dotted",IF(I41=2,"Medium-Dashed",IF(I41=3,"LongDashed",IF(I41=4,"LongDashed Dot Dot",IF(I41=6,"Medium-Dashed Dot Dot",IF(I41=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I41" s="6">
@@ -6056,12 +6049,12 @@
         <v>34</v>
       </c>
       <c r="M41" s="27" t="str">
-        <f>IF(ISBLANK(A41),L41, CONCATENATE(L41,"_",A41))</f>
+        <f t="shared" si="3"/>
         <v>slab_area_C</v>
       </c>
       <c r="N41" s="27"/>
       <c r="O41" s="27" t="str">
-        <f>IF(ISBLANK(A41),(CONCATENATE("''Level_Name'' = '",E41,"' AND ''Level'' = '",F41,"' AND ''Color'' = '",G41,"' AND ''Linetype'' = '",H41,"' AND ''LineWt''= '",J41,"'")),(CONCATENATE("''Level_Name'' = '",E41,"' AND ''Level'' = '",F41,"' AND ''Color'' = '",G41,"' AND ''Linetype'' = '",H41,"' AND ''LineWt''= '",J41,"' AND ''RefName'' = '",A41,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_CONC' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'C'</v>
       </c>
       <c r="P41" s="5"/>
@@ -6093,7 +6086,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>245</v>
       </c>
@@ -6116,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="9" t="str">
-        <f>IF(ISBLANK(I42),"No Value",IF(I42=0,"Solid",IF(I42=1,"Dotted",IF(I42=2,"Medium-Dashed",IF(I42=3,"LongDashed",IF(I42=4,"LongDashed Dot Dot",IF(I42=6,"Medium-Dashed Dot Dot",IF(I42=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I42" s="6">
@@ -6132,12 +6125,12 @@
         <v>138</v>
       </c>
       <c r="M42" s="27" t="str">
-        <f>IF(ISBLANK(A42),L42, CONCATENATE(L42,"_",A42))</f>
+        <f t="shared" si="3"/>
         <v>canopy_pavilion_area_CAN</v>
       </c>
       <c r="N42" s="27"/>
       <c r="O42" s="27" t="str">
-        <f>IF(ISBLANK(A42),(CONCATENATE("''Level_Name'' = '",E42,"' AND ''Level'' = '",F42,"' AND ''Color'' = '",G42,"' AND ''Linetype'' = '",H42,"' AND ''LineWt''= '",J42,"'")),(CONCATENATE("''Level_Name'' = '",E42,"' AND ''Level'' = '",F42,"' AND ''Color'' = '",G42,"' AND ''Linetype'' = '",H42,"' AND ''LineWt''= '",J42,"' AND ''RefName'' = '",A42,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CAN'</v>
       </c>
       <c r="P42" s="5"/>
@@ -6172,7 +6165,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>475</v>
       </c>
@@ -6195,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="9" t="str">
-        <f>IF(ISBLANK(I43),"No Value",IF(I43=0,"Solid",IF(I43=1,"Dotted",IF(I43=2,"Medium-Dashed",IF(I43=3,"LongDashed",IF(I43=4,"LongDashed Dot Dot",IF(I43=6,"Medium-Dashed Dot Dot",IF(I43=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I43" s="6">
@@ -6211,12 +6204,12 @@
         <v>477</v>
       </c>
       <c r="M43" s="27" t="str">
-        <f>IF(ISBLANK(A43),L43, CONCATENATE(L43,"_",A43))</f>
+        <f t="shared" si="3"/>
         <v>canal_area_CANAL</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" s="27" t="str">
-        <f>IF(ISBLANK(A43),(CONCATENATE("''Level_Name'' = '",E43,"' AND ''Level'' = '",F43,"' AND ''Color'' = '",G43,"' AND ''Linetype'' = '",H43,"' AND ''LineWt''= '",J43,"'")),(CONCATENATE("''Level_Name'' = '",E43,"' AND ''Level'' = '",F43,"' AND ''Color'' = '",G43,"' AND ''Linetype'' = '",H43,"' AND ''LineWt''= '",J43,"' AND ''RefName'' = '",A43,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CANAL'</v>
       </c>
       <c r="P43" s="8"/>
@@ -6248,7 +6241,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>673</v>
       </c>
@@ -6271,7 +6264,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="9" t="str">
-        <f>IF(ISBLANK(I44),"No Value",IF(I44=0,"Solid",IF(I44=1,"Dotted",IF(I44=2,"Medium-Dashed",IF(I44=3,"LongDashed",IF(I44=4,"LongDashed Dot Dot",IF(I44=6,"Medium-Dashed Dot Dot",IF(I44=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I44" s="6">
@@ -6287,12 +6280,12 @@
         <v>675</v>
       </c>
       <c r="M44" s="27" t="str">
-        <f>IF(ISBLANK(A44),L44, CONCATENATE(L44,"_",A44))</f>
+        <f t="shared" si="3"/>
         <v>carport_area_CARPORT</v>
       </c>
       <c r="N44" s="27"/>
       <c r="O44" s="27" t="str">
-        <f>IF(ISBLANK(A44),(CONCATENATE("''Level_Name'' = '",E44,"' AND ''Level'' = '",F44,"' AND ''Color'' = '",G44,"' AND ''Linetype'' = '",H44,"' AND ''LineWt''= '",J44,"'")),(CONCATENATE("''Level_Name'' = '",E44,"' AND ''Level'' = '",F44,"' AND ''Color'' = '",G44,"' AND ''Linetype'' = '",H44,"' AND ''LineWt''= '",J44,"' AND ''RefName'' = '",A44,"'")))</f>
+        <f t="shared" si="7"/>
         <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CARPORT'</v>
       </c>
       <c r="P44" s="5"/>
@@ -6327,7 +6320,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>167</v>
       </c>
@@ -6348,7 +6341,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="9" t="str">
-        <f>IF(ISBLANK(I45),"No Value",IF(I45=0,"Solid",IF(I45=1,"Dotted",IF(I45=2,"Medium-Dashed",IF(I45=3,"LongDashed",IF(I45=4,"LongDashed Dot Dot",IF(I45=6,"Medium-Dashed Dot Dot",IF(I45=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>No Value</v>
       </c>
       <c r="I45" s="7"/>
@@ -6360,7 +6353,7 @@
         <v>59</v>
       </c>
       <c r="M45" s="27" t="str">
-        <f>IF(ISBLANK(A45),L45, CONCATENATE(L45,"_",A45))</f>
+        <f t="shared" si="3"/>
         <v>storm_sewer_inlet_point_CBX</v>
       </c>
       <c r="N45" s="27"/>
@@ -6397,7 +6390,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>376</v>
       </c>
@@ -6420,7 +6413,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="9" t="str">
-        <f>IF(ISBLANK(I46),"No Value",IF(I46=0,"Solid",IF(I46=1,"Dotted",IF(I46=2,"Medium-Dashed",IF(I46=3,"LongDashed",IF(I46=4,"LongDashed Dot Dot",IF(I46=6,"Medium-Dashed Dot Dot",IF(I46=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I46" s="6">
@@ -6436,12 +6429,12 @@
         <v>375</v>
       </c>
       <c r="M46" s="27" t="str">
-        <f>IF(ISBLANK(A46),L46, CONCATENATE(L46,"_",A46))</f>
+        <f t="shared" si="3"/>
         <v>campground_area_CG</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="27" t="str">
-        <f>IF(ISBLANK(A46),(CONCATENATE("''Level_Name'' = '",E46,"' AND ''Level'' = '",F46,"' AND ''Color'' = '",G46,"' AND ''Linetype'' = '",H46,"' AND ''LineWt''= '",J46,"'")),(CONCATENATE("''Level_Name'' = '",E46,"' AND ''Level'' = '",F46,"' AND ''Color'' = '",G46,"' AND ''Linetype'' = '",H46,"' AND ''LineWt''= '",J46,"' AND ''RefName'' = '",A46,"'")))</f>
+        <f t="shared" ref="O46:O51" si="8">IF(ISBLANK(A46),(CONCATENATE("''Level_Name'' = '",E46,"' AND ''Level'' = '",F46,"' AND ''Color'' = '",G46,"' AND ''Linetype'' = '",H46,"' AND ''LineWt''= '",J46,"'")),(CONCATENATE("''Level_Name'' = '",E46,"' AND ''Level'' = '",F46,"' AND ''Color'' = '",G46,"' AND ''Linetype'' = '",H46,"' AND ''LineWt''= '",J46,"' AND ''RefName'' = '",A46,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CG'</v>
       </c>
       <c r="P46" s="5"/>
@@ -6473,7 +6466,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>478</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="9" t="str">
-        <f>IF(ISBLANK(I47),"No Value",IF(I47=0,"Solid",IF(I47=1,"Dotted",IF(I47=2,"Medium-Dashed",IF(I47=3,"LongDashed",IF(I47=4,"LongDashed Dot Dot",IF(I47=6,"Medium-Dashed Dot Dot",IF(I47=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I47" s="6">
@@ -6512,12 +6505,12 @@
         <v>480</v>
       </c>
       <c r="M47" s="27" t="str">
-        <f>IF(ISBLANK(A47),L47, CONCATENATE(L47,"_",A47))</f>
+        <f t="shared" si="3"/>
         <v>conveyor_area_CONVEYOR</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="27" t="str">
-        <f>IF(ISBLANK(A47),(CONCATENATE("''Level_Name'' = '",E47,"' AND ''Level'' = '",F47,"' AND ''Color'' = '",G47,"' AND ''Linetype'' = '",H47,"' AND ''LineWt''= '",J47,"'")),(CONCATENATE("''Level_Name'' = '",E47,"' AND ''Level'' = '",F47,"' AND ''Color'' = '",G47,"' AND ''Linetype'' = '",H47,"' AND ''LineWt''= '",J47,"' AND ''RefName'' = '",A47,"'")))</f>
+        <f t="shared" si="8"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CONVEYOR'</v>
       </c>
       <c r="U47" s="8" t="s">
@@ -6545,7 +6538,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>595</v>
       </c>
@@ -6568,7 +6561,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="9" t="str">
-        <f>IF(ISBLANK(I48),"No Value",IF(I48=0,"Solid",IF(I48=1,"Dotted",IF(I48=2,"Medium-Dashed",IF(I48=3,"LongDashed",IF(I48=4,"LongDashed Dot Dot",IF(I48=6,"Medium-Dashed Dot Dot",IF(I48=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I48" s="6">
@@ -6584,12 +6577,12 @@
         <v>596</v>
       </c>
       <c r="M48" s="27" t="str">
-        <f>IF(ISBLANK(A48),L48, CONCATENATE(L48,"_",A48))</f>
+        <f t="shared" si="3"/>
         <v>crane_area_CRANE</v>
       </c>
       <c r="N48" s="27"/>
       <c r="O48" s="27" t="str">
-        <f>IF(ISBLANK(A48),(CONCATENATE("''Level_Name'' = '",E48,"' AND ''Level'' = '",F48,"' AND ''Color'' = '",G48,"' AND ''Linetype'' = '",H48,"' AND ''LineWt''= '",J48,"'")),(CONCATENATE("''Level_Name'' = '",E48,"' AND ''Level'' = '",F48,"' AND ''Color'' = '",G48,"' AND ''Linetype'' = '",H48,"' AND ''LineWt''= '",J48,"' AND ''RefName'' = '",A48,"'")))</f>
+        <f t="shared" si="8"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CRANE'</v>
       </c>
       <c r="U48" s="8" t="s">
@@ -6617,7 +6610,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>704</v>
       </c>
@@ -6640,7 +6633,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="9" t="str">
-        <f>IF(ISBLANK(I49),"No Value",IF(I49=0,"Solid",IF(I49=1,"Dotted",IF(I49=2,"Medium-Dashed",IF(I49=3,"LongDashed",IF(I49=4,"LongDashed Dot Dot",IF(I49=6,"Medium-Dashed Dot Dot",IF(I49=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I49" s="6">
@@ -6656,12 +6649,12 @@
         <v>32</v>
       </c>
       <c r="M49" s="27" t="str">
-        <f>IF(ISBLANK(A49),L49, CONCATENATE(L49,"_",A49))</f>
+        <f t="shared" si="3"/>
         <v>pedestrian_sidewalk_area_CRT PTH</v>
       </c>
       <c r="N49" s="27"/>
       <c r="O49" s="27" t="str">
-        <f>IF(ISBLANK(A49),(CONCATENATE("''Level_Name'' = '",E49,"' AND ''Level'' = '",F49,"' AND ''Color'' = '",G49,"' AND ''Linetype'' = '",H49,"' AND ''LineWt''= '",J49,"'")),(CONCATENATE("''Level_Name'' = '",E49,"' AND ''Level'' = '",F49,"' AND ''Color'' = '",G49,"' AND ''Linetype'' = '",H49,"' AND ''LineWt''= '",J49,"' AND ''RefName'' = '",A49,"'")))</f>
+        <f t="shared" si="8"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CRT PTH'</v>
       </c>
       <c r="P49" s="5"/>
@@ -6693,7 +6686,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>695</v>
       </c>
@@ -6716,7 +6709,7 @@
         <v>6</v>
       </c>
       <c r="H50" s="9" t="str">
-        <f>IF(ISBLANK(I50),"No Value",IF(I50=0,"Solid",IF(I50=1,"Dotted",IF(I50=2,"Medium-Dashed",IF(I50=3,"LongDashed",IF(I50=4,"LongDashed Dot Dot",IF(I50=6,"Medium-Dashed Dot Dot",IF(I50=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I50" s="6">
@@ -6732,12 +6725,12 @@
         <v>32</v>
       </c>
       <c r="M50" s="27" t="str">
-        <f>IF(ISBLANK(A50),L50, CONCATENATE(L50,"_",A50))</f>
+        <f t="shared" si="3"/>
         <v>pedestrian_sidewalk_area_CRT PTH DT</v>
       </c>
       <c r="N50" s="27"/>
       <c r="O50" s="27" t="str">
-        <f>IF(ISBLANK(A50),(CONCATENATE("''Level_Name'' = '",E50,"' AND ''Level'' = '",F50,"' AND ''Color'' = '",G50,"' AND ''Linetype'' = '",H50,"' AND ''LineWt''= '",J50,"'")),(CONCATENATE("''Level_Name'' = '",E50,"' AND ''Level'' = '",F50,"' AND ''Color'' = '",G50,"' AND ''Linetype'' = '",H50,"' AND ''LineWt''= '",J50,"' AND ''RefName'' = '",A50,"'")))</f>
+        <f t="shared" si="8"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'CRT PTH DT'</v>
       </c>
       <c r="P50" s="5"/>
@@ -6769,7 +6762,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>447</v>
       </c>
@@ -6792,7 +6785,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="9" t="str">
-        <f>IF(ISBLANK(I51),"No Value",IF(I51=0,"Solid",IF(I51=1,"Dotted",IF(I51=2,"Medium-Dashed",IF(I51=3,"LongDashed",IF(I51=4,"LongDashed Dot Dot",IF(I51=6,"Medium-Dashed Dot Dot",IF(I51=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I51" s="12">
@@ -6808,12 +6801,12 @@
         <v>446</v>
       </c>
       <c r="M51" s="27" t="str">
-        <f>IF(ISBLANK(A51),L51, CONCATENATE(L51,"_",A51))</f>
+        <f t="shared" si="3"/>
         <v>storm_culvert_area_CS</v>
       </c>
       <c r="N51" s="27"/>
       <c r="O51" s="27" t="str">
-        <f>IF(ISBLANK(A51),(CONCATENATE("''Level_Name'' = '",E51,"' AND ''Level'' = '",F51,"' AND ''Color'' = '",G51,"' AND ''Linetype'' = '",H51,"' AND ''LineWt''= '",J51,"'")),(CONCATENATE("''Level_Name'' = '",E51,"' AND ''Level'' = '",F51,"' AND ''Color'' = '",G51,"' AND ''Linetype'' = '",H51,"' AND ''LineWt''= '",J51,"' AND ''RefName'' = '",A51,"'")))</f>
+        <f t="shared" si="8"/>
         <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' = '14' AND ''Color'' = '4' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'CS'</v>
       </c>
       <c r="U51" s="8" t="s">
@@ -6841,7 +6834,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>604</v>
       </c>
@@ -6862,7 +6855,7 @@
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="9" t="str">
-        <f>IF(ISBLANK(I52),"No Value",IF(I52=0,"Solid",IF(I52=1,"Dotted",IF(I52=2,"Medium-Dashed",IF(I52=3,"LongDashed",IF(I52=4,"LongDashed Dot Dot",IF(I52=6,"Medium-Dashed Dot Dot",IF(I52=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>No Value</v>
       </c>
       <c r="I52" s="12"/>
@@ -6874,7 +6867,7 @@
         <v>605</v>
       </c>
       <c r="M52" s="27" t="str">
-        <f>IF(ISBLANK(A52),L52, CONCATENATE(L52,"_",A52))</f>
+        <f t="shared" si="3"/>
         <v>storm_culvert_point_CULVT</v>
       </c>
       <c r="N52" s="27"/>
@@ -6907,7 +6900,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
@@ -6930,7 +6923,7 @@
         <v>6</v>
       </c>
       <c r="H53" s="9" t="str">
-        <f>IF(ISBLANK(I53),"No Value",IF(I53=0,"Solid",IF(I53=1,"Dotted",IF(I53=2,"Medium-Dashed",IF(I53=3,"LongDashed",IF(I53=4,"LongDashed Dot Dot",IF(I53=6,"Medium-Dashed Dot Dot",IF(I53=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I53" s="6">
@@ -6946,7 +6939,7 @@
         <v>30</v>
       </c>
       <c r="M53" s="27" t="str">
-        <f>IF(ISBLANK(A53),L53, CONCATENATE(L53,"_",A53))</f>
+        <f t="shared" si="3"/>
         <v>vehicle_driveway_area_DA</v>
       </c>
       <c r="N53" s="27"/>
@@ -6983,7 +6976,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>377</v>
       </c>
@@ -7004,7 +6997,7 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="9" t="str">
-        <f>IF(ISBLANK(I54),"No Value",IF(I54=0,"Solid",IF(I54=1,"Dotted",IF(I54=2,"Medium-Dashed",IF(I54=3,"LongDashed",IF(I54=4,"LongDashed Dot Dot",IF(I54=6,"Medium-Dashed Dot Dot",IF(I54=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>No Value</v>
       </c>
       <c r="I54" s="6"/>
@@ -7016,7 +7009,7 @@
         <v>379</v>
       </c>
       <c r="M54" s="27" t="str">
-        <f>IF(ISBLANK(A54),L54, CONCATENATE(L54,"_",A54))</f>
+        <f t="shared" si="3"/>
         <v>dam_area_DAM</v>
       </c>
       <c r="N54" s="27"/>
@@ -7053,7 +7046,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -7076,7 +7069,7 @@
         <v>6</v>
       </c>
       <c r="H55" s="9" t="str">
-        <f>IF(ISBLANK(I55),"No Value",IF(I55=0,"Solid",IF(I55=1,"Dotted",IF(I55=2,"Medium-Dashed",IF(I55=3,"LongDashed",IF(I55=4,"LongDashed Dot Dot",IF(I55=6,"Medium-Dashed Dot Dot",IF(I55=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I55" s="6">
@@ -7092,12 +7085,12 @@
         <v>30</v>
       </c>
       <c r="M55" s="27" t="str">
-        <f>IF(ISBLANK(A55),L55, CONCATENATE(L55,"_",A55))</f>
+        <f t="shared" si="3"/>
         <v>vehicle_driveway_area_DC</v>
       </c>
       <c r="N55" s="27"/>
       <c r="O55" s="27" t="str">
-        <f>IF(ISBLANK(A55),(CONCATENATE("''Level_Name'' = '",E55,"' AND ''Level'' = '",F55,"' AND ''Color'' = '",G55,"' AND ''Linetype'' = '",H55,"' AND ''LineWt''= '",J55,"'")),(CONCATENATE("''Level_Name'' = '",E55,"' AND ''Level'' = '",F55,"' AND ''Color'' = '",G55,"' AND ''Linetype'' = '",H55,"' AND ''LineWt''= '",J55,"' AND ''RefName'' = '",A55,"'")))</f>
+        <f t="shared" ref="O55:O63" si="9">IF(ISBLANK(A55),(CONCATENATE("''Level_Name'' = '",E55,"' AND ''Level'' = '",F55,"' AND ''Color'' = '",G55,"' AND ''Linetype'' = '",H55,"' AND ''LineWt''= '",J55,"'")),(CONCATENATE("''Level_Name'' = '",E55,"' AND ''Level'' = '",F55,"' AND ''Color'' = '",G55,"' AND ''Linetype'' = '",H55,"' AND ''LineWt''= '",J55,"' AND ''RefName'' = '",A55,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_DWAY' AND ''Level'' = '6' AND ''Color'' = '6' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'DC'</v>
       </c>
       <c r="P55" s="5"/>
@@ -7129,7 +7122,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -7152,7 +7145,7 @@
         <v>6</v>
       </c>
       <c r="H56" s="9" t="str">
-        <f>IF(ISBLANK(I56),"No Value",IF(I56=0,"Solid",IF(I56=1,"Dotted",IF(I56=2,"Medium-Dashed",IF(I56=3,"LongDashed",IF(I56=4,"LongDashed Dot Dot",IF(I56=6,"Medium-Dashed Dot Dot",IF(I56=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I56" s="6">
@@ -7168,12 +7161,12 @@
         <v>30</v>
       </c>
       <c r="M56" s="27" t="str">
-        <f>IF(ISBLANK(A56),L56, CONCATENATE(L56,"_",A56))</f>
+        <f t="shared" si="3"/>
         <v>vehicle_driveway_area_DDT</v>
       </c>
       <c r="N56" s="27"/>
       <c r="O56" s="27" t="str">
-        <f>IF(ISBLANK(A56),(CONCATENATE("''Level_Name'' = '",E56,"' AND ''Level'' = '",F56,"' AND ''Color'' = '",G56,"' AND ''Linetype'' = '",H56,"' AND ''LineWt''= '",J56,"'")),(CONCATENATE("''Level_Name'' = '",E56,"' AND ''Level'' = '",F56,"' AND ''Color'' = '",G56,"' AND ''Linetype'' = '",H56,"' AND ''LineWt''= '",J56,"' AND ''RefName'' = '",A56,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_DWAY' AND ''Level'' = '6' AND ''Color'' = '6' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'DDT'</v>
       </c>
       <c r="P56" s="5"/>
@@ -7205,7 +7198,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>11</v>
       </c>
@@ -7228,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="9" t="str">
-        <f>IF(ISBLANK(I57),"No Value",IF(I57=0,"Solid",IF(I57=1,"Dotted",IF(I57=2,"Medium-Dashed",IF(I57=3,"LongDashed",IF(I57=4,"LongDashed Dot Dot",IF(I57=6,"Medium-Dashed Dot Dot",IF(I57=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I57" s="6">
@@ -7244,12 +7237,12 @@
         <v>37</v>
       </c>
       <c r="M57" s="27" t="str">
-        <f>IF(ISBLANK(A57),L57, CONCATENATE(L57,"_",A57))</f>
+        <f t="shared" si="3"/>
         <v>miscellaneous_feature_area_DECK</v>
       </c>
       <c r="N57" s="27"/>
       <c r="O57" s="27" t="str">
-        <f>IF(ISBLANK(A57),(CONCATENATE("''Level_Name'' = '",E57,"' AND ''Level'' = '",F57,"' AND ''Color'' = '",G57,"' AND ''Linetype'' = '",H57,"' AND ''LineWt''= '",J57,"'")),(CONCATENATE("''Level_Name'' = '",E57,"' AND ''Level'' = '",F57,"' AND ''Color'' = '",G57,"' AND ''Linetype'' = '",H57,"' AND ''LineWt''= '",J57,"' AND ''RefName'' = '",A57,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DECK'</v>
       </c>
       <c r="P57" s="5"/>
@@ -7281,7 +7274,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>646</v>
       </c>
@@ -7304,7 +7297,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="9" t="str">
-        <f>IF(ISBLANK(I58),"No Value",IF(I58=0,"Solid",IF(I58=1,"Dotted",IF(I58=2,"Medium-Dashed",IF(I58=3,"LongDashed",IF(I58=4,"LongDashed Dot Dot",IF(I58=6,"Medium-Dashed Dot Dot",IF(I58=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I58" s="4">
@@ -7320,12 +7313,12 @@
         <v>263</v>
       </c>
       <c r="M58" s="27" t="str">
-        <f>IF(ISBLANK(A58),L58, CONCATENATE(L58,"_",A58))</f>
+        <f t="shared" si="3"/>
         <v>gravity_drain_area_DI</v>
       </c>
       <c r="N58" s="27"/>
       <c r="O58" s="27" t="str">
-        <f>IF(ISBLANK(A58),(CONCATENATE("''Level_Name'' = '",E58,"' AND ''Level'' = '",F58,"' AND ''Color'' = '",G58,"' AND ''Linetype'' = '",H58,"' AND ''LineWt''= '",J58,"'")),(CONCATENATE("''Level_Name'' = '",E58,"' AND ''Level'' = '",F58,"' AND ''Color'' = '",G58,"' AND ''Linetype'' = '",H58,"' AND ''LineWt''= '",J58,"' AND ''RefName'' = '",A58,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_UTIL_STRM' AND ''Level'' = '31' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DI'</v>
       </c>
       <c r="U58" s="8" t="s">
@@ -7353,7 +7346,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
@@ -7376,7 +7369,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="9" t="str">
-        <f>IF(ISBLANK(I59),"No Value",IF(I59=0,"Solid",IF(I59=1,"Dotted",IF(I59=2,"Medium-Dashed",IF(I59=3,"LongDashed",IF(I59=4,"LongDashed Dot Dot",IF(I59=6,"Medium-Dashed Dot Dot",IF(I59=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I59" s="6">
@@ -7392,12 +7385,12 @@
         <v>208</v>
       </c>
       <c r="M59" s="27" t="str">
-        <f>IF(ISBLANK(A59),L59, CONCATENATE(L59,"_",A59))</f>
+        <f t="shared" si="3"/>
         <v>comm_antenna_area_DISH</v>
       </c>
       <c r="N59" s="27"/>
       <c r="O59" s="27" t="str">
-        <f>IF(ISBLANK(A59),(CONCATENATE("''Level_Name'' = '",E59,"' AND ''Level'' = '",F59,"' AND ''Color'' = '",G59,"' AND ''Linetype'' = '",H59,"' AND ''LineWt''= '",J59,"'")),(CONCATENATE("''Level_Name'' = '",E59,"' AND ''Level'' = '",F59,"' AND ''Color'' = '",G59,"' AND ''Linetype'' = '",H59,"' AND ''LineWt''= '",J59,"' AND ''RefName'' = '",A59,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DISH'</v>
       </c>
       <c r="T59" s="4"/>
@@ -7426,7 +7419,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>460</v>
       </c>
@@ -7449,7 +7442,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="9" t="str">
-        <f>IF(ISBLANK(I60),"No Value",IF(I60=0,"Solid",IF(I60=1,"Dotted",IF(I60=2,"Medium-Dashed",IF(I60=3,"LongDashed",IF(I60=4,"LongDashed Dot Dot",IF(I60=6,"Medium-Dashed Dot Dot",IF(I60=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I60" s="6">
@@ -7465,12 +7458,12 @@
         <v>462</v>
       </c>
       <c r="M60" s="27" t="str">
-        <f>IF(ISBLANK(A60),L60, CONCATENATE(L60,"_",A60))</f>
+        <f t="shared" si="3"/>
         <v>boating_area_DOCK</v>
       </c>
       <c r="N60" s="27"/>
       <c r="O60" s="27" t="str">
-        <f>IF(ISBLANK(A60),(CONCATENATE("''Level_Name'' = '",E60,"' AND ''Level'' = '",F60,"' AND ''Color'' = '",G60,"' AND ''Linetype'' = '",H60,"' AND ''LineWt''= '",J60,"'")),(CONCATENATE("''Level_Name'' = '",E60,"' AND ''Level'' = '",F60,"' AND ''Color'' = '",G60,"' AND ''Linetype'' = '",H60,"' AND ''LineWt''= '",J60,"' AND ''RefName'' = '",A60,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DOCK'</v>
       </c>
       <c r="T60" s="4"/>
@@ -7499,7 +7492,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>520</v>
       </c>
@@ -7522,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="9" t="str">
-        <f>IF(ISBLANK(I61),"No Value",IF(I61=0,"Solid",IF(I61=1,"Dotted",IF(I61=2,"Medium-Dashed",IF(I61=3,"LongDashed",IF(I61=4,"LongDashed Dot Dot",IF(I61=6,"Medium-Dashed Dot Dot",IF(I61=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I61" s="6">
@@ -7538,12 +7531,12 @@
         <v>547</v>
       </c>
       <c r="M61" s="27" t="str">
-        <f>IF(ISBLANK(A61),L61, CONCATENATE(L61,"_",A61))</f>
+        <f t="shared" si="3"/>
         <v>drydock_area_DRYDOCK</v>
       </c>
       <c r="N61" s="27"/>
       <c r="O61" s="27" t="str">
-        <f>IF(ISBLANK(A61),(CONCATENATE("''Level_Name'' = '",E61,"' AND ''Level'' = '",F61,"' AND ''Color'' = '",G61,"' AND ''Linetype'' = '",H61,"' AND ''LineWt''= '",J61,"'")),(CONCATENATE("''Level_Name'' = '",E61,"' AND ''Level'' = '",F61,"' AND ''Color'' = '",G61,"' AND ''Linetype'' = '",H61,"' AND ''LineWt''= '",J61,"' AND ''RefName'' = '",A61,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'DRYDOCK'</v>
       </c>
       <c r="P61" s="8"/>
@@ -7575,7 +7568,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>67</v>
       </c>
@@ -7598,7 +7591,7 @@
         <v>5</v>
       </c>
       <c r="H62" s="9" t="str">
-        <f>IF(ISBLANK(I62),"No Value",IF(I62=0,"Solid",IF(I62=1,"Dotted",IF(I62=2,"Medium-Dashed",IF(I62=3,"LongDashed",IF(I62=4,"LongDashed Dot Dot",IF(I62=6,"Medium-Dashed Dot Dot",IF(I62=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I62" s="7">
@@ -7614,12 +7607,12 @@
         <v>37</v>
       </c>
       <c r="M62" s="27" t="str">
-        <f>IF(ISBLANK(A62),L62, CONCATENATE(L62,"_",A62))</f>
+        <f t="shared" si="3"/>
         <v>miscellaneous_feature_area_EW</v>
       </c>
       <c r="N62" s="27"/>
       <c r="O62" s="27" t="str">
-        <f>IF(ISBLANK(A62),(CONCATENATE("''Level_Name'' = '",E62,"' AND ''Level'' = '",F62,"' AND ''Color'' = '",G62,"' AND ''Linetype'' = '",H62,"' AND ''LineWt''= '",J62,"'")),(CONCATENATE("''Level_Name'' = '",E62,"' AND ''Level'' = '",F62,"' AND ''Color'' = '",G62,"' AND ''Linetype'' = '",H62,"' AND ''LineWt''= '",J62,"' AND ''RefName'' = '",A62,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'EW'</v>
       </c>
       <c r="U62" s="8" t="s">
@@ -7647,7 +7640,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>510</v>
       </c>
@@ -7670,7 +7663,7 @@
         <v>7</v>
       </c>
       <c r="H63" s="9" t="str">
-        <f>IF(ISBLANK(I63),"No Value",IF(I63=0,"Solid",IF(I63=1,"Dotted",IF(I63=2,"Medium-Dashed",IF(I63=3,"LongDashed",IF(I63=4,"LongDashed Dot Dot",IF(I63=6,"Medium-Dashed Dot Dot",IF(I63=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Solid</v>
       </c>
       <c r="I63" s="6">
@@ -7686,12 +7679,12 @@
         <v>36</v>
       </c>
       <c r="M63" s="27" t="str">
-        <f>IF(ISBLANK(A63),L63, CONCATENATE(L63,"_",A63))</f>
+        <f t="shared" si="3"/>
         <v>athletic_field_area_FBFLD</v>
       </c>
       <c r="N63" s="27"/>
       <c r="O63" s="27" t="str">
-        <f>IF(ISBLANK(A63),(CONCATENATE("''Level_Name'' = '",E63,"' AND ''Level'' = '",F63,"' AND ''Color'' = '",G63,"' AND ''Linetype'' = '",H63,"' AND ''LineWt''= '",J63,"'")),(CONCATENATE("''Level_Name'' = '",E63,"' AND ''Level'' = '",F63,"' AND ''Color'' = '",G63,"' AND ''Linetype'' = '",H63,"' AND ''LineWt''= '",J63,"' AND ''RefName'' = '",A63,"'")))</f>
+        <f t="shared" si="9"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'FBFLD'</v>
       </c>
       <c r="P63" s="5"/>
@@ -7723,7 +7716,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -7744,7 +7737,7 @@
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="9" t="str">
-        <f>IF(ISBLANK(I64),"No Value",IF(I64=0,"Solid",IF(I64=1,"Dotted",IF(I64=2,"Medium-Dashed",IF(I64=3,"LongDashed",IF(I64=4,"LongDashed Dot Dot",IF(I64=6,"Medium-Dashed Dot Dot",IF(I64=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>No Value</v>
       </c>
       <c r="I64" s="7"/>
@@ -7756,7 +7749,7 @@
         <v>89</v>
       </c>
       <c r="M64" s="27" t="str">
-        <f>IF(ISBLANK(A64),L64, CONCATENATE(L64,"_",A64))</f>
+        <f t="shared" si="3"/>
         <v>water_hydrant_point_FHX</v>
       </c>
       <c r="N64" s="27"/>
@@ -7793,7 +7786,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>532</v>
       </c>
@@ -7816,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="9" t="str">
-        <f>IF(ISBLANK(I65),"No Value",IF(I65=0,"Solid",IF(I65=1,"Dotted",IF(I65=2,"Medium-Dashed",IF(I65=3,"LongDashed",IF(I65=4,"LongDashed Dot Dot",IF(I65=6,"Medium-Dashed Dot Dot",IF(I65=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>Medium-Dashed Dot Dot</v>
       </c>
       <c r="I65" s="3">
@@ -7832,7 +7825,7 @@
         <v>177</v>
       </c>
       <c r="M65" s="27" t="str">
-        <f>IF(ISBLANK(A65),L65, CONCATENATE(L65,"_",A65))</f>
+        <f t="shared" si="3"/>
         <v>surface_water_body_area_FLOODED</v>
       </c>
       <c r="N65" s="27"/>
@@ -7865,7 +7858,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>246</v>
       </c>
@@ -7888,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="9" t="str">
-        <f>IF(ISBLANK(I66),"No Value",IF(I66=0,"Solid",IF(I66=1,"Dotted",IF(I66=2,"Medium-Dashed",IF(I66=3,"LongDashed",IF(I66=4,"LongDashed Dot Dot",IF(I66=6,"Medium-Dashed Dot Dot",IF(I66=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="2"/>
         <v>LongDashed</v>
       </c>
       <c r="I66" s="7">
@@ -7904,7 +7897,7 @@
         <v>34</v>
       </c>
       <c r="M66" s="27" t="str">
-        <f>IF(ISBLANK(A66),L66, CONCATENATE(L66,"_",A66))</f>
+        <f t="shared" si="3"/>
         <v>slab_area_FOUND</v>
       </c>
       <c r="N66" s="27"/>
@@ -7937,7 +7930,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>81</v>
       </c>
@@ -7958,7 +7951,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="9" t="str">
-        <f>IF(ISBLANK(I67),"No Value",IF(I67=0,"Solid",IF(I67=1,"Dotted",IF(I67=2,"Medium-Dashed",IF(I67=3,"LongDashed",IF(I67=4,"LongDashed Dot Dot",IF(I67=6,"Medium-Dashed Dot Dot",IF(I67=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H67:H130" si="10">IF(ISBLANK(I67),"No Value",IF(I67=0,"Solid",IF(I67=1,"Dotted",IF(I67=2,"Medium-Dashed",IF(I67=3,"LongDashed",IF(I67=4,"LongDashed Dot Dot",IF(I67=6,"Medium-Dashed Dot Dot",IF(I67=7,"Solid Medium-Dashed" ))))))))</f>
         <v>No Value</v>
       </c>
       <c r="I67" s="7"/>
@@ -7970,7 +7963,7 @@
         <v>508</v>
       </c>
       <c r="M67" s="27" t="str">
-        <f>IF(ISBLANK(A67),L67, CONCATENATE(L67,"_",A67))</f>
+        <f t="shared" ref="M67:M130" si="11">IF(ISBLANK(A67),L67, CONCATENATE(L67,"_",A67))</f>
         <v>general_improvement_feat_point_FP</v>
       </c>
       <c r="N67" s="27"/>
@@ -8007,7 +8000,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>148</v>
       </c>
@@ -8030,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="9" t="str">
-        <f>IF(ISBLANK(I68),"No Value",IF(I68=0,"Solid",IF(I68=1,"Dotted",IF(I68=2,"Medium-Dashed",IF(I68=3,"LongDashed",IF(I68=4,"LongDashed Dot Dot",IF(I68=6,"Medium-Dashed Dot Dot",IF(I68=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I68" s="7">
@@ -8046,7 +8039,7 @@
         <v>150</v>
       </c>
       <c r="M68" s="27" t="str">
-        <f>IF(ISBLANK(A68),L68, CONCATENATE(L68,"_",A68))</f>
+        <f t="shared" si="11"/>
         <v>golf_course_fairway_area_FW</v>
       </c>
       <c r="N68" s="27"/>
@@ -8083,7 +8076,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>602</v>
       </c>
@@ -8104,7 +8097,7 @@
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="9" t="str">
-        <f>IF(ISBLANK(I69),"No Value",IF(I69=0,"Solid",IF(I69=1,"Dotted",IF(I69=2,"Medium-Dashed",IF(I69=3,"LongDashed",IF(I69=4,"LongDashed Dot Dot",IF(I69=6,"Medium-Dashed Dot Dot",IF(I69=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I69" s="3"/>
@@ -8116,7 +8109,7 @@
         <v>507</v>
       </c>
       <c r="M69" s="27" t="str">
-        <f>IF(ISBLANK(A69),L69, CONCATENATE(L69,"_",A69))</f>
+        <f t="shared" si="11"/>
         <v>ut_undefined_feature_point_GATEV</v>
       </c>
       <c r="N69" s="27"/>
@@ -8153,7 +8146,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>422</v>
       </c>
@@ -8176,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="9" t="str">
-        <f>IF(ISBLANK(I70),"No Value",IF(I70=0,"Solid",IF(I70=1,"Dotted",IF(I70=2,"Medium-Dashed",IF(I70=3,"LongDashed",IF(I70=4,"LongDashed Dot Dot",IF(I70=6,"Medium-Dashed Dot Dot",IF(I70=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I70" s="6">
@@ -8192,7 +8185,7 @@
         <v>421</v>
       </c>
       <c r="M70" s="27" t="str">
-        <f>IF(ISBLANK(A70),L70, CONCATENATE(L70,"_",A70))</f>
+        <f t="shared" si="11"/>
         <v>golf_course_area_GOLF</v>
       </c>
       <c r="N70" s="27"/>
@@ -8225,7 +8218,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>43</v>
       </c>
@@ -8246,7 +8239,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="9" t="str">
-        <f>IF(ISBLANK(I71),"No Value",IF(I71=0,"Solid",IF(I71=1,"Dotted",IF(I71=2,"Medium-Dashed",IF(I71=3,"LongDashed",IF(I71=4,"LongDashed Dot Dot",IF(I71=6,"Medium-Dashed Dot Dot",IF(I71=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I71" s="7"/>
@@ -8258,7 +8251,7 @@
         <v>508</v>
       </c>
       <c r="M71" s="27" t="str">
-        <f>IF(ISBLANK(A71),L71, CONCATENATE(L71,"_",A71))</f>
+        <f t="shared" si="11"/>
         <v>general_improvement_feat_point_GP</v>
       </c>
       <c r="N71" s="27"/>
@@ -8295,7 +8288,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>170</v>
       </c>
@@ -8318,7 +8311,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="9" t="str">
-        <f>IF(ISBLANK(I72),"No Value",IF(I72=0,"Solid",IF(I72=1,"Dotted",IF(I72=2,"Medium-Dashed",IF(I72=3,"LongDashed",IF(I72=4,"LongDashed Dot Dot",IF(I72=6,"Medium-Dashed Dot Dot",IF(I72=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I72" s="9">
@@ -8334,7 +8327,7 @@
         <v>184</v>
       </c>
       <c r="M72" s="27" t="str">
-        <f>IF(ISBLANK(A72),L72, CONCATENATE(L72,"_",A72))</f>
+        <f t="shared" si="11"/>
         <v>flora_species_area_GRC</v>
       </c>
       <c r="N72" s="27"/>
@@ -8371,7 +8364,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="23" t="s">
         <v>650</v>
       </c>
@@ -8394,7 +8387,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="9" t="str">
-        <f>IF(ISBLANK(I73),"No Value",IF(I73=0,"Solid",IF(I73=1,"Dotted",IF(I73=2,"Medium-Dashed",IF(I73=3,"LongDashed",IF(I73=4,"LongDashed Dot Dot",IF(I73=6,"Medium-Dashed Dot Dot",IF(I73=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I73" s="64">
@@ -8410,7 +8403,7 @@
         <v>110</v>
       </c>
       <c r="M73" s="27" t="str">
-        <f>IF(ISBLANK(A73),L73, CONCATENATE(L73,"_",A73))</f>
+        <f t="shared" si="11"/>
         <v>structure_existing_area_GREENHOUSE</v>
       </c>
       <c r="N73" s="27"/>
@@ -8448,7 +8441,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>151</v>
       </c>
@@ -8471,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="9" t="str">
-        <f>IF(ISBLANK(I74),"No Value",IF(I74=0,"Solid",IF(I74=1,"Dotted",IF(I74=2,"Medium-Dashed",IF(I74=3,"LongDashed",IF(I74=4,"LongDashed Dot Dot",IF(I74=6,"Medium-Dashed Dot Dot",IF(I74=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I74" s="6">
@@ -8487,7 +8480,7 @@
         <v>153</v>
       </c>
       <c r="M74" s="27" t="str">
-        <f>IF(ISBLANK(A74),L74, CONCATENATE(L74,"_",A74))</f>
+        <f t="shared" si="11"/>
         <v>golf_course_putting_green_area_GRN</v>
       </c>
       <c r="N74" s="27"/>
@@ -8525,7 +8518,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>82</v>
       </c>
@@ -8546,7 +8539,7 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="9" t="str">
-        <f>IF(ISBLANK(I75),"No Value",IF(I75=0,"Solid",IF(I75=1,"Dotted",IF(I75=2,"Medium-Dashed",IF(I75=3,"LongDashed",IF(I75=4,"LongDashed Dot Dot",IF(I75=6,"Medium-Dashed Dot Dot",IF(I75=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I75" s="7"/>
@@ -8558,7 +8551,7 @@
         <v>90</v>
       </c>
       <c r="M75" s="27" t="str">
-        <f>IF(ISBLANK(A75),L75, CONCATENATE(L75,"_",A75))</f>
+        <f t="shared" si="11"/>
         <v>utility_pole_guy_point_GUY</v>
       </c>
       <c r="N75" s="27"/>
@@ -8591,7 +8584,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>232</v>
       </c>
@@ -8614,7 +8607,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="9" t="str">
-        <f>IF(ISBLANK(I76),"No Value",IF(I76=0,"Solid",IF(I76=1,"Dotted",IF(I76=2,"Medium-Dashed",IF(I76=3,"LongDashed",IF(I76=4,"LongDashed Dot Dot",IF(I76=6,"Medium-Dashed Dot Dot",IF(I76=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I76" s="6">
@@ -8630,7 +8623,7 @@
         <v>267</v>
       </c>
       <c r="M76" s="27" t="str">
-        <f>IF(ISBLANK(A76),L76, CONCATENATE(L76,"_",A76))</f>
+        <f t="shared" si="11"/>
         <v>land_cover_area_GVL</v>
       </c>
       <c r="N76" s="27"/>
@@ -8667,7 +8660,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>185</v>
       </c>
@@ -8690,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="H77" s="9" t="str">
-        <f>IF(ISBLANK(I77),"No Value",IF(I77=0,"Solid",IF(I77=1,"Dotted",IF(I77=2,"Medium-Dashed",IF(I77=3,"LongDashed",IF(I77=4,"LongDashed Dot Dot",IF(I77=6,"Medium-Dashed Dot Dot",IF(I77=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I77" s="9">
@@ -8706,7 +8699,7 @@
         <v>184</v>
       </c>
       <c r="M77" s="27" t="str">
-        <f>IF(ISBLANK(A77),L77, CONCATENATE(L77,"_",A77))</f>
+        <f t="shared" si="11"/>
         <v>flora_species_area_H</v>
       </c>
       <c r="N77" s="27"/>
@@ -8743,7 +8736,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1">
       <c r="A78" s="16" t="s">
         <v>68</v>
       </c>
@@ -8766,7 +8759,7 @@
         <v>7</v>
       </c>
       <c r="H78" s="9" t="str">
-        <f>IF(ISBLANK(I78),"No Value",IF(I78=0,"Solid",IF(I78=1,"Dotted",IF(I78=2,"Medium-Dashed",IF(I78=3,"LongDashed",IF(I78=4,"LongDashed Dot Dot",IF(I78=6,"Medium-Dashed Dot Dot",IF(I78=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I78" s="6">
@@ -8782,7 +8775,7 @@
         <v>36</v>
       </c>
       <c r="M78" s="27" t="str">
-        <f>IF(ISBLANK(A78),L78, CONCATENATE(L78,"_",A78))</f>
+        <f t="shared" si="11"/>
         <v>athletic_field_area_HORSESHOES</v>
       </c>
       <c r="N78" s="27"/>
@@ -8819,7 +8812,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>44</v>
       </c>
@@ -8840,7 +8833,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="9" t="str">
-        <f>IF(ISBLANK(I79),"No Value",IF(I79=0,"Solid",IF(I79=1,"Dotted",IF(I79=2,"Medium-Dashed",IF(I79=3,"LongDashed",IF(I79=4,"LongDashed Dot Dot",IF(I79=6,"Medium-Dashed Dot Dot",IF(I79=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I79" s="7"/>
@@ -8852,7 +8845,7 @@
         <v>59</v>
       </c>
       <c r="M79" s="27" t="str">
-        <f>IF(ISBLANK(A79),L79, CONCATENATE(L79,"_",A79))</f>
+        <f t="shared" si="11"/>
         <v>storm_sewer_inlet_point_INLETX</v>
       </c>
       <c r="N79" s="27"/>
@@ -8889,7 +8882,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>669</v>
       </c>
@@ -8912,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="9" t="b">
-        <f>IF(ISBLANK(I80),"No Value",IF(I80=0,"Solid",IF(I80=1,"Dotted",IF(I80=2,"Medium-Dashed",IF(I80=3,"LongDashed",IF(I80=4,"LongDashed Dot Dot",IF(I80=6,"Medium-Dashed Dot Dot",IF(I80=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I80" s="15" t="s">
@@ -8928,12 +8921,12 @@
         <v>668</v>
       </c>
       <c r="M80" s="27" t="str">
-        <f>IF(ISBLANK(A80),L80, CONCATENATE(L80,"_",A80))</f>
+        <f t="shared" si="11"/>
         <v>island_area_IS</v>
       </c>
       <c r="N80" s="27"/>
       <c r="O80" s="27" t="str">
-        <f>IF(ISBLANK(A80),(CONCATENATE("''Level_Name'' = '",E80,"' AND ''Level'' = '",F80,"' AND ''Color'' = '",G80,"' AND ''Linetype'' = '",H80,"' AND ''LineWt''= '",J80,"'")),(CONCATENATE("''Level_Name'' = '",E80,"' AND ''Level'' = '",F80,"' AND ''Color'' = '",G80,"' AND ''Linetype'' = '",H80,"' AND ''LineWt''= '",J80,"' AND ''RefName'' = '",A80,"'")))</f>
+        <f t="shared" ref="O80:O86" si="12">IF(ISBLANK(A80),(CONCATENATE("''Level_Name'' = '",E80,"' AND ''Level'' = '",F80,"' AND ''Color'' = '",G80,"' AND ''Linetype'' = '",H80,"' AND ''LineWt''= '",J80,"'")),(CONCATENATE("''Level_Name'' = '",E80,"' AND ''Level'' = '",F80,"' AND ''Color'' = '",G80,"' AND ''Linetype'' = '",H80,"' AND ''LineWt''= '",J80,"' AND ''RefName'' = '",A80,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1' AND ''RefName'' = 'IS'</v>
       </c>
       <c r="T80" s="4" t="s">
@@ -8964,7 +8957,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>215</v>
       </c>
@@ -8987,7 +8980,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="9" t="str">
-        <f>IF(ISBLANK(I81),"No Value",IF(I81=0,"Solid",IF(I81=1,"Dotted",IF(I81=2,"Medium-Dashed",IF(I81=3,"LongDashed",IF(I81=4,"LongDashed Dot Dot",IF(I81=6,"Medium-Dashed Dot Dot",IF(I81=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I81" s="6">
@@ -9003,12 +8996,12 @@
         <v>95</v>
       </c>
       <c r="M81" s="27" t="str">
-        <f>IF(ISBLANK(A81),L81, CONCATENATE(L81,"_",A81))</f>
+        <f t="shared" si="11"/>
         <v>road_feature_point_JB</v>
       </c>
       <c r="N81" s="27"/>
       <c r="O81" s="27" t="str">
-        <f>IF(ISBLANK(A81),(CONCATENATE("''Level_Name'' = '",E81,"' AND ''Level'' = '",F81,"' AND ''Color'' = '",G81,"' AND ''Linetype'' = '",H81,"' AND ''LineWt''= '",J81,"'")),(CONCATENATE("''Level_Name'' = '",E81,"' AND ''Level'' = '",F81,"' AND ''Color'' = '",G81,"' AND ''Linetype'' = '",H81,"' AND ''LineWt''= '",J81,"' AND ''RefName'' = '",A81,"'")))</f>
+        <f t="shared" si="12"/>
         <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'JB'</v>
       </c>
       <c r="P81" s="5"/>
@@ -9040,7 +9033,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>638</v>
       </c>
@@ -9063,7 +9056,7 @@
         <v>5</v>
       </c>
       <c r="H82" s="9" t="str">
-        <f>IF(ISBLANK(I82),"No Value",IF(I82=0,"Solid",IF(I82=1,"Dotted",IF(I82=2,"Medium-Dashed",IF(I82=3,"LongDashed",IF(I82=4,"LongDashed Dot Dot",IF(I82=6,"Medium-Dashed Dot Dot",IF(I82=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I82" s="6">
@@ -9079,12 +9072,12 @@
         <v>639</v>
       </c>
       <c r="M82" s="27" t="str">
-        <f>IF(ISBLANK(A82),L82, CONCATENATE(L82,"_",A82))</f>
+        <f t="shared" si="11"/>
         <v>jetty_area_JETTY</v>
       </c>
       <c r="N82" s="27"/>
       <c r="O82" s="27" t="str">
-        <f>IF(ISBLANK(A82),(CONCATENATE("''Level_Name'' = '",E82,"' AND ''Level'' = '",F82,"' AND ''Color'' = '",G82,"' AND ''Linetype'' = '",H82,"' AND ''LineWt''= '",J82,"'")),(CONCATENATE("''Level_Name'' = '",E82,"' AND ''Level'' = '",F82,"' AND ''Color'' = '",G82,"' AND ''Linetype'' = '",H82,"' AND ''LineWt''= '",J82,"' AND ''RefName'' = '",A82,"'")))</f>
+        <f t="shared" si="12"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'JETTY'</v>
       </c>
       <c r="P82" s="5"/>
@@ -9119,7 +9112,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>217</v>
       </c>
@@ -9142,7 +9135,7 @@
         <v>4</v>
       </c>
       <c r="H83" s="9" t="str">
-        <f>IF(ISBLANK(I83),"No Value",IF(I83=0,"Solid",IF(I83=1,"Dotted",IF(I83=2,"Medium-Dashed",IF(I83=3,"LongDashed",IF(I83=4,"LongDashed Dot Dot",IF(I83=6,"Medium-Dashed Dot Dot",IF(I83=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I83" s="6">
@@ -9158,12 +9151,12 @@
         <v>138</v>
       </c>
       <c r="M83" s="27" t="str">
-        <f>IF(ISBLANK(A83),L83, CONCATENATE(L83,"_",A83))</f>
+        <f t="shared" si="11"/>
         <v>canopy_pavilion_area_LAT</v>
       </c>
       <c r="N83" s="27"/>
       <c r="O83" s="27" t="str">
-        <f>IF(ISBLANK(A83),(CONCATENATE("''Level_Name'' = '",E83,"' AND ''Level'' = '",F83,"' AND ''Color'' = '",G83,"' AND ''Linetype'' = '",H83,"' AND ''LineWt''= '",J83,"'")),(CONCATENATE("''Level_Name'' = '",E83,"' AND ''Level'' = '",F83,"' AND ''Color'' = '",G83,"' AND ''Linetype'' = '",H83,"' AND ''LineWt''= '",J83,"' AND ''RefName'' = '",A83,"'")))</f>
+        <f t="shared" si="12"/>
         <v>''Level_Name'' = 'VA_SITE_PATI' AND ''Level'' = '12' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LAT'</v>
       </c>
       <c r="T83" s="4" t="s">
@@ -9194,7 +9187,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>219</v>
       </c>
@@ -9217,7 +9210,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="9" t="str">
-        <f>IF(ISBLANK(I84),"No Value",IF(I84=0,"Solid",IF(I84=1,"Dotted",IF(I84=2,"Medium-Dashed",IF(I84=3,"LongDashed",IF(I84=4,"LongDashed Dot Dot",IF(I84=6,"Medium-Dashed Dot Dot",IF(I84=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I84" s="6">
@@ -9233,12 +9226,12 @@
         <v>37</v>
       </c>
       <c r="M84" s="27" t="str">
-        <f>IF(ISBLANK(A84),L84, CONCATENATE(L84,"_",A84))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_LDK</v>
       </c>
       <c r="N84" s="27"/>
       <c r="O84" s="27" t="str">
-        <f>IF(ISBLANK(A84),(CONCATENATE("''Level_Name'' = '",E84,"' AND ''Level'' = '",F84,"' AND ''Color'' = '",G84,"' AND ''Linetype'' = '",H84,"' AND ''LineWt''= '",J84,"'")),(CONCATENATE("''Level_Name'' = '",E84,"' AND ''Level'' = '",F84,"' AND ''Color'' = '",G84,"' AND ''Linetype'' = '",H84,"' AND ''LineWt''= '",J84,"' AND ''RefName'' = '",A84,"'")))</f>
+        <f t="shared" si="12"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LDK'</v>
       </c>
       <c r="P84" s="5"/>
@@ -9270,7 +9263,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>372</v>
       </c>
@@ -9293,7 +9286,7 @@
         <v>7</v>
       </c>
       <c r="H85" s="9" t="str">
-        <f>IF(ISBLANK(I85),"No Value",IF(I85=0,"Solid",IF(I85=1,"Dotted",IF(I85=2,"Medium-Dashed",IF(I85=3,"LongDashed",IF(I85=4,"LongDashed Dot Dot",IF(I85=6,"Medium-Dashed Dot Dot",IF(I85=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I85" s="7"/>
@@ -9305,12 +9298,12 @@
         <v>373</v>
       </c>
       <c r="M85" s="27" t="str">
-        <f>IF(ISBLANK(A85),L85, CONCATENATE(L85,"_",A85))</f>
+        <f t="shared" si="11"/>
         <v>levee_berm_area_LEVEE</v>
       </c>
       <c r="N85" s="27"/>
       <c r="O85" s="27" t="str">
-        <f>IF(ISBLANK(A85),(CONCATENATE("''Level_Name'' = '",E85,"' AND ''Level'' = '",F85,"' AND ''Color'' = '",G85,"' AND ''Linetype'' = '",H85,"' AND ''LineWt''= '",J85,"'")),(CONCATENATE("''Level_Name'' = '",E85,"' AND ''Level'' = '",F85,"' AND ''Color'' = '",G85,"' AND ''Linetype'' = '",H85,"' AND ''LineWt''= '",J85,"' AND ''RefName'' = '",A85,"'")))</f>
+        <f t="shared" si="12"/>
         <v>''Level_Name'' = 'VA_UTIL_IRRI' AND ''Level'' = '26' AND ''Color'' = '7' AND ''Linetype'' = 'No Value' AND ''LineWt''= '' AND ''RefName'' = 'LEVEE'</v>
       </c>
       <c r="U85" s="8" t="s">
@@ -9338,7 +9331,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>484</v>
       </c>
@@ -9361,7 +9354,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="9" t="str">
-        <f>IF(ISBLANK(I86),"No Value",IF(I86=0,"Solid",IF(I86=1,"Dotted",IF(I86=2,"Medium-Dashed",IF(I86=3,"LongDashed",IF(I86=4,"LongDashed Dot Dot",IF(I86=6,"Medium-Dashed Dot Dot",IF(I86=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I86" s="6">
@@ -9377,12 +9370,12 @@
         <v>483</v>
       </c>
       <c r="M86" s="27" t="str">
-        <f>IF(ISBLANK(A86),L86, CONCATENATE(L86,"_",A86))</f>
+        <f t="shared" si="11"/>
         <v>solid_waste_landfill_area_LF</v>
       </c>
       <c r="N86" s="27"/>
       <c r="O86" s="27" t="str">
-        <f>IF(ISBLANK(A86),(CONCATENATE("''Level_Name'' = '",E86,"' AND ''Level'' = '",F86,"' AND ''Color'' = '",G86,"' AND ''Linetype'' = '",H86,"' AND ''LineWt''= '",J86,"'")),(CONCATENATE("''Level_Name'' = '",E86,"' AND ''Level'' = '",F86,"' AND ''Color'' = '",G86,"' AND ''Linetype'' = '",H86,"' AND ''LineWt''= '",J86,"' AND ''RefName'' = '",A86,"'")))</f>
+        <f t="shared" si="12"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'LF'</v>
       </c>
       <c r="P86" s="5"/>
@@ -9414,7 +9407,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>45</v>
       </c>
@@ -9435,7 +9428,7 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="9" t="str">
-        <f>IF(ISBLANK(I87),"No Value",IF(I87=0,"Solid",IF(I87=1,"Dotted",IF(I87=2,"Medium-Dashed",IF(I87=3,"LongDashed",IF(I87=4,"LongDashed Dot Dot",IF(I87=6,"Medium-Dashed Dot Dot",IF(I87=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I87" s="7"/>
@@ -9447,7 +9440,7 @@
         <v>60</v>
       </c>
       <c r="M87" s="27" t="str">
-        <f>IF(ISBLANK(A87),L87, CONCATENATE(L87,"_",A87))</f>
+        <f t="shared" si="11"/>
         <v>exterior_lighting_point_LIGHT</v>
       </c>
       <c r="N87" s="27"/>
@@ -9484,7 +9477,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>46</v>
       </c>
@@ -9505,7 +9498,7 @@
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="9" t="str">
-        <f>IF(ISBLANK(I88),"No Value",IF(I88=0,"Solid",IF(I88=1,"Dotted",IF(I88=2,"Medium-Dashed",IF(I88=3,"LongDashed",IF(I88=4,"LongDashed Dot Dot",IF(I88=6,"Medium-Dashed Dot Dot",IF(I88=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I88" s="7"/>
@@ -9517,7 +9510,7 @@
         <v>125</v>
       </c>
       <c r="M88" s="27" t="str">
-        <f>IF(ISBLANK(A88),L88, CONCATENATE(L88,"_",A88))</f>
+        <f t="shared" si="11"/>
         <v>undefined_mapping_feature_point_LO</v>
       </c>
       <c r="N88" s="27"/>
@@ -9554,7 +9547,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>464</v>
       </c>
@@ -9577,7 +9570,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="9" t="str">
-        <f>IF(ISBLANK(I89),"No Value",IF(I89=0,"Solid",IF(I89=1,"Dotted",IF(I89=2,"Medium-Dashed",IF(I89=3,"LongDashed",IF(I89=4,"LongDashed Dot Dot",IF(I89=6,"Medium-Dashed Dot Dot",IF(I89=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I89" s="6">
@@ -9593,7 +9586,7 @@
         <v>267</v>
       </c>
       <c r="M89" s="27" t="str">
-        <f>IF(ISBLANK(A89),L89, CONCATENATE(L89,"_",A89))</f>
+        <f t="shared" si="11"/>
         <v>land_cover_area_LS</v>
       </c>
       <c r="N89" s="27"/>
@@ -9630,7 +9623,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>221</v>
       </c>
@@ -9653,7 +9646,7 @@
         <v>4</v>
       </c>
       <c r="H90" s="9" t="str">
-        <f>IF(ISBLANK(I90),"No Value",IF(I90=0,"Solid",IF(I90=1,"Dotted",IF(I90=2,"Medium-Dashed",IF(I90=3,"LongDashed",IF(I90=4,"LongDashed Dot Dot",IF(I90=6,"Medium-Dashed Dot Dot",IF(I90=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I90" s="6">
@@ -9669,7 +9662,7 @@
         <v>110</v>
       </c>
       <c r="M90" s="27" t="str">
-        <f>IF(ISBLANK(A90),L90, CONCATENATE(L90,"_",A90))</f>
+        <f t="shared" si="11"/>
         <v>structure_existing_area_MBH</v>
       </c>
       <c r="N90" s="27"/>
@@ -9706,7 +9699,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1">
       <c r="A91" s="27" t="s">
         <v>487</v>
       </c>
@@ -9729,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="9" t="str">
-        <f>IF(ISBLANK(I91),"No Value",IF(I91=0,"Solid",IF(I91=1,"Dotted",IF(I91=2,"Medium-Dashed",IF(I91=3,"LongDashed",IF(I91=4,"LongDashed Dot Dot",IF(I91=6,"Medium-Dashed Dot Dot",IF(I91=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I91" s="9">
@@ -9745,7 +9738,7 @@
         <v>497</v>
       </c>
       <c r="M91" s="27" t="str">
-        <f>IF(ISBLANK(A91),L91, CONCATENATE(L91,"_",A91))</f>
+        <f t="shared" si="11"/>
         <v>median_area_MEDA</v>
       </c>
       <c r="N91" s="27"/>
@@ -9783,7 +9776,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1">
       <c r="A92" s="27" t="s">
         <v>488</v>
       </c>
@@ -9806,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="9" t="str">
-        <f>IF(ISBLANK(I92),"No Value",IF(I92=0,"Solid",IF(I92=1,"Dotted",IF(I92=2,"Medium-Dashed",IF(I92=3,"LongDashed",IF(I92=4,"LongDashed Dot Dot",IF(I92=6,"Medium-Dashed Dot Dot",IF(I92=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I92" s="9">
@@ -9822,7 +9815,7 @@
         <v>497</v>
       </c>
       <c r="M92" s="27" t="str">
-        <f>IF(ISBLANK(A92),L92, CONCATENATE(L92,"_",A92))</f>
+        <f t="shared" si="11"/>
         <v>median_area_MEDC</v>
       </c>
       <c r="N92" s="27"/>
@@ -9860,7 +9853,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1">
       <c r="A93" s="27" t="s">
         <v>489</v>
       </c>
@@ -9883,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="9" t="str">
-        <f>IF(ISBLANK(I93),"No Value",IF(I93=0,"Solid",IF(I93=1,"Dotted",IF(I93=2,"Medium-Dashed",IF(I93=3,"LongDashed",IF(I93=4,"LongDashed Dot Dot",IF(I93=6,"Medium-Dashed Dot Dot",IF(I93=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I93" s="9">
@@ -9899,7 +9892,7 @@
         <v>497</v>
       </c>
       <c r="M93" s="27" t="str">
-        <f>IF(ISBLANK(A93),L93, CONCATENATE(L93,"_",A93))</f>
+        <f t="shared" si="11"/>
         <v>median_area_MEDD</v>
       </c>
       <c r="N93" s="27"/>
@@ -9937,7 +9930,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>166</v>
       </c>
@@ -9958,7 +9951,7 @@
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="9" t="str">
-        <f>IF(ISBLANK(I94),"No Value",IF(I94=0,"Solid",IF(I94=1,"Dotted",IF(I94=2,"Medium-Dashed",IF(I94=3,"LongDashed",IF(I94=4,"LongDashed Dot Dot",IF(I94=6,"Medium-Dashed Dot Dot",IF(I94=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I94" s="3"/>
@@ -9970,7 +9963,7 @@
         <v>507</v>
       </c>
       <c r="M94" s="27" t="str">
-        <f>IF(ISBLANK(A94),L94, CONCATENATE(L94,"_",A94))</f>
+        <f t="shared" si="11"/>
         <v>ut_undefined_feature_point_MHX</v>
       </c>
       <c r="N94" s="27"/>
@@ -10007,7 +10000,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>310</v>
       </c>
@@ -10030,7 +10023,7 @@
         <v>5</v>
       </c>
       <c r="H95" s="9" t="str">
-        <f>IF(ISBLANK(I95),"No Value",IF(I95=0,"Solid",IF(I95=1,"Dotted",IF(I95=2,"Medium-Dashed",IF(I95=3,"LongDashed",IF(I95=4,"LongDashed Dot Dot",IF(I95=6,"Medium-Dashed Dot Dot",IF(I95=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I95" s="6">
@@ -10046,12 +10039,12 @@
         <v>313</v>
       </c>
       <c r="M95" s="27" t="str">
-        <f>IF(ISBLANK(A95),L95, CONCATENATE(L95,"_",A95))</f>
+        <f t="shared" si="11"/>
         <v>historic_feature_area_MONUMENT</v>
       </c>
       <c r="N95" s="27"/>
       <c r="O95" s="27" t="str">
-        <f>IF(ISBLANK(A95),(CONCATENATE("''Level_Name'' = '",E95,"' AND ''Level'' = '",F95,"' AND ''Color'' = '",G95,"' AND ''Linetype'' = '",H95,"' AND ''LineWt''= '",J95,"'")),(CONCATENATE("''Level_Name'' = '",E95,"' AND ''Level'' = '",F95,"' AND ''Color'' = '",G95,"' AND ''Linetype'' = '",H95,"' AND ''LineWt''= '",J95,"' AND ''RefName'' = '",A95,"'")))</f>
+        <f t="shared" ref="O95:O110" si="13">IF(ISBLANK(A95),(CONCATENATE("''Level_Name'' = '",E95,"' AND ''Level'' = '",F95,"' AND ''Color'' = '",G95,"' AND ''Linetype'' = '",H95,"' AND ''LineWt''= '",J95,"'")),(CONCATENATE("''Level_Name'' = '",E95,"' AND ''Level'' = '",F95,"' AND ''Color'' = '",G95,"' AND ''Linetype'' = '",H95,"' AND ''LineWt''= '",J95,"' AND ''RefName'' = '",A95,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'MONUMENT'</v>
       </c>
       <c r="P95" s="5"/>
@@ -10083,7 +10076,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>234</v>
       </c>
@@ -10106,7 +10099,7 @@
         <v>5</v>
       </c>
       <c r="H96" s="9" t="str">
-        <f>IF(ISBLANK(I96),"No Value",IF(I96=0,"Solid",IF(I96=1,"Dotted",IF(I96=2,"Medium-Dashed",IF(I96=3,"LongDashed",IF(I96=4,"LongDashed Dot Dot",IF(I96=6,"Medium-Dashed Dot Dot",IF(I96=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I96" s="6">
@@ -10122,12 +10115,12 @@
         <v>267</v>
       </c>
       <c r="M96" s="27" t="str">
-        <f>IF(ISBLANK(A96),L96, CONCATENATE(L96,"_",A96))</f>
+        <f t="shared" si="11"/>
         <v>land_cover_area_NG</v>
       </c>
       <c r="N96" s="27"/>
       <c r="O96" s="27" t="str">
-        <f>IF(ISBLANK(A96),(CONCATENATE("''Level_Name'' = '",E96,"' AND ''Level'' = '",F96,"' AND ''Color'' = '",G96,"' AND ''Linetype'' = '",H96,"' AND ''LineWt''= '",J96,"'")),(CONCATENATE("''Level_Name'' = '",E96,"' AND ''Level'' = '",F96,"' AND ''Color'' = '",G96,"' AND ''Linetype'' = '",H96,"' AND ''LineWt''= '",J96,"' AND ''RefName'' = '",A96,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'NG'</v>
       </c>
       <c r="P96" s="5"/>
@@ -10159,7 +10152,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="97" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>649</v>
       </c>
@@ -10182,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="9" t="str">
-        <f>IF(ISBLANK(I97),"No Value",IF(I97=0,"Solid",IF(I97=1,"Dotted",IF(I97=2,"Medium-Dashed",IF(I97=3,"LongDashed",IF(I97=4,"LongDashed Dot Dot",IF(I97=6,"Medium-Dashed Dot Dot",IF(I97=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I97" s="12">
@@ -10198,12 +10191,12 @@
         <v>546</v>
       </c>
       <c r="M97" s="27" t="str">
-        <f>IF(ISBLANK(A97),L97, CONCATENATE(L97,"_",A97))</f>
+        <f t="shared" si="11"/>
         <v>obscured_area_OBSC</v>
       </c>
       <c r="N97" s="27"/>
       <c r="O97" s="27" t="str">
-        <f>IF(ISBLANK(A97),(CONCATENATE("''Level_Name'' = '",E97,"' AND ''Level'' = '",F97,"' AND ''Color'' = '",G97,"' AND ''Linetype'' = '",H97,"' AND ''LineWt''= '",J97,"'")),(CONCATENATE("''Level_Name'' = '",E97,"' AND ''Level'' = '",F97,"' AND ''Color'' = '",G97,"' AND ''Linetype'' = '",H97,"' AND ''LineWt''= '",J97,"' AND ''RefName'' = '",A97,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_DTM_OBSC' AND ''Level'' = '58' AND ''Color'' = '1' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'OBSC'</v>
       </c>
       <c r="P97" s="21"/>
@@ -10238,7 +10231,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>12</v>
       </c>
@@ -10261,7 +10254,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="9" t="str">
-        <f>IF(ISBLANK(I98),"No Value",IF(I98=0,"Solid",IF(I98=1,"Dotted",IF(I98=2,"Medium-Dashed",IF(I98=3,"LongDashed",IF(I98=4,"LongDashed Dot Dot",IF(I98=6,"Medium-Dashed Dot Dot",IF(I98=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I98" s="6">
@@ -10277,12 +10270,12 @@
         <v>31</v>
       </c>
       <c r="M98" s="27" t="str">
-        <f>IF(ISBLANK(A98),L98, CONCATENATE(L98,"_",A98))</f>
+        <f t="shared" si="11"/>
         <v>vehicle_parking_area_PA</v>
       </c>
       <c r="N98" s="27"/>
       <c r="O98" s="27" t="str">
-        <f>IF(ISBLANK(A98),(CONCATENATE("''Level_Name'' = '",E98,"' AND ''Level'' = '",F98,"' AND ''Color'' = '",G98,"' AND ''Linetype'' = '",H98,"' AND ''LineWt''= '",J98,"'")),(CONCATENATE("''Level_Name'' = '",E98,"' AND ''Level'' = '",F98,"' AND ''Color'' = '",G98,"' AND ''Linetype'' = '",H98,"' AND ''LineWt''= '",J98,"' AND ''RefName'' = '",A98,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_PKNG' AND ''Level'' = '7' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PA'</v>
       </c>
       <c r="P98" s="23"/>
@@ -10315,7 +10308,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>384</v>
       </c>
@@ -10338,7 +10331,7 @@
         <v>7</v>
       </c>
       <c r="H99" s="9" t="str">
-        <f>IF(ISBLANK(I99),"No Value",IF(I99=0,"Solid",IF(I99=1,"Dotted",IF(I99=2,"Medium-Dashed",IF(I99=3,"LongDashed",IF(I99=4,"LongDashed Dot Dot",IF(I99=6,"Medium-Dashed Dot Dot",IF(I99=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I99" s="6">
@@ -10354,12 +10347,12 @@
         <v>383</v>
       </c>
       <c r="M99" s="27" t="str">
-        <f>IF(ISBLANK(A99),L99, CONCATENATE(L99,"_",A99))</f>
+        <f t="shared" si="11"/>
         <v>recreation_park_area_PARK</v>
       </c>
       <c r="N99" s="27"/>
       <c r="O99" s="27" t="str">
-        <f>IF(ISBLANK(A99),(CONCATENATE("''Level_Name'' = '",E99,"' AND ''Level'' = '",F99,"' AND ''Color'' = '",G99,"' AND ''Linetype'' = '",H99,"' AND ''LineWt''= '",J99,"'")),(CONCATENATE("''Level_Name'' = '",E99,"' AND ''Level'' = '",F99,"' AND ''Color'' = '",G99,"' AND ''Linetype'' = '",H99,"' AND ''LineWt''= '",J99,"' AND ''RefName'' = '",A99,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PARK'</v>
       </c>
       <c r="P99" s="5"/>
@@ -10391,7 +10384,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>69</v>
       </c>
@@ -10414,7 +10407,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="9" t="str">
-        <f>IF(ISBLANK(I100),"No Value",IF(I100=0,"Solid",IF(I100=1,"Dotted",IF(I100=2,"Medium-Dashed",IF(I100=3,"LongDashed",IF(I100=4,"LongDashed Dot Dot",IF(I100=6,"Medium-Dashed Dot Dot",IF(I100=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I100" s="12">
@@ -10430,12 +10423,12 @@
         <v>75</v>
       </c>
       <c r="M100" s="27" t="str">
-        <f>IF(ISBLANK(A100),L100, CONCATENATE(L100,"_",A100))</f>
+        <f t="shared" si="11"/>
         <v>footbridge_area_PBR</v>
       </c>
       <c r="N100" s="27"/>
       <c r="O100" s="27" t="str">
-        <f>IF(ISBLANK(A100),(CONCATENATE("''Level_Name'' = '",E100,"' AND ''Level'' = '",F100,"' AND ''Color'' = '",G100,"' AND ''Linetype'' = '",H100,"' AND ''LineWt''= '",J100,"'")),(CONCATENATE("''Level_Name'' = '",E100,"' AND ''Level'' = '",F100,"' AND ''Color'' = '",G100,"' AND ''Linetype'' = '",H100,"' AND ''LineWt''= '",J100,"' AND ''RefName'' = '",A100,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_ROAD_BRID' AND ''Level'' = '11' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'PBR'</v>
       </c>
       <c r="U100" s="8" t="s">
@@ -10463,7 +10456,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>14</v>
       </c>
@@ -10486,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="9" t="str">
-        <f>IF(ISBLANK(I101),"No Value",IF(I101=0,"Solid",IF(I101=1,"Dotted",IF(I101=2,"Medium-Dashed",IF(I101=3,"LongDashed",IF(I101=4,"LongDashed Dot Dot",IF(I101=6,"Medium-Dashed Dot Dot",IF(I101=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I101" s="6">
@@ -10502,12 +10495,12 @@
         <v>472</v>
       </c>
       <c r="M101" s="27" t="str">
-        <f>IF(ISBLANK(A101),L101, CONCATENATE(L101,"_",A101))</f>
+        <f t="shared" si="11"/>
         <v>aerial_photo_center_point_PC</v>
       </c>
       <c r="N101" s="27"/>
       <c r="O101" s="27" t="str">
-        <f>IF(ISBLANK(A101),(CONCATENATE("''Level_Name'' = '",E101,"' AND ''Level'' = '",F101,"' AND ''Color'' = '",G101,"' AND ''Linetype'' = '",H101,"' AND ''LineWt''= '",J101,"'")),(CONCATENATE("''Level_Name'' = '",E101,"' AND ''Level'' = '",F101,"' AND ''Color'' = '",G101,"' AND ''Linetype'' = '",H101,"' AND ''LineWt''= '",J101,"' AND ''RefName'' = '",A101,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SURV_CTRL' AND ''Level'' = '48' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PC'</v>
       </c>
       <c r="P101" s="5"/>
@@ -10539,7 +10532,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>14</v>
       </c>
@@ -10562,7 +10555,7 @@
         <v>4</v>
       </c>
       <c r="H102" s="9" t="str">
-        <f>IF(ISBLANK(I102),"No Value",IF(I102=0,"Solid",IF(I102=1,"Dotted",IF(I102=2,"Medium-Dashed",IF(I102=3,"LongDashed",IF(I102=4,"LongDashed Dot Dot",IF(I102=6,"Medium-Dashed Dot Dot",IF(I102=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I102" s="6">
@@ -10578,12 +10571,12 @@
         <v>31</v>
       </c>
       <c r="M102" s="27" t="str">
-        <f>IF(ISBLANK(A102),L102, CONCATENATE(L102,"_",A102))</f>
+        <f t="shared" si="11"/>
         <v>vehicle_parking_area_PC</v>
       </c>
       <c r="N102" s="27"/>
       <c r="O102" s="27" t="str">
-        <f>IF(ISBLANK(A102),(CONCATENATE("''Level_Name'' = '",E102,"' AND ''Level'' = '",F102,"' AND ''Color'' = '",G102,"' AND ''Linetype'' = '",H102,"' AND ''LineWt''= '",J102,"'")),(CONCATENATE("''Level_Name'' = '",E102,"' AND ''Level'' = '",F102,"' AND ''Color'' = '",G102,"' AND ''Linetype'' = '",H102,"' AND ''LineWt''= '",J102,"' AND ''RefName'' = '",A102,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_PKNG' AND ''Level'' = '7' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PC'</v>
       </c>
       <c r="P102" s="5"/>
@@ -10615,7 +10608,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>16</v>
       </c>
@@ -10638,7 +10631,7 @@
         <v>4</v>
       </c>
       <c r="H103" s="9" t="str">
-        <f>IF(ISBLANK(I103),"No Value",IF(I103=0,"Solid",IF(I103=1,"Dotted",IF(I103=2,"Medium-Dashed",IF(I103=3,"LongDashed",IF(I103=4,"LongDashed Dot Dot",IF(I103=6,"Medium-Dashed Dot Dot",IF(I103=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I103" s="6">
@@ -10654,12 +10647,12 @@
         <v>31</v>
       </c>
       <c r="M103" s="27" t="str">
-        <f>IF(ISBLANK(A103),L103, CONCATENATE(L103,"_",A103))</f>
+        <f t="shared" si="11"/>
         <v>vehicle_parking_area_PDT</v>
       </c>
       <c r="N103" s="27"/>
       <c r="O103" s="27" t="str">
-        <f>IF(ISBLANK(A103),(CONCATENATE("''Level_Name'' = '",E103,"' AND ''Level'' = '",F103,"' AND ''Color'' = '",G103,"' AND ''Linetype'' = '",H103,"' AND ''LineWt''= '",J103,"'")),(CONCATENATE("''Level_Name'' = '",E103,"' AND ''Level'' = '",F103,"' AND ''Color'' = '",G103,"' AND ''Linetype'' = '",H103,"' AND ''LineWt''= '",J103,"' AND ''RefName'' = '",A103,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_UNPK' AND ''Level'' = '8' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'PDT'</v>
       </c>
       <c r="P103" s="5"/>
@@ -10691,7 +10684,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>160</v>
       </c>
@@ -10714,7 +10707,7 @@
         <v>7</v>
       </c>
       <c r="H104" s="9" t="str">
-        <f>IF(ISBLANK(I104),"No Value",IF(I104=0,"Solid",IF(I104=1,"Dotted",IF(I104=2,"Medium-Dashed",IF(I104=3,"LongDashed",IF(I104=4,"LongDashed Dot Dot",IF(I104=6,"Medium-Dashed Dot Dot",IF(I104=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I104" s="6">
@@ -10730,12 +10723,12 @@
         <v>162</v>
       </c>
       <c r="M104" s="27" t="str">
-        <f>IF(ISBLANK(A104),L104, CONCATENATE(L104,"_",A104))</f>
+        <f t="shared" si="11"/>
         <v>playground_area_PG</v>
       </c>
       <c r="N104" s="27"/>
       <c r="O104" s="27" t="str">
-        <f>IF(ISBLANK(A104),(CONCATENATE("''Level_Name'' = '",E104,"' AND ''Level'' = '",F104,"' AND ''Color'' = '",G104,"' AND ''Linetype'' = '",H104,"' AND ''LineWt''= '",J104,"'")),(CONCATENATE("''Level_Name'' = '",E104,"' AND ''Level'' = '",F104,"' AND ''Color'' = '",G104,"' AND ''Linetype'' = '",H104,"' AND ''LineWt''= '",J104,"' AND ''RefName'' = '",A104,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PG'</v>
       </c>
       <c r="P104" s="5"/>
@@ -10767,7 +10760,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>434</v>
       </c>
@@ -10790,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="9" t="str">
-        <f>IF(ISBLANK(I105),"No Value",IF(I105=0,"Solid",IF(I105=1,"Dotted",IF(I105=2,"Medium-Dashed",IF(I105=3,"LongDashed",IF(I105=4,"LongDashed Dot Dot",IF(I105=6,"Medium-Dashed Dot Dot",IF(I105=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I105" s="6">
@@ -10806,12 +10799,12 @@
         <v>31</v>
       </c>
       <c r="M105" s="27" t="str">
-        <f>IF(ISBLANK(A105),L105, CONCATENATE(L105,"_",A105))</f>
+        <f t="shared" si="11"/>
         <v>vehicle_parking_area_PGVL</v>
       </c>
       <c r="N105" s="27"/>
       <c r="O105" s="27" t="str">
-        <f>IF(ISBLANK(A105),(CONCATENATE("''Level_Name'' = '",E105,"' AND ''Level'' = '",F105,"' AND ''Color'' = '",G105,"' AND ''Linetype'' = '",H105,"' AND ''LineWt''= '",J105,"'")),(CONCATENATE("''Level_Name'' = '",E105,"' AND ''Level'' = '",F105,"' AND ''Color'' = '",G105,"' AND ''Linetype'' = '",H105,"' AND ''LineWt''= '",J105,"' AND ''RefName'' = '",A105,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_UNPK' AND ''Level'' = '8' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'PGVL'</v>
       </c>
       <c r="P105" s="5"/>
@@ -10843,7 +10836,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>429</v>
       </c>
@@ -10866,7 +10859,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="9" t="str">
-        <f>IF(ISBLANK(I106),"No Value",IF(I106=0,"Solid",IF(I106=1,"Dotted",IF(I106=2,"Medium-Dashed",IF(I106=3,"LongDashed",IF(I106=4,"LongDashed Dot Dot",IF(I106=6,"Medium-Dashed Dot Dot",IF(I106=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I106" s="6">
@@ -10882,12 +10875,12 @@
         <v>92</v>
       </c>
       <c r="M106" s="27" t="str">
-        <f>IF(ISBLANK(A106),L106, CONCATENATE(L106,"_",A106))</f>
+        <f t="shared" si="11"/>
         <v>picnic_area_PICNIC</v>
       </c>
       <c r="N106" s="27"/>
       <c r="O106" s="27" t="str">
-        <f>IF(ISBLANK(A106),(CONCATENATE("''Level_Name'' = '",E106,"' AND ''Level'' = '",F106,"' AND ''Color'' = '",G106,"' AND ''Linetype'' = '",H106,"' AND ''LineWt''= '",J106,"'")),(CONCATENATE("''Level_Name'' = '",E106,"' AND ''Level'' = '",F106,"' AND ''Color'' = '",G106,"' AND ''Linetype'' = '",H106,"' AND ''LineWt''= '",J106,"' AND ''RefName'' = '",A106,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PICNIC'</v>
       </c>
       <c r="P106" s="5"/>
@@ -10919,7 +10912,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>522</v>
       </c>
@@ -10942,7 +10935,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="9" t="str">
-        <f>IF(ISBLANK(I107),"No Value",IF(I107=0,"Solid",IF(I107=1,"Dotted",IF(I107=2,"Medium-Dashed",IF(I107=3,"LongDashed",IF(I107=4,"LongDashed Dot Dot",IF(I107=6,"Medium-Dashed Dot Dot",IF(I107=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I107" s="6">
@@ -10958,12 +10951,12 @@
         <v>523</v>
       </c>
       <c r="M107" s="27" t="str">
-        <f>IF(ISBLANK(A107),L107, CONCATENATE(L107,"_",A107))</f>
+        <f t="shared" si="11"/>
         <v>mooring_facility_area_PIER</v>
       </c>
       <c r="N107" s="27"/>
       <c r="O107" s="27" t="str">
-        <f>IF(ISBLANK(A107),(CONCATENATE("''Level_Name'' = '",E107,"' AND ''Level'' = '",F107,"' AND ''Color'' = '",G107,"' AND ''Linetype'' = '",H107,"' AND ''LineWt''= '",J107,"'")),(CONCATENATE("''Level_Name'' = '",E107,"' AND ''Level'' = '",F107,"' AND ''Color'' = '",G107,"' AND ''Linetype'' = '",H107,"' AND ''LineWt''= '",J107,"' AND ''RefName'' = '",A107,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PIER'</v>
       </c>
       <c r="P107" s="5"/>
@@ -10998,7 +10991,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>261</v>
       </c>
@@ -11021,7 +11014,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="9" t="str">
-        <f>IF(ISBLANK(I108),"No Value",IF(I108=0,"Solid",IF(I108=1,"Dotted",IF(I108=2,"Medium-Dashed",IF(I108=3,"LongDashed",IF(I108=4,"LongDashed Dot Dot",IF(I108=6,"Medium-Dashed Dot Dot",IF(I108=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I108" s="6">
@@ -11037,12 +11030,12 @@
         <v>37</v>
       </c>
       <c r="M108" s="27" t="str">
-        <f>IF(ISBLANK(A108),L108, CONCATENATE(L108,"_",A108))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_PILE</v>
       </c>
       <c r="N108" s="27"/>
       <c r="O108" s="27" t="str">
-        <f>IF(ISBLANK(A108),(CONCATENATE("''Level_Name'' = '",E108,"' AND ''Level'' = '",F108,"' AND ''Color'' = '",G108,"' AND ''Linetype'' = '",H108,"' AND ''LineWt''= '",J108,"'")),(CONCATENATE("''Level_Name'' = '",E108,"' AND ''Level'' = '",F108,"' AND ''Color'' = '",G108,"' AND ''Linetype'' = '",H108,"' AND ''LineWt''= '",J108,"' AND ''RefName'' = '",A108,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PILE'</v>
       </c>
       <c r="P108" s="5"/>
@@ -11074,7 +11067,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>626</v>
       </c>
@@ -11097,7 +11090,7 @@
         <v>7</v>
       </c>
       <c r="H109" s="9" t="b">
-        <f>IF(ISBLANK(I109),"No Value",IF(I109=0,"Solid",IF(I109=1,"Dotted",IF(I109=2,"Medium-Dashed",IF(I109=3,"LongDashed",IF(I109=4,"LongDashed Dot Dot",IF(I109=6,"Medium-Dashed Dot Dot",IF(I109=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I109" s="7">
@@ -11113,12 +11106,12 @@
         <v>517</v>
       </c>
       <c r="M109" s="27" t="str">
-        <f>IF(ISBLANK(A109),L109, CONCATENATE(L109,"_",A109))</f>
+        <f t="shared" si="11"/>
         <v>utility_area_PIPES</v>
       </c>
       <c r="N109" s="27"/>
       <c r="O109" s="27" t="str">
-        <f>IF(ISBLANK(A109),(CONCATENATE("''Level_Name'' = '",E109,"' AND ''Level'' = '",F109,"' AND ''Color'' = '",G109,"' AND ''Linetype'' = '",H109,"' AND ''LineWt''= '",J109,"'")),(CONCATENATE("''Level_Name'' = '",E109,"' AND ''Level'' = '",F109,"' AND ''Color'' = '",G109,"' AND ''Linetype'' = '",H109,"' AND ''LineWt''= '",J109,"' AND ''RefName'' = '",A109,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_PIPE' AND ''Level'' = '28' AND ''Color'' = '7' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1' AND ''RefName'' = 'PIPES'</v>
       </c>
       <c r="P109" s="5"/>
@@ -11153,7 +11146,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>260</v>
       </c>
@@ -11176,7 +11169,7 @@
         <v>5</v>
       </c>
       <c r="H110" s="9" t="str">
-        <f>IF(ISBLANK(I110),"No Value",IF(I110=0,"Solid",IF(I110=1,"Dotted",IF(I110=2,"Medium-Dashed",IF(I110=3,"LongDashed",IF(I110=4,"LongDashed Dot Dot",IF(I110=6,"Medium-Dashed Dot Dot",IF(I110=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I110" s="6">
@@ -11192,12 +11185,12 @@
         <v>37</v>
       </c>
       <c r="M110" s="27" t="str">
-        <f>IF(ISBLANK(A110),L110, CONCATENATE(L110,"_",A110))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_PLANTER</v>
       </c>
       <c r="N110" s="27"/>
       <c r="O110" s="27" t="str">
-        <f>IF(ISBLANK(A110),(CONCATENATE("''Level_Name'' = '",E110,"' AND ''Level'' = '",F110,"' AND ''Color'' = '",G110,"' AND ''Linetype'' = '",H110,"' AND ''LineWt''= '",J110,"'")),(CONCATENATE("''Level_Name'' = '",E110,"' AND ''Level'' = '",F110,"' AND ''Color'' = '",G110,"' AND ''Linetype'' = '",H110,"' AND ''LineWt''= '",J110,"' AND ''RefName'' = '",A110,"'")))</f>
+        <f t="shared" si="13"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'PLANTER'</v>
       </c>
       <c r="P110" s="5"/>
@@ -11229,7 +11222,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
@@ -11250,7 +11243,7 @@
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="9" t="str">
-        <f>IF(ISBLANK(I111),"No Value",IF(I111=0,"Solid",IF(I111=1,"Dotted",IF(I111=2,"Medium-Dashed",IF(I111=3,"LongDashed",IF(I111=4,"LongDashed Dot Dot",IF(I111=6,"Medium-Dashed Dot Dot",IF(I111=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I111" s="6"/>
@@ -11262,7 +11255,7 @@
         <v>61</v>
       </c>
       <c r="M111" s="27" t="str">
-        <f>IF(ISBLANK(A111),L111, CONCATENATE(L111,"_",A111))</f>
+        <f t="shared" si="11"/>
         <v>utility_pole_tower_point_POLE</v>
       </c>
       <c r="N111" s="27"/>
@@ -11299,7 +11292,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>618</v>
       </c>
@@ -11322,7 +11315,7 @@
         <v>4</v>
       </c>
       <c r="H112" s="9" t="str">
-        <f>IF(ISBLANK(I112),"No Value",IF(I112=0,"Solid",IF(I112=1,"Dotted",IF(I112=2,"Medium-Dashed",IF(I112=3,"LongDashed",IF(I112=4,"LongDashed Dot Dot",IF(I112=6,"Medium-Dashed Dot Dot",IF(I112=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I112" s="6">
@@ -11338,7 +11331,7 @@
         <v>159</v>
       </c>
       <c r="M112" s="27" t="str">
-        <f>IF(ISBLANK(A112),L112, CONCATENATE(L112,"_",A112))</f>
+        <f t="shared" si="11"/>
         <v>swimming_pool_area_POOL</v>
       </c>
       <c r="N112" s="27"/>
@@ -11375,7 +11368,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>48</v>
       </c>
@@ -11396,7 +11389,7 @@
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="9" t="str">
-        <f>IF(ISBLANK(I113),"No Value",IF(I113=0,"Solid",IF(I113=1,"Dotted",IF(I113=2,"Medium-Dashed",IF(I113=3,"LongDashed",IF(I113=4,"LongDashed Dot Dot",IF(I113=6,"Medium-Dashed Dot Dot",IF(I113=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I113" s="6"/>
@@ -11408,7 +11401,7 @@
         <v>61</v>
       </c>
       <c r="M113" s="27" t="str">
-        <f>IF(ISBLANK(A113),L113, CONCATENATE(L113,"_",A113))</f>
+        <f t="shared" si="11"/>
         <v>utility_pole_tower_point_PPOLEX</v>
       </c>
       <c r="N113" s="27"/>
@@ -11445,7 +11438,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>230</v>
       </c>
@@ -11468,7 +11461,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="9" t="str">
-        <f>IF(ISBLANK(I114),"No Value",IF(I114=0,"Solid",IF(I114=1,"Dotted",IF(I114=2,"Medium-Dashed",IF(I114=3,"LongDashed",IF(I114=4,"LongDashed Dot Dot",IF(I114=6,"Medium-Dashed Dot Dot",IF(I114=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I114" s="6">
@@ -11484,7 +11477,7 @@
         <v>267</v>
       </c>
       <c r="M114" s="27" t="str">
-        <f>IF(ISBLANK(A114),L114, CONCATENATE(L114,"_",A114))</f>
+        <f t="shared" si="11"/>
         <v>land_cover_area_PTGRS</v>
       </c>
       <c r="N114" s="27"/>
@@ -11521,7 +11514,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>223</v>
       </c>
@@ -11544,7 +11537,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="9" t="str">
-        <f>IF(ISBLANK(I115),"No Value",IF(I115=0,"Solid",IF(I115=1,"Dotted",IF(I115=2,"Medium-Dashed",IF(I115=3,"LongDashed",IF(I115=4,"LongDashed Dot Dot",IF(I115=6,"Medium-Dashed Dot Dot",IF(I115=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I115" s="6">
@@ -11560,7 +11553,7 @@
         <v>37</v>
       </c>
       <c r="M115" s="27" t="str">
-        <f>IF(ISBLANK(A115),L115, CONCATENATE(L115,"_",A115))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_PTO</v>
       </c>
       <c r="N115" s="27"/>
@@ -11597,7 +11590,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>498</v>
       </c>
@@ -11618,7 +11611,7 @@
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="9" t="str">
-        <f>IF(ISBLANK(I116),"No Value",IF(I116=0,"Solid",IF(I116=1,"Dotted",IF(I116=2,"Medium-Dashed",IF(I116=3,"LongDashed",IF(I116=4,"LongDashed Dot Dot",IF(I116=6,"Medium-Dashed Dot Dot",IF(I116=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>No Value</v>
       </c>
       <c r="I116" s="6"/>
@@ -11630,7 +11623,7 @@
         <v>61</v>
       </c>
       <c r="M116" s="27" t="str">
-        <f>IF(ISBLANK(A116),L116, CONCATENATE(L116,"_",A116))</f>
+        <f t="shared" si="11"/>
         <v>utility_pole_tower_point_PWRLT</v>
       </c>
       <c r="N116" s="27"/>
@@ -11667,7 +11660,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>18</v>
       </c>
@@ -11690,7 +11683,7 @@
         <v>3</v>
       </c>
       <c r="H117" s="9" t="str">
-        <f>IF(ISBLANK(I117),"No Value",IF(I117=0,"Solid",IF(I117=1,"Dotted",IF(I117=2,"Medium-Dashed",IF(I117=3,"LongDashed",IF(I117=4,"LongDashed Dot Dot",IF(I117=6,"Medium-Dashed Dot Dot",IF(I117=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I117" s="6">
@@ -11706,12 +11699,12 @@
         <v>94</v>
       </c>
       <c r="M117" s="27" t="str">
-        <f>IF(ISBLANK(A117),L117, CONCATENATE(L117,"_",A117))</f>
+        <f t="shared" si="11"/>
         <v>road_area_RA</v>
       </c>
       <c r="N117" s="27"/>
       <c r="O117" s="27" t="str">
-        <f>IF(ISBLANK(A117),(CONCATENATE("''Level_Name'' = '",E117,"' AND ''Level'' = '",F117,"' AND ''Color'' = '",G117,"' AND ''Linetype'' = '",H117,"' AND ''LineWt''= '",J117,"'")),(CONCATENATE("''Level_Name'' = '",E117,"' AND ''Level'' = '",F117,"' AND ''Color'' = '",G117,"' AND ''Linetype'' = '",H117,"' AND ''LineWt''= '",J117,"' AND ''RefName'' = '",A117,"'")))</f>
+        <f t="shared" ref="O117:O136" si="14">IF(ISBLANK(A117),(CONCATENATE("''Level_Name'' = '",E117,"' AND ''Level'' = '",F117,"' AND ''Color'' = '",G117,"' AND ''Linetype'' = '",H117,"' AND ''LineWt''= '",J117,"'")),(CONCATENATE("''Level_Name'' = '",E117,"' AND ''Level'' = '",F117,"' AND ''Color'' = '",G117,"' AND ''Linetype'' = '",H117,"' AND ''LineWt''= '",J117,"' AND ''RefName'' = '",A117,"'")))</f>
         <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'RA'</v>
       </c>
       <c r="P117" s="5" t="s">
@@ -11745,7 +11738,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>256</v>
       </c>
@@ -11768,7 +11761,7 @@
         <v>5</v>
       </c>
       <c r="H118" s="9" t="str">
-        <f>IF(ISBLANK(I118),"No Value",IF(I118=0,"Solid",IF(I118=1,"Dotted",IF(I118=2,"Medium-Dashed",IF(I118=3,"LongDashed",IF(I118=4,"LongDashed Dot Dot",IF(I118=6,"Medium-Dashed Dot Dot",IF(I118=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I118" s="6">
@@ -11784,12 +11777,12 @@
         <v>257</v>
       </c>
       <c r="M118" s="27" t="str">
-        <f>IF(ISBLANK(A118),L118, CONCATENATE(L118,"_",A118))</f>
+        <f t="shared" si="11"/>
         <v>radar_area_RADAR</v>
       </c>
       <c r="N118" s="27"/>
       <c r="O118" s="27" t="str">
-        <f>IF(ISBLANK(A118),(CONCATENATE("''Level_Name'' = '",E118,"' AND ''Level'' = '",F118,"' AND ''Color'' = '",G118,"' AND ''Linetype'' = '",H118,"' AND ''LineWt''= '",J118,"'")),(CONCATENATE("''Level_Name'' = '",E118,"' AND ''Level'' = '",F118,"' AND ''Color'' = '",G118,"' AND ''Linetype'' = '",H118,"' AND ''LineWt''= '",J118,"' AND ''RefName'' = '",A118,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RADAR'</v>
       </c>
       <c r="U118" s="8" t="s">
@@ -11817,7 +11810,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>699</v>
       </c>
@@ -11840,7 +11833,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="9" t="str">
-        <f>IF(ISBLANK(I119),"No Value",IF(I119=0,"Solid",IF(I119=1,"Dotted",IF(I119=2,"Medium-Dashed",IF(I119=3,"LongDashed",IF(I119=4,"LongDashed Dot Dot",IF(I119=6,"Medium-Dashed Dot Dot",IF(I119=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I119" s="6">
@@ -11856,12 +11849,12 @@
         <v>208</v>
       </c>
       <c r="M119" s="27" t="str">
-        <f>IF(ISBLANK(A119),L119, CONCATENATE(L119,"_",A119))</f>
+        <f t="shared" si="11"/>
         <v>comm_antenna_area_RADIO TOWER</v>
       </c>
       <c r="N119" s="27"/>
       <c r="O119" s="27" t="str">
-        <f>IF(ISBLANK(A119),(CONCATENATE("''Level_Name'' = '",E119,"' AND ''Level'' = '",F119,"' AND ''Color'' = '",G119,"' AND ''Linetype'' = '",H119,"' AND ''LineWt''= '",J119,"'")),(CONCATENATE("''Level_Name'' = '",E119,"' AND ''Level'' = '",F119,"' AND ''Color'' = '",G119,"' AND ''Linetype'' = '",H119,"' AND ''LineWt''= '",J119,"' AND ''RefName'' = '",A119,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RADIO TOWER'</v>
       </c>
       <c r="P119" s="8"/>
@@ -11893,7 +11886,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>645</v>
       </c>
@@ -11916,7 +11909,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="9" t="str">
-        <f>IF(ISBLANK(I120),"No Value",IF(I120=0,"Solid",IF(I120=1,"Dotted",IF(I120=2,"Medium-Dashed",IF(I120=3,"LongDashed",IF(I120=4,"LongDashed Dot Dot",IF(I120=6,"Medium-Dashed Dot Dot",IF(I120=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I120" s="6">
@@ -11932,12 +11925,12 @@
         <v>37</v>
       </c>
       <c r="M120" s="27" t="str">
-        <f>IF(ISBLANK(A120),L120, CONCATENATE(L120,"_",A120))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_RAMP</v>
       </c>
       <c r="N120" s="27"/>
       <c r="O120" s="27" t="str">
-        <f>IF(ISBLANK(A120),(CONCATENATE("''Level_Name'' = '",E120,"' AND ''Level'' = '",F120,"' AND ''Color'' = '",G120,"' AND ''Linetype'' = '",H120,"' AND ''LineWt''= '",J120,"'")),(CONCATENATE("''Level_Name'' = '",E120,"' AND ''Level'' = '",F120,"' AND ''Color'' = '",G120,"' AND ''Linetype'' = '",H120,"' AND ''LineWt''= '",J120,"' AND ''RefName'' = '",A120,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RAMP'</v>
       </c>
       <c r="P120" s="23"/>
@@ -11969,7 +11962,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>441</v>
       </c>
@@ -11992,7 +11985,7 @@
         <v>5</v>
       </c>
       <c r="H121" s="9" t="str">
-        <f>IF(ISBLANK(I121),"No Value",IF(I121=0,"Solid",IF(I121=1,"Dotted",IF(I121=2,"Medium-Dashed",IF(I121=3,"LongDashed",IF(I121=4,"LongDashed Dot Dot",IF(I121=6,"Medium-Dashed Dot Dot",IF(I121=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I121" s="7">
@@ -12008,12 +12001,12 @@
         <v>443</v>
       </c>
       <c r="M121" s="27" t="str">
-        <f>IF(ISBLANK(A121),L121, CONCATENATE(L121,"_",A121))</f>
+        <f t="shared" si="11"/>
         <v>military_range_area_RANGE</v>
       </c>
       <c r="N121" s="27"/>
       <c r="O121" s="27" t="str">
-        <f>IF(ISBLANK(A121),(CONCATENATE("''Level_Name'' = '",E121,"' AND ''Level'' = '",F121,"' AND ''Color'' = '",G121,"' AND ''Linetype'' = '",H121,"' AND ''LineWt''= '",J121,"'")),(CONCATENATE("''Level_Name'' = '",E121,"' AND ''Level'' = '",F121,"' AND ''Color'' = '",G121,"' AND ''Linetype'' = '",H121,"' AND ''LineWt''= '",J121,"' AND ''RefName'' = '",A121,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'RANGE'</v>
       </c>
       <c r="U121" s="8" t="s">
@@ -12041,7 +12034,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>70</v>
       </c>
@@ -12064,7 +12057,7 @@
         <v>3</v>
       </c>
       <c r="H122" s="9" t="str">
-        <f>IF(ISBLANK(I122),"No Value",IF(I122=0,"Solid",IF(I122=1,"Dotted",IF(I122=2,"Medium-Dashed",IF(I122=3,"LongDashed",IF(I122=4,"LongDashed Dot Dot",IF(I122=6,"Medium-Dashed Dot Dot",IF(I122=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I122" s="6">
@@ -12080,12 +12073,12 @@
         <v>94</v>
       </c>
       <c r="M122" s="27" t="str">
-        <f>IF(ISBLANK(A122),L122, CONCATENATE(L122,"_",A122))</f>
+        <f t="shared" si="11"/>
         <v>road_area_RC</v>
       </c>
       <c r="N122" s="27"/>
       <c r="O122" s="27" t="str">
-        <f>IF(ISBLANK(A122),(CONCATENATE("''Level_Name'' = '",E122,"' AND ''Level'' = '",F122,"' AND ''Color'' = '",G122,"' AND ''Linetype'' = '",H122,"' AND ''LineWt''= '",J122,"'")),(CONCATENATE("''Level_Name'' = '",E122,"' AND ''Level'' = '",F122,"' AND ''Color'' = '",G122,"' AND ''Linetype'' = '",H122,"' AND ''LineWt''= '",J122,"' AND ''RefName'' = '",A122,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_ROAD_TW' AND ''Level'' = '1' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'RC'</v>
       </c>
       <c r="P122" s="5"/>
@@ -12117,7 +12110,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>20</v>
       </c>
@@ -12140,7 +12133,7 @@
         <v>3</v>
       </c>
       <c r="H123" s="9" t="str">
-        <f>IF(ISBLANK(I123),"No Value",IF(I123=0,"Solid",IF(I123=1,"Dotted",IF(I123=2,"Medium-Dashed",IF(I123=3,"LongDashed",IF(I123=4,"LongDashed Dot Dot",IF(I123=6,"Medium-Dashed Dot Dot",IF(I123=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I123" s="6">
@@ -12156,12 +12149,12 @@
         <v>94</v>
       </c>
       <c r="M123" s="27" t="str">
-        <f>IF(ISBLANK(A123),L123, CONCATENATE(L123,"_",A123))</f>
+        <f t="shared" si="11"/>
         <v>road_area_RDT</v>
       </c>
       <c r="N123" s="27"/>
       <c r="O123" s="27" t="str">
-        <f>IF(ISBLANK(A123),(CONCATENATE("''Level_Name'' = '",E123,"' AND ''Level'' = '",F123,"' AND ''Color'' = '",G123,"' AND ''Linetype'' = '",H123,"' AND ''LineWt''= '",J123,"'")),(CONCATENATE("''Level_Name'' = '",E123,"' AND ''Level'' = '",F123,"' AND ''Color'' = '",G123,"' AND ''Linetype'' = '",H123,"' AND ''LineWt''= '",J123,"' AND ''RefName'' = '",A123,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'RDT'</v>
       </c>
       <c r="P123" s="5"/>
@@ -12193,7 +12186,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>486</v>
       </c>
@@ -12216,7 +12209,7 @@
         <v>6</v>
       </c>
       <c r="H124" s="9" t="str">
-        <f>IF(ISBLANK(I124),"No Value",IF(I124=0,"Solid",IF(I124=1,"Dotted",IF(I124=2,"Medium-Dashed",IF(I124=3,"LongDashed",IF(I124=4,"LongDashed Dot Dot",IF(I124=6,"Medium-Dashed Dot Dot",IF(I124=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Dotted</v>
       </c>
       <c r="I124" s="6">
@@ -12232,12 +12225,12 @@
         <v>37</v>
       </c>
       <c r="M124" s="27" t="str">
-        <f>IF(ISBLANK(A124),L124, CONCATENATE(L124,"_",A124))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_RIPRAP</v>
       </c>
       <c r="N124" s="27"/>
       <c r="O124" s="27" t="str">
-        <f>IF(ISBLANK(A124),(CONCATENATE("''Level_Name'' = '",E124,"' AND ''Level'' = '",F124,"' AND ''Color'' = '",G124,"' AND ''Linetype'' = '",H124,"' AND ''LineWt''= '",J124,"'")),(CONCATENATE("''Level_Name'' = '",E124,"' AND ''Level'' = '",F124,"' AND ''Color'' = '",G124,"' AND ''Linetype'' = '",H124,"' AND ''LineWt''= '",J124,"' AND ''RefName'' = '",A124,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_ROCK' AND ''Level'' = '22' AND ''Color'' = '6' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0' AND ''RefName'' = 'RIPRAP'</v>
       </c>
       <c r="U124" s="8" t="s">
@@ -12265,7 +12258,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>235</v>
       </c>
@@ -12288,7 +12281,7 @@
         <v>6</v>
       </c>
       <c r="H125" s="9" t="str">
-        <f>IF(ISBLANK(I125),"No Value",IF(I125=0,"Solid",IF(I125=1,"Dotted",IF(I125=2,"Medium-Dashed",IF(I125=3,"LongDashed",IF(I125=4,"LongDashed Dot Dot",IF(I125=6,"Medium-Dashed Dot Dot",IF(I125=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Dotted</v>
       </c>
       <c r="I125" s="6">
@@ -12304,12 +12297,12 @@
         <v>37</v>
       </c>
       <c r="M125" s="27" t="str">
-        <f>IF(ISBLANK(A125),L125, CONCATENATE(L125,"_",A125))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_ROCK</v>
       </c>
       <c r="N125" s="27"/>
       <c r="O125" s="27" t="str">
-        <f>IF(ISBLANK(A125),(CONCATENATE("''Level_Name'' = '",E125,"' AND ''Level'' = '",F125,"' AND ''Color'' = '",G125,"' AND ''Linetype'' = '",H125,"' AND ''LineWt''= '",J125,"'")),(CONCATENATE("''Level_Name'' = '",E125,"' AND ''Level'' = '",F125,"' AND ''Color'' = '",G125,"' AND ''Linetype'' = '",H125,"' AND ''LineWt''= '",J125,"' AND ''RefName'' = '",A125,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_ROCK' AND ''Level'' = '22' AND ''Color'' = '6' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0' AND ''RefName'' = 'ROCK'</v>
       </c>
       <c r="U125" s="8" t="s">
@@ -12337,7 +12330,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>247</v>
       </c>
@@ -12360,7 +12353,7 @@
         <v>6</v>
       </c>
       <c r="H126" s="9" t="str">
-        <f>IF(ISBLANK(I126),"No Value",IF(I126=0,"Solid",IF(I126=1,"Dotted",IF(I126=2,"Medium-Dashed",IF(I126=3,"LongDashed",IF(I126=4,"LongDashed Dot Dot",IF(I126=6,"Medium-Dashed Dot Dot",IF(I126=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Dotted</v>
       </c>
       <c r="I126" s="6">
@@ -12376,12 +12369,12 @@
         <v>37</v>
       </c>
       <c r="M126" s="27" t="str">
-        <f>IF(ISBLANK(A126),L126, CONCATENATE(L126,"_",A126))</f>
+        <f t="shared" si="11"/>
         <v>miscellaneous_feature_area_ROCKS</v>
       </c>
       <c r="N126" s="27"/>
       <c r="O126" s="27" t="str">
-        <f>IF(ISBLANK(A126),(CONCATENATE("''Level_Name'' = '",E126,"' AND ''Level'' = '",F126,"' AND ''Color'' = '",G126,"' AND ''Linetype'' = '",H126,"' AND ''LineWt''= '",J126,"'")),(CONCATENATE("''Level_Name'' = '",E126,"' AND ''Level'' = '",F126,"' AND ''Color'' = '",G126,"' AND ''Linetype'' = '",H126,"' AND ''LineWt''= '",J126,"' AND ''RefName'' = '",A126,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_ROCK' AND ''Level'' = '22' AND ''Color'' = '6' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0' AND ''RefName'' = 'ROCKS'</v>
       </c>
       <c r="U126" s="8" t="s">
@@ -12409,7 +12402,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>226</v>
       </c>
@@ -12432,7 +12425,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="9" t="str">
-        <f>IF(ISBLANK(I127),"No Value",IF(I127=0,"Solid",IF(I127=1,"Dotted",IF(I127=2,"Medium-Dashed",IF(I127=3,"LongDashed",IF(I127=4,"LongDashed Dot Dot",IF(I127=6,"Medium-Dashed Dot Dot",IF(I127=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>LongDashed</v>
       </c>
       <c r="I127" s="6">
@@ -12448,12 +12441,12 @@
         <v>110</v>
       </c>
       <c r="M127" s="27" t="str">
-        <f>IF(ISBLANK(A127),L127, CONCATENATE(L127,"_",A127))</f>
+        <f t="shared" si="11"/>
         <v>structure_existing_area_RUIN</v>
       </c>
       <c r="N127" s="27"/>
       <c r="O127" s="27" t="str">
-        <f>IF(ISBLANK(A127),(CONCATENATE("''Level_Name'' = '",E127,"' AND ''Level'' = '",F127,"' AND ''Color'' = '",G127,"' AND ''Linetype'' = '",H127,"' AND ''LineWt''= '",J127,"'")),(CONCATENATE("''Level_Name'' = '",E127,"' AND ''Level'' = '",F127,"' AND ''Color'' = '",G127,"' AND ''Linetype'' = '",H127,"' AND ''LineWt''= '",J127,"' AND ''RefName'' = '",A127,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '2' AND ''RefName'' = 'RUIN'</v>
       </c>
       <c r="P127" s="5"/>
@@ -12485,7 +12478,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>163</v>
       </c>
@@ -12508,7 +12501,7 @@
         <v>6</v>
       </c>
       <c r="H128" s="9" t="str">
-        <f>IF(ISBLANK(I128),"No Value",IF(I128=0,"Solid",IF(I128=1,"Dotted",IF(I128=2,"Medium-Dashed",IF(I128=3,"LongDashed",IF(I128=4,"LongDashed Dot Dot",IF(I128=6,"Medium-Dashed Dot Dot",IF(I128=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I128" s="6">
@@ -12524,12 +12517,12 @@
         <v>32</v>
       </c>
       <c r="M128" s="27" t="str">
-        <f>IF(ISBLANK(A128),L128, CONCATENATE(L128,"_",A128))</f>
+        <f t="shared" si="11"/>
         <v>pedestrian_sidewalk_area_SA</v>
       </c>
       <c r="N128" s="27"/>
       <c r="O128" s="27" t="str">
-        <f>IF(ISBLANK(A128),(CONCATENATE("''Level_Name'' = '",E128,"' AND ''Level'' = '",F128,"' AND ''Color'' = '",G128,"' AND ''Linetype'' = '",H128,"' AND ''LineWt''= '",J128,"'")),(CONCATENATE("''Level_Name'' = '",E128,"' AND ''Level'' = '",F128,"' AND ''Color'' = '",G128,"' AND ''Linetype'' = '",H128,"' AND ''LineWt''= '",J128,"' AND ''RefName'' = '",A128,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SA'</v>
       </c>
       <c r="P128" s="5"/>
@@ -12561,7 +12554,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>628</v>
       </c>
@@ -12584,7 +12577,7 @@
         <v>6</v>
       </c>
       <c r="H129" s="9" t="str">
-        <f>IF(ISBLANK(I129),"No Value",IF(I129=0,"Solid",IF(I129=1,"Dotted",IF(I129=2,"Medium-Dashed",IF(I129=3,"LongDashed",IF(I129=4,"LongDashed Dot Dot",IF(I129=6,"Medium-Dashed Dot Dot",IF(I129=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I129" s="6">
@@ -12600,12 +12593,12 @@
         <v>32</v>
       </c>
       <c r="M129" s="27" t="str">
-        <f>IF(ISBLANK(A129),L129, CONCATENATE(L129,"_",A129))</f>
+        <f t="shared" si="11"/>
         <v>pedestrian_sidewalk_area_SAB</v>
       </c>
       <c r="N129" s="27"/>
       <c r="O129" s="27" t="str">
-        <f>IF(ISBLANK(A129),(CONCATENATE("''Level_Name'' = '",E129,"' AND ''Level'' = '",F129,"' AND ''Color'' = '",G129,"' AND ''Linetype'' = '",H129,"' AND ''LineWt''= '",J129,"'")),(CONCATENATE("''Level_Name'' = '",E129,"' AND ''Level'' = '",F129,"' AND ''Color'' = '",G129,"' AND ''Linetype'' = '",H129,"' AND ''LineWt''= '",J129,"' AND ''RefName'' = '",A129,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SAB'</v>
       </c>
       <c r="P129" s="5"/>
@@ -12640,7 +12633,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>22</v>
       </c>
@@ -12663,7 +12656,7 @@
         <v>6</v>
       </c>
       <c r="H130" s="9" t="str">
-        <f>IF(ISBLANK(I130),"No Value",IF(I130=0,"Solid",IF(I130=1,"Dotted",IF(I130=2,"Medium-Dashed",IF(I130=3,"LongDashed",IF(I130=4,"LongDashed Dot Dot",IF(I130=6,"Medium-Dashed Dot Dot",IF(I130=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="10"/>
         <v>Solid</v>
       </c>
       <c r="I130" s="6">
@@ -12679,12 +12672,12 @@
         <v>32</v>
       </c>
       <c r="M130" s="27" t="str">
-        <f>IF(ISBLANK(A130),L130, CONCATENATE(L130,"_",A130))</f>
+        <f t="shared" si="11"/>
         <v>pedestrian_sidewalk_area_SC</v>
       </c>
       <c r="N130" s="27"/>
       <c r="O130" s="27" t="str">
-        <f>IF(ISBLANK(A130),(CONCATENATE("''Level_Name'' = '",E130,"' AND ''Level'' = '",F130,"' AND ''Color'' = '",G130,"' AND ''Linetype'' = '",H130,"' AND ''LineWt''= '",J130,"'")),(CONCATENATE("''Level_Name'' = '",E130,"' AND ''Level'' = '",F130,"' AND ''Color'' = '",G130,"' AND ''Linetype'' = '",H130,"' AND ''LineWt''= '",J130,"' AND ''RefName'' = '",A130,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SC'</v>
       </c>
       <c r="P130" s="5"/>
@@ -12716,7 +12709,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1">
       <c r="A131" s="27" t="s">
         <v>619</v>
       </c>
@@ -12739,7 +12732,7 @@
         <v>5</v>
       </c>
       <c r="H131" s="9" t="str">
-        <f>IF(ISBLANK(I131),"No Value",IF(I131=0,"Solid",IF(I131=1,"Dotted",IF(I131=2,"Medium-Dashed",IF(I131=3,"LongDashed",IF(I131=4,"LongDashed Dot Dot",IF(I131=6,"Medium-Dashed Dot Dot",IF(I131=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H131:H194" si="15">IF(ISBLANK(I131),"No Value",IF(I131=0,"Solid",IF(I131=1,"Dotted",IF(I131=2,"Medium-Dashed",IF(I131=3,"LongDashed",IF(I131=4,"LongDashed Dot Dot",IF(I131=6,"Medium-Dashed Dot Dot",IF(I131=7,"Solid Medium-Dashed" ))))))))</f>
         <v>Solid</v>
       </c>
       <c r="I131" s="6">
@@ -12755,12 +12748,12 @@
         <v>620</v>
       </c>
       <c r="M131" s="27" t="str">
-        <f>IF(ISBLANK(A131),L131, CONCATENATE(L131,"_",A131))</f>
+        <f t="shared" ref="M131:M194" si="16">IF(ISBLANK(A131),L131, CONCATENATE(L131,"_",A131))</f>
         <v>weigh_station_area_SCALES</v>
       </c>
       <c r="N131" s="27"/>
       <c r="O131" s="27" t="str">
-        <f>IF(ISBLANK(A131),(CONCATENATE("''Level_Name'' = '",E131,"' AND ''Level'' = '",F131,"' AND ''Color'' = '",G131,"' AND ''Linetype'' = '",H131,"' AND ''LineWt''= '",J131,"'")),(CONCATENATE("''Level_Name'' = '",E131,"' AND ''Level'' = '",F131,"' AND ''Color'' = '",G131,"' AND ''Linetype'' = '",H131,"' AND ''LineWt''= '",J131,"' AND ''RefName'' = '",A131,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SCALES'</v>
       </c>
       <c r="P131" s="27"/>
@@ -12795,7 +12788,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>630</v>
       </c>
@@ -12818,7 +12811,7 @@
         <v>6</v>
       </c>
       <c r="H132" s="9" t="str">
-        <f>IF(ISBLANK(I132),"No Value",IF(I132=0,"Solid",IF(I132=1,"Dotted",IF(I132=2,"Medium-Dashed",IF(I132=3,"LongDashed",IF(I132=4,"LongDashed Dot Dot",IF(I132=6,"Medium-Dashed Dot Dot",IF(I132=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I132" s="6">
@@ -12834,12 +12827,12 @@
         <v>32</v>
       </c>
       <c r="M132" s="27" t="str">
-        <f>IF(ISBLANK(A132),L132, CONCATENATE(L132,"_",A132))</f>
+        <f t="shared" si="16"/>
         <v>pedestrian_sidewalk_area_SCB</v>
       </c>
       <c r="N132" s="27"/>
       <c r="O132" s="27" t="str">
-        <f>IF(ISBLANK(A132),(CONCATENATE("''Level_Name'' = '",E132,"' AND ''Level'' = '",F132,"' AND ''Color'' = '",G132,"' AND ''Linetype'' = '",H132,"' AND ''LineWt''= '",J132,"'")),(CONCATENATE("''Level_Name'' = '",E132,"' AND ''Level'' = '",F132,"' AND ''Color'' = '",G132,"' AND ''Linetype'' = '",H132,"' AND ''LineWt''= '",J132,"' AND ''RefName'' = '",A132,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SCB'</v>
       </c>
       <c r="P132" s="5"/>
@@ -12874,7 +12867,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>71</v>
       </c>
@@ -12897,7 +12890,7 @@
         <v>6</v>
       </c>
       <c r="H133" s="9" t="str">
-        <f>IF(ISBLANK(I133),"No Value",IF(I133=0,"Solid",IF(I133=1,"Dotted",IF(I133=2,"Medium-Dashed",IF(I133=3,"LongDashed",IF(I133=4,"LongDashed Dot Dot",IF(I133=6,"Medium-Dashed Dot Dot",IF(I133=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I133" s="6">
@@ -12913,12 +12906,12 @@
         <v>32</v>
       </c>
       <c r="M133" s="27" t="str">
-        <f>IF(ISBLANK(A133),L133, CONCATENATE(L133,"_",A133))</f>
+        <f t="shared" si="16"/>
         <v>pedestrian_sidewalk_area_SDT</v>
       </c>
       <c r="N133" s="27"/>
       <c r="O133" s="27" t="str">
-        <f>IF(ISBLANK(A133),(CONCATENATE("''Level_Name'' = '",E133,"' AND ''Level'' = '",F133,"' AND ''Color'' = '",G133,"' AND ''Linetype'' = '",H133,"' AND ''LineWt''= '",J133,"'")),(CONCATENATE("''Level_Name'' = '",E133,"' AND ''Level'' = '",F133,"' AND ''Color'' = '",G133,"' AND ''Linetype'' = '",H133,"' AND ''LineWt''= '",J133,"' AND ''RefName'' = '",A133,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SDT'</v>
       </c>
       <c r="P133" s="5"/>
@@ -12950,7 +12943,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>631</v>
       </c>
@@ -12973,7 +12966,7 @@
         <v>6</v>
       </c>
       <c r="H134" s="9" t="str">
-        <f>IF(ISBLANK(I134),"No Value",IF(I134=0,"Solid",IF(I134=1,"Dotted",IF(I134=2,"Medium-Dashed",IF(I134=3,"LongDashed",IF(I134=4,"LongDashed Dot Dot",IF(I134=6,"Medium-Dashed Dot Dot",IF(I134=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I134" s="6">
@@ -12989,12 +12982,12 @@
         <v>32</v>
       </c>
       <c r="M134" s="27" t="str">
-        <f>IF(ISBLANK(A134),L134, CONCATENATE(L134,"_",A134))</f>
+        <f t="shared" si="16"/>
         <v>pedestrian_sidewalk_area_SDTB</v>
       </c>
       <c r="N134" s="27"/>
       <c r="O134" s="27" t="str">
-        <f>IF(ISBLANK(A134),(CONCATENATE("''Level_Name'' = '",E134,"' AND ''Level'' = '",F134,"' AND ''Color'' = '",G134,"' AND ''Linetype'' = '",H134,"' AND ''LineWt''= '",J134,"'")),(CONCATENATE("''Level_Name'' = '",E134,"' AND ''Level'' = '",F134,"' AND ''Color'' = '",G134,"' AND ''Linetype'' = '",H134,"' AND ''LineWt''= '",J134,"' AND ''RefName'' = '",A134,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SDTB'</v>
       </c>
       <c r="P134" s="5"/>
@@ -13029,7 +13022,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>632</v>
       </c>
@@ -13052,7 +13045,7 @@
         <v>5</v>
       </c>
       <c r="H135" s="9" t="str">
-        <f>IF(ISBLANK(I135),"No Value",IF(I135=0,"Solid",IF(I135=1,"Dotted",IF(I135=2,"Medium-Dashed",IF(I135=3,"LongDashed",IF(I135=4,"LongDashed Dot Dot",IF(I135=6,"Medium-Dashed Dot Dot",IF(I135=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I135" s="6">
@@ -13068,12 +13061,12 @@
         <v>523</v>
       </c>
       <c r="M135" s="27" t="str">
-        <f>IF(ISBLANK(A135),L135, CONCATENATE(L135,"_",A135))</f>
+        <f t="shared" si="16"/>
         <v>mooring_facility_area_SEAW</v>
       </c>
       <c r="N135" s="27"/>
       <c r="O135" s="27" t="str">
-        <f>IF(ISBLANK(A135),(CONCATENATE("''Level_Name'' = '",E135,"' AND ''Level'' = '",F135,"' AND ''Color'' = '",G135,"' AND ''Linetype'' = '",H135,"' AND ''LineWt''= '",J135,"'")),(CONCATENATE("''Level_Name'' = '",E135,"' AND ''Level'' = '",F135,"' AND ''Color'' = '",G135,"' AND ''Linetype'' = '",H135,"' AND ''LineWt''= '",J135,"' AND ''RefName'' = '",A135,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SEAW'</v>
       </c>
       <c r="P135" s="5"/>
@@ -13108,7 +13101,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>143</v>
       </c>
@@ -13131,7 +13124,7 @@
         <v>7</v>
       </c>
       <c r="H136" s="9" t="str">
-        <f>IF(ISBLANK(I136),"No Value",IF(I136=0,"Solid",IF(I136=1,"Dotted",IF(I136=2,"Medium-Dashed",IF(I136=3,"LongDashed",IF(I136=4,"LongDashed Dot Dot",IF(I136=6,"Medium-Dashed Dot Dot",IF(I136=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I136" s="6">
@@ -13147,12 +13140,12 @@
         <v>36</v>
       </c>
       <c r="M136" s="27" t="str">
-        <f>IF(ISBLANK(A136),L136, CONCATENATE(L136,"_",A136))</f>
+        <f t="shared" si="16"/>
         <v>athletic_field_area_SF</v>
       </c>
       <c r="N136" s="27"/>
       <c r="O136" s="27" t="str">
-        <f>IF(ISBLANK(A136),(CONCATENATE("''Level_Name'' = '",E136,"' AND ''Level'' = '",F136,"' AND ''Color'' = '",G136,"' AND ''Linetype'' = '",H136,"' AND ''LineWt''= '",J136,"'")),(CONCATENATE("''Level_Name'' = '",E136,"' AND ''Level'' = '",F136,"' AND ''Color'' = '",G136,"' AND ''Linetype'' = '",H136,"' AND ''LineWt''= '",J136,"' AND ''RefName'' = '",A136,"'")))</f>
+        <f t="shared" si="14"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SF'</v>
       </c>
       <c r="P136" s="5"/>
@@ -13184,7 +13177,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>49</v>
       </c>
@@ -13205,7 +13198,7 @@
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="9" t="str">
-        <f>IF(ISBLANK(I137),"No Value",IF(I137=0,"Solid",IF(I137=1,"Dotted",IF(I137=2,"Medium-Dashed",IF(I137=3,"LongDashed",IF(I137=4,"LongDashed Dot Dot",IF(I137=6,"Medium-Dashed Dot Dot",IF(I137=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I137" s="6"/>
@@ -13217,7 +13210,7 @@
         <v>95</v>
       </c>
       <c r="M137" s="27" t="str">
-        <f>IF(ISBLANK(A137),L137, CONCATENATE(L137,"_",A137))</f>
+        <f t="shared" si="16"/>
         <v>road_feature_point_SGN1P</v>
       </c>
       <c r="N137" s="27"/>
@@ -13254,7 +13247,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>50</v>
       </c>
@@ -13275,7 +13268,7 @@
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="9" t="str">
-        <f>IF(ISBLANK(I138),"No Value",IF(I138=0,"Solid",IF(I138=1,"Dotted",IF(I138=2,"Medium-Dashed",IF(I138=3,"LongDashed",IF(I138=4,"LongDashed Dot Dot",IF(I138=6,"Medium-Dashed Dot Dot",IF(I138=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I138" s="6"/>
@@ -13287,7 +13280,7 @@
         <v>95</v>
       </c>
       <c r="M138" s="27" t="str">
-        <f>IF(ISBLANK(A138),L138, CONCATENATE(L138,"_",A138))</f>
+        <f t="shared" si="16"/>
         <v>road_feature_point_SGN2P</v>
       </c>
       <c r="N138" s="27"/>
@@ -13325,7 +13318,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>194</v>
       </c>
@@ -13348,7 +13341,7 @@
         <v>3</v>
       </c>
       <c r="H139" s="9" t="str">
-        <f>IF(ISBLANK(I139),"No Value",IF(I139=0,"Solid",IF(I139=1,"Dotted",IF(I139=2,"Medium-Dashed",IF(I139=3,"LongDashed",IF(I139=4,"LongDashed Dot Dot",IF(I139=6,"Medium-Dashed Dot Dot",IF(I139=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>LongDashed</v>
       </c>
       <c r="I139" s="6">
@@ -13364,12 +13357,12 @@
         <v>197</v>
       </c>
       <c r="M139" s="27" t="str">
-        <f>IF(ISBLANK(A139),L139, CONCATENATE(L139,"_",A139))</f>
+        <f t="shared" si="16"/>
         <v>road_shoulder_area_SHA</v>
       </c>
       <c r="N139" s="27"/>
       <c r="O139" s="27" t="str">
-        <f>IF(ISBLANK(A139),(CONCATENATE("''Level_Name'' = '",E139,"' AND ''Level'' = '",F139,"' AND ''Color'' = '",G139,"' AND ''Linetype'' = '",H139,"' AND ''LineWt''= '",J139,"'")),(CONCATENATE("''Level_Name'' = '",E139,"' AND ''Level'' = '",F139,"' AND ''Color'' = '",G139,"' AND ''Linetype'' = '",H139,"' AND ''LineWt''= '",J139,"' AND ''RefName'' = '",A139,"'")))</f>
+        <f t="shared" ref="O139:O145" si="17">IF(ISBLANK(A139),(CONCATENATE("''Level_Name'' = '",E139,"' AND ''Level'' = '",F139,"' AND ''Color'' = '",G139,"' AND ''Linetype'' = '",H139,"' AND ''LineWt''= '",J139,"'")),(CONCATENATE("''Level_Name'' = '",E139,"' AND ''Level'' = '",F139,"' AND ''Color'' = '",G139,"' AND ''Linetype'' = '",H139,"' AND ''LineWt''= '",J139,"' AND ''RefName'' = '",A139,"'")))</f>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'SHA'</v>
       </c>
       <c r="P139" s="5"/>
@@ -13401,7 +13394,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>195</v>
       </c>
@@ -13424,7 +13417,7 @@
         <v>3</v>
       </c>
       <c r="H140" s="9" t="str">
-        <f>IF(ISBLANK(I140),"No Value",IF(I140=0,"Solid",IF(I140=1,"Dotted",IF(I140=2,"Medium-Dashed",IF(I140=3,"LongDashed",IF(I140=4,"LongDashed Dot Dot",IF(I140=6,"Medium-Dashed Dot Dot",IF(I140=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>LongDashed</v>
       </c>
       <c r="I140" s="6">
@@ -13440,12 +13433,12 @@
         <v>197</v>
       </c>
       <c r="M140" s="27" t="str">
-        <f>IF(ISBLANK(A140),L140, CONCATENATE(L140,"_",A140))</f>
+        <f t="shared" si="16"/>
         <v>road_shoulder_area_SHC</v>
       </c>
       <c r="N140" s="27"/>
       <c r="O140" s="27" t="str">
-        <f>IF(ISBLANK(A140),(CONCATENATE("''Level_Name'' = '",E140,"' AND ''Level'' = '",F140,"' AND ''Color'' = '",G140,"' AND ''Linetype'' = '",H140,"' AND ''LineWt''= '",J140,"'")),(CONCATENATE("''Level_Name'' = '",E140,"' AND ''Level'' = '",F140,"' AND ''Color'' = '",G140,"' AND ''Linetype'' = '",H140,"' AND ''LineWt''= '",J140,"' AND ''RefName'' = '",A140,"'")))</f>
+        <f t="shared" si="17"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '4' AND ''Color'' = '3' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '0' AND ''RefName'' = 'SHC'</v>
       </c>
       <c r="P140" s="5"/>
@@ -13477,7 +13470,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>196</v>
       </c>
@@ -13500,7 +13493,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="9" t="str">
-        <f>IF(ISBLANK(I141),"No Value",IF(I141=0,"Solid",IF(I141=1,"Dotted",IF(I141=2,"Medium-Dashed",IF(I141=3,"LongDashed",IF(I141=4,"LongDashed Dot Dot",IF(I141=6,"Medium-Dashed Dot Dot",IF(I141=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I141" s="6">
@@ -13516,12 +13509,12 @@
         <v>197</v>
       </c>
       <c r="M141" s="27" t="str">
-        <f>IF(ISBLANK(A141),L141, CONCATENATE(L141,"_",A141))</f>
+        <f t="shared" si="16"/>
         <v>road_shoulder_area_SHDT</v>
       </c>
       <c r="N141" s="27"/>
       <c r="O141" s="27" t="str">
-        <f>IF(ISBLANK(A141),(CONCATENATE("''Level_Name'' = '",E141,"' AND ''Level'' = '",F141,"' AND ''Color'' = '",G141,"' AND ''Linetype'' = '",H141,"' AND ''LineWt''= '",J141,"'")),(CONCATENATE("''Level_Name'' = '",E141,"' AND ''Level'' = '",F141,"' AND ''Color'' = '",G141,"' AND ''Linetype'' = '",H141,"' AND ''LineWt''= '",J141,"' AND ''RefName'' = '",A141,"'")))</f>
+        <f t="shared" si="17"/>
         <v>''Level_Name'' = 'VA_ROAD_UNPA' AND ''Level'' = '3' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0' AND ''RefName'' = 'SHDT'</v>
       </c>
       <c r="P141" s="5"/>
@@ -13553,7 +13546,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1">
       <c r="A142" s="27" t="s">
         <v>426</v>
       </c>
@@ -13576,7 +13569,7 @@
         <v>4</v>
       </c>
       <c r="H142" s="9" t="str">
-        <f>IF(ISBLANK(I142),"No Value",IF(I142=0,"Solid",IF(I142=1,"Dotted",IF(I142=2,"Medium-Dashed",IF(I142=3,"LongDashed",IF(I142=4,"LongDashed Dot Dot",IF(I142=6,"Medium-Dashed Dot Dot",IF(I142=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I142" s="6">
@@ -13592,12 +13585,12 @@
         <v>428</v>
       </c>
       <c r="M142" s="27" t="str">
-        <f>IF(ISBLANK(A142),L142, CONCATENATE(L142,"_",A142))</f>
+        <f t="shared" si="16"/>
         <v>shed_area_SHED</v>
       </c>
       <c r="N142" s="27"/>
       <c r="O142" s="27" t="str">
-        <f>IF(ISBLANK(A142),(CONCATENATE("''Level_Name'' = '",E142,"' AND ''Level'' = '",F142,"' AND ''Color'' = '",G142,"' AND ''Linetype'' = '",H142,"' AND ''LineWt''= '",J142,"'")),(CONCATENATE("''Level_Name'' = '",E142,"' AND ''Level'' = '",F142,"' AND ''Color'' = '",G142,"' AND ''Linetype'' = '",H142,"' AND ''LineWt''= '",J142,"' AND ''RefName'' = '",A142,"'")))</f>
+        <f t="shared" si="17"/>
         <v>''Level_Name'' = 'VA_ROAD_EASP' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'SHED'</v>
       </c>
       <c r="U142" s="8" t="s">
@@ -13625,7 +13618,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>308</v>
       </c>
@@ -13648,7 +13641,7 @@
         <v>4</v>
       </c>
       <c r="H143" s="9" t="str">
-        <f>IF(ISBLANK(I143),"No Value",IF(I143=0,"Solid",IF(I143=1,"Dotted",IF(I143=2,"Medium-Dashed",IF(I143=3,"LongDashed",IF(I143=4,"LongDashed Dot Dot",IF(I143=6,"Medium-Dashed Dot Dot",IF(I143=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I143" s="6">
@@ -13664,12 +13657,12 @@
         <v>463</v>
       </c>
       <c r="M143" s="27" t="str">
-        <f>IF(ISBLANK(A143),L143, CONCATENATE(L143,"_",A143))</f>
+        <f t="shared" si="16"/>
         <v>road_feature_area_SIGN</v>
       </c>
       <c r="N143" s="27"/>
       <c r="O143" s="27" t="str">
-        <f>IF(ISBLANK(A143),(CONCATENATE("''Level_Name'' = '",E143,"' AND ''Level'' = '",F143,"' AND ''Color'' = '",G143,"' AND ''Linetype'' = '",H143,"' AND ''LineWt''= '",J143,"'")),(CONCATENATE("''Level_Name'' = '",E143,"' AND ''Level'' = '",F143,"' AND ''Color'' = '",G143,"' AND ''Linetype'' = '",H143,"' AND ''LineWt''= '",J143,"' AND ''RefName'' = '",A143,"'")))</f>
+        <f t="shared" si="17"/>
         <v>''Level_Name'' = 'VA_SITE_SIGN' AND ''Level'' = '32' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SIGN'</v>
       </c>
       <c r="P143" s="44"/>
@@ -13702,7 +13695,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1">
       <c r="A144" s="5" t="s">
         <v>647</v>
       </c>
@@ -13725,7 +13718,7 @@
         <v>4</v>
       </c>
       <c r="H144" s="9" t="str">
-        <f>IF(ISBLANK(I144),"No Value",IF(I144=0,"Solid",IF(I144=1,"Dotted",IF(I144=2,"Medium-Dashed",IF(I144=3,"LongDashed",IF(I144=4,"LongDashed Dot Dot",IF(I144=6,"Medium-Dashed Dot Dot",IF(I144=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I144" s="6">
@@ -13741,12 +13734,12 @@
         <v>648</v>
       </c>
       <c r="M144" s="27" t="str">
-        <f>IF(ISBLANK(A144),L144, CONCATENATE(L144,"_",A144))</f>
+        <f t="shared" si="16"/>
         <v>silo_area_SILO</v>
       </c>
       <c r="N144" s="27"/>
       <c r="O144" s="27" t="str">
-        <f>IF(ISBLANK(A144),(CONCATENATE("''Level_Name'' = '",E144,"' AND ''Level'' = '",F144,"' AND ''Color'' = '",G144,"' AND ''Linetype'' = '",H144,"' AND ''LineWt''= '",J144,"'")),(CONCATENATE("''Level_Name'' = '",E144,"' AND ''Level'' = '",F144,"' AND ''Color'' = '",G144,"' AND ''Linetype'' = '",H144,"' AND ''LineWt''= '",J144,"' AND ''RefName'' = '",A144,"'")))</f>
+        <f t="shared" si="17"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'SILO'</v>
       </c>
       <c r="P144" s="5"/>
@@ -13778,7 +13771,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>509</v>
       </c>
@@ -13801,7 +13794,7 @@
         <v>7</v>
       </c>
       <c r="H145" s="9" t="str">
-        <f>IF(ISBLANK(I145),"No Value",IF(I145=0,"Solid",IF(I145=1,"Dotted",IF(I145=2,"Medium-Dashed",IF(I145=3,"LongDashed",IF(I145=4,"LongDashed Dot Dot",IF(I145=6,"Medium-Dashed Dot Dot",IF(I145=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I145" s="6">
@@ -13817,12 +13810,12 @@
         <v>36</v>
       </c>
       <c r="M145" s="27" t="str">
-        <f>IF(ISBLANK(A145),L145, CONCATENATE(L145,"_",A145))</f>
+        <f t="shared" si="16"/>
         <v>athletic_field_area_SOCCER</v>
       </c>
       <c r="N145" s="27"/>
       <c r="O145" s="27" t="str">
-        <f>IF(ISBLANK(A145),(CONCATENATE("''Level_Name'' = '",E145,"' AND ''Level'' = '",F145,"' AND ''Color'' = '",G145,"' AND ''Linetype'' = '",H145,"' AND ''LineWt''= '",J145,"'")),(CONCATENATE("''Level_Name'' = '",E145,"' AND ''Level'' = '",F145,"' AND ''Color'' = '",G145,"' AND ''Linetype'' = '",H145,"' AND ''LineWt''= '",J145,"' AND ''RefName'' = '",A145,"'")))</f>
+        <f t="shared" si="17"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SOCCER'</v>
       </c>
       <c r="P145" s="5"/>
@@ -13854,7 +13847,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>505</v>
       </c>
@@ -13875,7 +13868,7 @@
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="9" t="str">
-        <f>IF(ISBLANK(I146),"No Value",IF(I146=0,"Solid",IF(I146=1,"Dotted",IF(I146=2,"Medium-Dashed",IF(I146=3,"LongDashed",IF(I146=4,"LongDashed Dot Dot",IF(I146=6,"Medium-Dashed Dot Dot",IF(I146=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I146" s="3"/>
@@ -13887,7 +13880,7 @@
         <v>507</v>
       </c>
       <c r="M146" s="27" t="str">
-        <f>IF(ISBLANK(A146),L146, CONCATENATE(L146,"_",A146))</f>
+        <f t="shared" si="16"/>
         <v>ut_undefined_feature_point_SP</v>
       </c>
       <c r="N146" s="27"/>
@@ -13924,7 +13917,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>700</v>
       </c>
@@ -13947,7 +13940,7 @@
         <v>5</v>
       </c>
       <c r="H147" s="9" t="str">
-        <f>IF(ISBLANK(I147),"No Value",IF(I147=0,"Solid",IF(I147=1,"Dotted",IF(I147=2,"Medium-Dashed",IF(I147=3,"LongDashed",IF(I147=4,"LongDashed Dot Dot",IF(I147=6,"Medium-Dashed Dot Dot",IF(I147=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I147" s="6">
@@ -13963,7 +13956,7 @@
         <v>316</v>
       </c>
       <c r="M147" s="27" t="str">
-        <f>IF(ISBLANK(A147),L147, CONCATENATE(L147,"_",A147))</f>
+        <f t="shared" si="16"/>
         <v>spill_containment_feature_area_SPILL CONT</v>
       </c>
       <c r="N147" s="27"/>
@@ -14000,7 +13993,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>600</v>
       </c>
@@ -14021,7 +14014,7 @@
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="9" t="str">
-        <f>IF(ISBLANK(I148),"No Value",IF(I148=0,"Solid",IF(I148=1,"Dotted",IF(I148=2,"Medium-Dashed",IF(I148=3,"LongDashed",IF(I148=4,"LongDashed Dot Dot",IF(I148=6,"Medium-Dashed Dot Dot",IF(I148=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I148" s="6"/>
@@ -14033,7 +14026,7 @@
         <v>124</v>
       </c>
       <c r="M148" s="27" t="str">
-        <f>IF(ISBLANK(A148),L148, CONCATENATE(L148,"_",A148))</f>
+        <f t="shared" si="16"/>
         <v>flora_species_point_SSHRUB</v>
       </c>
       <c r="N148" s="27"/>
@@ -14070,7 +14063,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1">
       <c r="A149" s="5" t="s">
         <v>253</v>
       </c>
@@ -14093,7 +14086,7 @@
         <v>2</v>
       </c>
       <c r="H149" s="9" t="str">
-        <f>IF(ISBLANK(I149),"No Value",IF(I149=0,"Solid",IF(I149=1,"Dotted",IF(I149=2,"Medium-Dashed",IF(I149=3,"LongDashed",IF(I149=4,"LongDashed Dot Dot",IF(I149=6,"Medium-Dashed Dot Dot",IF(I149=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I149" s="6">
@@ -14109,7 +14102,7 @@
         <v>147</v>
       </c>
       <c r="M149" s="27" t="str">
-        <f>IF(ISBLANK(A149),L149, CONCATENATE(L149,"_",A149))</f>
+        <f t="shared" si="16"/>
         <v>golf_course_bunker_area_ST</v>
       </c>
       <c r="N149" s="27"/>
@@ -14147,7 +14140,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
@@ -14170,7 +14163,7 @@
         <v>5</v>
       </c>
       <c r="H150" s="9" t="str">
-        <f>IF(ISBLANK(I150),"No Value",IF(I150=0,"Solid",IF(I150=1,"Dotted",IF(I150=2,"Medium-Dashed",IF(I150=3,"LongDashed",IF(I150=4,"LongDashed Dot Dot",IF(I150=6,"Medium-Dashed Dot Dot",IF(I150=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I150" s="3">
@@ -14186,7 +14179,7 @@
         <v>187</v>
       </c>
       <c r="M150" s="27" t="str">
-        <f>IF(ISBLANK(A150),L150, CONCATENATE(L150,"_",A150))</f>
+        <f t="shared" si="16"/>
         <v>smokestack_chimney_point_STACK</v>
       </c>
       <c r="N150" s="27"/>
@@ -14223,7 +14216,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>24</v>
       </c>
@@ -14246,7 +14239,7 @@
         <v>4</v>
       </c>
       <c r="H151" s="9" t="str">
-        <f>IF(ISBLANK(I151),"No Value",IF(I151=0,"Solid",IF(I151=1,"Dotted",IF(I151=2,"Medium-Dashed",IF(I151=3,"LongDashed",IF(I151=4,"LongDashed Dot Dot",IF(I151=6,"Medium-Dashed Dot Dot",IF(I151=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I151" s="6">
@@ -14262,7 +14255,7 @@
         <v>32</v>
       </c>
       <c r="M151" s="27" t="str">
-        <f>IF(ISBLANK(A151),L151, CONCATENATE(L151,"_",A151))</f>
+        <f t="shared" si="16"/>
         <v>pedestrian_sidewalk_area_STAIRS</v>
       </c>
       <c r="N151" s="27"/>
@@ -14299,7 +14292,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>702</v>
       </c>
@@ -14322,7 +14315,7 @@
         <v>3</v>
       </c>
       <c r="H152" s="9" t="str">
-        <f>IF(ISBLANK(I152),"No Value",IF(I152=0,"Solid",IF(I152=1,"Dotted",IF(I152=2,"Medium-Dashed",IF(I152=3,"LongDashed",IF(I152=4,"LongDashed Dot Dot",IF(I152=6,"Medium-Dashed Dot Dot",IF(I152=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I152" s="12">
@@ -14338,7 +14331,7 @@
         <v>319</v>
       </c>
       <c r="M152" s="27" t="str">
-        <f>IF(ISBLANK(A152),L152, CONCATENATE(L152,"_",A152))</f>
+        <f t="shared" si="16"/>
         <v>stmswr_drainage_basin_area_STO BASIN</v>
       </c>
       <c r="N152" s="27"/>
@@ -14371,7 +14364,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1">
       <c r="A153" s="5" t="s">
         <v>670</v>
       </c>
@@ -14392,7 +14385,7 @@
         <v>5</v>
       </c>
       <c r="H153" s="9" t="str">
-        <f>IF(ISBLANK(I153),"No Value",IF(I153=0,"Solid",IF(I153=1,"Dotted",IF(I153=2,"Medium-Dashed",IF(I153=3,"LongDashed",IF(I153=4,"LongDashed Dot Dot",IF(I153=6,"Medium-Dashed Dot Dot",IF(I153=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I153" s="6">
@@ -14408,7 +14401,7 @@
         <v>672</v>
       </c>
       <c r="M153" s="27" t="str">
-        <f>IF(ISBLANK(A153),L153, CONCATENATE(L153,"_",A153))</f>
+        <f t="shared" si="16"/>
         <v>open_storage_area_STORAGE</v>
       </c>
       <c r="N153" s="27"/>
@@ -14445,7 +14438,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1">
       <c r="A154" s="5" t="s">
         <v>51</v>
       </c>
@@ -14466,7 +14459,7 @@
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="9" t="str">
-        <f>IF(ISBLANK(I154),"No Value",IF(I154=0,"Solid",IF(I154=1,"Dotted",IF(I154=2,"Medium-Dashed",IF(I154=3,"LongDashed",IF(I154=4,"LongDashed Dot Dot",IF(I154=6,"Medium-Dashed Dot Dot",IF(I154=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I154" s="6"/>
@@ -14478,7 +14471,7 @@
         <v>124</v>
       </c>
       <c r="M154" s="27" t="str">
-        <f>IF(ISBLANK(A154),L154, CONCATENATE(L154,"_",A154))</f>
+        <f t="shared" si="16"/>
         <v>flora_species_point_STREE</v>
       </c>
       <c r="N154" s="27"/>
@@ -14515,7 +14508,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1">
       <c r="A155" s="5" t="s">
         <v>249</v>
       </c>
@@ -14538,7 +14531,7 @@
         <v>5</v>
       </c>
       <c r="H155" s="9" t="str">
-        <f>IF(ISBLANK(I155),"No Value",IF(I155=0,"Solid",IF(I155=1,"Dotted",IF(I155=2,"Medium-Dashed",IF(I155=3,"LongDashed",IF(I155=4,"LongDashed Dot Dot",IF(I155=6,"Medium-Dashed Dot Dot",IF(I155=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I155" s="6">
@@ -14554,12 +14547,12 @@
         <v>321</v>
       </c>
       <c r="M155" s="27" t="str">
-        <f>IF(ISBLANK(A155),L155, CONCATENATE(L155,"_",A155))</f>
+        <f t="shared" si="16"/>
         <v>electrical_substation_area_SUBS</v>
       </c>
       <c r="N155" s="27"/>
       <c r="O155" s="27" t="str">
-        <f>IF(ISBLANK(A155),(CONCATENATE("''Level_Name'' = '",E155,"' AND ''Level'' = '",F155,"' AND ''Color'' = '",G155,"' AND ''Linetype'' = '",H155,"' AND ''LineWt''= '",J155,"'")),(CONCATENATE("''Level_Name'' = '",E155,"' AND ''Level'' = '",F155,"' AND ''Color'' = '",G155,"' AND ''Linetype'' = '",H155,"' AND ''LineWt''= '",J155,"' AND ''RefName'' = '",A155,"'")))</f>
+        <f t="shared" ref="O155:O161" si="18">IF(ISBLANK(A155),(CONCATENATE("''Level_Name'' = '",E155,"' AND ''Level'' = '",F155,"' AND ''Color'' = '",G155,"' AND ''Linetype'' = '",H155,"' AND ''LineWt''= '",J155,"'")),(CONCATENATE("''Level_Name'' = '",E155,"' AND ''Level'' = '",F155,"' AND ''Color'' = '",G155,"' AND ''Linetype'' = '",H155,"' AND ''LineWt''= '",J155,"' AND ''RefName'' = '",A155,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SUBS'</v>
       </c>
       <c r="U155" s="8" t="s">
@@ -14587,7 +14580,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1">
       <c r="A156" s="5" t="s">
         <v>271</v>
       </c>
@@ -14610,7 +14603,7 @@
         <v>6</v>
       </c>
       <c r="H156" s="9" t="str">
-        <f>IF(ISBLANK(I156),"No Value",IF(I156=0,"Solid",IF(I156=1,"Dotted",IF(I156=2,"Medium-Dashed",IF(I156=3,"LongDashed",IF(I156=4,"LongDashed Dot Dot",IF(I156=6,"Medium-Dashed Dot Dot",IF(I156=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I156" s="6">
@@ -14626,12 +14619,12 @@
         <v>32</v>
       </c>
       <c r="M156" s="27" t="str">
-        <f>IF(ISBLANK(A156),L156, CONCATENATE(L156,"_",A156))</f>
+        <f t="shared" si="16"/>
         <v>pedestrian_sidewalk_area_SW</v>
       </c>
       <c r="N156" s="27"/>
       <c r="O156" s="27" t="str">
-        <f>IF(ISBLANK(A156),(CONCATENATE("''Level_Name'' = '",E156,"' AND ''Level'' = '",F156,"' AND ''Color'' = '",G156,"' AND ''Linetype'' = '",H156,"' AND ''LineWt''= '",J156,"'")),(CONCATENATE("''Level_Name'' = '",E156,"' AND ''Level'' = '",F156,"' AND ''Color'' = '",G156,"' AND ''Linetype'' = '",H156,"' AND ''LineWt''= '",J156,"' AND ''RefName'' = '",A156,"'")))</f>
+        <f t="shared" si="18"/>
         <v>''Level_Name'' = 'VA_SITE_SWLK' AND ''Level'' = '9' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'SW'</v>
       </c>
       <c r="P156" s="5"/>
@@ -14663,7 +14656,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>72</v>
       </c>
@@ -14686,7 +14679,7 @@
         <v>2</v>
       </c>
       <c r="H157" s="9" t="str">
-        <f>IF(ISBLANK(I157),"No Value",IF(I157=0,"Solid",IF(I157=1,"Dotted",IF(I157=2,"Medium-Dashed",IF(I157=3,"LongDashed",IF(I157=4,"LongDashed Dot Dot",IF(I157=6,"Medium-Dashed Dot Dot",IF(I157=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I157" s="9">
@@ -14702,12 +14695,12 @@
         <v>184</v>
       </c>
       <c r="M157" s="27" t="str">
-        <f>IF(ISBLANK(A157),L157, CONCATENATE(L157,"_",A157))</f>
+        <f t="shared" si="16"/>
         <v>flora_species_area_T</v>
       </c>
       <c r="N157" s="27"/>
       <c r="O157" s="27" t="str">
-        <f>IF(ISBLANK(A157),(CONCATENATE("''Level_Name'' = '",E157,"' AND ''Level'' = '",F157,"' AND ''Color'' = '",G157,"' AND ''Linetype'' = '",H157,"' AND ''LineWt''= '",J157,"'")),(CONCATENATE("''Level_Name'' = '",E157,"' AND ''Level'' = '",F157,"' AND ''Color'' = '",G157,"' AND ''Linetype'' = '",H157,"' AND ''LineWt''= '",J157,"' AND ''RefName'' = '",A157,"'")))</f>
+        <f t="shared" si="18"/>
         <v>''Level_Name'' = 'VA_SITE_TREE' AND ''Level'' = '39' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'T'</v>
       </c>
       <c r="P157" s="8"/>
@@ -14739,7 +14732,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="158" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A158" s="5" t="s">
         <v>140</v>
       </c>
@@ -14762,7 +14755,7 @@
         <v>7</v>
       </c>
       <c r="H158" s="9" t="str">
-        <f>IF(ISBLANK(I158),"No Value",IF(I158=0,"Solid",IF(I158=1,"Dotted",IF(I158=2,"Medium-Dashed",IF(I158=3,"LongDashed",IF(I158=4,"LongDashed Dot Dot",IF(I158=6,"Medium-Dashed Dot Dot",IF(I158=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I158" s="6">
@@ -14778,12 +14771,12 @@
         <v>35</v>
       </c>
       <c r="M158" s="27" t="str">
-        <f>IF(ISBLANK(A158),L158, CONCATENATE(L158,"_",A158))</f>
+        <f t="shared" si="16"/>
         <v>athletic_court_area_TCT</v>
       </c>
       <c r="N158" s="27"/>
       <c r="O158" s="27" t="str">
-        <f>IF(ISBLANK(A158),(CONCATENATE("''Level_Name'' = '",E158,"' AND ''Level'' = '",F158,"' AND ''Color'' = '",G158,"' AND ''Linetype'' = '",H158,"' AND ''LineWt''= '",J158,"'")),(CONCATENATE("''Level_Name'' = '",E158,"' AND ''Level'' = '",F158,"' AND ''Color'' = '",G158,"' AND ''Linetype'' = '",H158,"' AND ''LineWt''= '",J158,"' AND ''RefName'' = '",A158,"'")))</f>
+        <f t="shared" si="18"/>
         <v>''Level_Name'' = 'VA_SITE_SPRT' AND ''Level'' = '30' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TCT'</v>
       </c>
       <c r="P158" s="5"/>
@@ -14816,7 +14809,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="159" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="A159" s="5" t="s">
         <v>154</v>
       </c>
@@ -14839,7 +14832,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="9" t="str">
-        <f>IF(ISBLANK(I159),"No Value",IF(I159=0,"Solid",IF(I159=1,"Dotted",IF(I159=2,"Medium-Dashed",IF(I159=3,"LongDashed",IF(I159=4,"LongDashed Dot Dot",IF(I159=6,"Medium-Dashed Dot Dot",IF(I159=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I159" s="6">
@@ -14855,12 +14848,12 @@
         <v>156</v>
       </c>
       <c r="M159" s="27" t="str">
-        <f>IF(ISBLANK(A159),L159, CONCATENATE(L159,"_",A159))</f>
+        <f t="shared" si="16"/>
         <v>golf_course_tee_area_TEE</v>
       </c>
       <c r="N159" s="27"/>
       <c r="O159" s="27" t="str">
-        <f>IF(ISBLANK(A159),(CONCATENATE("''Level_Name'' = '",E159,"' AND ''Level'' = '",F159,"' AND ''Color'' = '",G159,"' AND ''Linetype'' = '",H159,"' AND ''LineWt''= '",J159,"'")),(CONCATENATE("''Level_Name'' = '",E159,"' AND ''Level'' = '",F159,"' AND ''Color'' = '",G159,"' AND ''Linetype'' = '",H159,"' AND ''LineWt''= '",J159,"' AND ''RefName'' = '",A159,"'")))</f>
+        <f t="shared" si="18"/>
         <v>''Level_Name'' = 'VA_SITE_GOLF' AND ''Level'' = '35' AND ''Color'' = '2' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TEE'</v>
       </c>
       <c r="P159" s="5"/>
@@ -14893,7 +14886,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1">
       <c r="A160" s="5" t="s">
         <v>73</v>
       </c>
@@ -14916,7 +14909,7 @@
         <v>4</v>
       </c>
       <c r="H160" s="9" t="b">
-        <f>IF(ISBLANK(I160),"No Value",IF(I160=0,"Solid",IF(I160=1,"Dotted",IF(I160=2,"Medium-Dashed",IF(I160=3,"LongDashed",IF(I160=4,"LongDashed Dot Dot",IF(I160=6,"Medium-Dashed Dot Dot",IF(I160=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I160" s="6">
@@ -14932,12 +14925,12 @@
         <v>110</v>
       </c>
       <c r="M160" s="27" t="str">
-        <f>IF(ISBLANK(A160),L160, CONCATENATE(L160,"_",A160))</f>
+        <f t="shared" si="16"/>
         <v>structure_existing_area_TENT</v>
       </c>
       <c r="N160" s="27"/>
       <c r="O160" s="27" t="str">
-        <f>IF(ISBLANK(A160),(CONCATENATE("''Level_Name'' = '",E160,"' AND ''Level'' = '",F160,"' AND ''Color'' = '",G160,"' AND ''Linetype'' = '",H160,"' AND ''LineWt''= '",J160,"'")),(CONCATENATE("''Level_Name'' = '",E160,"' AND ''Level'' = '",F160,"' AND ''Color'' = '",G160,"' AND ''Linetype'' = '",H160,"' AND ''LineWt''= '",J160,"' AND ''RefName'' = '",A160,"'")))</f>
+        <f t="shared" si="18"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '2' AND ''RefName'' = 'TENT'</v>
       </c>
       <c r="P160" s="5"/>
@@ -14969,7 +14962,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>165</v>
       </c>
@@ -14992,7 +14985,7 @@
         <v>3</v>
       </c>
       <c r="H161" s="9" t="str">
-        <f>IF(ISBLANK(I161),"No Value",IF(I161=0,"Solid",IF(I161=1,"Dotted",IF(I161=2,"Medium-Dashed",IF(I161=3,"LongDashed",IF(I161=4,"LongDashed Dot Dot",IF(I161=6,"Medium-Dashed Dot Dot",IF(I161=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I161" s="3">
@@ -15008,12 +15001,12 @@
         <v>268</v>
       </c>
       <c r="M161" s="27" t="str">
-        <f>IF(ISBLANK(A161),L161, CONCATENATE(L161,"_",A161))</f>
+        <f t="shared" si="16"/>
         <v>unknown_tank_area_TK</v>
       </c>
       <c r="N161" s="27"/>
       <c r="O161" s="27" t="str">
-        <f>IF(ISBLANK(A161),(CONCATENATE("''Level_Name'' = '",E161,"' AND ''Level'' = '",F161,"' AND ''Color'' = '",G161,"' AND ''Linetype'' = '",H161,"' AND ''LineWt''= '",J161,"'")),(CONCATENATE("''Level_Name'' = '",E161,"' AND ''Level'' = '",F161,"' AND ''Color'' = '",G161,"' AND ''Linetype'' = '",H161,"' AND ''LineWt''= '",J161,"' AND ''RefName'' = '",A161,"'")))</f>
+        <f t="shared" si="18"/>
         <v>''Level_Name'' = 'VA_SITE_TANK' AND ''Level'' = '15' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TK'</v>
       </c>
       <c r="P161" s="2"/>
@@ -15045,7 +15038,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1">
       <c r="A162" s="45" t="s">
         <v>694</v>
       </c>
@@ -15066,7 +15059,7 @@
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="9" t="str">
-        <f>IF(ISBLANK(I162),"No Value",IF(I162=0,"Solid",IF(I162=1,"Dotted",IF(I162=2,"Medium-Dashed",IF(I162=3,"LongDashed",IF(I162=4,"LongDashed Dot Dot",IF(I162=6,"Medium-Dashed Dot Dot",IF(I162=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I162" s="6"/>
@@ -15078,7 +15071,7 @@
         <v>183</v>
       </c>
       <c r="M162" s="27" t="str">
-        <f>IF(ISBLANK(A162),L162, CONCATENATE(L162,"_",A162))</f>
+        <f t="shared" si="16"/>
         <v>topographic_survey_area_TOPO','HIGH','LOW','INST','NON-CANTONMENT','CANTONMENT'</v>
       </c>
       <c r="N162" s="27"/>
@@ -15114,7 +15107,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>74</v>
       </c>
@@ -15137,7 +15130,7 @@
         <v>4</v>
       </c>
       <c r="H163" s="9" t="str">
-        <f>IF(ISBLANK(I163),"No Value",IF(I163=0,"Solid",IF(I163=1,"Dotted",IF(I163=2,"Medium-Dashed",IF(I163=3,"LongDashed",IF(I163=4,"LongDashed Dot Dot",IF(I163=6,"Medium-Dashed Dot Dot",IF(I163=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I163" s="6">
@@ -15153,7 +15146,7 @@
         <v>111</v>
       </c>
       <c r="M163" s="27" t="str">
-        <f>IF(ISBLANK(A163),L163, CONCATENATE(L163,"_",A163))</f>
+        <f t="shared" si="16"/>
         <v>tower_area_TOWER</v>
       </c>
       <c r="N163" s="27"/>
@@ -15186,7 +15179,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>494</v>
       </c>
@@ -15209,7 +15202,7 @@
         <v>7</v>
       </c>
       <c r="H164" s="9" t="str">
-        <f>IF(ISBLANK(I164),"No Value",IF(I164=0,"Solid",IF(I164=1,"Dotted",IF(I164=2,"Medium-Dashed",IF(I164=3,"LongDashed",IF(I164=4,"LongDashed Dot Dot",IF(I164=6,"Medium-Dashed Dot Dot",IF(I164=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I164" s="6">
@@ -15225,7 +15218,7 @@
         <v>35</v>
       </c>
       <c r="M164" s="27" t="str">
-        <f>IF(ISBLANK(A164),L164, CONCATENATE(L164,"_",A164))</f>
+        <f t="shared" si="16"/>
         <v>athletic_court_area_TRACK</v>
       </c>
       <c r="N164" s="27"/>
@@ -15262,7 +15255,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>500</v>
       </c>
@@ -15283,7 +15276,7 @@
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="9" t="str">
-        <f>IF(ISBLANK(I165),"No Value",IF(I165=0,"Solid",IF(I165=1,"Dotted",IF(I165=2,"Medium-Dashed",IF(I165=3,"LongDashed",IF(I165=4,"LongDashed Dot Dot",IF(I165=6,"Medium-Dashed Dot Dot",IF(I165=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I165" s="6"/>
@@ -15295,7 +15288,7 @@
         <v>95</v>
       </c>
       <c r="M165" s="27" t="str">
-        <f>IF(ISBLANK(A165),L165, CONCATENATE(L165,"_",A165))</f>
+        <f t="shared" si="16"/>
         <v>road_feature_point_TRAF</v>
       </c>
       <c r="N165" s="27"/>
@@ -15332,7 +15325,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>703</v>
       </c>
@@ -15353,7 +15346,7 @@
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="9" t="str">
-        <f>IF(ISBLANK(I166),"No Value",IF(I166=0,"Solid",IF(I166=1,"Dotted",IF(I166=2,"Medium-Dashed",IF(I166=3,"LongDashed",IF(I166=4,"LongDashed Dot Dot",IF(I166=6,"Medium-Dashed Dot Dot",IF(I166=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I166" s="6"/>
@@ -15365,7 +15358,7 @@
         <v>95</v>
       </c>
       <c r="M166" s="27" t="str">
-        <f>IF(ISBLANK(A166),L166, CONCATENATE(L166,"_",A166))</f>
+        <f t="shared" si="16"/>
         <v>road_feature_point_TRAF W</v>
       </c>
       <c r="N166" s="27"/>
@@ -15402,7 +15395,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>440</v>
       </c>
@@ -15425,7 +15418,7 @@
         <v>5</v>
       </c>
       <c r="H167" s="9" t="str">
-        <f>IF(ISBLANK(I167),"No Value",IF(I167=0,"Solid",IF(I167=1,"Dotted",IF(I167=2,"Medium-Dashed",IF(I167=3,"LongDashed",IF(I167=4,"LongDashed Dot Dot",IF(I167=6,"Medium-Dashed Dot Dot",IF(I167=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I167" s="7">
@@ -15441,12 +15434,12 @@
         <v>98</v>
       </c>
       <c r="M167" s="27" t="str">
-        <f>IF(ISBLANK(A167),L167, CONCATENATE(L167,"_",A167))</f>
+        <f t="shared" si="16"/>
         <v>training_area_TRAINING</v>
       </c>
       <c r="N167" s="27"/>
       <c r="O167" s="27" t="str">
-        <f>IF(ISBLANK(A167),(CONCATENATE("''Level_Name'' = '",E167,"' AND ''Level'' = '",F167,"' AND ''Color'' = '",G167,"' AND ''Linetype'' = '",H167,"' AND ''LineWt''= '",J167,"'")),(CONCATENATE("''Level_Name'' = '",E167,"' AND ''Level'' = '",F167,"' AND ''Color'' = '",G167,"' AND ''Linetype'' = '",H167,"' AND ''LineWt''= '",J167,"' AND ''RefName'' = '",A167,"'")))</f>
+        <f t="shared" ref="O167:O174" si="19">IF(ISBLANK(A167),(CONCATENATE("''Level_Name'' = '",E167,"' AND ''Level'' = '",F167,"' AND ''Color'' = '",G167,"' AND ''Linetype'' = '",H167,"' AND ''LineWt''= '",J167,"'")),(CONCATENATE("''Level_Name'' = '",E167,"' AND ''Level'' = '",F167,"' AND ''Color'' = '",G167,"' AND ''Linetype'' = '",H167,"' AND ''LineWt''= '",J167,"' AND ''RefName'' = '",A167,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TRAINING'</v>
       </c>
       <c r="U167" s="8" t="s">
@@ -15474,7 +15467,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>651</v>
       </c>
@@ -15497,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="9" t="str">
-        <f>IF(ISBLANK(I168),"No Value",IF(I168=0,"Solid",IF(I168=1,"Dotted",IF(I168=2,"Medium-Dashed",IF(I168=3,"LongDashed",IF(I168=4,"LongDashed Dot Dot",IF(I168=6,"Medium-Dashed Dot Dot",IF(I168=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I168" s="6">
@@ -15513,12 +15506,12 @@
         <v>61</v>
       </c>
       <c r="M168" s="27" t="str">
-        <f>IF(ISBLANK(A168),L168, CONCATENATE(L168,"_",A168))</f>
+        <f t="shared" si="16"/>
         <v>utility_pole_tower_point_TRANX</v>
       </c>
       <c r="N168" s="27"/>
       <c r="O168" s="27" t="str">
-        <f>IF(ISBLANK(A168),(CONCATENATE("''Level_Name'' = '",E168,"' AND ''Level'' = '",F168,"' AND ''Color'' = '",G168,"' AND ''Linetype'' = '",H168,"' AND ''LineWt''= '",J168,"'")),(CONCATENATE("''Level_Name'' = '",E168,"' AND ''Level'' = '",F168,"' AND ''Color'' = '",G168,"' AND ''Linetype'' = '",H168,"' AND ''LineWt''= '",J168,"' AND ''RefName'' = '",A168,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_SITE_TRAN' AND ''Level'' = '17' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TRANX'</v>
       </c>
       <c r="U168" s="8" t="s">
@@ -15546,7 +15539,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>236</v>
       </c>
@@ -15569,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="H169" s="9" t="str">
-        <f>IF(ISBLANK(I169),"No Value",IF(I169=0,"Solid",IF(I169=1,"Dotted",IF(I169=2,"Medium-Dashed",IF(I169=3,"LongDashed",IF(I169=4,"LongDashed Dot Dot",IF(I169=6,"Medium-Dashed Dot Dot",IF(I169=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I169" s="3">
@@ -15585,12 +15578,12 @@
         <v>359</v>
       </c>
       <c r="M169" s="27" t="str">
-        <f>IF(ISBLANK(A169),L169, CONCATENATE(L169,"_",A169))</f>
+        <f t="shared" si="16"/>
         <v>wastewater_treat_plant_area_TRP</v>
       </c>
       <c r="N169" s="27"/>
       <c r="O169" s="27" t="str">
-        <f>IF(ISBLANK(A169),(CONCATENATE("''Level_Name'' = '",E169,"' AND ''Level'' = '",F169,"' AND ''Color'' = '",G169,"' AND ''Linetype'' = '",H169,"' AND ''LineWt''= '",J169,"'")),(CONCATENATE("''Level_Name'' = '",E169,"' AND ''Level'' = '",F169,"' AND ''Color'' = '",G169,"' AND ''Linetype'' = '",H169,"' AND ''LineWt''= '",J169,"' AND ''RefName'' = '",A169,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_BLDG_BLDG' AND ''Level'' = '13' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2' AND ''RefName'' = 'TRP'</v>
       </c>
       <c r="U169" s="8" t="s">
@@ -15618,7 +15611,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>300</v>
       </c>
@@ -15641,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="9" t="str">
-        <f>IF(ISBLANK(I170),"No Value",IF(I170=0,"Solid",IF(I170=1,"Dotted",IF(I170=2,"Medium-Dashed",IF(I170=3,"LongDashed",IF(I170=4,"LongDashed Dot Dot",IF(I170=6,"Medium-Dashed Dot Dot",IF(I170=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I170" s="6">
@@ -15657,12 +15650,12 @@
         <v>363</v>
       </c>
       <c r="M170" s="27" t="str">
-        <f>IF(ISBLANK(A170),L170, CONCATENATE(L170,"_",A170))</f>
+        <f t="shared" si="16"/>
         <v>utility_pole_tower_area_TT</v>
       </c>
       <c r="N170" s="27"/>
       <c r="O170" s="27" t="str">
-        <f>IF(ISBLANK(A170),(CONCATENATE("''Level_Name'' = '",E170,"' AND ''Level'' = '",F170,"' AND ''Color'' = '",G170,"' AND ''Linetype'' = '",H170,"' AND ''LineWt''= '",J170,"'")),(CONCATENATE("''Level_Name'' = '",E170,"' AND ''Level'' = '",F170,"' AND ''Color'' = '",G170,"' AND ''Linetype'' = '",H170,"' AND ''LineWt''= '",J170,"' AND ''RefName'' = '",A170,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_SITE_TRAN' AND ''Level'' = '17' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TT'</v>
       </c>
       <c r="U170" s="8" t="s">
@@ -15690,7 +15683,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>391</v>
       </c>
@@ -15713,7 +15706,7 @@
         <v>5</v>
       </c>
       <c r="H171" s="9" t="str">
-        <f>IF(ISBLANK(I171),"No Value",IF(I171=0,"Solid",IF(I171=1,"Dotted",IF(I171=2,"Medium-Dashed",IF(I171=3,"LongDashed",IF(I171=4,"LongDashed Dot Dot",IF(I171=6,"Medium-Dashed Dot Dot",IF(I171=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I171" s="6">
@@ -15729,12 +15722,12 @@
         <v>393</v>
       </c>
       <c r="M171" s="27" t="str">
-        <f>IF(ISBLANK(A171),L171, CONCATENATE(L171,"_",A171))</f>
+        <f t="shared" si="16"/>
         <v>tunnel_area_TUNNEL</v>
       </c>
       <c r="N171" s="27"/>
       <c r="O171" s="27" t="str">
-        <f>IF(ISBLANK(A171),(CONCATENATE("''Level_Name'' = '",E171,"' AND ''Level'' = '",F171,"' AND ''Color'' = '",G171,"' AND ''Linetype'' = '",H171,"' AND ''LineWt''= '",J171,"'")),(CONCATENATE("''Level_Name'' = '",E171,"' AND ''Level'' = '",F171,"' AND ''Color'' = '",G171,"' AND ''Linetype'' = '",H171,"' AND ''LineWt''= '",J171,"' AND ''RefName'' = '",A171,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'TUNNEL'</v>
       </c>
       <c r="P171" s="8"/>
@@ -15766,7 +15759,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="172" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>26</v>
       </c>
@@ -15789,7 +15782,7 @@
         <v>5</v>
       </c>
       <c r="H172" s="9" t="str">
-        <f>IF(ISBLANK(I172),"No Value",IF(I172=0,"Solid",IF(I172=1,"Dotted",IF(I172=2,"Medium-Dashed",IF(I172=3,"LongDashed",IF(I172=4,"LongDashed Dot Dot",IF(I172=6,"Medium-Dashed Dot Dot",IF(I172=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I172" s="7">
@@ -15805,12 +15798,12 @@
         <v>112</v>
       </c>
       <c r="M172" s="27" t="str">
-        <f>IF(ISBLANK(A172),L172, CONCATENATE(L172,"_",A172))</f>
+        <f t="shared" si="16"/>
         <v>undefined_mapping_feature_area_U</v>
       </c>
       <c r="N172" s="27"/>
       <c r="O172" s="27" t="str">
-        <f>IF(ISBLANK(A172),(CONCATENATE("''Level_Name'' = '",E172,"' AND ''Level'' = '",F172,"' AND ''Color'' = '",G172,"' AND ''Linetype'' = '",H172,"' AND ''LineWt''= '",J172,"'")),(CONCATENATE("''Level_Name'' = '",E172,"' AND ''Level'' = '",F172,"' AND ''Color'' = '",G172,"' AND ''Linetype'' = '",H172,"' AND ''LineWt''= '",J172,"' AND ''RefName'' = '",A172,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'U'</v>
       </c>
       <c r="P172" s="5"/>
@@ -15845,7 +15838,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>661</v>
       </c>
@@ -15868,7 +15861,7 @@
         <v>5</v>
       </c>
       <c r="H173" s="9" t="str">
-        <f>IF(ISBLANK(I173),"No Value",IF(I173=0,"Solid",IF(I173=1,"Dotted",IF(I173=2,"Medium-Dashed",IF(I173=3,"LongDashed",IF(I173=4,"LongDashed Dot Dot",IF(I173=6,"Medium-Dashed Dot Dot",IF(I173=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I173" s="6">
@@ -15884,12 +15877,12 @@
         <v>546</v>
       </c>
       <c r="M173" s="27" t="str">
-        <f>IF(ISBLANK(A173),L173, CONCATENATE(L173,"_",A173))</f>
+        <f t="shared" si="16"/>
         <v>obscured_area_UA</v>
       </c>
       <c r="N173" s="27"/>
       <c r="O173" s="27" t="str">
-        <f>IF(ISBLANK(A173),(CONCATENATE("''Level_Name'' = '",E173,"' AND ''Level'' = '",F173,"' AND ''Color'' = '",G173,"' AND ''Linetype'' = '",H173,"' AND ''LineWt''= '",J173,"'")),(CONCATENATE("''Level_Name'' = '",E173,"' AND ''Level'' = '",F173,"' AND ''Color'' = '",G173,"' AND ''Linetype'' = '",H173,"' AND ''LineWt''= '",J173,"' AND ''RefName'' = '",A173,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'UA'</v>
       </c>
       <c r="T173" s="4" t="s">
@@ -15920,7 +15913,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>266</v>
       </c>
@@ -15943,7 +15936,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="9" t="str">
-        <f>IF(ISBLANK(I174),"No Value",IF(I174=0,"Solid",IF(I174=1,"Dotted",IF(I174=2,"Medium-Dashed",IF(I174=3,"LongDashed",IF(I174=4,"LongDashed Dot Dot",IF(I174=6,"Medium-Dashed Dot Dot",IF(I174=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I174" s="7">
@@ -15959,12 +15952,12 @@
         <v>99</v>
       </c>
       <c r="M174" s="27" t="str">
-        <f>IF(ISBLANK(A174),L174, CONCATENATE(L174,"_",A174))</f>
+        <f t="shared" si="16"/>
         <v>construction_area_UC</v>
       </c>
       <c r="N174" s="27"/>
       <c r="O174" s="27" t="str">
-        <f>IF(ISBLANK(A174),(CONCATENATE("''Level_Name'' = '",E174,"' AND ''Level'' = '",F174,"' AND ''Color'' = '",G174,"' AND ''Linetype'' = '",H174,"' AND ''LineWt''= '",J174,"'")),(CONCATENATE("''Level_Name'' = '",E174,"' AND ''Level'' = '",F174,"' AND ''Color'' = '",G174,"' AND ''Linetype'' = '",H174,"' AND ''LineWt''= '",J174,"' AND ''RefName'' = '",A174,"'")))</f>
+        <f t="shared" si="19"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'UC'</v>
       </c>
       <c r="U174" s="8" t="s">
@@ -15992,7 +15985,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>503</v>
       </c>
@@ -16013,7 +16006,7 @@
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="9" t="str">
-        <f>IF(ISBLANK(I175),"No Value",IF(I175=0,"Solid",IF(I175=1,"Dotted",IF(I175=2,"Medium-Dashed",IF(I175=3,"LongDashed",IF(I175=4,"LongDashed Dot Dot",IF(I175=6,"Medium-Dashed Dot Dot",IF(I175=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I175" s="3"/>
@@ -16025,7 +16018,7 @@
         <v>125</v>
       </c>
       <c r="M175" s="27" t="str">
-        <f>IF(ISBLANK(A175),L175, CONCATENATE(L175,"_",A175))</f>
+        <f t="shared" si="16"/>
         <v>undefined_mapping_feature_point_UNI</v>
       </c>
       <c r="N175" s="27"/>
@@ -16062,7 +16055,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>515</v>
       </c>
@@ -16085,7 +16078,7 @@
         <v>5</v>
       </c>
       <c r="H176" s="9" t="str">
-        <f>IF(ISBLANK(I176),"No Value",IF(I176=0,"Solid",IF(I176=1,"Dotted",IF(I176=2,"Medium-Dashed",IF(I176=3,"LongDashed",IF(I176=4,"LongDashed Dot Dot",IF(I176=6,"Medium-Dashed Dot Dot",IF(I176=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I176" s="7">
@@ -16101,7 +16094,7 @@
         <v>517</v>
       </c>
       <c r="M176" s="27" t="str">
-        <f>IF(ISBLANK(A176),L176, CONCATENATE(L176,"_",A176))</f>
+        <f t="shared" si="16"/>
         <v>utility_area_UT</v>
       </c>
       <c r="N176" s="27"/>
@@ -16138,7 +16131,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="177" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" s="48" customFormat="1" ht="12.75" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>142</v>
       </c>
@@ -16161,7 +16154,7 @@
         <v>7</v>
       </c>
       <c r="H177" s="9" t="str">
-        <f>IF(ISBLANK(I177),"No Value",IF(I177=0,"Solid",IF(I177=1,"Dotted",IF(I177=2,"Medium-Dashed",IF(I177=3,"LongDashed",IF(I177=4,"LongDashed Dot Dot",IF(I177=6,"Medium-Dashed Dot Dot",IF(I177=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I177" s="7">
@@ -16177,7 +16170,7 @@
         <v>35</v>
       </c>
       <c r="M177" s="27" t="str">
-        <f>IF(ISBLANK(A177),L177, CONCATENATE(L177,"_",A177))</f>
+        <f t="shared" si="16"/>
         <v>athletic_court_area_VBCT</v>
       </c>
       <c r="N177" s="27"/>
@@ -16215,7 +16208,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>175</v>
       </c>
@@ -16238,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="9" t="b">
-        <f>IF(ISBLANK(I178),"No Value",IF(I178=0,"Solid",IF(I178=1,"Dotted",IF(I178=2,"Medium-Dashed",IF(I178=3,"LongDashed",IF(I178=4,"LongDashed Dot Dot",IF(I178=6,"Medium-Dashed Dot Dot",IF(I178=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I178" s="15" t="s">
@@ -16254,7 +16247,7 @@
         <v>177</v>
       </c>
       <c r="M178" s="27" t="str">
-        <f>IF(ISBLANK(A178),L178, CONCATENATE(L178,"_",A178))</f>
+        <f t="shared" si="16"/>
         <v>surface_water_body_area_WB</v>
       </c>
       <c r="N178" s="27"/>
@@ -16290,7 +16283,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>419</v>
       </c>
@@ -16313,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="9" t="str">
-        <f>IF(ISBLANK(I179),"No Value",IF(I179=0,"Solid",IF(I179=1,"Dotted",IF(I179=2,"Medium-Dashed",IF(I179=3,"LongDashed",IF(I179=4,"LongDashed Dot Dot",IF(I179=6,"Medium-Dashed Dot Dot",IF(I179=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed Dot Dot</v>
       </c>
       <c r="I179" s="9">
@@ -16329,7 +16322,7 @@
         <v>424</v>
       </c>
       <c r="M179" s="27" t="str">
-        <f>IF(ISBLANK(A179),L179, CONCATENATE(L179,"_",A179))</f>
+        <f t="shared" si="16"/>
         <v>surface_water_course_area_WCA</v>
       </c>
       <c r="N179" s="27"/>
@@ -16363,7 +16356,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>255</v>
       </c>
@@ -16386,7 +16379,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="9" t="str">
-        <f>IF(ISBLANK(I180),"No Value",IF(I180=0,"Solid",IF(I180=1,"Dotted",IF(I180=2,"Medium-Dashed",IF(I180=3,"LongDashed",IF(I180=4,"LongDashed Dot Dot",IF(I180=6,"Medium-Dashed Dot Dot",IF(I180=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I180" s="6">
@@ -16402,7 +16395,7 @@
         <v>252</v>
       </c>
       <c r="M180" s="27" t="str">
-        <f>IF(ISBLANK(A180),L180, CONCATENATE(L180,"_",A180))</f>
+        <f t="shared" si="16"/>
         <v>golf_course_water_hazard_area_WH</v>
       </c>
       <c r="N180" s="27"/>
@@ -16439,7 +16432,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>611</v>
       </c>
@@ -16462,7 +16455,7 @@
         <v>5</v>
       </c>
       <c r="H181" s="9" t="str">
-        <f>IF(ISBLANK(I181),"No Value",IF(I181=0,"Solid",IF(I181=1,"Dotted",IF(I181=2,"Medium-Dashed",IF(I181=3,"LongDashed",IF(I181=4,"LongDashed Dot Dot",IF(I181=6,"Medium-Dashed Dot Dot",IF(I181=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I181" s="6">
@@ -16478,7 +16471,7 @@
         <v>523</v>
       </c>
       <c r="M181" s="27" t="str">
-        <f>IF(ISBLANK(A181),L181, CONCATENATE(L181,"_",A181))</f>
+        <f t="shared" si="16"/>
         <v>mooring_facility_area_WHARF</v>
       </c>
       <c r="N181" s="27"/>
@@ -16518,7 +16511,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>309</v>
       </c>
@@ -16539,7 +16532,7 @@
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="9" t="str">
-        <f>IF(ISBLANK(I182),"No Value",IF(I182=0,"Solid",IF(I182=1,"Dotted",IF(I182=2,"Medium-Dashed",IF(I182=3,"LongDashed",IF(I182=4,"LongDashed Dot Dot",IF(I182=6,"Medium-Dashed Dot Dot",IF(I182=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I182" s="6"/>
@@ -16551,7 +16544,7 @@
         <v>91</v>
       </c>
       <c r="M182" s="27" t="str">
-        <f>IF(ISBLANK(A182),L182, CONCATENATE(L182,"_",A182))</f>
+        <f t="shared" si="16"/>
         <v>navigational_aid_point_WS</v>
       </c>
       <c r="N182" s="27"/>
@@ -16584,7 +16577,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>250</v>
       </c>
@@ -16605,7 +16598,7 @@
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="9" t="str">
-        <f>IF(ISBLANK(I183),"No Value",IF(I183=0,"Solid",IF(I183=1,"Dotted",IF(I183=2,"Medium-Dashed",IF(I183=3,"LongDashed",IF(I183=4,"LongDashed Dot Dot",IF(I183=6,"Medium-Dashed Dot Dot",IF(I183=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>No Value</v>
       </c>
       <c r="I183" s="6"/>
@@ -16619,7 +16612,7 @@
         <v>179</v>
       </c>
       <c r="M183" s="27" t="str">
-        <f>IF(ISBLANK(A183),L183, CONCATENATE(L183,"_",A183))</f>
+        <f t="shared" si="16"/>
         <v>spot_elevation_point_X</v>
       </c>
       <c r="N183" s="27"/>
@@ -16656,7 +16649,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>518</v>
       </c>
@@ -16679,7 +16672,7 @@
         <v>5</v>
       </c>
       <c r="H184" s="9" t="str">
-        <f>IF(ISBLANK(I184),"No Value",IF(I184=0,"Solid",IF(I184=1,"Dotted",IF(I184=2,"Medium-Dashed",IF(I184=3,"LongDashed",IF(I184=4,"LongDashed Dot Dot",IF(I184=6,"Medium-Dashed Dot Dot",IF(I184=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I184" s="6">
@@ -16695,12 +16688,12 @@
         <v>37</v>
       </c>
       <c r="M184" s="27" t="str">
-        <f>IF(ISBLANK(A184),L184, CONCATENATE(L184,"_",A184))</f>
+        <f t="shared" si="16"/>
         <v>miscellaneous_feature_area_YD</v>
       </c>
       <c r="N184" s="27"/>
       <c r="O184" s="27" t="str">
-        <f>IF(ISBLANK(A184),(CONCATENATE("''Level_Name'' = '",E184,"' AND ''Level'' = '",F184,"' AND ''Color'' = '",G184,"' AND ''Linetype'' = '",H184,"' AND ''LineWt''= '",J184,"'")),(CONCATENATE("''Level_Name'' = '",E184,"' AND ''Level'' = '",F184,"' AND ''Color'' = '",G184,"' AND ''Linetype'' = '",H184,"' AND ''LineWt''= '",J184,"' AND ''RefName'' = '",A184,"'")))</f>
+        <f t="shared" ref="O184:O219" si="20">IF(ISBLANK(A184),(CONCATENATE("''Level_Name'' = '",E184,"' AND ''Level'' = '",F184,"' AND ''Color'' = '",G184,"' AND ''Linetype'' = '",H184,"' AND ''LineWt''= '",J184,"'")),(CONCATENATE("''Level_Name'' = '",E184,"' AND ''Level'' = '",F184,"' AND ''Color'' = '",G184,"' AND ''Linetype'' = '",H184,"' AND ''LineWt''= '",J184,"' AND ''RefName'' = '",A184,"'")))</f>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0' AND ''RefName'' = 'YD'</v>
       </c>
       <c r="U184" s="8" t="s">
@@ -16728,7 +16721,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
@@ -16748,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="H185" s="9" t="str">
-        <f>IF(ISBLANK(I185),"No Value",IF(I185=0,"Solid",IF(I185=1,"Dotted",IF(I185=2,"Medium-Dashed",IF(I185=3,"LongDashed",IF(I185=4,"LongDashed Dot Dot",IF(I185=6,"Medium-Dashed Dot Dot",IF(I185=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I185" s="12">
@@ -16764,12 +16757,12 @@
         <v>370</v>
       </c>
       <c r="M185" s="27" t="str">
-        <f>IF(ISBLANK(A185),L185, CONCATENATE(L185,"_",A185))</f>
+        <f t="shared" si="16"/>
         <v>gate_line</v>
       </c>
       <c r="N185" s="27"/>
       <c r="O185" s="27" t="str">
-        <f>IF(ISBLANK(A185),(CONCATENATE("''Level_Name'' = '",E185,"' AND ''Level'' = '",F185,"' AND ''Color'' = '",G185,"' AND ''Linetype'' = '",H185,"' AND ''LineWt''= '",J185,"'")),(CONCATENATE("''Level_Name'' = '",E185,"' AND ''Level'' = '",F185,"' AND ''Color'' = '",G185,"' AND ''Linetype'' = '",H185,"' AND ''LineWt''= '",J185,"' AND ''RefName'' = '",A185,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_FENC' AND ''Level'' = '19' AND ''Color'' = '0' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="P185" s="21"/>
@@ -16804,7 +16797,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1">
       <c r="B186" s="14" t="s">
         <v>240</v>
       </c>
@@ -16824,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="H186" s="9" t="str">
-        <f>IF(ISBLANK(I186),"No Value",IF(I186=0,"Solid",IF(I186=1,"Dotted",IF(I186=2,"Medium-Dashed",IF(I186=3,"LongDashed",IF(I186=4,"LongDashed Dot Dot",IF(I186=6,"Medium-Dashed Dot Dot",IF(I186=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I186" s="12">
@@ -16840,12 +16833,12 @@
         <v>56</v>
       </c>
       <c r="M186" s="27" t="str">
-        <f>IF(ISBLANK(A186),L186, CONCATENATE(L186,"_",A186))</f>
+        <f t="shared" si="16"/>
         <v>culvert_centerline</v>
       </c>
       <c r="N186" s="27"/>
       <c r="O186" s="27" t="str">
-        <f>IF(ISBLANK(A186),(CONCATENATE("''Level_Name'' = '",E186,"' AND ''Level'' = '",F186,"' AND ''Color'' = '",G186,"' AND ''Linetype'' = '",H186,"' AND ''LineWt''= '",J186,"'")),(CONCATENATE("''Level_Name'' = '",E186,"' AND ''Level'' = '",F186,"' AND ''Color'' = '",G186,"' AND ''Linetype'' = '",H186,"' AND ''LineWt''= '",J186,"' AND ''RefName'' = '",A186,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' = '44' AND ''Color'' = '0' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="U186" s="8" t="s">
@@ -16873,7 +16866,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1">
       <c r="B187" s="14" t="s">
         <v>240</v>
       </c>
@@ -16893,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="H187" s="9" t="str">
-        <f>IF(ISBLANK(I187),"No Value",IF(I187=0,"Solid",IF(I187=1,"Dotted",IF(I187=2,"Medium-Dashed",IF(I187=3,"LongDashed",IF(I187=4,"LongDashed Dot Dot",IF(I187=6,"Medium-Dashed Dot Dot",IF(I187=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I187" s="12">
@@ -16909,12 +16902,12 @@
         <v>623</v>
       </c>
       <c r="M187" s="27" t="str">
-        <f>IF(ISBLANK(A187),L187, CONCATENATE(L187,"_",A187))</f>
+        <f t="shared" si="16"/>
         <v>recreation_feature_line</v>
       </c>
       <c r="N187" s="27"/>
       <c r="O187" s="27" t="str">
-        <f>IF(ISBLANK(A187),(CONCATENATE("''Level_Name'' = '",E187,"' AND ''Level'' = '",F187,"' AND ''Color'' = '",G187,"' AND ''Linetype'' = '",H187,"' AND ''LineWt''= '",J187,"'")),(CONCATENATE("''Level_Name'' = '",E187,"' AND ''Level'' = '",F187,"' AND ''Color'' = '",G187,"' AND ''Linetype'' = '",H187,"' AND ''LineWt''= '",J187,"' AND ''RefName'' = '",A187,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '1' AND ''Linetype'' = 'Solid' AND ''LineWt''= '1'</v>
       </c>
       <c r="P187" s="21"/>
@@ -16949,7 +16942,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="14" t="s">
         <v>240</v>
@@ -16970,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="H188" s="9" t="str">
-        <f>IF(ISBLANK(I188),"No Value",IF(I188=0,"Solid",IF(I188=1,"Dotted",IF(I188=2,"Medium-Dashed",IF(I188=3,"LongDashed",IF(I188=4,"LongDashed Dot Dot",IF(I188=6,"Medium-Dashed Dot Dot",IF(I188=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I188" s="9">
@@ -16986,12 +16979,12 @@
         <v>390</v>
       </c>
       <c r="M188" s="27" t="str">
-        <f>IF(ISBLANK(A188),L188, CONCATENATE(L188,"_",A188))</f>
+        <f t="shared" si="16"/>
         <v>shoreline</v>
       </c>
       <c r="N188" s="27"/>
       <c r="O188" s="27" t="str">
-        <f>IF(ISBLANK(A188),(CONCATENATE("''Level_Name'' = '",E188,"' AND ''Level'' = '",F188,"' AND ''Color'' = '",G188,"' AND ''Linetype'' = '",H188,"' AND ''LineWt''= '",J188,"'")),(CONCATENATE("''Level_Name'' = '",E188,"' AND ''Level'' = '",F188,"' AND ''Color'' = '",G188,"' AND ''Linetype'' = '",H188,"' AND ''LineWt''= '",J188,"' AND ''RefName'' = '",A188,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '1' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="P188" s="21" t="s">
@@ -17030,7 +17023,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1">
       <c r="B189" s="14" t="s">
         <v>240</v>
       </c>
@@ -17050,7 +17043,7 @@
         <v>3</v>
       </c>
       <c r="H189" s="9" t="str">
-        <f>IF(ISBLANK(I189),"No Value",IF(I189=0,"Solid",IF(I189=1,"Dotted",IF(I189=2,"Medium-Dashed",IF(I189=3,"LongDashed",IF(I189=4,"LongDashed Dot Dot",IF(I189=6,"Medium-Dashed Dot Dot",IF(I189=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I189" s="12">
@@ -17066,12 +17059,12 @@
         <v>52</v>
       </c>
       <c r="M189" s="27" t="str">
-        <f>IF(ISBLANK(A189),L189, CONCATENATE(L189,"_",A189))</f>
+        <f t="shared" si="16"/>
         <v>curb_line</v>
       </c>
       <c r="N189" s="27"/>
       <c r="O189" s="27" t="str">
-        <f>IF(ISBLANK(A189),(CONCATENATE("''Level_Name'' = '",E189,"' AND ''Level'' = '",F189,"' AND ''Color'' = '",G189,"' AND ''Linetype'' = '",H189,"' AND ''LineWt''= '",J189,"'")),(CONCATENATE("''Level_Name'' = '",E189,"' AND ''Level'' = '",F189,"' AND ''Color'' = '",G189,"' AND ''Linetype'' = '",H189,"' AND ''LineWt''= '",J189,"' AND ''RefName'' = '",A189,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_CURB' AND ''Level'' = '2' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '2'</v>
       </c>
       <c r="P189" s="65" t="s">
@@ -17110,7 +17103,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1">
       <c r="B190" s="14" t="s">
         <v>240</v>
       </c>
@@ -17130,7 +17123,7 @@
         <v>3</v>
       </c>
       <c r="H190" s="9" t="str">
-        <f>IF(ISBLANK(I190),"No Value",IF(I190=0,"Solid",IF(I190=1,"Dotted",IF(I190=2,"Medium-Dashed",IF(I190=3,"LongDashed",IF(I190=4,"LongDashed Dot Dot",IF(I190=6,"Medium-Dashed Dot Dot",IF(I190=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Solid</v>
       </c>
       <c r="I190" s="12">
@@ -17146,12 +17139,12 @@
         <v>52</v>
       </c>
       <c r="M190" s="27" t="str">
-        <f>IF(ISBLANK(A190),L190, CONCATENATE(L190,"_",A190))</f>
+        <f t="shared" si="16"/>
         <v>curb_line</v>
       </c>
       <c r="N190" s="27"/>
       <c r="O190" s="27" t="str">
-        <f>IF(ISBLANK(A190),(CONCATENATE("''Level_Name'' = '",E190,"' AND ''Level'' = '",F190,"' AND ''Color'' = '",G190,"' AND ''Linetype'' = '",H190,"' AND ''LineWt''= '",J190,"'")),(CONCATENATE("''Level_Name'' = '",E190,"' AND ''Level'' = '",F190,"' AND ''Color'' = '",G190,"' AND ''Linetype'' = '",H190,"' AND ''LineWt''= '",J190,"' AND ''RefName'' = '",A190,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_CURB' AND ''Level'' = '2' AND ''Color'' = '3' AND ''Linetype'' = 'Solid' AND ''LineWt''= '2'</v>
       </c>
       <c r="P190" s="48" t="s">
@@ -17187,7 +17180,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1">
       <c r="B191" s="14" t="s">
         <v>240</v>
       </c>
@@ -17207,7 +17200,7 @@
         <v>3</v>
       </c>
       <c r="H191" s="9" t="str">
-        <f>IF(ISBLANK(I191),"No Value",IF(I191=0,"Solid",IF(I191=1,"Dotted",IF(I191=2,"Medium-Dashed",IF(I191=3,"LongDashed",IF(I191=4,"LongDashed Dot Dot",IF(I191=6,"Medium-Dashed Dot Dot",IF(I191=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I191" s="12">
@@ -17223,12 +17216,12 @@
         <v>387</v>
       </c>
       <c r="M191" s="27" t="str">
-        <f>IF(ISBLANK(A191),L191, CONCATENATE(L191,"_",A191))</f>
+        <f t="shared" si="16"/>
         <v>recreation_trail_centerline</v>
       </c>
       <c r="N191" s="27"/>
       <c r="O191" s="27" t="str">
-        <f>IF(ISBLANK(A191),(CONCATENATE("''Level_Name'' = '",E191,"' AND ''Level'' = '",F191,"' AND ''Color'' = '",G191,"' AND ''Linetype'' = '",H191,"' AND ''LineWt''= '",J191,"'")),(CONCATENATE("''Level_Name'' = '",E191,"' AND ''Level'' = '",F191,"' AND ''Color'' = '",G191,"' AND ''Linetype'' = '",H191,"' AND ''LineWt''= '",J191,"' AND ''RefName'' = '",A191,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_TRLS' AND ''Level'' = '5' AND ''Color'' = '3' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="U191" s="8" t="s">
@@ -17256,7 +17249,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="192" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="14" t="s">
         <v>240</v>
@@ -17277,7 +17270,7 @@
         <v>3</v>
       </c>
       <c r="H192" s="9" t="b">
-        <f>IF(ISBLANK(I192),"No Value",IF(I192=0,"Solid",IF(I192=1,"Dotted",IF(I192=2,"Medium-Dashed",IF(I192=3,"LongDashed",IF(I192=4,"LongDashed Dot Dot",IF(I192=6,"Medium-Dashed Dot Dot",IF(I192=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I192" s="12">
@@ -17293,12 +17286,12 @@
         <v>86</v>
       </c>
       <c r="M192" s="27" t="str">
-        <f>IF(ISBLANK(A192),L192, CONCATENATE(L192,"_",A192))</f>
+        <f t="shared" si="16"/>
         <v>pedestrian_trail_centerline</v>
       </c>
       <c r="N192" s="27"/>
       <c r="O192" s="27" t="str">
-        <f>IF(ISBLANK(A192),(CONCATENATE("''Level_Name'' = '",E192,"' AND ''Level'' = '",F192,"' AND ''Color'' = '",G192,"' AND ''Linetype'' = '",H192,"' AND ''LineWt''= '",J192,"'")),(CONCATENATE("''Level_Name'' = '",E192,"' AND ''Level'' = '",F192,"' AND ''Color'' = '",G192,"' AND ''Linetype'' = '",H192,"' AND ''LineWt''= '",J192,"' AND ''RefName'' = '",A192,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_TRLS' AND ''Level'' = '5' AND ''Color'' = '3' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '0'</v>
       </c>
       <c r="P192" s="4"/>
@@ -17331,7 +17324,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="193" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="14" t="s">
         <v>240</v>
@@ -17352,7 +17345,7 @@
         <v>3</v>
       </c>
       <c r="H193" s="9" t="str">
-        <f>IF(ISBLANK(I193),"No Value",IF(I193=0,"Solid",IF(I193=1,"Dotted",IF(I193=2,"Medium-Dashed",IF(I193=3,"LongDashed",IF(I193=4,"LongDashed Dot Dot",IF(I193=6,"Medium-Dashed Dot Dot",IF(I193=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Dotted</v>
       </c>
       <c r="I193" s="12">
@@ -17368,12 +17361,12 @@
         <v>388</v>
       </c>
       <c r="M193" s="27" t="str">
-        <f>IF(ISBLANK(A193),L193, CONCATENATE(L193,"_",A193))</f>
+        <f t="shared" si="16"/>
         <v>road_bridge_centerline</v>
       </c>
       <c r="N193" s="27"/>
       <c r="O193" s="27" t="str">
-        <f>IF(ISBLANK(A193),(CONCATENATE("''Level_Name'' = '",E193,"' AND ''Level'' = '",F193,"' AND ''Color'' = '",G193,"' AND ''Linetype'' = '",H193,"' AND ''LineWt''= '",J193,"'")),(CONCATENATE("''Level_Name'' = '",E193,"' AND ''Level'' = '",F193,"' AND ''Color'' = '",G193,"' AND ''Linetype'' = '",H193,"' AND ''LineWt''= '",J193,"' AND ''RefName'' = '",A193,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_BRID' AND ''Level'' = '11' AND ''Color'' = '3' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0'</v>
       </c>
       <c r="P193" s="4"/>
@@ -17406,7 +17399,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1">
       <c r="B194" s="14" t="s">
         <v>240</v>
       </c>
@@ -17426,7 +17419,7 @@
         <v>4</v>
       </c>
       <c r="H194" s="9" t="str">
-        <f>IF(ISBLANK(I194),"No Value",IF(I194=0,"Solid",IF(I194=1,"Dotted",IF(I194=2,"Medium-Dashed",IF(I194=3,"LongDashed",IF(I194=4,"LongDashed Dot Dot",IF(I194=6,"Medium-Dashed Dot Dot",IF(I194=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="15"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I194" s="12">
@@ -17442,12 +17435,12 @@
         <v>380</v>
       </c>
       <c r="M194" s="27" t="str">
-        <f>IF(ISBLANK(A194),L194, CONCATENATE(L194,"_",A194))</f>
+        <f t="shared" si="16"/>
         <v>railroad_bridge_centerline</v>
       </c>
       <c r="N194" s="27"/>
       <c r="O194" s="27" t="str">
-        <f>IF(ISBLANK(A194),(CONCATENATE("''Level_Name'' = '",E194,"' AND ''Level'' = '",F194,"' AND ''Color'' = '",G194,"' AND ''Linetype'' = '",H194,"' AND ''LineWt''= '",J194,"'")),(CONCATENATE("''Level_Name'' = '",E194,"' AND ''Level'' = '",F194,"' AND ''Color'' = '",G194,"' AND ''Linetype'' = '",H194,"' AND ''LineWt''= '",J194,"' AND ''RefName'' = '",A194,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_RAIL' AND ''Level'' = '10' AND ''Color'' = '4' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="U194" s="8" t="s">
@@ -17475,7 +17468,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1">
       <c r="B195" s="14" t="s">
         <v>240</v>
       </c>
@@ -17495,7 +17488,7 @@
         <v>4</v>
       </c>
       <c r="H195" s="9" t="str">
-        <f>IF(ISBLANK(I195),"No Value",IF(I195=0,"Solid",IF(I195=1,"Dotted",IF(I195=2,"Medium-Dashed",IF(I195=3,"LongDashed",IF(I195=4,"LongDashed Dot Dot",IF(I195=6,"Medium-Dashed Dot Dot",IF(I195=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" ref="H195:H258" si="21">IF(ISBLANK(I195),"No Value",IF(I195=0,"Solid",IF(I195=1,"Dotted",IF(I195=2,"Medium-Dashed",IF(I195=3,"LongDashed",IF(I195=4,"LongDashed Dot Dot",IF(I195=6,"Medium-Dashed Dot Dot",IF(I195=7,"Solid Medium-Dashed" ))))))))</f>
         <v>Solid</v>
       </c>
       <c r="I195" s="12">
@@ -17511,12 +17504,12 @@
         <v>85</v>
       </c>
       <c r="M195" s="27" t="str">
-        <f>IF(ISBLANK(A195),L195, CONCATENATE(L195,"_",A195))</f>
+        <f t="shared" ref="M195:M258" si="22">IF(ISBLANK(A195),L195, CONCATENATE(L195,"_",A195))</f>
         <v>railroad_centerline</v>
       </c>
       <c r="N195" s="27"/>
       <c r="O195" s="27" t="str">
-        <f>IF(ISBLANK(A195),(CONCATENATE("''Level_Name'' = '",E195,"' AND ''Level'' = '",F195,"' AND ''Color'' = '",G195,"' AND ''Linetype'' = '",H195,"' AND ''LineWt''= '",J195,"'")),(CONCATENATE("''Level_Name'' = '",E195,"' AND ''Level'' = '",F195,"' AND ''Color'' = '",G195,"' AND ''Linetype'' = '",H195,"' AND ''LineWt''= '",J195,"' AND ''RefName'' = '",A195,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_RAIL' AND ''Level'' = '10' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="U195" s="8" t="s">
@@ -17544,7 +17537,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1">
       <c r="B196" s="14" t="s">
         <v>240</v>
       </c>
@@ -17564,7 +17557,7 @@
         <v>4</v>
       </c>
       <c r="H196" s="9" t="str">
-        <f>IF(ISBLANK(I196),"No Value",IF(I196=0,"Solid",IF(I196=1,"Dotted",IF(I196=2,"Medium-Dashed",IF(I196=3,"LongDashed",IF(I196=4,"LongDashed Dot Dot",IF(I196=6,"Medium-Dashed Dot Dot",IF(I196=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I196" s="12">
@@ -17580,12 +17573,12 @@
         <v>57</v>
       </c>
       <c r="M196" s="27" t="str">
-        <f>IF(ISBLANK(A196),L196, CONCATENATE(L196,"_",A196))</f>
+        <f t="shared" si="22"/>
         <v>wall_line</v>
       </c>
       <c r="N196" s="27"/>
       <c r="O196" s="27" t="str">
-        <f>IF(ISBLANK(A196),(CONCATENATE("''Level_Name'' = '",E196,"' AND ''Level'' = '",F196,"' AND ''Color'' = '",G196,"' AND ''Linetype'' = '",H196,"' AND ''LineWt''= '",J196,"'")),(CONCATENATE("''Level_Name'' = '",E196,"' AND ''Level'' = '",F196,"' AND ''Color'' = '",G196,"' AND ''Linetype'' = '",H196,"' AND ''LineWt''= '",J196,"' AND ''RefName'' = '",A196,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="U196" s="8" t="s">
@@ -17613,7 +17606,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1">
       <c r="B197" s="14" t="s">
         <v>240</v>
       </c>
@@ -17633,7 +17626,7 @@
         <v>4</v>
       </c>
       <c r="H197" s="9" t="str">
-        <f>IF(ISBLANK(I197),"No Value",IF(I197=0,"Solid",IF(I197=1,"Dotted",IF(I197=2,"Medium-Dashed",IF(I197=3,"LongDashed",IF(I197=4,"LongDashed Dot Dot",IF(I197=6,"Medium-Dashed Dot Dot",IF(I197=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I197" s="12">
@@ -17649,12 +17642,12 @@
         <v>57</v>
       </c>
       <c r="M197" s="27" t="str">
-        <f>IF(ISBLANK(A197),L197, CONCATENATE(L197,"_",A197))</f>
+        <f t="shared" si="22"/>
         <v>wall_line</v>
       </c>
       <c r="N197" s="27"/>
       <c r="O197" s="27" t="str">
-        <f>IF(ISBLANK(A197),(CONCATENATE("''Level_Name'' = '",E197,"' AND ''Level'' = '",F197,"' AND ''Color'' = '",G197,"' AND ''Linetype'' = '",H197,"' AND ''LineWt''= '",J197,"'")),(CONCATENATE("''Level_Name'' = '",E197,"' AND ''Level'' = '",F197,"' AND ''Color'' = '",G197,"' AND ''Linetype'' = '",H197,"' AND ''LineWt''= '",J197,"' AND ''RefName'' = '",A197,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '4' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="T197" s="4" t="s">
@@ -17685,7 +17678,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1">
       <c r="B198" s="14" t="s">
         <v>240</v>
       </c>
@@ -17705,7 +17698,7 @@
         <v>4</v>
       </c>
       <c r="H198" s="9" t="str">
-        <f>IF(ISBLANK(I198),"No Value",IF(I198=0,"Solid",IF(I198=1,"Dotted",IF(I198=2,"Medium-Dashed",IF(I198=3,"LongDashed",IF(I198=4,"LongDashed Dot Dot",IF(I198=6,"Medium-Dashed Dot Dot",IF(I198=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I198" s="12">
@@ -17721,12 +17714,12 @@
         <v>415</v>
       </c>
       <c r="M198" s="27" t="str">
-        <f>IF(ISBLANK(A198),L198, CONCATENATE(L198,"_",A198))</f>
+        <f t="shared" si="22"/>
         <v>vehicle_surface_marking_line</v>
       </c>
       <c r="N198" s="27"/>
       <c r="O198" s="27" t="str">
-        <f>IF(ISBLANK(A198),(CONCATENATE("''Level_Name'' = '",E198,"' AND ''Level'' = '",F198,"' AND ''Color'' = '",G198,"' AND ''Linetype'' = '",H198,"' AND ''LineWt''= '",J198,"'")),(CONCATENATE("''Level_Name'' = '",E198,"' AND ''Level'' = '",F198,"' AND ''Color'' = '",G198,"' AND ''Linetype'' = '",H198,"' AND ''LineWt''= '",J198,"' AND ''RefName'' = '",A198,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '1'</v>
       </c>
       <c r="T198" s="4" t="s">
@@ -17757,7 +17750,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1">
       <c r="B199" s="14" t="s">
         <v>240</v>
       </c>
@@ -17777,7 +17770,7 @@
         <v>4</v>
       </c>
       <c r="H199" s="9" t="str">
-        <f>IF(ISBLANK(I199),"No Value",IF(I199=0,"Solid",IF(I199=1,"Dotted",IF(I199=2,"Medium-Dashed",IF(I199=3,"LongDashed",IF(I199=4,"LongDashed Dot Dot",IF(I199=6,"Medium-Dashed Dot Dot",IF(I199=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I199" s="12">
@@ -17793,12 +17786,12 @@
         <v>58</v>
       </c>
       <c r="M199" s="27" t="str">
-        <f>IF(ISBLANK(A199),L199, CONCATENATE(L199,"_",A199))</f>
+        <f t="shared" si="22"/>
         <v>storm_sewer_headwall_line</v>
       </c>
       <c r="N199" s="27"/>
       <c r="O199" s="27" t="str">
-        <f>IF(ISBLANK(A199),(CONCATENATE("''Level_Name'' = '",E199,"' AND ''Level'' = '",F199,"' AND ''Color'' = '",G199,"' AND ''Linetype'' = '",H199,"' AND ''LineWt''= '",J199,"'")),(CONCATENATE("''Level_Name'' = '",E199,"' AND ''Level'' = '",F199,"' AND ''Color'' = '",G199,"' AND ''Linetype'' = '",H199,"' AND ''LineWt''= '",J199,"' AND ''RefName'' = '",A199,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_CLVT' AND ''Level'' = '44' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="T199" s="4" t="s">
@@ -17829,7 +17822,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1">
       <c r="B200" s="14" t="s">
         <v>592</v>
       </c>
@@ -17849,7 +17842,7 @@
         <v>4</v>
       </c>
       <c r="H200" s="9" t="str">
-        <f>IF(ISBLANK(I200),"No Value",IF(I200=0,"Solid",IF(I200=1,"Dotted",IF(I200=2,"Medium-Dashed",IF(I200=3,"LongDashed",IF(I200=4,"LongDashed Dot Dot",IF(I200=6,"Medium-Dashed Dot Dot",IF(I200=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I200" s="12">
@@ -17865,12 +17858,12 @@
         <v>183</v>
       </c>
       <c r="M200" s="27" t="str">
-        <f>IF(ISBLANK(A200),L200, CONCATENATE(L200,"_",A200))</f>
+        <f t="shared" si="22"/>
         <v>topographic_survey_area</v>
       </c>
       <c r="N200" s="27"/>
       <c r="O200" s="27" t="str">
-        <f>IF(ISBLANK(A200),(CONCATENATE("''Level_Name'' = '",E200,"' AND ''Level'' = '",F200,"' AND ''Color'' = '",G200,"' AND ''Linetype'' = '",H200,"' AND ''LineWt''= '",J200,"'")),(CONCATENATE("''Level_Name'' = '",E200,"' AND ''Level'' = '",F200,"' AND ''Color'' = '",G200,"' AND ''Linetype'' = '",H200,"' AND ''LineWt''= '",J200,"' AND ''RefName'' = '",A200,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_DTM_EXTR' AND ''Level'' = '51' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="T200" s="4" t="s">
@@ -17901,7 +17894,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="13" t="s">
         <v>591</v>
@@ -17922,7 +17915,7 @@
         <v>4</v>
       </c>
       <c r="H201" s="9" t="str">
-        <f>IF(ISBLANK(I201),"No Value",IF(I201=0,"Solid",IF(I201=1,"Dotted",IF(I201=2,"Medium-Dashed",IF(I201=3,"LongDashed",IF(I201=4,"LongDashed Dot Dot",IF(I201=6,"Medium-Dashed Dot Dot",IF(I201=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I201" s="6">
@@ -17938,12 +17931,12 @@
         <v>581</v>
       </c>
       <c r="M201" s="27" t="str">
-        <f>IF(ISBLANK(A201),L201, CONCATENATE(L201,"_",A201))</f>
+        <f t="shared" si="22"/>
         <v>digital_elevation_model_point</v>
       </c>
       <c r="N201" s="27"/>
       <c r="O201" s="27" t="str">
-        <f>IF(ISBLANK(A201),(CONCATENATE("''Level_Name'' = '",E201,"' AND ''Level'' = '",F201,"' AND ''Color'' = '",G201,"' AND ''Linetype'' = '",H201,"' AND ''LineWt''= '",J201,"'")),(CONCATENATE("''Level_Name'' = '",E201,"' AND ''Level'' = '",F201,"' AND ''Color'' = '",G201,"' AND ''Linetype'' = '",H201,"' AND ''LineWt''= '",J201,"' AND ''RefName'' = '",A201,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_DTM_RAND' AND ''Level'' = '53' AND ''Color'' = '4' AND ''Linetype'' = 'Solid' AND ''LineWt''= '3'</v>
       </c>
       <c r="U201" s="8" t="s">
@@ -17971,7 +17964,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="14" t="s">
         <v>240</v>
@@ -17992,7 +17985,7 @@
         <v>5</v>
       </c>
       <c r="H202" s="9" t="str">
-        <f>IF(ISBLANK(I202),"No Value",IF(I202=0,"Solid",IF(I202=1,"Dotted",IF(I202=2,"Medium-Dashed",IF(I202=3,"LongDashed",IF(I202=4,"LongDashed Dot Dot",IF(I202=6,"Medium-Dashed Dot Dot",IF(I202=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I202" s="6">
@@ -18008,12 +18001,12 @@
         <v>414</v>
       </c>
       <c r="M202" s="27" t="str">
-        <f>IF(ISBLANK(A202),L202, CONCATENATE(L202,"_",A202))</f>
+        <f t="shared" si="22"/>
         <v>undefined_mapping_feature_line</v>
       </c>
       <c r="N202" s="27"/>
       <c r="O202" s="27" t="str">
-        <f>IF(ISBLANK(A202),(CONCATENATE("''Level_Name'' = '",E202,"' AND ''Level'' = '",F202,"' AND ''Color'' = '",G202,"' AND ''Linetype'' = '",H202,"' AND ''LineWt''= '",J202,"'")),(CONCATENATE("''Level_Name'' = '",E202,"' AND ''Level'' = '",F202,"' AND ''Color'' = '",G202,"' AND ''Linetype'' = '",H202,"' AND ''LineWt''= '",J202,"' AND ''RefName'' = '",A202,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="T202" s="4" t="s">
@@ -18044,7 +18037,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1">
       <c r="B203" s="14" t="s">
         <v>240</v>
       </c>
@@ -18064,7 +18057,7 @@
         <v>5</v>
       </c>
       <c r="H203" s="9" t="str">
-        <f>IF(ISBLANK(I203),"No Value",IF(I203=0,"Solid",IF(I203=1,"Dotted",IF(I203=2,"Medium-Dashed",IF(I203=3,"LongDashed",IF(I203=4,"LongDashed Dot Dot",IF(I203=6,"Medium-Dashed Dot Dot",IF(I203=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I203" s="12">
@@ -18080,12 +18073,12 @@
         <v>644</v>
       </c>
       <c r="M203" s="27" t="str">
-        <f>IF(ISBLANK(A203),L203, CONCATENATE(L203,"_",A203))</f>
+        <f t="shared" si="22"/>
         <v>pipeline_line_area</v>
       </c>
       <c r="N203" s="27"/>
       <c r="O203" s="27" t="str">
-        <f>IF(ISBLANK(A203),(CONCATENATE("''Level_Name'' = '",E203,"' AND ''Level'' = '",F203,"' AND ''Color'' = '",G203,"' AND ''Linetype'' = '",H203,"' AND ''LineWt''= '",J203,"'")),(CONCATENATE("''Level_Name'' = '",E203,"' AND ''Level'' = '",F203,"' AND ''Color'' = '",G203,"' AND ''Linetype'' = '",H203,"' AND ''LineWt''= '",J203,"' AND ''RefName'' = '",A203,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_MISC' AND ''Level'' = '16' AND ''Color'' = '5' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="U203" s="8" t="s">
@@ -18113,7 +18106,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1">
       <c r="B204" s="14" t="s">
         <v>240</v>
       </c>
@@ -18133,7 +18126,7 @@
         <v>6</v>
       </c>
       <c r="H204" s="9" t="str">
-        <f>IF(ISBLANK(I204),"No Value",IF(I204=0,"Solid",IF(I204=1,"Dotted",IF(I204=2,"Medium-Dashed",IF(I204=3,"LongDashed",IF(I204=4,"LongDashed Dot Dot",IF(I204=6,"Medium-Dashed Dot Dot",IF(I204=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I204" s="12">
@@ -18149,12 +18142,12 @@
         <v>84</v>
       </c>
       <c r="M204" s="27" t="str">
-        <f>IF(ISBLANK(A204),L204, CONCATENATE(L204,"_",A204))</f>
+        <f t="shared" si="22"/>
         <v>road_guardrail_line</v>
       </c>
       <c r="N204" s="27"/>
       <c r="O204" s="27" t="str">
-        <f>IF(ISBLANK(A204),(CONCATENATE("''Level_Name'' = '",E204,"' AND ''Level'' = '",F204,"' AND ''Color'' = '",G204,"' AND ''Linetype'' = '",H204,"' AND ''LineWt''= '",J204,"'")),(CONCATENATE("''Level_Name'' = '",E204,"' AND ''Level'' = '",F204,"' AND ''Color'' = '",G204,"' AND ''Linetype'' = '",H204,"' AND ''LineWt''= '",J204,"' AND ''RefName'' = '",A204,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_GRDR' AND ''Level'' = '18' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="U204" s="8" t="s">
@@ -18182,7 +18175,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1">
       <c r="B205" s="14" t="s">
         <v>240</v>
       </c>
@@ -18202,7 +18195,7 @@
         <v>6</v>
       </c>
       <c r="H205" s="9" t="str">
-        <f>IF(ISBLANK(I205),"No Value",IF(I205=0,"Solid",IF(I205=1,"Dotted",IF(I205=2,"Medium-Dashed",IF(I205=3,"LongDashed",IF(I205=4,"LongDashed Dot Dot",IF(I205=6,"Medium-Dashed Dot Dot",IF(I205=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I205" s="12">
@@ -18218,12 +18211,12 @@
         <v>84</v>
       </c>
       <c r="M205" s="27" t="str">
-        <f>IF(ISBLANK(A205),L205, CONCATENATE(L205,"_",A205))</f>
+        <f t="shared" si="22"/>
         <v>road_guardrail_line</v>
       </c>
       <c r="N205" s="27"/>
       <c r="O205" s="27" t="str">
-        <f>IF(ISBLANK(A205),(CONCATENATE("''Level_Name'' = '",E205,"' AND ''Level'' = '",F205,"' AND ''Color'' = '",G205,"' AND ''Linetype'' = '",H205,"' AND ''LineWt''= '",J205,"'")),(CONCATENATE("''Level_Name'' = '",E205,"' AND ''Level'' = '",F205,"' AND ''Color'' = '",G205,"' AND ''Linetype'' = '",H205,"' AND ''LineWt''= '",J205,"' AND ''RefName'' = '",A205,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_GRDR' AND ''Level'' = '18' AND ''Color'' = '6' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="T205" s="4" t="s">
@@ -18254,7 +18247,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1">
       <c r="B206" s="14" t="s">
         <v>240</v>
       </c>
@@ -18274,7 +18267,7 @@
         <v>6</v>
       </c>
       <c r="H206" s="9" t="str">
-        <f>IF(ISBLANK(I206),"No Value",IF(I206=0,"Solid",IF(I206=1,"Dotted",IF(I206=2,"Medium-Dashed",IF(I206=3,"LongDashed",IF(I206=4,"LongDashed Dot Dot",IF(I206=6,"Medium-Dashed Dot Dot",IF(I206=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I206" s="12">
@@ -18290,12 +18283,12 @@
         <v>53</v>
       </c>
       <c r="M206" s="27" t="str">
-        <f>IF(ISBLANK(A206),L206, CONCATENATE(L206,"_",A206))</f>
+        <f t="shared" si="22"/>
         <v>fence_line</v>
       </c>
       <c r="N206" s="27"/>
       <c r="O206" s="27" t="str">
-        <f>IF(ISBLANK(A206),(CONCATENATE("''Level_Name'' = '",E206,"' AND ''Level'' = '",F206,"' AND ''Color'' = '",G206,"' AND ''Linetype'' = '",H206,"' AND ''LineWt''= '",J206,"'")),(CONCATENATE("''Level_Name'' = '",E206,"' AND ''Level'' = '",F206,"' AND ''Color'' = '",G206,"' AND ''Linetype'' = '",H206,"' AND ''LineWt''= '",J206,"' AND ''RefName'' = '",A206,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_FENC' AND ''Level'' = '19' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="P206" s="4" t="s">
@@ -18329,7 +18322,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1">
       <c r="B207" s="14" t="s">
         <v>240</v>
       </c>
@@ -18349,7 +18342,7 @@
         <v>6</v>
       </c>
       <c r="H207" s="9" t="str">
-        <f>IF(ISBLANK(I207),"No Value",IF(I207=0,"Solid",IF(I207=1,"Dotted",IF(I207=2,"Medium-Dashed",IF(I207=3,"LongDashed",IF(I207=4,"LongDashed Dot Dot",IF(I207=6,"Medium-Dashed Dot Dot",IF(I207=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I207" s="12">
@@ -18365,12 +18358,12 @@
         <v>53</v>
       </c>
       <c r="M207" s="27" t="str">
-        <f>IF(ISBLANK(A207),L207, CONCATENATE(L207,"_",A207))</f>
+        <f t="shared" si="22"/>
         <v>fence_line</v>
       </c>
       <c r="N207" s="27"/>
       <c r="O207" s="27" t="str">
-        <f>IF(ISBLANK(A207),(CONCATENATE("''Level_Name'' = '",E207,"' AND ''Level'' = '",F207,"' AND ''Color'' = '",G207,"' AND ''Linetype'' = '",H207,"' AND ''LineWt''= '",J207,"'")),(CONCATENATE("''Level_Name'' = '",E207,"' AND ''Level'' = '",F207,"' AND ''Color'' = '",G207,"' AND ''Linetype'' = '",H207,"' AND ''LineWt''= '",J207,"' AND ''RefName'' = '",A207,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_FENC' AND ''Level'' = '19' AND ''Color'' = '6' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="P207" s="4" t="s">
@@ -18407,7 +18400,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1">
       <c r="B208" s="14" t="s">
         <v>240</v>
       </c>
@@ -18427,7 +18420,7 @@
         <v>6</v>
       </c>
       <c r="H208" s="9" t="str">
-        <f>IF(ISBLANK(I208),"No Value",IF(I208=0,"Solid",IF(I208=1,"Dotted",IF(I208=2,"Medium-Dashed",IF(I208=3,"LongDashed",IF(I208=4,"LongDashed Dot Dot",IF(I208=6,"Medium-Dashed Dot Dot",IF(I208=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I208" s="12">
@@ -18443,12 +18436,12 @@
         <v>57</v>
       </c>
       <c r="M208" s="27" t="str">
-        <f>IF(ISBLANK(A208),L208, CONCATENATE(L208,"_",A208))</f>
+        <f t="shared" si="22"/>
         <v>wall_line</v>
       </c>
       <c r="N208" s="27"/>
       <c r="O208" s="27" t="str">
-        <f>IF(ISBLANK(A208),(CONCATENATE("''Level_Name'' = '",E208,"' AND ''Level'' = '",F208,"' AND ''Color'' = '",G208,"' AND ''Linetype'' = '",H208,"' AND ''LineWt''= '",J208,"'")),(CONCATENATE("''Level_Name'' = '",E208,"' AND ''Level'' = '",F208,"' AND ''Color'' = '",G208,"' AND ''Linetype'' = '",H208,"' AND ''LineWt''= '",J208,"' AND ''RefName'' = '",A208,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="P208" s="4" t="s">
@@ -18482,7 +18475,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1">
       <c r="B209" s="14" t="s">
         <v>240</v>
       </c>
@@ -18502,7 +18495,7 @@
         <v>6</v>
       </c>
       <c r="H209" s="9" t="str">
-        <f>IF(ISBLANK(I209),"No Value",IF(I209=0,"Solid",IF(I209=1,"Dotted",IF(I209=2,"Medium-Dashed",IF(I209=3,"LongDashed",IF(I209=4,"LongDashed Dot Dot",IF(I209=6,"Medium-Dashed Dot Dot",IF(I209=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I209" s="12">
@@ -18518,12 +18511,12 @@
         <v>57</v>
       </c>
       <c r="M209" s="27" t="str">
-        <f>IF(ISBLANK(A209),L209, CONCATENATE(L209,"_",A209))</f>
+        <f t="shared" si="22"/>
         <v>wall_line</v>
       </c>
       <c r="N209" s="27"/>
       <c r="O209" s="27" t="str">
-        <f>IF(ISBLANK(A209),(CONCATENATE("''Level_Name'' = '",E209,"' AND ''Level'' = '",F209,"' AND ''Color'' = '",G209,"' AND ''Linetype'' = '",H209,"' AND ''LineWt''= '",J209,"'")),(CONCATENATE("''Level_Name'' = '",E209,"' AND ''Level'' = '",F209,"' AND ''Color'' = '",G209,"' AND ''Linetype'' = '",H209,"' AND ''LineWt''= '",J209,"' AND ''RefName'' = '",A209,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_WALL' AND ''Level'' = '21' AND ''Color'' = '6' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0'</v>
       </c>
       <c r="P209" s="4" t="s">
@@ -18560,7 +18553,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="13" t="s">
         <v>591</v>
@@ -18581,7 +18574,7 @@
         <v>6</v>
       </c>
       <c r="H210" s="9" t="str">
-        <f>IF(ISBLANK(I210),"No Value",IF(I210=0,"Solid",IF(I210=1,"Dotted",IF(I210=2,"Medium-Dashed",IF(I210=3,"LongDashed",IF(I210=4,"LongDashed Dot Dot",IF(I210=6,"Medium-Dashed Dot Dot",IF(I210=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I210" s="6">
@@ -18597,12 +18590,12 @@
         <v>580</v>
       </c>
       <c r="M210" s="27" t="str">
-        <f>IF(ISBLANK(A210),L210, CONCATENATE(L210,"_",A210))</f>
+        <f t="shared" si="22"/>
         <v>breakline</v>
       </c>
       <c r="N210" s="27"/>
       <c r="O210" s="27" t="str">
-        <f>IF(ISBLANK(A210),(CONCATENATE("''Level_Name'' = '",E210,"' AND ''Level'' = '",F210,"' AND ''Color'' = '",G210,"' AND ''Linetype'' = '",H210,"' AND ''LineWt''= '",J210,"'")),(CONCATENATE("''Level_Name'' = '",E210,"' AND ''Level'' = '",F210,"' AND ''Color'' = '",G210,"' AND ''Linetype'' = '",H210,"' AND ''LineWt''= '",J210,"' AND ''RefName'' = '",A210,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_DTM_BRKL' AND ''Level'' = '52' AND ''Color'' = '6' AND ''Linetype'' = 'Solid' AND ''LineWt''= '0'</v>
       </c>
       <c r="U210" s="8" t="s">
@@ -18630,7 +18623,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1">
       <c r="A211" s="21"/>
       <c r="B211" s="14" t="s">
         <v>240</v>
@@ -18651,7 +18644,7 @@
         <v>7</v>
       </c>
       <c r="H211" s="9" t="str">
-        <f>IF(ISBLANK(I211),"No Value",IF(I211=0,"Solid",IF(I211=1,"Dotted",IF(I211=2,"Medium-Dashed",IF(I211=3,"LongDashed",IF(I211=4,"LongDashed Dot Dot",IF(I211=6,"Medium-Dashed Dot Dot",IF(I211=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I211" s="12">
@@ -18667,12 +18660,12 @@
         <v>54</v>
       </c>
       <c r="M211" s="27" t="str">
-        <f>IF(ISBLANK(A211),L211, CONCATENATE(L211,"_",A211))</f>
+        <f t="shared" si="22"/>
         <v>road_centerline</v>
       </c>
       <c r="N211" s="27"/>
       <c r="O211" s="27" t="str">
-        <f>IF(ISBLANK(A211),(CONCATENATE("''Level_Name'' = '",E211,"' AND ''Level'' = '",F211,"' AND ''Color'' = '",G211,"' AND ''Linetype'' = '",H211,"' AND ''LineWt''= '",J211,"'")),(CONCATENATE("''Level_Name'' = '",E211,"' AND ''Level'' = '",F211,"' AND ''Color'' = '",G211,"' AND ''Linetype'' = '",H211,"' AND ''LineWt''= '",J211,"' AND ''RefName'' = '",A211,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '7' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="P211" s="4" t="s">
@@ -18709,7 +18702,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1">
       <c r="B212" s="14" t="s">
         <v>240</v>
       </c>
@@ -18729,7 +18722,7 @@
         <v>7</v>
       </c>
       <c r="H212" s="9" t="str">
-        <f>IF(ISBLANK(I212),"No Value",IF(I212=0,"Solid",IF(I212=1,"Dotted",IF(I212=2,"Medium-Dashed",IF(I212=3,"LongDashed",IF(I212=4,"LongDashed Dot Dot",IF(I212=6,"Medium-Dashed Dot Dot",IF(I212=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Dotted</v>
       </c>
       <c r="I212" s="12">
@@ -18745,12 +18738,12 @@
         <v>54</v>
       </c>
       <c r="M212" s="27" t="str">
-        <f>IF(ISBLANK(A212),L212, CONCATENATE(L212,"_",A212))</f>
+        <f t="shared" si="22"/>
         <v>road_centerline</v>
       </c>
       <c r="N212" s="27"/>
       <c r="O212" s="27" t="str">
-        <f>IF(ISBLANK(A212),(CONCATENATE("''Level_Name'' = '",E212,"' AND ''Level'' = '",F212,"' AND ''Color'' = '",G212,"' AND ''Linetype'' = '",H212,"' AND ''LineWt''= '",J212,"'")),(CONCATENATE("''Level_Name'' = '",E212,"' AND ''Level'' = '",F212,"' AND ''Color'' = '",G212,"' AND ''Linetype'' = '",H212,"' AND ''LineWt''= '",J212,"' AND ''RefName'' = '",A212,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '7' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '1'</v>
       </c>
       <c r="P212" s="8" t="s">
@@ -18789,7 +18782,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1">
       <c r="B213" s="14" t="s">
         <v>240</v>
       </c>
@@ -18809,7 +18802,7 @@
         <v>7</v>
       </c>
       <c r="H213" s="9" t="str">
-        <f>IF(ISBLANK(I213),"No Value",IF(I213=0,"Solid",IF(I213=1,"Dotted",IF(I213=2,"Medium-Dashed",IF(I213=3,"LongDashed",IF(I213=4,"LongDashed Dot Dot",IF(I213=6,"Medium-Dashed Dot Dot",IF(I213=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>LongDashed</v>
       </c>
       <c r="I213" s="12">
@@ -18825,12 +18818,12 @@
         <v>54</v>
       </c>
       <c r="M213" s="27" t="str">
-        <f>IF(ISBLANK(A213),L213, CONCATENATE(L213,"_",A213))</f>
+        <f t="shared" si="22"/>
         <v>road_centerline</v>
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="27" t="str">
-        <f>IF(ISBLANK(A213),(CONCATENATE("''Level_Name'' = '",E213,"' AND ''Level'' = '",F213,"' AND ''Color'' = '",G213,"' AND ''Linetype'' = '",H213,"' AND ''LineWt''= '",J213,"'")),(CONCATENATE("''Level_Name'' = '",E213,"' AND ''Level'' = '",F213,"' AND ''Color'' = '",G213,"' AND ''Linetype'' = '",H213,"' AND ''LineWt''= '",J213,"' AND ''RefName'' = '",A213,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_ROAD_STRI' AND ''Level'' = '23' AND ''Color'' = '7' AND ''Linetype'' = 'LongDashed' AND ''LineWt''= '1'</v>
       </c>
       <c r="P213" s="8" t="s">
@@ -18869,7 +18862,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1">
       <c r="B214" s="14" t="s">
         <v>240</v>
       </c>
@@ -18889,7 +18882,7 @@
         <v>7</v>
       </c>
       <c r="H214" s="9" t="b">
-        <f>IF(ISBLANK(I214),"No Value",IF(I214=0,"Solid",IF(I214=1,"Dotted",IF(I214=2,"Medium-Dashed",IF(I214=3,"LongDashed",IF(I214=4,"LongDashed Dot Dot",IF(I214=6,"Medium-Dashed Dot Dot",IF(I214=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I214" s="12">
@@ -18905,12 +18898,12 @@
         <v>201</v>
       </c>
       <c r="M214" s="27" t="str">
-        <f>IF(ISBLANK(A214),L214, CONCATENATE(L214,"_",A214))</f>
+        <f t="shared" si="22"/>
         <v>pipeline_line</v>
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="27" t="str">
-        <f>IF(ISBLANK(A214),(CONCATENATE("''Level_Name'' = '",E214,"' AND ''Level'' = '",F214,"' AND ''Color'' = '",G214,"' AND ''Linetype'' = '",H214,"' AND ''LineWt''= '",J214,"'")),(CONCATENATE("''Level_Name'' = '",E214,"' AND ''Level'' = '",F214,"' AND ''Color'' = '",G214,"' AND ''Linetype'' = '",H214,"' AND ''LineWt''= '",J214,"' AND ''RefName'' = '",A214,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_PIPE' AND ''Level'' = '28' AND ''Color'' = '7' AND ''Linetype'' = 'FALSE' AND ''LineWt''= '1'</v>
       </c>
       <c r="U214" s="8" t="s">
@@ -18938,7 +18931,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1">
       <c r="A215" s="59"/>
       <c r="B215" s="14" t="s">
         <v>240</v>
@@ -18959,7 +18952,7 @@
         <v>7</v>
       </c>
       <c r="H215" s="9" t="str">
-        <f>IF(ISBLANK(I215),"No Value",IF(I215=0,"Solid",IF(I215=1,"Dotted",IF(I215=2,"Medium-Dashed",IF(I215=3,"LongDashed",IF(I215=4,"LongDashed Dot Dot",IF(I215=6,"Medium-Dashed Dot Dot",IF(I215=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Dotted</v>
       </c>
       <c r="I215" s="9">
@@ -18975,12 +18968,12 @@
         <v>174</v>
       </c>
       <c r="M215" s="27" t="str">
-        <f>IF(ISBLANK(A215),L215, CONCATENATE(L215,"_",A215))</f>
+        <f t="shared" si="22"/>
         <v>surface_water_course_centerline</v>
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="27" t="str">
-        <f>IF(ISBLANK(A215),(CONCATENATE("''Level_Name'' = '",E215,"' AND ''Level'' = '",F215,"' AND ''Color'' = '",G215,"' AND ''Linetype'' = '",H215,"' AND ''LineWt''= '",J215,"'")),(CONCATENATE("''Level_Name'' = '",E215,"' AND ''Level'' = '",F215,"' AND ''Color'' = '",G215,"' AND ''Linetype'' = '",H215,"' AND ''LineWt''= '",J215,"' AND ''RefName'' = '",A215,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_WATR' AND ''Level'' = '41' AND ''Color'' = '7' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '1'</v>
       </c>
       <c r="U215" s="8" t="s">
@@ -19008,7 +19001,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="13" t="s">
         <v>591</v>
@@ -19029,7 +19022,7 @@
         <v>7</v>
       </c>
       <c r="H216" s="9" t="str">
-        <f>IF(ISBLANK(I216),"No Value",IF(I216=0,"Solid",IF(I216=1,"Dotted",IF(I216=2,"Medium-Dashed",IF(I216=3,"LongDashed",IF(I216=4,"LongDashed Dot Dot",IF(I216=6,"Medium-Dashed Dot Dot",IF(I216=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed Dot Dot</v>
       </c>
       <c r="I216" s="6">
@@ -19045,12 +19038,12 @@
         <v>580</v>
       </c>
       <c r="M216" s="27" t="str">
-        <f>IF(ISBLANK(A216),L216, CONCATENATE(L216,"_",A216))</f>
+        <f t="shared" si="22"/>
         <v>breakline</v>
       </c>
       <c r="N216" s="27"/>
       <c r="O216" s="27" t="str">
-        <f>IF(ISBLANK(A216),(CONCATENATE("''Level_Name'' = '",E216,"' AND ''Level'' = '",F216,"' AND ''Color'' = '",G216,"' AND ''Linetype'' = '",H216,"' AND ''LineWt''= '",J216,"'")),(CONCATENATE("''Level_Name'' = '",E216,"' AND ''Level'' = '",F216,"' AND ''Color'' = '",G216,"' AND ''Linetype'' = '",H216,"' AND ''LineWt''= '",J216,"' AND ''RefName'' = '",A216,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_DTM_WATR' AND ''Level'' = '55' AND ''Color'' = '7' AND ''Linetype'' = 'Medium-Dashed Dot Dot' AND ''LineWt''= '2'</v>
       </c>
       <c r="U216" s="8" t="s">
@@ -19078,7 +19071,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1">
       <c r="B217" s="14" t="s">
         <v>240</v>
       </c>
@@ -19098,7 +19091,7 @@
         <v>7</v>
       </c>
       <c r="H217" s="9" t="str">
-        <f>IF(ISBLANK(I217),"No Value",IF(I217=0,"Solid",IF(I217=1,"Dotted",IF(I217=2,"Medium-Dashed",IF(I217=3,"LongDashed",IF(I217=4,"LongDashed Dot Dot",IF(I217=6,"Medium-Dashed Dot Dot",IF(I217=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Dotted</v>
       </c>
       <c r="I217" s="12">
@@ -19114,12 +19107,12 @@
         <v>374</v>
       </c>
       <c r="M217" s="27" t="str">
-        <f>IF(ISBLANK(A217),L217, CONCATENATE(L217,"_",A217))</f>
+        <f t="shared" si="22"/>
         <v>airfield_surface_centerline</v>
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="27" t="str">
-        <f>IF(ISBLANK(A217),(CONCATENATE("''Level_Name'' = '",E217,"' AND ''Level'' = '",F217,"' AND ''Color'' = '",G217,"' AND ''Linetype'' = '",H217,"' AND ''LineWt''= '",J217,"'")),(CONCATENATE("''Level_Name'' = '",E217,"' AND ''Level'' = '",F217,"' AND ''Color'' = '",G217,"' AND ''Linetype'' = '",H217,"' AND ''LineWt''= '",J217,"' AND ''RefName'' = '",A217,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_LV56' AND ''Level'' = '56' AND ''Color'' = '7' AND ''Linetype'' = 'Dotted' AND ''LineWt''= '0-2'</v>
       </c>
       <c r="T217" s="4" t="s">
@@ -19150,7 +19143,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1">
       <c r="B218" s="14" t="s">
         <v>240</v>
       </c>
@@ -19170,7 +19163,7 @@
         <v>7</v>
       </c>
       <c r="H218" s="9" t="str">
-        <f>IF(ISBLANK(I218),"No Value",IF(I218=0,"Solid",IF(I218=1,"Dotted",IF(I218=2,"Medium-Dashed",IF(I218=3,"LongDashed",IF(I218=4,"LongDashed Dot Dot",IF(I218=6,"Medium-Dashed Dot Dot",IF(I218=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I218" s="12">
@@ -19186,12 +19179,12 @@
         <v>374</v>
       </c>
       <c r="M218" s="27" t="str">
-        <f>IF(ISBLANK(A218),L218, CONCATENATE(L218,"_",A218))</f>
+        <f t="shared" si="22"/>
         <v>airfield_surface_centerline</v>
       </c>
       <c r="N218" s="27"/>
       <c r="O218" s="27" t="str">
-        <f>IF(ISBLANK(A218),(CONCATENATE("''Level_Name'' = '",E218,"' AND ''Level'' = '",F218,"' AND ''Color'' = '",G218,"' AND ''Linetype'' = '",H218,"' AND ''LineWt''= '",J218,"'")),(CONCATENATE("''Level_Name'' = '",E218,"' AND ''Level'' = '",F218,"' AND ''Color'' = '",G218,"' AND ''Linetype'' = '",H218,"' AND ''LineWt''= '",J218,"' AND ''RefName'' = '",A218,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_LV56' AND ''Level'' = '56' AND ''Color'' = '7' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''= '0-2'</v>
       </c>
       <c r="T218" s="4" t="s">
@@ -19222,7 +19215,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1">
       <c r="B219" s="14" t="s">
         <v>240</v>
       </c>
@@ -19242,7 +19235,7 @@
         <v>7</v>
       </c>
       <c r="H219" s="9" t="str">
-        <f>IF(ISBLANK(I219),"No Value",IF(I219=0,"Solid",IF(I219=1,"Dotted",IF(I219=2,"Medium-Dashed",IF(I219=3,"LongDashed",IF(I219=4,"LongDashed Dot Dot",IF(I219=6,"Medium-Dashed Dot Dot",IF(I219=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I219" s="12">
@@ -19258,12 +19251,12 @@
         <v>55</v>
       </c>
       <c r="M219" s="27" t="str">
-        <f>IF(ISBLANK(A219),L219, CONCATENATE(L219,"_",A219))</f>
+        <f t="shared" si="22"/>
         <v>airfield_surface_marking_line</v>
       </c>
       <c r="N219" s="27"/>
       <c r="O219" s="27" t="str">
-        <f>IF(ISBLANK(A219),(CONCATENATE("''Level_Name'' = '",E219,"' AND ''Level'' = '",F219,"' AND ''Color'' = '",G219,"' AND ''Linetype'' = '",H219,"' AND ''LineWt''= '",J219,"'")),(CONCATENATE("''Level_Name'' = '",E219,"' AND ''Level'' = '",F219,"' AND ''Color'' = '",G219,"' AND ''Linetype'' = '",H219,"' AND ''LineWt''= '",J219,"' AND ''RefName'' = '",A219,"'")))</f>
+        <f t="shared" si="20"/>
         <v>''Level_Name'' = 'VA_SITE_LV56' AND ''Level'' = '56' AND ''Color'' = '7' AND ''Linetype'' = 'Solid' AND ''LineWt''= '1'</v>
       </c>
       <c r="P219" s="8" t="s">
@@ -19300,7 +19293,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="13" t="s">
         <v>320</v>
@@ -19321,7 +19314,7 @@
         <v>451</v>
       </c>
       <c r="H220" s="9" t="str">
-        <f>IF(ISBLANK(I220),"No Value",IF(I220=0,"Solid",IF(I220=1,"Dotted",IF(I220=2,"Medium-Dashed",IF(I220=3,"LongDashed",IF(I220=4,"LongDashed Dot Dot",IF(I220=6,"Medium-Dashed Dot Dot",IF(I220=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I220" s="6">
@@ -19333,7 +19326,7 @@
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
       <c r="M220" s="27">
-        <f>IF(ISBLANK(A220),L220, CONCATENATE(L220,"_",A220))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N220" s="27"/>
@@ -19373,7 +19366,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="14" t="s">
         <v>240</v>
@@ -19394,7 +19387,7 @@
         <v>558</v>
       </c>
       <c r="H221" s="9" t="b">
-        <f>IF(ISBLANK(I221),"No Value",IF(I221=0,"Solid",IF(I221=1,"Dotted",IF(I221=2,"Medium-Dashed",IF(I221=3,"LongDashed",IF(I221=4,"LongDashed Dot Dot",IF(I221=6,"Medium-Dashed Dot Dot",IF(I221=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I221" s="3" t="s">
@@ -19410,12 +19403,12 @@
         <v>178</v>
       </c>
       <c r="M221" s="27" t="str">
-        <f>IF(ISBLANK(A221),L221, CONCATENATE(L221,"_",A221))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N221" s="27"/>
       <c r="O221" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E221,"' AND'' Level'' ='",F221,"' AND ''Color'' ='",G221,"' AND ''Linetype'' = '",H221,"' AND ''LineWt''='",J221,"'")</f>
+        <f t="shared" ref="O221:O231" si="23">CONCATENATE("''Level_Name'' = '",E221,"' AND'' Level'' ='",F221,"' AND ''Color'' ='",G221,"' AND ''Linetype'' = '",H221,"' AND ''LineWt''='",J221,"'")</f>
         <v>''Level_Name'' = 'VA-TOPO-MAJR-DEPR ' AND'' Level'' ='65' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="P221" s="5"/>
@@ -19450,7 +19443,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="14" t="s">
         <v>240</v>
@@ -19471,7 +19464,7 @@
         <v>558</v>
       </c>
       <c r="H222" s="9" t="b">
-        <f>IF(ISBLANK(I222),"No Value",IF(I222=0,"Solid",IF(I222=1,"Dotted",IF(I222=2,"Medium-Dashed",IF(I222=3,"LongDashed",IF(I222=4,"LongDashed Dot Dot",IF(I222=6,"Medium-Dashed Dot Dot",IF(I222=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I222" s="3" t="s">
@@ -19487,12 +19480,12 @@
         <v>178</v>
       </c>
       <c r="M222" s="27" t="str">
-        <f>IF(ISBLANK(A222),L222, CONCATENATE(L222,"_",A222))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N222" s="27"/>
       <c r="O222" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E222,"' AND'' Level'' ='",F222,"' AND ''Color'' ='",G222,"' AND ''Linetype'' = '",H222,"' AND ''LineWt''='",J222,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MINR-DEPR ' AND'' Level'' ='66' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="P222" s="5"/>
@@ -19527,7 +19520,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="14" t="s">
         <v>240</v>
@@ -19548,7 +19541,7 @@
         <v>558</v>
       </c>
       <c r="H223" s="9" t="b">
-        <f>IF(ISBLANK(I223),"No Value",IF(I223=0,"Solid",IF(I223=1,"Dotted",IF(I223=2,"Medium-Dashed",IF(I223=3,"LongDashed",IF(I223=4,"LongDashed Dot Dot",IF(I223=6,"Medium-Dashed Dot Dot",IF(I223=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I223" s="3" t="s">
@@ -19564,12 +19557,12 @@
         <v>178</v>
       </c>
       <c r="M223" s="27" t="str">
-        <f>IF(ISBLANK(A223),L223, CONCATENATE(L223,"_",A223))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N223" s="27"/>
       <c r="O223" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E223,"' AND'' Level'' ='",F223,"' AND ''Color'' ='",G223,"' AND ''Linetype'' = '",H223,"' AND ''LineWt''='",J223,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MAJR-DEPO ' AND'' Level'' ='69' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="P223" s="5"/>
@@ -19604,7 +19597,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="14" t="s">
         <v>240</v>
@@ -19625,7 +19618,7 @@
         <v>558</v>
       </c>
       <c r="H224" s="9" t="b">
-        <f>IF(ISBLANK(I224),"No Value",IF(I224=0,"Solid",IF(I224=1,"Dotted",IF(I224=2,"Medium-Dashed",IF(I224=3,"LongDashed",IF(I224=4,"LongDashed Dot Dot",IF(I224=6,"Medium-Dashed Dot Dot",IF(I224=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I224" s="3" t="s">
@@ -19641,12 +19634,12 @@
         <v>178</v>
       </c>
       <c r="M224" s="27" t="str">
-        <f>IF(ISBLANK(A224),L224, CONCATENATE(L224,"_",A224))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N224" s="27"/>
       <c r="O224" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E224,"' AND'' Level'' ='",F224,"' AND ''Color'' ='",G224,"' AND ''Linetype'' = '",H224,"' AND ''LineWt''='",J224,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MINR-DEPO ' AND'' Level'' ='70' AND ''Color'' ='0/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="P224" s="5"/>
@@ -19681,7 +19674,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1">
       <c r="A225" s="23"/>
       <c r="B225" s="14" t="s">
         <v>240</v>
@@ -19702,7 +19695,7 @@
         <v>557</v>
       </c>
       <c r="H225" s="9" t="b">
-        <f>IF(ISBLANK(I225),"No Value",IF(I225=0,"Solid",IF(I225=1,"Dotted",IF(I225=2,"Medium-Dashed",IF(I225=3,"LongDashed",IF(I225=4,"LongDashed Dot Dot",IF(I225=6,"Medium-Dashed Dot Dot",IF(I225=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I225" s="3" t="s">
@@ -19718,12 +19711,12 @@
         <v>178</v>
       </c>
       <c r="M225" s="27" t="str">
-        <f>IF(ISBLANK(A225),L225, CONCATENATE(L225,"_",A225))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N225" s="27"/>
       <c r="O225" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E225,"' AND'' Level'' ='",F225,"' AND ''Color'' ='",G225,"' AND ''Linetype'' = '",H225,"' AND ''LineWt''='",J225,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MINR ' AND'' Level'' ='46' AND ''Color'' ='2/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="P225" s="5"/>
@@ -19758,7 +19751,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="14" t="s">
         <v>240</v>
@@ -19779,7 +19772,7 @@
         <v>557</v>
       </c>
       <c r="H226" s="9" t="b">
-        <f>IF(ISBLANK(I226),"No Value",IF(I226=0,"Solid",IF(I226=1,"Dotted",IF(I226=2,"Medium-Dashed",IF(I226=3,"LongDashed",IF(I226=4,"LongDashed Dot Dot",IF(I226=6,"Medium-Dashed Dot Dot",IF(I226=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I226" s="3" t="s">
@@ -19795,12 +19788,12 @@
         <v>178</v>
       </c>
       <c r="M226" s="27" t="str">
-        <f>IF(ISBLANK(A226),L226, CONCATENATE(L226,"_",A226))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N226" s="27"/>
       <c r="O226" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E226,"' AND'' Level'' ='",F226,"' AND ''Color'' ='",G226,"' AND ''Linetype'' = '",H226,"' AND ''LineWt''='",J226,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MINR-OBSC ' AND'' Level'' ='68' AND ''Color'' ='2/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="P226" s="5"/>
@@ -19835,7 +19828,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="14" t="s">
         <v>240</v>
@@ -19856,7 +19849,7 @@
         <v>556</v>
       </c>
       <c r="H227" s="9" t="b">
-        <f>IF(ISBLANK(I227),"No Value",IF(I227=0,"Solid",IF(I227=1,"Dotted",IF(I227=2,"Medium-Dashed",IF(I227=3,"LongDashed",IF(I227=4,"LongDashed Dot Dot",IF(I227=6,"Medium-Dashed Dot Dot",IF(I227=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I227" s="3" t="s">
@@ -19872,12 +19865,12 @@
         <v>178</v>
       </c>
       <c r="M227" s="27" t="str">
-        <f>IF(ISBLANK(A227),L227, CONCATENATE(L227,"_",A227))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N227" s="27"/>
       <c r="O227" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E227,"' AND'' Level'' ='",F227,"' AND ''Color'' ='",G227,"' AND ''Linetype'' = '",H227,"' AND ''LineWt''='",J227,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MAJR ' AND'' Level'' ='45' AND ''Color'' ='3/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="P227" s="5"/>
@@ -19912,7 +19905,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1">
       <c r="A228" s="58"/>
       <c r="B228" s="14" t="s">
         <v>240</v>
@@ -19933,7 +19926,7 @@
         <v>556</v>
       </c>
       <c r="H228" s="9" t="b">
-        <f>IF(ISBLANK(I228),"No Value",IF(I228=0,"Solid",IF(I228=1,"Dotted",IF(I228=2,"Medium-Dashed",IF(I228=3,"LongDashed",IF(I228=4,"LongDashed Dot Dot",IF(I228=6,"Medium-Dashed Dot Dot",IF(I228=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I228" s="3" t="s">
@@ -19949,12 +19942,12 @@
         <v>178</v>
       </c>
       <c r="M228" s="27" t="str">
-        <f>IF(ISBLANK(A228),L228, CONCATENATE(L228,"_",A228))</f>
+        <f t="shared" si="22"/>
         <v>elevation_contour_line</v>
       </c>
       <c r="N228" s="27"/>
       <c r="O228" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E228,"' AND'' Level'' ='",F228,"' AND ''Color'' ='",G228,"' AND ''Linetype'' = '",H228,"' AND ''LineWt''='",J228,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-MAJR-OBSC ' AND'' Level'' ='67' AND ''Color'' ='3/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='2/BL'</v>
       </c>
       <c r="P228" s="5"/>
@@ -19989,7 +19982,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1">
       <c r="A229" s="62"/>
       <c r="B229" s="14" t="s">
         <v>240</v>
@@ -20010,7 +20003,7 @@
         <v>685</v>
       </c>
       <c r="H229" s="9" t="str">
-        <f>IF(ISBLANK(I229),"No Value",IF(I229=0,"Solid",IF(I229=1,"Dotted",IF(I229=2,"Medium-Dashed",IF(I229=3,"LongDashed",IF(I229=4,"LongDashed Dot Dot",IF(I229=6,"Medium-Dashed Dot Dot",IF(I229=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Solid</v>
       </c>
       <c r="I229" s="12">
@@ -20026,12 +20019,12 @@
         <v>57</v>
       </c>
       <c r="M229" s="27" t="str">
-        <f>IF(ISBLANK(A229),L229, CONCATENATE(L229,"_",A229))</f>
+        <f t="shared" si="22"/>
         <v>wall_line</v>
       </c>
       <c r="N229" s="27"/>
       <c r="O229" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E229,"' AND'' Level'' ='",F229,"' AND ''Color'' ='",G229,"' AND ''Linetype'' = '",H229,"' AND ''LineWt''='",J229,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA_SITE_RETA' AND'' Level'' ='20' AND ''Color'' ='4/2' AND ''Linetype'' = 'Solid' AND ''LineWt''='0'</v>
       </c>
       <c r="P229" s="4" t="s">
@@ -20068,7 +20061,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1">
       <c r="A230" s="62"/>
       <c r="B230" s="14" t="s">
         <v>240</v>
@@ -20089,7 +20082,7 @@
         <v>685</v>
       </c>
       <c r="H230" s="9" t="str">
-        <f>IF(ISBLANK(I230),"No Value",IF(I230=0,"Solid",IF(I230=1,"Dotted",IF(I230=2,"Medium-Dashed",IF(I230=3,"LongDashed",IF(I230=4,"LongDashed Dot Dot",IF(I230=6,"Medium-Dashed Dot Dot",IF(I230=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>Medium-Dashed</v>
       </c>
       <c r="I230" s="12">
@@ -20105,12 +20098,12 @@
         <v>57</v>
       </c>
       <c r="M230" s="27" t="str">
-        <f>IF(ISBLANK(A230),L230, CONCATENATE(L230,"_",A230))</f>
+        <f t="shared" si="22"/>
         <v>wall_line</v>
       </c>
       <c r="N230" s="27"/>
       <c r="O230" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E230,"' AND'' Level'' ='",F230,"' AND ''Color'' ='",G230,"' AND ''Linetype'' = '",H230,"' AND ''LineWt''='",J230,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA_SITE_RETA' AND'' Level'' ='20' AND ''Color'' ='4/2' AND ''Linetype'' = 'Medium-Dashed' AND ''LineWt''='0'</v>
       </c>
       <c r="P230" s="4" t="s">
@@ -20147,7 +20140,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1">
       <c r="A231" s="58"/>
       <c r="C231" s="13" t="s">
         <v>366</v>
@@ -20165,7 +20158,7 @@
         <v>562</v>
       </c>
       <c r="H231" s="9" t="b">
-        <f>IF(ISBLANK(I231),"No Value",IF(I231=0,"Solid",IF(I231=1,"Dotted",IF(I231=2,"Medium-Dashed",IF(I231=3,"LongDashed",IF(I231=4,"LongDashed Dot Dot",IF(I231=6,"Medium-Dashed Dot Dot",IF(I231=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I231" s="3" t="s">
@@ -20177,12 +20170,12 @@
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
       <c r="M231" s="27">
-        <f>IF(ISBLANK(A231),L231, CONCATENATE(L231,"_",A231))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N231" s="27"/>
       <c r="O231" s="27" t="str">
-        <f>CONCATENATE("''Level_Name'' = '",E231,"' AND'' Level'' ='",F231,"' AND ''Color'' ='",G231,"' AND ''Linetype'' = '",H231,"' AND ''LineWt''='",J231,"'")</f>
+        <f t="shared" si="23"/>
         <v>''Level_Name'' = 'VA-TOPO-LABL ' AND'' Level'' ='49' AND ''Color'' ='4/BL' AND ''Linetype'' = 'FALSE' AND ''LineWt''='0/BL'</v>
       </c>
       <c r="P231" s="5"/>
@@ -20214,7 +20207,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="14" t="s">
         <v>410</v>
@@ -20233,7 +20226,7 @@
       </c>
       <c r="G232" s="7"/>
       <c r="H232" s="9" t="str">
-        <f>IF(ISBLANK(I232),"No Value",IF(I232=0,"Solid",IF(I232=1,"Dotted",IF(I232=2,"Medium-Dashed",IF(I232=3,"LongDashed",IF(I232=4,"LongDashed Dot Dot",IF(I232=6,"Medium-Dashed Dot Dot",IF(I232=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I232" s="7"/>
@@ -20245,7 +20238,7 @@
         <v>368</v>
       </c>
       <c r="M232" s="27" t="str">
-        <f>IF(ISBLANK(A232),L232, CONCATENATE(L232,"_",A232))</f>
+        <f t="shared" si="22"/>
         <v>tower_point</v>
       </c>
       <c r="N232" s="27"/>
@@ -20278,7 +20271,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1">
       <c r="B233" s="14" t="s">
         <v>239</v>
       </c>
@@ -20296,7 +20289,7 @@
       </c>
       <c r="G233" s="10"/>
       <c r="H233" s="9" t="str">
-        <f>IF(ISBLANK(I233),"No Value",IF(I233=0,"Solid",IF(I233=1,"Dotted",IF(I233=2,"Medium-Dashed",IF(I233=3,"LongDashed",IF(I233=4,"LongDashed Dot Dot",IF(I233=6,"Medium-Dashed Dot Dot",IF(I233=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I233" s="10"/>
@@ -20308,7 +20301,7 @@
         <v>97</v>
       </c>
       <c r="M233" s="27" t="str">
-        <f>IF(ISBLANK(A233),L233, CONCATENATE(L233,"_",A233))</f>
+        <f t="shared" si="22"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N233" s="27"/>
@@ -20341,7 +20334,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1">
       <c r="B234" s="14" t="s">
         <v>239</v>
       </c>
@@ -20359,7 +20352,7 @@
       </c>
       <c r="G234" s="10"/>
       <c r="H234" s="9" t="str">
-        <f>IF(ISBLANK(I234),"No Value",IF(I234=0,"Solid",IF(I234=1,"Dotted",IF(I234=2,"Medium-Dashed",IF(I234=3,"LongDashed",IF(I234=4,"LongDashed Dot Dot",IF(I234=6,"Medium-Dashed Dot Dot",IF(I234=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I234" s="10"/>
@@ -20371,7 +20364,7 @@
         <v>97</v>
       </c>
       <c r="M234" s="27" t="str">
-        <f>IF(ISBLANK(A234),L234, CONCATENATE(L234,"_",A234))</f>
+        <f t="shared" si="22"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N234" s="27"/>
@@ -20404,7 +20397,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1">
       <c r="B235" s="14" t="s">
         <v>239</v>
       </c>
@@ -20422,7 +20415,7 @@
       </c>
       <c r="G235" s="10"/>
       <c r="H235" s="9" t="str">
-        <f>IF(ISBLANK(I235),"No Value",IF(I235=0,"Solid",IF(I235=1,"Dotted",IF(I235=2,"Medium-Dashed",IF(I235=3,"LongDashed",IF(I235=4,"LongDashed Dot Dot",IF(I235=6,"Medium-Dashed Dot Dot",IF(I235=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I235" s="10"/>
@@ -20434,7 +20427,7 @@
         <v>97</v>
       </c>
       <c r="M235" s="27" t="str">
-        <f>IF(ISBLANK(A235),L235, CONCATENATE(L235,"_",A235))</f>
+        <f t="shared" si="22"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N235" s="27"/>
@@ -20467,7 +20460,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1">
       <c r="B236" s="14" t="s">
         <v>239</v>
       </c>
@@ -20485,7 +20478,7 @@
       </c>
       <c r="G236" s="10"/>
       <c r="H236" s="9" t="str">
-        <f>IF(ISBLANK(I236),"No Value",IF(I236=0,"Solid",IF(I236=1,"Dotted",IF(I236=2,"Medium-Dashed",IF(I236=3,"LongDashed",IF(I236=4,"LongDashed Dot Dot",IF(I236=6,"Medium-Dashed Dot Dot",IF(I236=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I236" s="10"/>
@@ -20497,7 +20490,7 @@
         <v>97</v>
       </c>
       <c r="M236" s="27" t="str">
-        <f>IF(ISBLANK(A236),L236, CONCATENATE(L236,"_",A236))</f>
+        <f t="shared" si="22"/>
         <v>airfield_light_point</v>
       </c>
       <c r="N236" s="27"/>
@@ -20530,7 +20523,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1">
       <c r="B237" s="14" t="s">
         <v>433</v>
       </c>
@@ -20545,13 +20538,13 @@
       </c>
       <c r="G237" s="12"/>
       <c r="H237" s="9" t="str">
-        <f>IF(ISBLANK(I237),"No Value",IF(I237=0,"Solid",IF(I237=1,"Dotted",IF(I237=2,"Medium-Dashed",IF(I237=3,"LongDashed",IF(I237=4,"LongDashed Dot Dot",IF(I237=6,"Medium-Dashed Dot Dot",IF(I237=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
       <c r="M237" s="27">
-        <f>IF(ISBLANK(A237),L237, CONCATENATE(L237,"_",A237))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N237" s="27"/>
@@ -20587,7 +20580,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>433</v>
@@ -20604,7 +20597,7 @@
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="9" t="str">
-        <f>IF(ISBLANK(I238),"No Value",IF(I238=0,"Solid",IF(I238=1,"Dotted",IF(I238=2,"Medium-Dashed",IF(I238=3,"LongDashed",IF(I238=4,"LongDashed Dot Dot",IF(I238=6,"Medium-Dashed Dot Dot",IF(I238=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I238" s="3"/>
@@ -20612,7 +20605,7 @@
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
       <c r="M238" s="27">
-        <f>IF(ISBLANK(A238),L238, CONCATENATE(L238,"_",A238))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N238" s="27"/>
@@ -20652,7 +20645,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -20663,13 +20656,13 @@
       </c>
       <c r="G239" s="6"/>
       <c r="H239" s="9" t="str">
-        <f>IF(ISBLANK(I239),"No Value",IF(I239=0,"Solid",IF(I239=1,"Dotted",IF(I239=2,"Medium-Dashed",IF(I239=3,"LongDashed",IF(I239=4,"LongDashed Dot Dot",IF(I239=6,"Medium-Dashed Dot Dot",IF(I239=7,"Solid Medium-Dashed" ))))))))</f>
+        <f t="shared" si="21"/>
         <v>No Value</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="M239" s="27">
-        <f>IF(ISBLANK(A239),L239, CONCATENATE(L239,"_",A239))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N239" s="27"/>
@@ -20705,7 +20698,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -20735,7 +20728,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -20765,7 +20758,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -20777,12 +20770,12 @@
       <c r="I242" s="47"/>
       <c r="J242" s="47"/>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -20794,12 +20787,12 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -20811,7 +20804,7 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -20823,7 +20816,7 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28">
       <c r="A248" s="5"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -20835,12 +20828,12 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28">
       <c r="A249" s="5"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28">
       <c r="A250" s="5"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -20852,7 +20845,7 @@
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28">
       <c r="A251" s="5"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -20864,7 +20857,7 @@
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28">
       <c r="A252" s="5"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
